--- a/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
+++ b/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\Combinado 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CAFBF-C067-48C4-872F-31F98130FF01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C57571-033A-40B2-B88F-183DF5B0BADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="667" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -1568,15 +1568,9 @@
     <t>3) Impuesto diferido</t>
   </si>
   <si>
-    <t>Valor calculado como el 25% de los efectos de ajustes al P&amp;G en 2018 (22% en anios</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>anteriores</t>
-  </si>
-  <si>
     <t>DETALLE DE TRANSACCIONES ENTRE TELCONET Y MEGADATOS</t>
   </si>
   <si>
@@ -1643,12 +1637,6 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t xml:space="preserve">Saldo de US$15 mil, no material, originado por otros ajustes menores y que se </t>
-  </si>
-  <si>
-    <t>liquidarán en el último anio</t>
-  </si>
-  <si>
     <t>INDICADORES FINANCIEROS</t>
   </si>
   <si>
@@ -1790,8 +1778,11 @@
     <t xml:space="preserve">Otros ajustes   </t>
   </si>
   <si>
+    <t>Tasa efectiva de IR</t>
+  </si>
+  <si>
     <r>
-      <t>Cuenta por Pagar relacionadas C/P</t>
+      <t>á Gasto de impuesto a la renta</t>
     </r>
     <r>
       <rPr>
@@ -1805,11 +1796,20 @@
     </r>
   </si>
   <si>
-    <t>Tasa efectiva de IR</t>
+    <t>Valor calculado como el 25% de los efectos de ajustes por ventas de activos fijos y</t>
+  </si>
+  <si>
+    <t>depreciacion</t>
+  </si>
+  <si>
+    <t>Saldo de US$1,7 millones se origina principalmente por no haber calculado impuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en el primer anio (2015) </t>
   </si>
   <si>
     <r>
-      <t>á Gasto de impuesto a la renta</t>
+      <t>Cuenta por Pagar relacionadas L/P</t>
     </r>
     <r>
       <rPr>
@@ -1842,7 +1842,7 @@
     <numFmt numFmtId="175" formatCode="0.0"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2022,6 +2022,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2549,7 +2556,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2813,6 +2819,24 @@
     <xf numFmtId="166" fontId="23" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="25" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2867,23 +2891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3614,20 +3621,20 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="281" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="238" t="s">
-        <v>419</v>
+      <c r="C4" s="298" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="237" t="s">
+        <v>415</v>
       </c>
       <c r="H4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -3640,25 +3647,25 @@
       <c r="E5">
         <v>2014</v>
       </c>
-      <c r="F5" s="238">
+      <c r="F5" s="237">
         <v>0.33329999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I5" t="s">
-        <v>423</v>
-      </c>
-      <c r="J5" s="238" t="s">
+        <v>419</v>
+      </c>
+      <c r="J5" s="237" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3670,7 +3677,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3682,7 +3689,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3694,7 +3701,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3706,7 +3713,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3718,7 +3725,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3730,7 +3737,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3742,7 +3749,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3754,7 +3761,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3766,7 +3773,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3778,7 +3785,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3790,7 +3797,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3813,7 +3820,7 @@
       <c r="E18" s="2">
         <v>1475332</v>
       </c>
-      <c r="G18" s="239">
+      <c r="G18" s="238">
         <f>3922517-2391661</f>
         <v>1530856</v>
       </c>
@@ -3836,40 +3843,40 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D20" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" t="s">
+        <v>422</v>
+      </c>
+      <c r="F20" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" t="s">
         <v>424</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>425</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>426</v>
       </c>
-      <c r="F20" t="s">
+      <c r="J20" t="s">
         <v>427</v>
       </c>
-      <c r="G20" t="s">
+      <c r="K20" t="s">
         <v>428</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" t="s">
         <v>429</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>430</v>
       </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
         <v>431</v>
-      </c>
-      <c r="K20" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" t="s">
-        <v>434</v>
-      </c>
-      <c r="N20" t="s">
-        <v>435</v>
       </c>
       <c r="O20" t="s">
         <v>320</v>
@@ -3877,7 +3884,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3933,57 +3940,57 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +4017,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E3" s="2">
         <f>+'PP&amp;E'!E18</f>
@@ -4019,7 +4026,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E4" s="2">
         <f>+'PP&amp;E'!D18</f>
@@ -4028,7 +4035,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E5" s="2">
         <f>+'PP&amp;E'!C18</f>
@@ -4043,16 +4050,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF81D41A"/>
-  </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,19 +4512,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="9">
-        <v>6462503</v>
+        <v>6462502</v>
       </c>
       <c r="F14" s="9">
         <v>224008</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="3"/>
-        <v>6686511</v>
+        <v>6686510</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="10">
         <f t="shared" si="0"/>
-        <v>6686511</v>
+        <v>6686510</v>
       </c>
       <c r="K14" s="9">
         <v>16875125</v>
@@ -4733,7 +4737,7 @@
       </c>
       <c r="E19" s="19">
         <f>SUM(E8:E18)</f>
-        <v>123816602</v>
+        <v>123816601</v>
       </c>
       <c r="F19" s="19">
         <f>SUM(F8:F18)</f>
@@ -4741,7 +4745,7 @@
       </c>
       <c r="G19" s="19">
         <f>SUM(G8:G18)</f>
-        <v>170391455</v>
+        <v>170391454</v>
       </c>
       <c r="H19" s="19">
         <f>SUM(H8:H18)</f>
@@ -4749,7 +4753,7 @@
       </c>
       <c r="I19" s="19">
         <f>SUM(I8:I18)</f>
-        <v>111768021</v>
+        <v>111768020</v>
       </c>
       <c r="K19" s="19">
         <f>SUM(K8:K18)</f>
@@ -4809,11 +4813,11 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="264" t="s">
+      <c r="A21" s="281" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="264"/>
-      <c r="C21" s="264"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5255,11 +5259,11 @@
         <f t="shared" si="6"/>
         <v>541696</v>
       </c>
-      <c r="H32" s="293">
+      <c r="H32" s="265">
         <f>+AD!G59+AD!G43</f>
         <v>4591727.1851480007</v>
       </c>
-      <c r="I32" s="293">
+      <c r="I32" s="265">
         <f t="shared" si="7"/>
         <v>5133423.1851480007</v>
       </c>
@@ -5417,7 +5421,7 @@
       </c>
       <c r="E35" s="19">
         <f>E34+E19</f>
-        <v>226220009</v>
+        <v>226220008</v>
       </c>
       <c r="F35" s="19">
         <f>F34+F19</f>
@@ -5425,7 +5429,7 @@
       </c>
       <c r="G35" s="19">
         <f>G34+G19</f>
-        <v>308317577</v>
+        <v>308317576</v>
       </c>
       <c r="H35" s="19">
         <f>H34+H19</f>
@@ -5433,7 +5437,7 @@
       </c>
       <c r="I35" s="19">
         <f>I34+I19</f>
-        <v>246778359.2466</v>
+        <v>246778358.2466</v>
       </c>
       <c r="K35" s="19">
         <f>K34+K19</f>
@@ -5737,23 +5741,23 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="296">
+      <c r="E44" s="271">
         <v>673963</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="271">
         <v>30134511</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="265">
         <f>+E44+F44</f>
         <v>30808474</v>
       </c>
-      <c r="H44" s="293">
-        <f>-AD!G13-AD!G31</f>
-        <v>-56429445</v>
-      </c>
-      <c r="I44" s="293">
+      <c r="H44" s="265">
+        <f>-AD!G31</f>
+        <v>-29886240</v>
+      </c>
+      <c r="I44" s="265">
         <f t="shared" si="13"/>
-        <v>-25620971</v>
+        <v>922234</v>
       </c>
       <c r="K44" s="9">
         <v>5069876</v>
@@ -5924,7 +5928,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="E48" s="9">
         <v>4578384</v>
@@ -6063,22 +6067,20 @@
       <c r="S50" s="10"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="9">
-        <v>45106525</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10">
         <f t="shared" si="16"/>
-        <v>45106525</v>
+        <v>0</v>
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="10">
         <f t="shared" si="13"/>
-        <v>45106525</v>
+        <v>0</v>
       </c>
       <c r="K51" s="9">
         <v>0</v>
@@ -6118,7 +6120,7 @@
       </c>
       <c r="E52" s="19">
         <f>SUM(E39:E51)</f>
-        <v>116053649</v>
+        <v>70947124</v>
       </c>
       <c r="F52" s="19">
         <f>SUM(F39:F51)</f>
@@ -6126,15 +6128,15 @@
       </c>
       <c r="G52" s="19">
         <f>SUM(G39:G51)</f>
-        <v>159459184</v>
+        <v>114352659</v>
       </c>
       <c r="H52" s="19">
         <f>SUM(H39:H51)</f>
-        <v>-56429445</v>
+        <v>-29886240</v>
       </c>
       <c r="I52" s="19">
         <f>SUM(I39:I51)</f>
-        <v>103029739</v>
+        <v>84466419</v>
       </c>
       <c r="K52" s="19">
         <f>SUM(K39:K51)</f>
@@ -6364,17 +6366,20 @@
         <v>67</v>
       </c>
       <c r="E59" s="9">
-        <v>0</v>
+        <v>45106525</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="18"/>
+        <v>45106525</v>
+      </c>
+      <c r="H59" s="244">
+        <f>-AD!G13</f>
+        <v>-26543205</v>
+      </c>
       <c r="I59" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>18563320</v>
       </c>
       <c r="K59" s="9">
         <v>0</v>
@@ -6545,7 +6550,7 @@
         <v>6105227</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>62</v>
       </c>
@@ -6639,7 +6644,7 @@
       </c>
       <c r="E65" s="19">
         <f>SUM(E55:E64)</f>
-        <v>21858421</v>
+        <v>66964946</v>
       </c>
       <c r="F65" s="19">
         <f>SUM(F55:F64)</f>
@@ -6647,15 +6652,15 @@
       </c>
       <c r="G65" s="19">
         <f>SUM(G55:G64)</f>
-        <v>25045514</v>
+        <v>70152039</v>
       </c>
       <c r="H65" s="19">
         <f>SUM(H55:H64)</f>
-        <v>0</v>
+        <v>-26543205</v>
       </c>
       <c r="I65" s="19">
         <f>SUM(I55:I64)</f>
-        <v>25045514</v>
+        <v>43608834</v>
       </c>
       <c r="K65" s="19">
         <f>SUM(K55:K64)</f>
@@ -6822,7 +6827,7 @@
         <f>+E69+F69</f>
         <v>40193339</v>
       </c>
-      <c r="H69" s="289"/>
+      <c r="H69" s="270"/>
       <c r="I69" s="10">
         <f>+G69+H69</f>
         <v>40193339</v>
@@ -6838,7 +6843,7 @@
         <f>+K69+L69</f>
         <v>50302664</v>
       </c>
-      <c r="N69" s="289"/>
+      <c r="N69" s="270"/>
       <c r="O69" s="10">
         <f>+M69+N69</f>
         <v>50302664</v>
@@ -6879,7 +6884,7 @@
         <f>+E70+F70</f>
         <v>920</v>
       </c>
-      <c r="H70" s="289"/>
+      <c r="H70" s="270"/>
       <c r="I70" s="10">
         <f>+G70+H70</f>
         <v>920</v>
@@ -6893,7 +6898,7 @@
         <f>+K70+L70</f>
         <v>6115920</v>
       </c>
-      <c r="N70" s="289"/>
+      <c r="N70" s="270"/>
       <c r="O70" s="10">
         <f>+M70+N70</f>
         <v>6115920</v>
@@ -6935,7 +6940,7 @@
         <f>+E71+F71</f>
         <v>8820280</v>
       </c>
-      <c r="H71" s="290"/>
+      <c r="H71" s="271"/>
       <c r="I71" s="10">
         <f>+G71+H71</f>
         <v>8820280</v>
@@ -6951,7 +6956,7 @@
         <f>+K71+L71</f>
         <v>8196190</v>
       </c>
-      <c r="N71" s="290"/>
+      <c r="N71" s="271"/>
       <c r="O71" s="10">
         <f>+M71+N71</f>
         <v>8196190</v>
@@ -6993,7 +6998,7 @@
         <f>+E72+F72</f>
         <v>74798339</v>
       </c>
-      <c r="H72" s="290">
+      <c r="H72" s="271">
         <f>+PAT!I155</f>
         <v>-5109772.7534000017</v>
       </c>
@@ -7012,7 +7017,7 @@
         <f>+K72+L72</f>
         <v>44651966.450000003</v>
       </c>
-      <c r="N72" s="290">
+      <c r="N72" s="271">
         <v>-9763133</v>
       </c>
       <c r="O72" s="10">
@@ -7184,7 +7189,7 @@
     <row r="75" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E75" s="35">
         <f>+E74-E35</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="35">
         <f>+F74-F35</f>
@@ -7192,15 +7197,15 @@
       </c>
       <c r="G75" s="35">
         <f>+G74-G35</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="35">
         <f>+H74-H35</f>
         <v>0</v>
       </c>
-      <c r="I75" s="297">
+      <c r="I75" s="276">
         <f>+I74-I35</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="35">
         <f>+K74-K35</f>
@@ -7277,16 +7282,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF81D41A"/>
-  </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7647,16 +7649,17 @@
         <v>-78565101</v>
       </c>
       <c r="E11" s="10">
-        <v>-27675371</v>
+        <f>-27675371+3484342</f>
+        <v>-24191029</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" ref="F11:F25" si="0">+D11+E11</f>
-        <v>-106240472</v>
+        <v>-102756130</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="24">
         <f t="shared" ref="H11:H28" si="1">+F11+G11</f>
-        <v>-106240472</v>
+        <v>-102756130</v>
       </c>
       <c r="J11" s="24">
         <v>-41266215</v>
@@ -8154,11 +8157,11 @@
       </c>
       <c r="E25" s="6">
         <f>E11</f>
-        <v>-27675371</v>
+        <v>-24191029</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
-        <v>-106240472</v>
+        <v>-102756130</v>
       </c>
       <c r="G25" s="6">
         <f>SUM(G12:G24)</f>
@@ -8166,7 +8169,7 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="1"/>
-        <v>-106240472</v>
+        <v>-102756130</v>
       </c>
       <c r="J25" s="10">
         <f>J11</f>
@@ -8342,11 +8345,11 @@
       </c>
       <c r="E29" s="19">
         <f>+E9+E25+E27+E28</f>
-        <v>20418989</v>
+        <v>23903331</v>
       </c>
       <c r="F29" s="19">
         <f>+F9+F25+F27+F28</f>
-        <v>54100793</v>
+        <v>57585135</v>
       </c>
       <c r="G29" s="19">
         <f>+G9+G25+G27+G28</f>
@@ -8354,7 +8357,7 @@
       </c>
       <c r="H29" s="19">
         <f>+H9+H25+H27+H28</f>
-        <v>57326764</v>
+        <v>60811106</v>
       </c>
       <c r="J29" s="19">
         <f>+J9+J25+J27+J28</f>
@@ -8476,11 +8479,11 @@
       </c>
       <c r="E32" s="19">
         <f>+E29+E31</f>
-        <v>19744604</v>
+        <v>23228946</v>
       </c>
       <c r="F32" s="19">
         <f>+F29+F31</f>
-        <v>51537419</v>
+        <v>55021761</v>
       </c>
       <c r="G32" s="19">
         <f>+G29+G31</f>
@@ -8488,7 +8491,7 @@
       </c>
       <c r="H32" s="19">
         <f>+H29+H31</f>
-        <v>54763390</v>
+        <v>58247732</v>
       </c>
       <c r="J32" s="19">
         <f>+J29+J31</f>
@@ -8556,16 +8559,16 @@
         <v>-4768922</v>
       </c>
       <c r="E34" s="10">
-        <v>0</v>
+        <v>-3484342</v>
       </c>
       <c r="F34" s="10">
         <f>+D34+E34</f>
-        <v>-4768922</v>
+        <v>-8253264</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
         <f>+F34+G34</f>
-        <v>-4768922</v>
+        <v>-8253264</v>
       </c>
       <c r="J34" s="10">
         <v>-3976474</v>
@@ -8750,11 +8753,11 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="265" t="s">
+      <c r="A39" s="282" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="265"/>
-      <c r="C39" s="265"/>
+      <c r="B39" s="282"/>
+      <c r="C39" s="282"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10">
         <v>139500</v>
@@ -8879,22 +8882,22 @@
       <c r="U41" s="44"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="291" t="s">
-        <v>447</v>
-      </c>
-      <c r="D42" s="292">
+      <c r="B42" s="272" t="s">
+        <v>442</v>
+      </c>
+      <c r="D42" s="273">
         <f>-D35/(D32+D34)</f>
         <v>0.29132471772294244</v>
       </c>
-      <c r="E42" s="292">
+      <c r="E42" s="273">
         <f t="shared" ref="E42:H42" si="6">-E35/(E32+E34)</f>
         <v>0.26157146529755676</v>
       </c>
-      <c r="F42" s="292">
+      <c r="F42" s="273">
         <f t="shared" si="6"/>
         <v>0.27876356599614482</v>
       </c>
-      <c r="H42" s="292">
+      <c r="H42" s="273">
         <f t="shared" si="6"/>
         <v>0.23222495336884072</v>
       </c>
@@ -8951,15 +8954,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF81D41A"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -9249,11 +9252,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="266" t="s">
+      <c r="B9" s="283" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="283"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -9533,10 +9536,10 @@
     </row>
     <row r="14" spans="1:27" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="267" t="s">
+      <c r="C14" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="267"/>
+      <c r="D14" s="284"/>
       <c r="E14" s="10">
         <v>0</v>
       </c>
@@ -11508,12 +11511,12 @@
       <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
     </row>
-    <row r="49" spans="2:27" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
-      <c r="C49" s="268" t="s">
+      <c r="C49" s="285" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="268"/>
+      <c r="D49" s="285"/>
       <c r="E49" s="10">
         <v>0</v>
       </c>
@@ -11664,10 +11667,10 @@
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
-      <c r="C52" s="269" t="s">
+      <c r="C52" s="286" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="269"/>
+      <c r="D52" s="286"/>
       <c r="E52" s="10">
         <v>-1606904</v>
       </c>
@@ -12830,12 +12833,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF81D41A"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AMJ115"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12884,1565 +12887,1565 @@
       <c r="A2" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="94">
         <v>2020</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90">
         <v>2019</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="91">
+      <c r="E2" s="91"/>
+      <c r="F2" s="90">
         <v>2017</v>
       </c>
-      <c r="G2" s="93"/>
+      <c r="G2" s="92"/>
       <c r="H2" s="88">
         <v>2016</v>
       </c>
-      <c r="I2" s="94"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="95">
+      <c r="K2" s="94">
         <v>2020</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91">
+      <c r="L2" s="90"/>
+      <c r="M2" s="90">
         <v>2019</v>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="91">
+      <c r="N2" s="91"/>
+      <c r="O2" s="90">
         <v>2017</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94">
+      <c r="P2" s="92"/>
+      <c r="Q2" s="93">
         <v>2016</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
       <c r="G3" s="87"/>
       <c r="H3" s="86"/>
       <c r="I3" s="88"/>
       <c r="J3" s="86"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="99"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="98"/>
       <c r="P3" s="87"/>
       <c r="Q3" s="86"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="87"/>
-      <c r="H4" s="105"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="88"/>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="111"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="110"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="112"/>
+      <c r="Q4" s="111"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="114">
+      <c r="B5" s="113">
         <f>+'BG '!I8</f>
         <v>23111567</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="114">
         <f t="shared" ref="C5:C15" si="0">+D5-B5</f>
         <v>-15471991</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="113">
         <f>+'BG '!O8</f>
         <v>7639576</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="114">
         <f t="shared" ref="E5:E13" si="1">+F5-D5</f>
         <v>-5897014</v>
       </c>
-      <c r="F5" s="116">
+      <c r="F5" s="115">
         <f>'[1]Planilla Final 2017'!R5</f>
         <v>1742562</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" ref="G5:G13" si="2">F5-H5</f>
         <v>-9053595</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="117">
         <v>10796157</v>
       </c>
       <c r="I5" s="88"/>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="119">
+      <c r="K5" s="118">
         <f>+'BG '!I39</f>
         <v>1479636</v>
       </c>
-      <c r="L5" s="115">
+      <c r="L5" s="114">
         <f t="shared" ref="L5:L14" si="3">+K5-M5</f>
         <v>1428860</v>
       </c>
-      <c r="M5" s="119">
+      <c r="M5" s="118">
         <f>+'BG '!O39</f>
         <v>50776</v>
       </c>
-      <c r="N5" s="115">
+      <c r="N5" s="114">
         <f t="shared" ref="N5:N12" si="4">+M5-O5</f>
         <v>-209626</v>
       </c>
-      <c r="O5" s="120">
+      <c r="O5" s="119">
         <f>'[1]Planilla Final 2017'!R24</f>
         <v>260402</v>
       </c>
-      <c r="P5" s="117">
+      <c r="P5" s="116">
         <f t="shared" ref="P5:P12" si="5">+O5-Q5</f>
         <v>61512</v>
       </c>
-      <c r="Q5" s="121">
+      <c r="Q5" s="120">
         <v>198890</v>
       </c>
-      <c r="R5" s="122">
+      <c r="R5" s="121">
         <f>+D5-M5</f>
         <v>7588800</v>
       </c>
-      <c r="S5" s="123"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
     </row>
     <row r="6" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="114">
+      <c r="B6" s="113">
         <f>+'BG '!I9</f>
         <v>3119911</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="114">
         <f t="shared" si="0"/>
         <v>-3107992</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="113">
         <f>+'BG '!O9</f>
         <v>11919</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="114">
         <f t="shared" si="1"/>
         <v>90701</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="115">
         <f>'[1]Planilla Final 2017'!R7</f>
         <v>102620</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="116">
         <f t="shared" si="2"/>
         <v>-5828169</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="117">
         <v>5930789</v>
       </c>
       <c r="I6" s="86"/>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="119">
+      <c r="K6" s="118">
         <f>+'BG '!I40</f>
         <v>2936628</v>
       </c>
-      <c r="L6" s="115">
+      <c r="L6" s="114">
         <f t="shared" si="3"/>
         <v>-2171744</v>
       </c>
-      <c r="M6" s="119">
+      <c r="M6" s="118">
         <f>+'BG '!O40</f>
         <v>5108372</v>
       </c>
-      <c r="N6" s="115">
+      <c r="N6" s="114">
         <f t="shared" si="4"/>
         <v>-8305303</v>
       </c>
-      <c r="O6" s="125">
+      <c r="O6" s="124">
         <f>'[1]Planilla Final 2017'!R25</f>
         <v>13413675</v>
       </c>
-      <c r="P6" s="117">
+      <c r="P6" s="116">
         <f t="shared" si="5"/>
         <v>-4986126</v>
       </c>
-      <c r="Q6" s="112">
+      <c r="Q6" s="111">
         <f>31524342-198890-12925651</f>
         <v>18399801</v>
       </c>
-      <c r="S6" s="126"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="113">
         <f>+'BG '!I10</f>
         <v>0</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="114">
         <f t="shared" si="0"/>
         <v>3358789</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D7" s="113">
         <f>+'BG '!O10</f>
         <v>3358789</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="114">
         <f t="shared" si="1"/>
         <v>-714334</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="115">
         <f>'[1]Planilla Final 2017'!R6</f>
         <v>2644455</v>
       </c>
-      <c r="G7" s="117">
+      <c r="G7" s="116">
         <f t="shared" si="2"/>
         <v>593863</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="117">
         <v>2050592</v>
       </c>
       <c r="I7" s="88"/>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="119">
+      <c r="K7" s="118">
         <f>+'BG '!I41</f>
         <v>6939887</v>
       </c>
-      <c r="L7" s="115">
+      <c r="L7" s="114">
         <f t="shared" si="3"/>
         <v>4455156</v>
       </c>
-      <c r="M7" s="119">
+      <c r="M7" s="118">
         <f>+'BG '!O41</f>
         <v>2484731</v>
       </c>
-      <c r="N7" s="115">
+      <c r="N7" s="114">
         <f t="shared" si="4"/>
         <v>-8974579</v>
       </c>
-      <c r="O7" s="125">
+      <c r="O7" s="124">
         <f>'[1]Planilla Final 2017'!R26</f>
         <v>11459310</v>
       </c>
-      <c r="P7" s="117">
+      <c r="P7" s="116">
         <f t="shared" si="5"/>
         <v>-1466341</v>
       </c>
-      <c r="Q7" s="112">
+      <c r="Q7" s="111">
         <v>12925651</v>
       </c>
-      <c r="S7" s="126"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="114">
+      <c r="B8" s="113">
         <f>+'BG '!I12</f>
         <v>22892112</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="114">
         <f t="shared" si="0"/>
         <v>-10279166</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="113">
         <f>+'BG '!O12</f>
         <v>12612946</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="114">
         <f t="shared" si="1"/>
         <v>2950458</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="115">
         <f>'[1]Planilla Final 2017'!R8</f>
         <v>15563404</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f t="shared" si="2"/>
         <v>1100909</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="117">
         <v>14462495</v>
       </c>
       <c r="I8" s="88"/>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="119">
+      <c r="K8" s="118">
         <f>+'BG '!I43</f>
         <v>29252162</v>
       </c>
-      <c r="L8" s="115">
+      <c r="L8" s="114">
         <f t="shared" si="3"/>
         <v>6180016</v>
       </c>
-      <c r="M8" s="119">
+      <c r="M8" s="118">
         <f>+'BG '!O43</f>
         <v>23072146</v>
       </c>
-      <c r="N8" s="115">
+      <c r="N8" s="114">
         <f t="shared" si="4"/>
         <v>2636101</v>
       </c>
-      <c r="O8" s="125">
+      <c r="O8" s="124">
         <f>'[1]Planilla Final 2017'!R27</f>
         <v>20436045</v>
       </c>
-      <c r="P8" s="117">
+      <c r="P8" s="116">
         <f t="shared" si="5"/>
         <v>1910661</v>
       </c>
-      <c r="Q8" s="112">
+      <c r="Q8" s="111">
         <v>18525384</v>
       </c>
-      <c r="S8" s="126"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="114">
+      <c r="B9" s="113">
         <f>+'BG '!I13</f>
         <v>13871709</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="114">
         <f t="shared" si="0"/>
         <v>12748395</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="113">
         <f>+'BG '!O13</f>
         <v>26620104</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="114">
         <f t="shared" si="1"/>
         <v>-1545107</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="115">
         <f>'[1]Planilla Final 2017'!R9</f>
         <v>25074997</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f t="shared" si="2"/>
         <v>11254398</v>
       </c>
-      <c r="H9" s="118">
+      <c r="H9" s="117">
         <v>13820599</v>
       </c>
       <c r="I9" s="88"/>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="118">
         <f>+'BG '!I44</f>
-        <v>-25620971</v>
-      </c>
-      <c r="L9" s="115">
+        <v>922234</v>
+      </c>
+      <c r="L9" s="114">
         <f t="shared" si="3"/>
-        <v>-30540445</v>
-      </c>
-      <c r="M9" s="119">
+        <v>-3997240</v>
+      </c>
+      <c r="M9" s="118">
         <f>+'BG '!O44</f>
         <v>4919474</v>
       </c>
-      <c r="N9" s="115">
+      <c r="N9" s="114">
         <f t="shared" si="4"/>
         <v>3005845</v>
       </c>
-      <c r="O9" s="125">
+      <c r="O9" s="124">
         <f>'[1]Planilla Final 2017'!R28</f>
         <v>1913629</v>
       </c>
-      <c r="P9" s="117">
+      <c r="P9" s="116">
         <f t="shared" si="5"/>
         <v>1651239</v>
       </c>
-      <c r="Q9" s="112">
+      <c r="Q9" s="111">
         <v>262390</v>
       </c>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="114">
+      <c r="B10" s="113">
         <f>+'BG '!I15</f>
         <v>7057883</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="114">
         <f t="shared" si="0"/>
         <v>-5084041</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="113">
         <f>+'BG '!O15</f>
         <v>1973842</v>
       </c>
-      <c r="E10" s="115">
+      <c r="E10" s="114">
         <f t="shared" si="1"/>
         <v>-849063</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="115">
         <f>'[1]Planilla Final 2017'!R11</f>
         <v>1124779</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="116">
         <f t="shared" si="2"/>
         <v>-685042</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="117">
         <v>1809821</v>
       </c>
       <c r="I10" s="88"/>
-      <c r="J10" s="113" t="s">
+      <c r="J10" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="119">
+      <c r="K10" s="118">
         <f>+'BG '!I46</f>
         <v>14847746</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="114">
         <f t="shared" si="3"/>
         <v>5926500</v>
       </c>
-      <c r="M10" s="119">
+      <c r="M10" s="118">
         <f>+'BG '!O46</f>
         <v>8921246</v>
       </c>
-      <c r="N10" s="115">
+      <c r="N10" s="114">
         <f t="shared" si="4"/>
         <v>4646339</v>
       </c>
-      <c r="O10" s="125">
+      <c r="O10" s="124">
         <f>'[1]Planilla Final 2017'!R29</f>
         <v>4274907</v>
       </c>
-      <c r="P10" s="117">
+      <c r="P10" s="116">
         <f t="shared" si="5"/>
         <v>130512</v>
       </c>
-      <c r="Q10" s="112">
+      <c r="Q10" s="111">
         <v>4144395</v>
       </c>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="113">
         <f>+'BG '!I14</f>
-        <v>6686511</v>
-      </c>
-      <c r="C11" s="115">
+        <v>6686510</v>
+      </c>
+      <c r="C11" s="114">
         <f t="shared" si="0"/>
-        <v>11370537</v>
-      </c>
-      <c r="D11" s="114">
+        <v>11370538</v>
+      </c>
+      <c r="D11" s="113">
         <f>+'BG '!O14</f>
         <v>18057048</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="114">
         <f t="shared" si="1"/>
         <v>-12518600</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="115">
         <f>'[1]Planilla Final 2017'!R10</f>
         <v>5538448</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="116">
         <f t="shared" si="2"/>
         <v>2963608</v>
       </c>
-      <c r="H11" s="118">
+      <c r="H11" s="117">
         <v>2574840</v>
       </c>
       <c r="I11" s="88"/>
-      <c r="J11" s="113" t="s">
+      <c r="J11" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="K11" s="119">
+      <c r="K11" s="118">
         <f>+'BG '!I47</f>
         <v>7311678</v>
       </c>
-      <c r="L11" s="115">
+      <c r="L11" s="114">
         <f t="shared" si="3"/>
         <v>3437587</v>
       </c>
-      <c r="M11" s="119">
+      <c r="M11" s="118">
         <f>+'BG '!O47</f>
         <v>3874091</v>
       </c>
-      <c r="N11" s="115">
+      <c r="N11" s="114">
         <f t="shared" si="4"/>
         <v>185723</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="124">
         <f>'[1]Planilla Final 2017'!R30</f>
         <v>3688368</v>
       </c>
-      <c r="P11" s="117">
+      <c r="P11" s="116">
         <f t="shared" si="5"/>
         <v>-31613</v>
       </c>
-      <c r="Q11" s="112">
+      <c r="Q11" s="111">
         <f>783153+2936828</f>
         <v>3719981</v>
       </c>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="114">
+      <c r="B12" s="113">
         <f>+'BG '!I16</f>
         <v>6241240</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="114">
         <f t="shared" si="0"/>
         <v>-5493976</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="113">
         <f>+'BG '!O16</f>
         <v>747264</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="114">
         <f t="shared" si="1"/>
         <v>-105080</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="115">
         <f>'[1]Planilla Final 2017'!R12</f>
         <v>642184</v>
       </c>
-      <c r="G12" s="117">
+      <c r="G12" s="116">
         <f t="shared" si="2"/>
         <v>-1728719</v>
       </c>
-      <c r="H12" s="118">
+      <c r="H12" s="117">
         <v>2370903</v>
       </c>
       <c r="I12" s="86"/>
-      <c r="J12" s="113" t="s">
+      <c r="J12" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="118">
         <f>+'BG '!I48</f>
         <v>5255127</v>
       </c>
-      <c r="L12" s="115">
+      <c r="L12" s="114">
         <f t="shared" si="3"/>
         <v>3821283</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="118">
         <f>+'BG '!O48</f>
         <v>1433844</v>
       </c>
-      <c r="N12" s="115">
+      <c r="N12" s="114">
         <f t="shared" si="4"/>
         <v>-4702711</v>
       </c>
-      <c r="O12" s="125">
+      <c r="O12" s="124">
         <f>'[1]Planilla Final 2017'!R31+'[1]Planilla Final 2017'!R33</f>
         <v>6136555</v>
       </c>
-      <c r="P12" s="117">
+      <c r="P12" s="116">
         <f t="shared" si="5"/>
         <v>-2446877</v>
       </c>
-      <c r="Q12" s="112">
+      <c r="Q12" s="111">
         <f>4358272+4225160</f>
         <v>8583432</v>
       </c>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="114">
+      <c r="B13" s="113">
         <f>+'BG '!I17</f>
         <v>28373524</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="114">
         <f t="shared" si="0"/>
         <v>221118</v>
       </c>
-      <c r="D13" s="114">
+      <c r="D13" s="113">
         <f>+'BG '!O17</f>
         <v>28594642</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="114">
         <f t="shared" si="1"/>
         <v>-13709615</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="115">
         <f>'[1]Planilla Final 2017'!R13</f>
         <v>14885027</v>
       </c>
-      <c r="G13" s="117">
+      <c r="G13" s="116">
         <f t="shared" si="2"/>
         <v>-4055589</v>
       </c>
-      <c r="H13" s="127">
+      <c r="H13" s="126">
         <v>18940616</v>
       </c>
       <c r="I13" s="88"/>
-      <c r="J13" s="128" t="s">
+      <c r="J13" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="118">
         <f>+'BG '!I50</f>
         <v>1574195</v>
       </c>
-      <c r="L13" s="115">
+      <c r="L13" s="114">
         <f t="shared" si="3"/>
         <v>-645022</v>
       </c>
-      <c r="M13" s="119">
+      <c r="M13" s="118">
         <f>+'BG '!O50</f>
         <v>2219217</v>
       </c>
-      <c r="N13" s="129"/>
-      <c r="O13" s="98">
-        <v>0</v>
-      </c>
-      <c r="P13" s="117">
+      <c r="N13" s="128"/>
+      <c r="O13" s="97">
+        <v>0</v>
+      </c>
+      <c r="P13" s="116">
         <f>+O14-Q13</f>
         <v>184123</v>
       </c>
-      <c r="Q13" s="112">
+      <c r="Q13" s="111">
         <v>4375344</v>
       </c>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="130">
+      <c r="B14" s="129">
         <f>'BG '!I18</f>
         <v>413564</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="114">
         <f t="shared" si="0"/>
         <v>-413564</v>
       </c>
-      <c r="D14" s="131">
+      <c r="D14" s="130">
         <f>'BG '!O18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="133"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="132"/>
       <c r="I14" s="86"/>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="118">
         <f>+'BG '!I49</f>
         <v>13947126</v>
       </c>
-      <c r="L14" s="115">
+      <c r="L14" s="114">
         <f t="shared" si="3"/>
         <v>4193609</v>
       </c>
-      <c r="M14" s="119">
+      <c r="M14" s="118">
         <f>+'BG '!O49</f>
         <v>9753517</v>
       </c>
-      <c r="N14" s="115">
+      <c r="N14" s="114">
         <f>+M14-O14</f>
         <v>5194050</v>
       </c>
-      <c r="O14" s="125">
+      <c r="O14" s="124">
         <f>'[1]Planilla Final 2017'!R32</f>
         <v>4559467</v>
       </c>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
-      <c r="B15" s="130">
-        <v>0</v>
-      </c>
-      <c r="C15" s="115">
+      <c r="A15" s="127"/>
+      <c r="B15" s="129">
+        <v>0</v>
+      </c>
+      <c r="C15" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="131">
-        <v>0</v>
-      </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="133"/>
+      <c r="D15" s="130">
+        <v>0</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="132"/>
       <c r="I15" s="86"/>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="134">
+      <c r="K15" s="133">
         <f>'BG '!I51</f>
-        <v>45106525</v>
-      </c>
-      <c r="L15" s="115"/>
-      <c r="M15" s="134">
+        <v>0</v>
+      </c>
+      <c r="L15" s="114"/>
+      <c r="M15" s="133">
         <f>'BG '!O51</f>
         <v>0</v>
       </c>
-      <c r="N15" s="115"/>
-      <c r="O15" s="125"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="124"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="135">
+      <c r="B16" s="134">
         <f>SUM(B5:B15)</f>
-        <v>111768021</v>
-      </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="135">
+        <v>111768020</v>
+      </c>
+      <c r="C16" s="114"/>
+      <c r="D16" s="134">
         <f>SUM(D5:D15)</f>
         <v>99616130</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="133"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="132"/>
       <c r="I16" s="88"/>
-      <c r="J16" s="136" t="s">
+      <c r="J16" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="114">
+      <c r="K16" s="113">
         <f>SUM(K5:K15)</f>
-        <v>103029739</v>
-      </c>
-      <c r="L16" s="115"/>
-      <c r="M16" s="114">
+        <v>84466419</v>
+      </c>
+      <c r="L16" s="114"/>
+      <c r="M16" s="113">
         <f>SUM(M5:M15)</f>
         <v>61837414</v>
       </c>
-      <c r="N16" s="115"/>
-      <c r="O16" s="137">
+      <c r="N16" s="114"/>
+      <c r="O16" s="136">
         <f>SUM(O5:O14)</f>
         <v>66142358</v>
       </c>
-      <c r="P16" s="117"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
+      <c r="P16" s="116"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
     </row>
     <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="115">
+      <c r="A17" s="112"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="114">
         <f t="shared" ref="E17:E24" si="6">+F17-D19</f>
         <v>2851570</v>
       </c>
-      <c r="F17" s="116">
+      <c r="F17" s="115">
         <f>'[1]Planilla Final 2017'!R15</f>
         <v>3212434</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="116">
         <f t="shared" ref="G17:G24" si="7">F17-H17</f>
         <v>206140</v>
       </c>
-      <c r="H17" s="118">
+      <c r="H17" s="117">
         <v>3006294</v>
       </c>
       <c r="I17" s="86"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="117">
+      <c r="K17" s="113"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="116">
         <f t="shared" ref="P17:P24" si="8">+O19-Q17</f>
         <v>251068</v>
       </c>
-      <c r="Q17" s="112">
+      <c r="Q17" s="111">
         <f>23039030-13615166</f>
         <v>9423864</v>
       </c>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
     </row>
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="115">
+      <c r="B18" s="97"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="114">
         <f t="shared" si="6"/>
         <v>1073025</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="97">
         <f>+'[1]Planilla Final 2017'!R14</f>
         <v>3150764</v>
       </c>
-      <c r="G18" s="117">
+      <c r="G18" s="116">
         <f t="shared" si="7"/>
         <v>3150764</v>
       </c>
-      <c r="H18" s="118">
+      <c r="H18" s="117">
         <v>0</v>
       </c>
       <c r="I18" s="88"/>
-      <c r="J18" s="107" t="s">
+      <c r="J18" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="117">
+      <c r="K18" s="113"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="116">
         <f t="shared" si="8"/>
         <v>-6904650</v>
       </c>
-      <c r="Q18" s="112">
+      <c r="Q18" s="111">
         <v>13615166</v>
       </c>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
     </row>
     <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="114">
+      <c r="B19" s="113">
         <f>+'BG '!I25</f>
         <v>4645673</v>
       </c>
-      <c r="C19" s="115">
+      <c r="C19" s="114">
         <f t="shared" ref="C19:C28" si="9">+D19-B19</f>
         <v>-4284809</v>
       </c>
-      <c r="D19" s="114">
+      <c r="D19" s="113">
         <f>+'BG '!O25</f>
         <v>360864</v>
       </c>
-      <c r="E19" s="115">
+      <c r="E19" s="114">
         <f t="shared" si="6"/>
         <v>66493952</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="115">
         <f>'[1]Planilla Final 2017'!R16</f>
         <v>112886401</v>
       </c>
-      <c r="G19" s="117">
+      <c r="G19" s="116">
         <f t="shared" si="7"/>
         <v>-2499431</v>
       </c>
-      <c r="H19" s="118">
+      <c r="H19" s="117">
         <v>115385832</v>
       </c>
       <c r="I19" s="88"/>
-      <c r="J19" s="140" t="s">
+      <c r="J19" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="K19" s="114">
+      <c r="K19" s="113">
         <f>+'BG '!I55</f>
         <v>1645615</v>
       </c>
-      <c r="L19" s="115">
+      <c r="L19" s="114">
         <f t="shared" ref="L19:L27" si="10">+K19-M19</f>
         <v>-917675</v>
       </c>
-      <c r="M19" s="114">
+      <c r="M19" s="113">
         <f>+'BG '!O55</f>
         <v>2563290</v>
       </c>
-      <c r="N19" s="115">
+      <c r="N19" s="114">
         <f t="shared" ref="N19:N27" si="11">+M19-O19</f>
         <v>-7111642</v>
       </c>
-      <c r="O19" s="141">
+      <c r="O19" s="140">
         <f>'[1]Planilla Final 2017'!R34</f>
         <v>9674932</v>
       </c>
-      <c r="P19" s="117">
+      <c r="P19" s="116">
         <f t="shared" si="8"/>
         <v>-3509537</v>
       </c>
-      <c r="Q19" s="112">
+      <c r="Q19" s="111">
         <v>5713210</v>
       </c>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
     </row>
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="114">
+      <c r="B20" s="113">
         <f>+'BG '!I24</f>
         <v>0</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="114">
         <f t="shared" si="9"/>
         <v>2077739</v>
       </c>
-      <c r="D20" s="114">
+      <c r="D20" s="113">
         <f>+'BG '!O24</f>
         <v>2077739</v>
       </c>
-      <c r="E20" s="115">
+      <c r="E20" s="114">
         <f t="shared" si="6"/>
         <v>76954</v>
       </c>
-      <c r="F20" s="116">
+      <c r="F20" s="115">
         <f>'[1]Planilla Final 2017'!R17</f>
         <v>661755</v>
       </c>
-      <c r="G20" s="117">
+      <c r="G20" s="116">
         <f t="shared" si="7"/>
         <v>-39210</v>
       </c>
-      <c r="H20" s="118">
+      <c r="H20" s="117">
         <v>700965</v>
       </c>
       <c r="I20" s="88"/>
-      <c r="J20" s="140" t="s">
+      <c r="J20" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="114">
+      <c r="K20" s="113">
         <f>+'BG '!I56</f>
         <v>6657895</v>
       </c>
-      <c r="L20" s="115">
+      <c r="L20" s="114">
         <f t="shared" si="10"/>
         <v>6657895</v>
       </c>
-      <c r="M20" s="114">
+      <c r="M20" s="113">
         <f>+'BG '!O56</f>
         <v>0</v>
       </c>
-      <c r="N20" s="115">
+      <c r="N20" s="114">
         <f t="shared" si="11"/>
         <v>-6710516</v>
       </c>
-      <c r="O20" s="141">
+      <c r="O20" s="140">
         <f>'[1]Planilla Final 2017'!R35</f>
         <v>6710516</v>
       </c>
-      <c r="P20" s="117">
+      <c r="P20" s="116">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="112">
+      <c r="Q20" s="111">
         <v>10628878</v>
       </c>
-      <c r="S20" s="142"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="W20" s="143"/>
-      <c r="Y20" s="143"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="W20" s="142"/>
+      <c r="Y20" s="142"/>
     </row>
     <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="114">
+      <c r="B21" s="113">
         <f>+'BG '!I26</f>
         <v>62995647.061452001</v>
       </c>
-      <c r="C21" s="115">
+      <c r="C21" s="114">
         <f t="shared" si="9"/>
         <v>-16603198.061452001</v>
       </c>
-      <c r="D21" s="114">
+      <c r="D21" s="113">
         <f>+'BG '!O26</f>
         <v>46392449</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="114">
         <f t="shared" si="6"/>
         <v>-3411476</v>
       </c>
-      <c r="F21" s="116">
+      <c r="F21" s="115">
         <f>'[1]Planilla Final 2017'!R18</f>
         <v>11276112</v>
       </c>
-      <c r="G21" s="117">
+      <c r="G21" s="116">
         <f t="shared" si="7"/>
         <v>-841341</v>
       </c>
-      <c r="H21" s="118">
+      <c r="H21" s="117">
         <v>12117453</v>
       </c>
       <c r="I21" s="88"/>
-      <c r="J21" s="113" t="s">
+      <c r="J21" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="K21" s="114">
+      <c r="K21" s="113">
         <f>+'BG '!I58</f>
         <v>0</v>
       </c>
-      <c r="L21" s="115">
+      <c r="L21" s="114">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M21" s="114">
+      <c r="M21" s="113">
         <f>+'BG '!O58</f>
         <v>0</v>
       </c>
-      <c r="N21" s="115">
+      <c r="N21" s="114">
         <f t="shared" si="11"/>
         <v>-2203673</v>
       </c>
-      <c r="O21" s="141">
+      <c r="O21" s="140">
         <f>'[1]Planilla Final 2017'!R36</f>
         <v>2203673</v>
       </c>
-      <c r="P21" s="117">
+      <c r="P21" s="116">
         <f t="shared" si="8"/>
         <v>-477887</v>
       </c>
-      <c r="Q21" s="112">
+      <c r="Q21" s="111">
         <f>2766149+27717</f>
         <v>2793866</v>
       </c>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
       <c r="V21" s="88"/>
-      <c r="W21" s="143"/>
+      <c r="W21" s="142"/>
       <c r="X21" s="88"/>
-      <c r="Y21" s="143"/>
+      <c r="Y21" s="142"/>
     </row>
     <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="114">
+      <c r="B22" s="113">
         <f>+'BG '!I27</f>
         <v>545591</v>
       </c>
-      <c r="C22" s="115">
+      <c r="C22" s="114">
         <f t="shared" si="9"/>
         <v>39210</v>
       </c>
-      <c r="D22" s="114">
+      <c r="D22" s="113">
         <f>+'BG '!O27</f>
         <v>584801</v>
       </c>
-      <c r="E22" s="115">
+      <c r="E22" s="114">
         <f t="shared" si="6"/>
         <v>-251355</v>
       </c>
-      <c r="F22" s="116">
+      <c r="F22" s="115">
         <f>'[1]Planilla Final 2017'!R19</f>
         <v>1422229</v>
       </c>
-      <c r="G22" s="117">
+      <c r="G22" s="116">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="118">
+      <c r="H22" s="117">
         <v>1422229</v>
       </c>
       <c r="I22" s="88"/>
-      <c r="J22" s="113" t="s">
+      <c r="J22" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="114">
+      <c r="K22" s="113">
         <f>+'BG '!I59</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="115">
+        <v>18563320</v>
+      </c>
+      <c r="L22" s="114">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="114">
+        <v>18563320</v>
+      </c>
+      <c r="M22" s="113">
         <f>+'BG '!O59</f>
         <v>0</v>
       </c>
-      <c r="N22" s="115">
+      <c r="N22" s="114">
         <f t="shared" si="11"/>
         <v>-10628880</v>
       </c>
-      <c r="O22" s="141">
+      <c r="O22" s="140">
         <f>'[1]Planilla Final 2017'!R37</f>
         <v>10628880</v>
       </c>
-      <c r="P22" s="117">
+      <c r="P22" s="116">
         <f t="shared" si="8"/>
         <v>-610580</v>
       </c>
-      <c r="Q22" s="112">
+      <c r="Q22" s="111">
         <v>5796127</v>
       </c>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
     </row>
     <row r="23" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="114">
+      <c r="B23" s="113">
         <f>+'BG '!I28</f>
         <v>11493173</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="114">
         <f t="shared" si="9"/>
         <v>3194415</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="113">
         <f>+'BG '!O28</f>
         <v>14687588</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="114">
         <f t="shared" si="6"/>
         <v>-35698843</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="115">
         <f>'[1]Planilla Final 2017'!R20</f>
         <v>3318028</v>
       </c>
-      <c r="G23" s="117">
+      <c r="G23" s="116">
         <f t="shared" si="7"/>
         <v>-3227531</v>
       </c>
-      <c r="H23" s="118">
+      <c r="H23" s="117">
         <v>6545559</v>
       </c>
       <c r="I23" s="88"/>
-      <c r="J23" s="113" t="s">
+      <c r="J23" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="114">
+      <c r="K23" s="113">
         <f>+'BG '!I60</f>
         <v>2286986</v>
       </c>
-      <c r="L23" s="115">
+      <c r="L23" s="114">
         <f t="shared" si="10"/>
         <v>-11358852</v>
       </c>
-      <c r="M23" s="114">
+      <c r="M23" s="113">
         <f>+'BG '!O60</f>
         <v>13645838</v>
       </c>
-      <c r="N23" s="115">
+      <c r="N23" s="114">
         <f t="shared" si="11"/>
         <v>11329859</v>
       </c>
-      <c r="O23" s="141">
+      <c r="O23" s="140">
         <f>'[1]Planilla Final 2017'!R38</f>
         <v>2315979</v>
       </c>
-      <c r="P23" s="117">
+      <c r="P23" s="116">
         <f t="shared" si="8"/>
         <v>3116879</v>
       </c>
-      <c r="Q23" s="112">
+      <c r="Q23" s="111">
         <v>17696327</v>
       </c>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
     </row>
     <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="114">
+      <c r="B24" s="113">
         <f>+'BG '!I30</f>
         <v>1836716</v>
       </c>
-      <c r="C24" s="115">
+      <c r="C24" s="114">
         <f t="shared" si="9"/>
         <v>-163132</v>
       </c>
-      <c r="D24" s="114">
+      <c r="D24" s="113">
         <f>+'BG '!O30</f>
         <v>1673584</v>
       </c>
-      <c r="E24" s="115">
+      <c r="E24" s="114">
         <f t="shared" si="6"/>
         <v>4266160</v>
       </c>
-      <c r="F24" s="116">
+      <c r="F24" s="115">
         <f>'[1]Planilla Final 2017'!R21+'[1]Planilla Final 2017'!R22</f>
         <v>4326687</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="116">
         <f t="shared" si="7"/>
         <v>1190535</v>
       </c>
-      <c r="H24" s="118">
+      <c r="H24" s="117">
         <f>106009+3030143</f>
         <v>3136152</v>
       </c>
       <c r="I24" s="88"/>
-      <c r="J24" s="113" t="s">
+      <c r="J24" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="K24" s="114">
+      <c r="K24" s="113">
         <f>+'BG '!I62</f>
         <v>9332567</v>
       </c>
-      <c r="L24" s="115">
+      <c r="L24" s="114">
         <f t="shared" si="10"/>
         <v>-428924</v>
       </c>
-      <c r="M24" s="114">
+      <c r="M24" s="113">
         <f>+'BG '!O62</f>
         <v>9761491</v>
       </c>
-      <c r="N24" s="115">
+      <c r="N24" s="114">
         <f t="shared" si="11"/>
         <v>4575944</v>
       </c>
-      <c r="O24" s="141">
+      <c r="O24" s="140">
         <f>'[1]Planilla Final 2017'!R39</f>
         <v>5185547</v>
       </c>
-      <c r="P24" s="117">
+      <c r="P24" s="116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="112">
+      <c r="Q24" s="111">
         <v>3572443</v>
       </c>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
     </row>
     <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="114">
+      <c r="B25" s="113">
         <f>+'BG '!I31</f>
         <v>42626957</v>
       </c>
-      <c r="C25" s="115">
+      <c r="C25" s="114">
         <f t="shared" si="9"/>
         <v>-3610086</v>
       </c>
-      <c r="D25" s="114">
+      <c r="D25" s="113">
         <f>+'BG '!O31</f>
         <v>39016871</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116">
-        <v>0</v>
-      </c>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115">
+        <v>0</v>
+      </c>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
       <c r="I25" s="88"/>
-      <c r="J25" s="113" t="s">
+      <c r="J25" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="114">
+      <c r="K25" s="113">
         <f>+'BG '!I61</f>
         <v>2580000</v>
       </c>
-      <c r="L25" s="115">
+      <c r="L25" s="114">
         <f t="shared" si="10"/>
         <v>-15983321</v>
       </c>
-      <c r="M25" s="114">
+      <c r="M25" s="113">
         <f>+'BG '!O61</f>
         <v>18563321</v>
       </c>
-      <c r="N25" s="115">
+      <c r="N25" s="114">
         <f t="shared" si="11"/>
         <v>-2249885</v>
       </c>
-      <c r="O25" s="141">
+      <c r="O25" s="140">
         <f>'[1]Planilla Final 2017'!R40</f>
         <v>20813206</v>
       </c>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="112"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="111"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="114">
+      <c r="B26" s="113">
         <f>+'BG '!I33</f>
         <v>1783584</v>
       </c>
-      <c r="C26" s="115">
+      <c r="C26" s="114">
         <f t="shared" si="9"/>
         <v>-1723057</v>
       </c>
-      <c r="D26" s="114">
+      <c r="D26" s="113">
         <f>+'BG '!O33</f>
         <v>60527</v>
       </c>
-      <c r="E26" s="115">
+      <c r="E26" s="114">
         <f>+F26-D28</f>
         <v>-3561499</v>
       </c>
-      <c r="F26" s="144">
-        <v>0</v>
-      </c>
-      <c r="G26" s="117">
+      <c r="F26" s="143">
+        <v>0</v>
+      </c>
+      <c r="G26" s="116">
         <f>F26-H26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="127">
-        <v>0</v>
-      </c>
-      <c r="J26" s="113" t="s">
+      <c r="H26" s="126">
+        <v>0</v>
+      </c>
+      <c r="J26" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="K26" s="114">
+      <c r="K26" s="113">
         <f>+'BG '!I64</f>
         <v>2542451</v>
       </c>
-      <c r="L26" s="115">
+      <c r="L26" s="114">
         <f t="shared" si="10"/>
         <v>-1181748</v>
       </c>
-      <c r="M26" s="114">
+      <c r="M26" s="113">
         <f>+'BG '!O64</f>
         <v>3724199</v>
       </c>
-      <c r="N26" s="115">
+      <c r="N26" s="114">
         <f t="shared" si="11"/>
         <v>151756</v>
       </c>
-      <c r="O26" s="141">
+      <c r="O26" s="140">
         <f>'[1]Planilla Final 2017'!R41</f>
         <v>3572443</v>
       </c>
-      <c r="P26" s="117">
+      <c r="P26" s="116">
         <f>+O27-Q26</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="145">
-        <v>0</v>
-      </c>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
+      <c r="Q26" s="144">
+        <v>0</v>
+      </c>
+      <c r="T26" s="123"/>
+      <c r="U26" s="123"/>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="114">
+      <c r="B27" s="113">
         <f>+'BG '!I29</f>
         <v>3949574</v>
       </c>
-      <c r="C27" s="115">
+      <c r="C27" s="114">
         <f t="shared" si="9"/>
         <v>197533</v>
       </c>
-      <c r="D27" s="114">
+      <c r="D27" s="113">
         <f>+'BG '!O29</f>
         <v>4147107</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="141">
+      <c r="E27" s="128"/>
+      <c r="F27" s="140">
         <f>SUM(F17:F26)</f>
         <v>140254410</v>
       </c>
-      <c r="H27" s="146">
+      <c r="H27" s="145">
         <f>SUM(H17:H26)</f>
         <v>142314484</v>
       </c>
       <c r="I27" s="88"/>
-      <c r="J27" s="113" t="s">
+      <c r="J27" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="114">
+      <c r="K27" s="113">
         <f>+'BG '!I63</f>
         <v>0</v>
       </c>
-      <c r="L27" s="115">
+      <c r="L27" s="114">
         <f t="shared" si="10"/>
         <v>-2580000</v>
       </c>
-      <c r="M27" s="114">
+      <c r="M27" s="113">
         <f>+'BG '!O63</f>
         <v>2580000</v>
       </c>
-      <c r="N27" s="115">
+      <c r="N27" s="114">
         <f t="shared" si="11"/>
         <v>2580000</v>
       </c>
-      <c r="O27" s="147">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="148">
+      <c r="O27" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="147">
         <f>SUM(Q17:Q26)</f>
         <v>69239881</v>
       </c>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
+      <c r="T27" s="123"/>
+      <c r="U27" s="123"/>
     </row>
     <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="149">
+      <c r="B28" s="148">
         <f>+'BG '!I32</f>
         <v>5133423.1851480007</v>
       </c>
-      <c r="C28" s="115">
+      <c r="C28" s="114">
         <f t="shared" si="9"/>
         <v>-1571924.1851480007</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="148">
         <f>+'BG '!O32</f>
         <v>3561499</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="98"/>
-      <c r="J28" s="136" t="s">
+      <c r="E28" s="128"/>
+      <c r="F28" s="97"/>
+      <c r="J28" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="150">
+      <c r="K28" s="149">
         <f>SUM(K19:K27)</f>
-        <v>25045514</v>
-      </c>
-      <c r="L28" s="129"/>
-      <c r="M28" s="144">
+        <v>43608834</v>
+      </c>
+      <c r="L28" s="128"/>
+      <c r="M28" s="143">
         <f>SUM(M19:M27)</f>
         <v>50838139</v>
       </c>
-      <c r="N28" s="129"/>
-      <c r="O28" s="144">
+      <c r="N28" s="128"/>
+      <c r="O28" s="143">
         <f>SUM(O19:O26)</f>
         <v>61105176</v>
       </c>
-      <c r="Q28" s="151" t="e">
+      <c r="Q28" s="150" t="e">
         <f>+#REF!+Q27</f>
         <v>#REF!</v>
       </c>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="114">
+      <c r="B29" s="113">
         <f>SUM(B19:B28)</f>
         <v>135010338.2466</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141">
+      <c r="C29" s="140"/>
+      <c r="D29" s="140">
         <f>SUM(D19:D28)</f>
         <v>112563029</v>
       </c>
-      <c r="E29" s="129"/>
-      <c r="F29" s="98"/>
-      <c r="J29" s="136" t="s">
+      <c r="E29" s="128"/>
+      <c r="F29" s="97"/>
+      <c r="J29" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="150">
+      <c r="K29" s="149">
         <f>+K16+K28</f>
         <v>128075253</v>
       </c>
-      <c r="L29" s="129"/>
-      <c r="M29" s="152">
+      <c r="L29" s="128"/>
+      <c r="M29" s="151">
         <f>+M28+M16</f>
         <v>112675553</v>
       </c>
-      <c r="N29" s="129"/>
-      <c r="O29" s="152">
+      <c r="N29" s="128"/>
+      <c r="O29" s="151">
         <f>+O16+O28</f>
         <v>127247534</v>
       </c>
-      <c r="Q29" s="126"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
+      <c r="Q29" s="125"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
     </row>
     <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="98"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="97"/>
       <c r="I30" s="88"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="154"/>
-      <c r="Q30" s="155"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="153"/>
+      <c r="Q30" s="154"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="114"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="98"/>
-      <c r="J31" s="136" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="97"/>
+      <c r="J31" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="K31" s="114">
+      <c r="K31" s="113">
         <f>+'BG '!I73</f>
         <v>118703105.2466</v>
       </c>
-      <c r="L31" s="129">
+      <c r="L31" s="128">
         <f>K31-M31</f>
         <v>19199498.796599999</v>
       </c>
-      <c r="M31" s="114">
+      <c r="M31" s="113">
         <f>+'BG '!O73</f>
         <v>99503606.450000003</v>
       </c>
-      <c r="N31" s="129">
+      <c r="N31" s="128">
         <f>M31-O31</f>
         <v>19178254.450000003</v>
       </c>
-      <c r="O31" s="116">
+      <c r="O31" s="115">
         <f>'[1]Planilla Final 2017'!R51</f>
         <v>80325352</v>
       </c>
@@ -14450,997 +14453,997 @@
         <f>O31-Q31</f>
         <v>5629205</v>
       </c>
-      <c r="Q31" s="121">
+      <c r="Q31" s="120">
         <f>77632975-2936828</f>
         <v>74696147</v>
       </c>
-      <c r="S31" s="126"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
     </row>
     <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="98"/>
-      <c r="I32" s="156"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="98"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="97"/>
+      <c r="I32" s="155"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="97"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="157">
+      <c r="B33" s="156">
         <f>+B29+B16</f>
-        <v>246778359.2466</v>
-      </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="157">
+        <v>246778358.2466</v>
+      </c>
+      <c r="C33" s="157"/>
+      <c r="D33" s="156">
         <f>+D29+D16</f>
         <v>212179159</v>
       </c>
-      <c r="E33" s="100"/>
-      <c r="F33" s="157" t="e">
+      <c r="E33" s="99"/>
+      <c r="F33" s="156" t="e">
         <f>+F27+#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G33" s="87"/>
-      <c r="H33" s="159" t="e">
+      <c r="H33" s="158" t="e">
         <f>+H27+#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I33" s="88"/>
-      <c r="J33" s="160" t="s">
+      <c r="J33" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="157">
+      <c r="K33" s="156">
         <f>+K31+K29</f>
         <v>246778358.2466</v>
       </c>
-      <c r="L33" s="158"/>
-      <c r="M33" s="157">
+      <c r="L33" s="157"/>
+      <c r="M33" s="156">
         <f>+M31+M29</f>
         <v>212179159.44999999</v>
       </c>
-      <c r="N33" s="100"/>
-      <c r="O33" s="157">
+      <c r="N33" s="99"/>
+      <c r="O33" s="156">
         <f>+O29+O31</f>
         <v>207572886</v>
       </c>
       <c r="P33" s="87"/>
-      <c r="Q33" s="159" t="e">
+      <c r="Q33" s="158" t="e">
         <f>+Q28+Q31</f>
         <v>#REF!</v>
       </c>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
     </row>
     <row r="34" spans="1:21" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="163"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="162"/>
       <c r="I34" s="88"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="164"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="161"/>
-      <c r="T34" s="155"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="160"/>
+      <c r="T34" s="154"/>
     </row>
     <row r="35" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82"/>
-      <c r="F35" s="165"/>
+      <c r="F35" s="164"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="123">
+      <c r="J35" s="154"/>
+      <c r="K35" s="122">
         <f>+K33-B33</f>
-        <v>-1</v>
-      </c>
-      <c r="L35" s="123">
+        <v>0</v>
+      </c>
+      <c r="L35" s="122">
         <f>+L33-C33</f>
         <v>0</v>
       </c>
-      <c r="M35" s="123">
+      <c r="M35" s="122">
         <f>+M33-D33</f>
         <v>0.44999998807907104</v>
       </c>
-      <c r="T35" s="155"/>
+      <c r="T35" s="154"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82"/>
-      <c r="F36" s="155"/>
+      <c r="F36" s="154"/>
       <c r="I36" s="88"/>
-      <c r="J36" s="155"/>
+      <c r="J36" s="154"/>
       <c r="K36" s="82"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="T36" s="155"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="T36" s="154"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="165" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="167"/>
-      <c r="D37" s="168"/>
+      <c r="B37" s="166"/>
+      <c r="D37" s="167"/>
       <c r="E37" s="87"/>
-      <c r="F37" s="155"/>
+      <c r="F37" s="154"/>
       <c r="G37" s="87"/>
       <c r="I37" s="88"/>
-      <c r="J37" s="169" t="s">
+      <c r="J37" s="168" t="s">
         <v>201</v>
       </c>
-      <c r="K37" s="167"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
       <c r="N37" s="87"/>
       <c r="P37" s="87"/>
-      <c r="T37" s="155"/>
+      <c r="T37" s="154"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="170" t="s">
+      <c r="A38" s="169" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="114">
-        <v>0</v>
-      </c>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
+      <c r="B38" s="113">
+        <v>0</v>
+      </c>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="87"/>
-      <c r="F38" s="155"/>
+      <c r="F38" s="154"/>
       <c r="G38" s="87"/>
-      <c r="H38" s="155"/>
+      <c r="H38" s="154"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="170" t="s">
+      <c r="J38" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="K38" s="114">
+      <c r="K38" s="113">
         <f>+ER!H40</f>
         <v>38524005</v>
       </c>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
       <c r="N38" s="87"/>
       <c r="P38" s="87"/>
-      <c r="T38" s="155"/>
+      <c r="T38" s="154"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="149">
-        <v>0</v>
-      </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
+      <c r="B39" s="148">
+        <v>0</v>
+      </c>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
       <c r="E39" s="87"/>
-      <c r="F39" s="155"/>
+      <c r="F39" s="154"/>
       <c r="G39" s="87"/>
-      <c r="J39" s="174" t="s">
+      <c r="J39" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="114">
+      <c r="K39" s="113">
         <f>+PAT!J188</f>
         <v>-8861058</v>
       </c>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
       <c r="N39" s="87"/>
       <c r="P39" s="87"/>
-      <c r="T39" s="155"/>
+      <c r="T39" s="154"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="176" t="s">
+      <c r="A40" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="149">
+      <c r="B40" s="148">
         <f>+B38+B39</f>
         <v>0</v>
       </c>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
       <c r="E40" s="87"/>
-      <c r="F40" s="155"/>
+      <c r="F40" s="154"/>
       <c r="G40" s="87"/>
       <c r="I40" s="88"/>
-      <c r="J40" s="170" t="s">
+      <c r="J40" s="169" t="s">
         <v>206</v>
       </c>
-      <c r="K40" s="177">
+      <c r="K40" s="176">
         <f>+PAT!J187</f>
         <v>-1881937</v>
       </c>
-      <c r="L40" s="175"/>
-      <c r="M40" s="175"/>
+      <c r="L40" s="174"/>
+      <c r="M40" s="174"/>
       <c r="N40" s="87"/>
       <c r="P40" s="87"/>
-      <c r="T40" s="155"/>
+      <c r="T40" s="154"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="178">
+      <c r="B41" s="177">
         <f>+B40-C25</f>
         <v>3610086</v>
       </c>
-      <c r="F41" s="155"/>
+      <c r="F41" s="154"/>
       <c r="I41" s="88"/>
-      <c r="J41" s="170" t="s">
+      <c r="J41" s="169" t="s">
         <v>207</v>
       </c>
-      <c r="K41" s="114">
-        <v>0</v>
-      </c>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="O41" s="155"/>
-      <c r="Q41" s="155"/>
-      <c r="T41" s="155"/>
+      <c r="K41" s="113">
+        <v>0</v>
+      </c>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="O41" s="154"/>
+      <c r="Q41" s="154"/>
+      <c r="T41" s="154"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="165" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="167"/>
+      <c r="B42" s="166"/>
       <c r="E42" s="87"/>
-      <c r="F42" s="155"/>
+      <c r="F42" s="154"/>
       <c r="G42" s="87"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="179" t="s">
+      <c r="J42" s="178" t="s">
         <v>205</v>
       </c>
-      <c r="K42" s="150">
+      <c r="K42" s="149">
         <f>SUM(K38:K41)</f>
         <v>27781010</v>
       </c>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
       <c r="N42" s="87"/>
       <c r="P42" s="87"/>
-      <c r="T42" s="155"/>
+      <c r="T42" s="154"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="170" t="s">
+      <c r="A43" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="114">
+      <c r="B43" s="113">
         <f>+EFE!O12</f>
         <v>28468856</v>
       </c>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="87"/>
-      <c r="F43" s="155"/>
+      <c r="F43" s="154"/>
       <c r="G43" s="87"/>
-      <c r="H43" s="155"/>
+      <c r="H43" s="154"/>
       <c r="I43" s="88"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="173">
+      <c r="J43" s="174"/>
+      <c r="K43" s="172">
         <f>+K42-L31</f>
         <v>8581511.2034000009</v>
       </c>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
       <c r="N43" s="87"/>
       <c r="P43" s="87"/>
-      <c r="T43" s="155"/>
+      <c r="T43" s="154"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="149">
+      <c r="B44" s="148">
         <f>-B43+C21</f>
         <v>-45072054.061452001</v>
       </c>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
       <c r="E44" s="87"/>
-      <c r="F44" s="155"/>
+      <c r="F44" s="154"/>
       <c r="G44" s="87"/>
-      <c r="J44" s="180" t="s">
+      <c r="J44" s="179" t="s">
         <v>203</v>
       </c>
-      <c r="K44" s="135">
+      <c r="K44" s="134">
         <f>+K38</f>
         <v>38524005</v>
       </c>
-      <c r="L44" s="175"/>
-      <c r="M44" s="175"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="174"/>
       <c r="N44" s="87"/>
       <c r="P44" s="87"/>
-      <c r="T44" s="155"/>
+      <c r="T44" s="154"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="176" t="s">
+      <c r="A45" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="149">
+      <c r="B45" s="148">
         <f>+B43+B44</f>
         <v>-16603198.061452001</v>
       </c>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
       <c r="E45" s="87"/>
-      <c r="F45" s="155"/>
+      <c r="F45" s="154"/>
       <c r="G45" s="87"/>
       <c r="I45" s="88"/>
-      <c r="J45" s="181" t="s">
+      <c r="J45" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="149">
+      <c r="K45" s="148">
         <f>B69</f>
         <v>11609963</v>
       </c>
-      <c r="L45" s="175"/>
-      <c r="M45" s="175"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
       <c r="N45" s="87"/>
       <c r="P45" s="87"/>
-      <c r="T45" s="155"/>
+      <c r="T45" s="154"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="173">
+      <c r="B46" s="172">
         <f>+B45-C21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="173"/>
-      <c r="D46" s="173"/>
-      <c r="F46" s="165"/>
-      <c r="J46" s="182" t="s">
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="F46" s="164"/>
+      <c r="J46" s="181" t="s">
         <v>211</v>
       </c>
-      <c r="K46" s="183">
+      <c r="K46" s="182">
         <f>+K44+K45</f>
         <v>50133968</v>
       </c>
-      <c r="L46" s="175"/>
-      <c r="M46" s="175"/>
-      <c r="T46" s="155"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="174"/>
+      <c r="T46" s="154"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="166" t="s">
+      <c r="A47" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="167"/>
+      <c r="B47" s="166"/>
       <c r="E47" s="87"/>
-      <c r="F47" s="155"/>
+      <c r="F47" s="154"/>
       <c r="G47" s="87"/>
       <c r="I47" s="88"/>
-      <c r="K47" s="184">
+      <c r="K47" s="183">
         <f>+K46-EFE!O8</f>
         <v>17002114</v>
       </c>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
       <c r="N47" s="87"/>
       <c r="P47" s="87"/>
-      <c r="T47" s="155"/>
+      <c r="T47" s="154"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="170" t="s">
+      <c r="A48" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="114">
+      <c r="B48" s="113">
         <f>+EFE!O14</f>
         <v>2050134</v>
       </c>
-      <c r="C48" s="171"/>
-      <c r="D48" s="171"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="87"/>
-      <c r="F48" s="155"/>
+      <c r="F48" s="154"/>
       <c r="G48" s="87"/>
-      <c r="H48" s="155"/>
+      <c r="H48" s="154"/>
       <c r="I48" s="88"/>
-      <c r="K48" s="184"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
+      <c r="K48" s="183"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
       <c r="N48" s="87"/>
       <c r="P48" s="87"/>
-      <c r="T48" s="155"/>
+      <c r="T48" s="154"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="114">
+      <c r="B49" s="113">
         <f>-4323860-1619556</f>
         <v>-5943416</v>
       </c>
-      <c r="C49" s="173"/>
-      <c r="D49" s="173"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="87"/>
-      <c r="F49" s="155"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="87"/>
-      <c r="J49" s="175"/>
+      <c r="J49" s="174"/>
       <c r="K49" s="82"/>
-      <c r="L49" s="175"/>
-      <c r="M49" s="175"/>
+      <c r="L49" s="174"/>
+      <c r="M49" s="174"/>
       <c r="N49" s="87"/>
       <c r="P49" s="87"/>
-      <c r="T49" s="155"/>
+      <c r="T49" s="154"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="172" t="s">
+      <c r="A50" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="149">
+      <c r="B50" s="148">
         <f>+C27-B48-B49</f>
         <v>4090815</v>
       </c>
-      <c r="C50" s="173"/>
-      <c r="D50" s="173"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
       <c r="E50" s="87"/>
-      <c r="F50" s="155"/>
+      <c r="F50" s="154"/>
       <c r="G50" s="87"/>
-      <c r="J50" s="175"/>
+      <c r="J50" s="174"/>
       <c r="K50" s="82"/>
-      <c r="L50" s="175"/>
-      <c r="M50" s="175"/>
+      <c r="L50" s="174"/>
+      <c r="M50" s="174"/>
       <c r="N50" s="87"/>
       <c r="P50" s="87"/>
-      <c r="T50" s="155"/>
+      <c r="T50" s="154"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="176" t="s">
+      <c r="A51" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="149">
+      <c r="B51" s="148">
         <f>SUM(B48:B50)</f>
         <v>197533</v>
       </c>
-      <c r="C51" s="173"/>
-      <c r="D51" s="173"/>
+      <c r="C51" s="172"/>
+      <c r="D51" s="172"/>
       <c r="E51" s="87"/>
-      <c r="F51" s="155"/>
+      <c r="F51" s="154"/>
       <c r="G51" s="87"/>
       <c r="I51" s="88"/>
-      <c r="J51" s="175"/>
+      <c r="J51" s="174"/>
       <c r="K51" s="82"/>
-      <c r="L51" s="175"/>
-      <c r="M51" s="175"/>
+      <c r="L51" s="174"/>
+      <c r="M51" s="174"/>
       <c r="N51" s="87"/>
       <c r="P51" s="87"/>
-      <c r="T51" s="155"/>
+      <c r="T51" s="154"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="173">
+      <c r="B52" s="172">
         <f>+C27-B51</f>
         <v>0</v>
       </c>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="172"/>
       <c r="E52" s="87"/>
-      <c r="F52" s="155"/>
+      <c r="F52" s="154"/>
       <c r="G52" s="87"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="175"/>
+      <c r="J52" s="174"/>
       <c r="K52" s="82"/>
-      <c r="L52" s="175"/>
-      <c r="M52" s="175"/>
+      <c r="L52" s="174"/>
+      <c r="M52" s="174"/>
       <c r="N52" s="87"/>
       <c r="P52" s="87"/>
-      <c r="T52" s="155"/>
+      <c r="T52" s="154"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="167"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="173"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="172"/>
       <c r="E53" s="87"/>
-      <c r="F53" s="155"/>
+      <c r="F53" s="154"/>
       <c r="G53" s="87"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="175"/>
+      <c r="J53" s="174"/>
       <c r="K53" s="82"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="175"/>
+      <c r="L53" s="174"/>
+      <c r="M53" s="174"/>
       <c r="N53" s="87"/>
       <c r="P53" s="87"/>
-      <c r="T53" s="155"/>
+      <c r="T53" s="154"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="170" t="s">
+      <c r="A54" s="169" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="114">
+      <c r="B54" s="113">
         <f>+EFE!O19</f>
         <v>3304648</v>
       </c>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
+      <c r="C54" s="172"/>
+      <c r="D54" s="172"/>
       <c r="I54" s="88"/>
-      <c r="J54" s="175"/>
+      <c r="J54" s="174"/>
       <c r="K54" s="82"/>
-      <c r="L54" s="175"/>
-      <c r="M54" s="175"/>
-      <c r="T54" s="155"/>
+      <c r="L54" s="174"/>
+      <c r="M54" s="174"/>
+      <c r="T54" s="154"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="172" t="s">
+      <c r="A55" s="171" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="149">
+      <c r="B55" s="148">
         <f>-B54+L24</f>
         <v>-3733572</v>
       </c>
-      <c r="C55" s="173"/>
-      <c r="D55" s="173"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="172"/>
       <c r="E55" s="87"/>
-      <c r="F55" s="155"/>
+      <c r="F55" s="154"/>
       <c r="G55" s="87"/>
       <c r="I55" s="88"/>
-      <c r="J55" s="175"/>
+      <c r="J55" s="174"/>
       <c r="K55" s="82"/>
-      <c r="L55" s="175"/>
-      <c r="M55" s="175"/>
+      <c r="L55" s="174"/>
+      <c r="M55" s="174"/>
       <c r="N55" s="87"/>
       <c r="P55" s="87"/>
-      <c r="T55" s="155"/>
+      <c r="T55" s="154"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="176" t="s">
+      <c r="A56" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="149">
+      <c r="B56" s="148">
         <f>+B54+B55</f>
         <v>-428924</v>
       </c>
-      <c r="C56" s="173"/>
-      <c r="D56" s="173"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="172"/>
       <c r="E56" s="87"/>
-      <c r="F56" s="155"/>
+      <c r="F56" s="154"/>
       <c r="G56" s="87"/>
       <c r="I56" s="88"/>
-      <c r="J56" s="175"/>
+      <c r="J56" s="174"/>
       <c r="K56" s="82"/>
-      <c r="L56" s="175"/>
-      <c r="M56" s="175"/>
+      <c r="L56" s="174"/>
+      <c r="M56" s="174"/>
       <c r="N56" s="87"/>
       <c r="P56" s="87"/>
-      <c r="T56" s="155"/>
+      <c r="T56" s="154"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="173">
+      <c r="B57" s="172">
         <f>+B56-L24</f>
         <v>0</v>
       </c>
-      <c r="C57" s="173"/>
-      <c r="D57" s="173"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="172"/>
       <c r="E57" s="87"/>
-      <c r="F57" s="155"/>
+      <c r="F57" s="154"/>
       <c r="G57" s="87"/>
       <c r="I57" s="88"/>
-      <c r="J57" s="175"/>
+      <c r="J57" s="174"/>
       <c r="K57" s="82"/>
-      <c r="L57" s="175"/>
-      <c r="M57" s="175"/>
+      <c r="L57" s="174"/>
+      <c r="M57" s="174"/>
       <c r="N57" s="87"/>
       <c r="P57" s="87"/>
-      <c r="T57" s="155"/>
+      <c r="T57" s="154"/>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="166" t="s">
+      <c r="A58" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="167"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="173"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
       <c r="E58" s="87"/>
-      <c r="F58" s="155"/>
+      <c r="F58" s="154"/>
       <c r="G58" s="87"/>
       <c r="I58" s="88"/>
-      <c r="J58" s="175"/>
+      <c r="J58" s="174"/>
       <c r="K58" s="82"/>
-      <c r="L58" s="175"/>
-      <c r="M58" s="175"/>
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
       <c r="N58" s="87"/>
       <c r="P58" s="87"/>
-      <c r="T58" s="155"/>
+      <c r="T58" s="154"/>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="170" t="s">
+      <c r="A59" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="114">
+      <c r="B59" s="113">
         <f>+EFE!O16</f>
         <v>2724375</v>
       </c>
-      <c r="C59" s="173"/>
-      <c r="D59" s="173"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="172"/>
       <c r="E59" s="87"/>
-      <c r="F59" s="155"/>
+      <c r="F59" s="154"/>
       <c r="G59" s="87"/>
-      <c r="J59" s="175"/>
+      <c r="J59" s="174"/>
       <c r="K59" s="82"/>
-      <c r="L59" s="175"/>
-      <c r="M59" s="175"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
       <c r="N59" s="87"/>
       <c r="P59" s="87"/>
-      <c r="T59" s="155"/>
+      <c r="T59" s="154"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="172" t="s">
+      <c r="A60" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="149">
+      <c r="B60" s="148">
         <f>-B59+C23</f>
         <v>470040</v>
       </c>
-      <c r="C60" s="173"/>
-      <c r="D60" s="173"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="87"/>
-      <c r="F60" s="155"/>
+      <c r="F60" s="154"/>
       <c r="G60" s="87"/>
-      <c r="J60" s="175"/>
+      <c r="J60" s="174"/>
       <c r="K60" s="82"/>
-      <c r="L60" s="175"/>
-      <c r="M60" s="175"/>
+      <c r="L60" s="174"/>
+      <c r="M60" s="174"/>
       <c r="N60" s="87"/>
       <c r="P60" s="87"/>
-      <c r="T60" s="155"/>
+      <c r="T60" s="154"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="176" t="s">
+      <c r="A61" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="B61" s="149">
+      <c r="B61" s="148">
         <f>+B59+B60</f>
         <v>3194415</v>
       </c>
-      <c r="C61" s="173"/>
-      <c r="D61" s="173"/>
-      <c r="F61" s="175"/>
-      <c r="J61" s="175"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="172"/>
+      <c r="F61" s="174"/>
+      <c r="J61" s="174"/>
       <c r="K61" s="82"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="175"/>
-      <c r="T61" s="155"/>
+      <c r="L61" s="174"/>
+      <c r="M61" s="174"/>
+      <c r="T61" s="154"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="173">
+      <c r="B62" s="172">
         <f>+B61-C23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="173"/>
-      <c r="D62" s="173"/>
-      <c r="F62" s="175"/>
-      <c r="J62" s="175"/>
+      <c r="C62" s="172"/>
+      <c r="D62" s="172"/>
+      <c r="F62" s="174"/>
+      <c r="J62" s="174"/>
       <c r="K62" s="82"/>
-      <c r="L62" s="175"/>
-      <c r="M62" s="175"/>
-      <c r="T62" s="155"/>
+      <c r="L62" s="174"/>
+      <c r="M62" s="174"/>
+      <c r="T62" s="154"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="166" t="s">
+      <c r="A63" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="B63" s="167"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="173"/>
-      <c r="J63" s="175"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="172"/>
+      <c r="J63" s="174"/>
       <c r="K63" s="82"/>
-      <c r="L63" s="175"/>
-      <c r="M63" s="175"/>
-      <c r="T63" s="155"/>
+      <c r="L63" s="174"/>
+      <c r="M63" s="174"/>
+      <c r="T63" s="154"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="170" t="s">
+      <c r="A64" s="169" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="114">
+      <c r="B64" s="113">
         <f>+EFE!O13</f>
         <v>39210</v>
       </c>
-      <c r="C64" s="173"/>
-      <c r="D64" s="173"/>
-      <c r="J64" s="175"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
+      <c r="J64" s="174"/>
       <c r="K64" s="82"/>
-      <c r="L64" s="175"/>
-      <c r="M64" s="175"/>
-      <c r="T64" s="155"/>
+      <c r="L64" s="174"/>
+      <c r="M64" s="174"/>
+      <c r="T64" s="154"/>
     </row>
     <row r="65" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="172" t="s">
+      <c r="A65" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="149">
+      <c r="B65" s="148">
         <f>-B64+C22</f>
         <v>0</v>
       </c>
-      <c r="C65" s="173"/>
-      <c r="D65" s="173"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="172"/>
       <c r="K65" s="82"/>
-      <c r="T65" s="155"/>
+      <c r="T65" s="154"/>
     </row>
     <row r="66" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="176" t="s">
+      <c r="A66" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="149">
+      <c r="B66" s="148">
         <f>+B64+B65</f>
         <v>39210</v>
       </c>
-      <c r="C66" s="173"/>
-      <c r="D66" s="173"/>
+      <c r="C66" s="172"/>
+      <c r="D66" s="172"/>
       <c r="K66" s="82"/>
-      <c r="T66" s="155"/>
+      <c r="T66" s="154"/>
     </row>
     <row r="67" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="173">
+      <c r="B67" s="172">
         <f>+B66-C22</f>
         <v>0</v>
       </c>
-      <c r="C67" s="173"/>
-      <c r="D67" s="173"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="172"/>
       <c r="K67" s="82"/>
-      <c r="T67" s="155"/>
+      <c r="T67" s="154"/>
     </row>
     <row r="68" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="166" t="s">
+      <c r="A68" s="165" t="s">
         <v>223</v>
       </c>
-      <c r="B68" s="135"/>
-      <c r="C68" s="173"/>
-      <c r="D68" s="173"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
       <c r="K68" s="82"/>
-      <c r="T68" s="155"/>
+      <c r="T68" s="154"/>
     </row>
     <row r="69" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="172" t="s">
+      <c r="A69" s="171" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="114">
+      <c r="B69" s="113">
         <f>-ER!H35</f>
         <v>11609963</v>
       </c>
       <c r="K69" s="82"/>
-      <c r="T69" s="155"/>
+      <c r="T69" s="154"/>
     </row>
     <row r="70" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="172" t="s">
+      <c r="A70" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="114">
+      <c r="B70" s="113">
         <f>+EFE!O43</f>
         <v>-2091119</v>
       </c>
       <c r="K70" s="82"/>
-      <c r="T70" s="155"/>
+      <c r="T70" s="154"/>
     </row>
     <row r="71" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="172" t="s">
+      <c r="A71" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="185">
+      <c r="B71" s="184">
         <f>-B69-B70+L10</f>
         <v>-3592344</v>
       </c>
       <c r="K71" s="82"/>
-      <c r="T71" s="155"/>
+      <c r="T71" s="154"/>
     </row>
     <row r="72" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="176" t="s">
+      <c r="A72" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="185">
+      <c r="B72" s="184">
         <f>SUM(B69:B71)</f>
         <v>5926500</v>
       </c>
       <c r="K72" s="82"/>
-      <c r="T72" s="155"/>
+      <c r="T72" s="154"/>
     </row>
     <row r="73" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="126">
+      <c r="B73" s="125">
         <f>+B72-L10</f>
         <v>0</v>
       </c>
       <c r="K73" s="82"/>
-      <c r="T73" s="155"/>
+      <c r="T73" s="154"/>
     </row>
     <row r="74" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="166" t="s">
+      <c r="A74" s="165" t="s">
         <v>227</v>
       </c>
-      <c r="B74" s="135"/>
+      <c r="B74" s="134"/>
       <c r="K74" s="82"/>
-      <c r="T74" s="155"/>
+      <c r="T74" s="154"/>
     </row>
     <row r="75" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="172" t="s">
+      <c r="A75" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="114">
+      <c r="B75" s="113">
         <f>-ER!H34</f>
-        <v>4768922</v>
+        <v>8253264</v>
       </c>
       <c r="K75" s="82"/>
-      <c r="T75" s="155"/>
+      <c r="T75" s="154"/>
     </row>
     <row r="76" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="172" t="s">
+      <c r="A76" s="171" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="131">
+      <c r="B76" s="130">
         <f>+EFE!O44</f>
         <v>-2840226</v>
       </c>
       <c r="K76" s="82"/>
-      <c r="T76" s="155"/>
+      <c r="T76" s="154"/>
     </row>
     <row r="77" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="172" t="s">
+      <c r="A77" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="B77" s="185">
+      <c r="B77" s="184">
         <f>-B75-B76+L14</f>
-        <v>2264913</v>
+        <v>-1219429</v>
       </c>
       <c r="K77" s="82"/>
-      <c r="T77" s="155"/>
+      <c r="T77" s="154"/>
     </row>
     <row r="78" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="176" t="s">
+      <c r="A78" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B78" s="185">
+      <c r="B78" s="184">
         <f>SUM(B75:B77)</f>
         <v>4193609</v>
       </c>
       <c r="K78" s="82"/>
-      <c r="T78" s="155"/>
+      <c r="T78" s="154"/>
     </row>
     <row r="79" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="126">
+      <c r="B79" s="125">
         <f>+B78-L14</f>
         <v>0</v>
       </c>
       <c r="K79" s="82"/>
-      <c r="T79" s="155"/>
+      <c r="T79" s="154"/>
     </row>
     <row r="80" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="166" t="s">
+      <c r="A80" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="B80" s="167"/>
+      <c r="B80" s="166"/>
       <c r="K80" s="82"/>
-      <c r="T80" s="155"/>
+      <c r="T80" s="154"/>
     </row>
     <row r="81" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="170" t="s">
+      <c r="A81" s="169" t="s">
         <v>231</v>
       </c>
-      <c r="B81" s="114">
+      <c r="B81" s="113">
         <f>+EFE!O10</f>
         <v>300302</v>
       </c>
       <c r="K81" s="82"/>
-      <c r="T81" s="155"/>
+      <c r="T81" s="154"/>
     </row>
     <row r="82" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="172" t="s">
+      <c r="A82" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="149">
+      <c r="B82" s="148">
         <f>-B81+C8</f>
         <v>-10579468</v>
       </c>
       <c r="K82" s="82"/>
-      <c r="T82" s="155"/>
+      <c r="T82" s="154"/>
     </row>
     <row r="83" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="176" t="s">
+      <c r="A83" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B83" s="149">
+      <c r="B83" s="148">
         <f>+B81+B82</f>
         <v>-10279166</v>
       </c>
       <c r="K83" s="82"/>
-      <c r="T83" s="155"/>
+      <c r="T83" s="154"/>
     </row>
     <row r="84" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="173">
+      <c r="B84" s="172">
         <f>+B83-C8</f>
         <v>0</v>
       </c>
       <c r="K84" s="82"/>
-      <c r="T84" s="155"/>
+      <c r="T84" s="154"/>
     </row>
     <row r="85" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="B85" s="167"/>
+      <c r="B85" s="166"/>
       <c r="K85" s="82"/>
-      <c r="T85" s="155"/>
+      <c r="T85" s="154"/>
     </row>
     <row r="86" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="170" t="s">
+      <c r="A86" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="B86" s="114">
+      <c r="B86" s="113">
         <f>+EFE!O22</f>
         <v>-73587</v>
       </c>
       <c r="K86" s="82"/>
-      <c r="T86" s="155"/>
+      <c r="T86" s="154"/>
     </row>
     <row r="87" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="B87" s="149">
+      <c r="B87" s="148">
         <f>-B86+C28</f>
         <v>-1498337.1851480007</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="176" t="s">
+      <c r="A88" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="149">
+      <c r="B88" s="148">
         <f>+B86+B87</f>
         <v>-1571924.1851480007</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="184">
+      <c r="B89" s="183">
         <f>+B88-C28</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="166" t="s">
+      <c r="A90" s="165" t="s">
         <v>235</v>
       </c>
-      <c r="B90" s="167"/>
+      <c r="B90" s="166"/>
     </row>
     <row r="91" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="170" t="s">
+      <c r="A91" s="169" t="s">
         <v>236</v>
       </c>
-      <c r="B91" s="114"/>
+      <c r="B91" s="113"/>
     </row>
     <row r="92" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="170" t="s">
+      <c r="A92" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="B92" s="114">
+      <c r="B92" s="113">
         <f>-B49</f>
         <v>5943416</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="172" t="s">
+      <c r="A93" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="149">
+      <c r="B93" s="148">
         <f>+L13+L26-B92</f>
         <v>-7770186</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="176" t="s">
+      <c r="A94" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="B94" s="149">
+      <c r="B94" s="148">
         <f>SUM(B91:B93)</f>
         <v>-1826770</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="184">
+      <c r="B95" s="183">
         <f>+B94-L13-L26</f>
         <v>0</v>
       </c>
@@ -15551,7 +15554,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="185" t="s">
         <v>240</v>
       </c>
       <c r="C7" s="50"/>
@@ -15941,51 +15944,51 @@
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
-      <c r="F24" s="253">
+      <c r="F24" s="252">
         <f>SUM(F21:F23)</f>
         <v>37143362</v>
       </c>
-      <c r="G24" s="253">
+      <c r="G24" s="252">
         <f>SUM(G21:G23)</f>
         <v>13159302</v>
       </c>
-      <c r="H24" s="255">
+      <c r="H24" s="254">
         <f>SUM(H21:H23)</f>
         <v>50302664</v>
       </c>
-      <c r="I24" s="253">
+      <c r="I24" s="252">
         <f>SUM(I21:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="253">
+      <c r="J24" s="252">
         <f>SUM(J21:J23)</f>
         <v>50302664</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
-      <c r="F25" s="254">
+      <c r="F25" s="253">
         <v>-21629181</v>
       </c>
-      <c r="G25" s="254"/>
+      <c r="G25" s="253"/>
       <c r="H25" s="2">
         <f>+F25+G25</f>
         <v>-21629181</v>
       </c>
-      <c r="I25" s="254"/>
-      <c r="J25" s="254">
+      <c r="I25" s="253"/>
+      <c r="J25" s="253">
         <f t="shared" ref="J25:J26" si="2">+H25+I25</f>
         <v>-21629181</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
@@ -16013,23 +16016,23 @@
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="187">
+      <c r="F27" s="186">
         <f>SUM(F24:F26)</f>
         <v>21629181</v>
       </c>
-      <c r="G27" s="187">
+      <c r="G27" s="186">
         <f>SUM(G24:G26)</f>
         <v>18564158</v>
       </c>
-      <c r="H27" s="187">
+      <c r="H27" s="186">
         <f>SUM(H24:H26)</f>
         <v>40193339</v>
       </c>
-      <c r="I27" s="187">
+      <c r="I27" s="186">
         <f>SUM(I24:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="187">
+      <c r="J27" s="186">
         <f>SUM(J24:J26)</f>
         <v>40193339</v>
       </c>
@@ -16046,7 +16049,7 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="187" t="s">
         <v>258</v>
       </c>
       <c r="C29" s="57"/>
@@ -16213,12 +16216,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="270" t="s">
+      <c r="B37" s="287" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="270"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="287"/>
       <c r="F37" s="24">
         <v>-705016</v>
       </c>
@@ -16236,12 +16239,12 @@
       </c>
     </row>
     <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="271" t="s">
+      <c r="B38" s="288" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="271"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="288"/>
       <c r="F38" s="6">
         <f>+F36+F37</f>
         <v>920</v>
@@ -16260,12 +16263,12 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="271" t="s">
+      <c r="B39" s="288" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="271"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="6">
         <f>SUM(F38:F38)</f>
         <v>920</v>
@@ -16288,12 +16291,12 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="271" t="s">
+      <c r="B40" s="288" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
+      <c r="C40" s="288"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="288"/>
       <c r="F40" s="10">
         <v>6115000</v>
       </c>
@@ -16315,30 +16318,30 @@
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
-      <c r="F41" s="253">
+      <c r="F41" s="252">
         <f>+F39+F40</f>
         <v>6115920</v>
       </c>
-      <c r="G41" s="253">
+      <c r="G41" s="252">
         <f>+G39+G40</f>
         <v>0</v>
       </c>
-      <c r="H41" s="255">
+      <c r="H41" s="254">
         <f>+H39+H40</f>
         <v>6115920</v>
       </c>
-      <c r="I41" s="253">
+      <c r="I41" s="252">
         <f>+I39+I40</f>
         <v>0</v>
       </c>
-      <c r="J41" s="253">
+      <c r="J41" s="252">
         <f>+J39+J40</f>
         <v>6115920</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
@@ -16364,11 +16367,11 @@
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
-      <c r="F43" s="187">
+      <c r="F43" s="186">
         <f>SUM(F41:F42)</f>
         <v>920</v>
       </c>
-      <c r="G43" s="187">
+      <c r="G43" s="186">
         <f>SUM(G41:G42)</f>
         <v>0</v>
       </c>
@@ -16397,7 +16400,7 @@
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="187" t="s">
         <v>264</v>
       </c>
       <c r="C45" s="57"/>
@@ -16585,7 +16588,7 @@
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="189">
+      <c r="G53" s="188">
         <v>379372</v>
       </c>
       <c r="H53" s="10">
@@ -16786,14 +16789,14 @@
       <c r="F61" s="10">
         <v>0</v>
       </c>
-      <c r="G61" s="256">
+      <c r="G61" s="255">
         <v>709264</v>
       </c>
       <c r="H61" s="10">
         <f>+F61+G61</f>
         <v>709264</v>
       </c>
-      <c r="I61" s="200"/>
+      <c r="I61" s="199"/>
       <c r="J61" s="10">
         <f>+H61+I61</f>
         <v>709264</v>
@@ -16807,23 +16810,23 @@
       <c r="C62" s="57"/>
       <c r="D62" s="57"/>
       <c r="E62" s="57"/>
-      <c r="F62" s="187">
+      <c r="F62" s="186">
         <f>SUM(F60:F61)</f>
         <v>6135362</v>
       </c>
-      <c r="G62" s="187">
+      <c r="G62" s="186">
         <f>SUM(G60:G61)</f>
         <v>2635685</v>
       </c>
-      <c r="H62" s="187">
+      <c r="H62" s="186">
         <f>SUM(H60:H61)</f>
         <v>8771047</v>
       </c>
-      <c r="I62" s="187">
+      <c r="I62" s="186">
         <f>SUM(I60:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="187">
+      <c r="J62" s="186">
         <f>SUM(J60:J61)</f>
         <v>8771047</v>
       </c>
@@ -16841,7 +16844,7 @@
       <c r="J63" s="18"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="188" t="s">
+      <c r="B64" s="187" t="s">
         <v>272</v>
       </c>
       <c r="C64" s="57"/>
@@ -16898,7 +16901,7 @@
         <f t="shared" si="5"/>
         <v>49233</v>
       </c>
-      <c r="I66" s="190"/>
+      <c r="I66" s="189"/>
       <c r="J66" s="19">
         <f t="shared" si="6"/>
         <v>49233</v>
@@ -16923,7 +16926,7 @@
         <f t="shared" si="5"/>
         <v>49233</v>
       </c>
-      <c r="I67" s="190"/>
+      <c r="I67" s="189"/>
       <c r="J67" s="19">
         <f t="shared" si="6"/>
         <v>49233</v>
@@ -16948,7 +16951,7 @@
         <f t="shared" si="5"/>
         <v>49233</v>
       </c>
-      <c r="I68" s="190"/>
+      <c r="I68" s="189"/>
       <c r="J68" s="19">
         <f t="shared" si="6"/>
         <v>49233</v>
@@ -16998,7 +17001,7 @@
         <f t="shared" si="5"/>
         <v>49233</v>
       </c>
-      <c r="I70" s="190"/>
+      <c r="I70" s="189"/>
       <c r="J70" s="19">
         <f t="shared" si="6"/>
         <v>49233</v>
@@ -17011,52 +17014,52 @@
       <c r="C71" s="57"/>
       <c r="D71" s="57"/>
       <c r="E71" s="57"/>
-      <c r="F71" s="258">
+      <c r="F71" s="257">
         <f>SUM(F70:F70)</f>
         <v>34797</v>
       </c>
-      <c r="G71" s="258">
+      <c r="G71" s="257">
         <f>SUM(G70:G70)</f>
         <v>14436</v>
       </c>
-      <c r="H71" s="258">
+      <c r="H71" s="257">
         <f>SUM(H70:H70)</f>
         <v>49233</v>
       </c>
-      <c r="I71" s="258">
+      <c r="I71" s="257">
         <f>SUM(I70:I70)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="258">
+      <c r="J71" s="257">
         <f>SUM(J70:J70)</f>
         <v>49233</v>
       </c>
       <c r="K71" s="32"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="191" t="s">
+      <c r="B72" s="190" t="s">
         <v>275</v>
       </c>
-      <c r="C72" s="192"/>
-      <c r="D72" s="192"/>
-      <c r="E72" s="192"/>
-      <c r="F72" s="193">
+      <c r="C72" s="191"/>
+      <c r="D72" s="191"/>
+      <c r="E72" s="191"/>
+      <c r="F72" s="192">
         <f>+F62+F71</f>
         <v>6170159</v>
       </c>
-      <c r="G72" s="193">
+      <c r="G72" s="192">
         <f t="shared" ref="G72:H72" si="8">+G62+G71</f>
         <v>2650121</v>
       </c>
-      <c r="H72" s="193">
+      <c r="H72" s="192">
         <f t="shared" si="8"/>
         <v>8820280</v>
       </c>
-      <c r="I72" s="193">
+      <c r="I72" s="192">
         <f>+I60+I70</f>
         <v>0</v>
       </c>
-      <c r="J72" s="193">
+      <c r="J72" s="192">
         <f>+J62+J71</f>
         <v>8820280</v>
       </c>
@@ -17076,7 +17079,7 @@
       <c r="J73" s="18"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="188" t="s">
+      <c r="B74" s="187" t="s">
         <v>276</v>
       </c>
       <c r="C74" s="57"/>
@@ -17133,7 +17136,7 @@
         <f t="shared" si="9"/>
         <v>312246</v>
       </c>
-      <c r="I76" s="190"/>
+      <c r="I76" s="189"/>
       <c r="J76" s="19">
         <f t="shared" si="10"/>
         <v>312246</v>
@@ -17158,7 +17161,7 @@
         <f t="shared" si="9"/>
         <v>312246</v>
       </c>
-      <c r="I77" s="190"/>
+      <c r="I77" s="189"/>
       <c r="J77" s="19">
         <f t="shared" si="10"/>
         <v>312246</v>
@@ -17183,7 +17186,7 @@
         <f t="shared" si="9"/>
         <v>312246</v>
       </c>
-      <c r="I78" s="190"/>
+      <c r="I78" s="189"/>
       <c r="J78" s="19">
         <f t="shared" si="10"/>
         <v>312246</v>
@@ -17246,23 +17249,23 @@
       <c r="C81" s="57"/>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
-      <c r="F81" s="258">
+      <c r="F81" s="257">
         <f>SUM(F80:F80)</f>
         <v>227072</v>
       </c>
-      <c r="G81" s="258">
+      <c r="G81" s="257">
         <f>SUM(G80:G80)</f>
         <v>85174</v>
       </c>
-      <c r="H81" s="258">
+      <c r="H81" s="257">
         <f>SUM(H80:H80)</f>
         <v>312246</v>
       </c>
-      <c r="I81" s="258">
+      <c r="I81" s="257">
         <f>SUM(I80:I80)</f>
         <v>0</v>
       </c>
-      <c r="J81" s="258">
+      <c r="J81" s="257">
         <f>SUM(J80:J80)</f>
         <v>312246</v>
       </c>
@@ -17280,7 +17283,7 @@
       <c r="J82" s="18"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="188" t="s">
+      <c r="B83" s="187" t="s">
         <v>279</v>
       </c>
       <c r="C83" s="57"/>
@@ -17337,7 +17340,7 @@
         <f t="shared" si="12"/>
         <v>-3227346</v>
       </c>
-      <c r="I85" s="190"/>
+      <c r="I85" s="189"/>
       <c r="J85" s="19">
         <f>+H85+I85</f>
         <v>-3227346</v>
@@ -17362,7 +17365,7 @@
         <f t="shared" si="12"/>
         <v>-3227346</v>
       </c>
-      <c r="I86" s="190"/>
+      <c r="I86" s="189"/>
       <c r="J86" s="19">
         <f>+H86+I86</f>
         <v>-3227346</v>
@@ -17412,7 +17415,7 @@
         <f t="shared" si="12"/>
         <v>-3227346</v>
       </c>
-      <c r="I88" s="190"/>
+      <c r="I88" s="189"/>
       <c r="J88" s="19">
         <f>+H88+I88</f>
         <v>-3227346</v>
@@ -17453,23 +17456,23 @@
       <c r="C90" s="57"/>
       <c r="D90" s="57"/>
       <c r="E90" s="57"/>
-      <c r="F90" s="258">
+      <c r="F90" s="257">
         <f>SUM(F89:F89)</f>
         <v>-3202431</v>
       </c>
-      <c r="G90" s="258">
+      <c r="G90" s="257">
         <f>SUM(G89:G89)</f>
         <v>-24915</v>
       </c>
-      <c r="H90" s="258">
+      <c r="H90" s="257">
         <f>SUM(H89:H89)</f>
         <v>-3227346</v>
       </c>
-      <c r="I90" s="258">
+      <c r="I90" s="257">
         <f>SUM(I89:I89)</f>
         <v>0</v>
       </c>
-      <c r="J90" s="258">
+      <c r="J90" s="257">
         <f>SUM(J89:J89)</f>
         <v>-3227346</v>
       </c>
@@ -17490,7 +17493,7 @@
       <c r="J91" s="18"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="188" t="s">
+      <c r="B92" s="187" t="s">
         <v>281</v>
       </c>
       <c r="C92" s="57"/>
@@ -17537,7 +17540,7 @@
       <c r="J94" s="18"/>
     </row>
     <row r="95" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="194" t="s">
+      <c r="B95" s="193" t="s">
         <v>283</v>
       </c>
       <c r="C95" s="57"/>
@@ -17635,7 +17638,7 @@
       <c r="C99" s="57"/>
       <c r="D99" s="57"/>
       <c r="E99" s="57"/>
-      <c r="F99" s="195">
+      <c r="F99" s="194">
         <v>-495802</v>
       </c>
       <c r="G99" s="6">
@@ -17659,7 +17662,7 @@
       <c r="C100" s="57"/>
       <c r="D100" s="57"/>
       <c r="E100" s="57"/>
-      <c r="F100" s="196">
+      <c r="F100" s="195">
         <v>1849659</v>
       </c>
       <c r="G100" s="24">
@@ -17682,7 +17685,7 @@
       <c r="C101" s="57"/>
       <c r="D101" s="57"/>
       <c r="E101" s="57"/>
-      <c r="F101" s="195">
+      <c r="F101" s="194">
         <f>+F99+F100</f>
         <v>1353857</v>
       </c>
@@ -17707,7 +17710,7 @@
       <c r="C102" s="57"/>
       <c r="D102" s="57"/>
       <c r="E102" s="57"/>
-      <c r="F102" s="196">
+      <c r="F102" s="195">
         <v>70086</v>
       </c>
       <c r="G102" s="24">
@@ -17730,7 +17733,7 @@
       <c r="C103" s="57"/>
       <c r="D103" s="57"/>
       <c r="E103" s="57"/>
-      <c r="F103" s="195">
+      <c r="F103" s="194">
         <f>+F101+F102</f>
         <v>1423943</v>
       </c>
@@ -17755,7 +17758,7 @@
       <c r="C104" s="57"/>
       <c r="D104" s="57"/>
       <c r="E104" s="57"/>
-      <c r="F104" s="197">
+      <c r="F104" s="196">
         <v>-1099700</v>
       </c>
       <c r="G104" s="10">
@@ -17807,7 +17810,7 @@
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
       <c r="F106" s="23"/>
-      <c r="G106" s="285">
+      <c r="G106" s="266">
         <v>-139500</v>
       </c>
       <c r="H106" s="10">
@@ -17828,23 +17831,23 @@
       <c r="C107" s="57"/>
       <c r="D107" s="57"/>
       <c r="E107" s="57"/>
-      <c r="F107" s="187">
+      <c r="F107" s="186">
         <f>SUM(F105:F106)</f>
         <v>324243</v>
       </c>
-      <c r="G107" s="187">
+      <c r="G107" s="186">
         <f>SUM(G105:G106)</f>
         <v>-301241</v>
       </c>
-      <c r="H107" s="187">
+      <c r="H107" s="186">
         <f>SUM(H105:H106)</f>
         <v>23002</v>
       </c>
-      <c r="I107" s="187">
+      <c r="I107" s="186">
         <f>SUM(I105:I106)</f>
         <v>0</v>
       </c>
-      <c r="J107" s="187">
+      <c r="J107" s="186">
         <f>SUM(J105:J106)</f>
         <v>23002</v>
       </c>
@@ -17862,7 +17865,7 @@
       <c r="J108" s="18"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="188" t="s">
+      <c r="B109" s="187" t="s">
         <v>285</v>
       </c>
       <c r="C109" s="57"/>
@@ -18289,7 +18292,7 @@
         <f>+G124+G125</f>
         <v>2005366</v>
       </c>
-      <c r="H126" s="198">
+      <c r="H126" s="197">
         <f>+H124+H125</f>
         <v>35047781</v>
       </c>
@@ -18541,11 +18544,11 @@
         <f>SUM(F130:F135)</f>
         <v>37757436</v>
       </c>
-      <c r="G136" s="199">
+      <c r="G136" s="198">
         <f>SUM(G130:G135)</f>
         <v>1739003</v>
       </c>
-      <c r="H136" s="199">
+      <c r="H136" s="198">
         <f t="shared" si="16"/>
         <v>39496439</v>
       </c>
@@ -18570,10 +18573,10 @@
       <c r="F137" s="10">
         <v>251108</v>
       </c>
-      <c r="G137" s="197">
+      <c r="G137" s="196">
         <v>-48910</v>
       </c>
-      <c r="H137" s="197">
+      <c r="H137" s="196">
         <f t="shared" si="16"/>
         <v>202198</v>
       </c>
@@ -18594,10 +18597,10 @@
       <c r="F138" s="10">
         <v>854455</v>
       </c>
-      <c r="G138" s="197">
+      <c r="G138" s="196">
         <v>-334309</v>
       </c>
-      <c r="H138" s="197">
+      <c r="H138" s="196">
         <f t="shared" si="16"/>
         <v>520146</v>
       </c>
@@ -18618,10 +18621,10 @@
       <c r="F139" s="10">
         <v>-5035990</v>
       </c>
-      <c r="G139" s="197">
+      <c r="G139" s="196">
         <v>-2143739</v>
       </c>
-      <c r="H139" s="197">
+      <c r="H139" s="196">
         <f t="shared" si="16"/>
         <v>-7179729</v>
       </c>
@@ -18642,8 +18645,8 @@
       <c r="F140" s="10">
         <v>-559555</v>
       </c>
-      <c r="G140" s="197"/>
-      <c r="H140" s="197">
+      <c r="G140" s="196"/>
+      <c r="H140" s="196">
         <f t="shared" si="16"/>
         <v>-559555</v>
       </c>
@@ -18662,10 +18665,10 @@
       <c r="D141" s="57"/>
       <c r="E141" s="57"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="197">
+      <c r="G141" s="196">
         <v>-190570</v>
       </c>
-      <c r="H141" s="197">
+      <c r="H141" s="196">
         <f t="shared" si="16"/>
         <v>-190570</v>
       </c>
@@ -18686,10 +18689,10 @@
       <c r="F142" s="10">
         <v>9390028</v>
       </c>
-      <c r="G142" s="197">
+      <c r="G142" s="196">
         <v>3747805</v>
       </c>
-      <c r="H142" s="197">
+      <c r="H142" s="196">
         <f t="shared" si="16"/>
         <v>13137833</v>
       </c>
@@ -18714,11 +18717,11 @@
         <f>SUM(F136:F142)</f>
         <v>42657482</v>
       </c>
-      <c r="G143" s="195">
+      <c r="G143" s="194">
         <f>SUM(G136:G142)</f>
         <v>2769280</v>
       </c>
-      <c r="H143" s="195">
+      <c r="H143" s="194">
         <f t="shared" si="16"/>
         <v>45426762</v>
       </c>
@@ -18743,10 +18746,10 @@
         <f>-42657482+40887284</f>
         <v>-1770198</v>
       </c>
-      <c r="G144" s="197">
+      <c r="G144" s="196">
         <v>-111739</v>
       </c>
-      <c r="H144" s="197">
+      <c r="H144" s="196">
         <f t="shared" si="16"/>
         <v>-1881937</v>
       </c>
@@ -18768,8 +18771,8 @@
       <c r="F145" s="10">
         <v>-8215675</v>
       </c>
-      <c r="G145" s="197"/>
-      <c r="H145" s="197">
+      <c r="G145" s="196"/>
+      <c r="H145" s="196">
         <f t="shared" si="16"/>
         <v>-8215675</v>
       </c>
@@ -18791,10 +18794,10 @@
       <c r="F146" s="10">
         <v>-912853</v>
       </c>
-      <c r="G146" s="197">
+      <c r="G146" s="196">
         <v>-374781</v>
       </c>
-      <c r="H146" s="197">
+      <c r="H146" s="196">
         <f t="shared" si="16"/>
         <v>-1287634</v>
       </c>
@@ -18816,10 +18819,10 @@
       <c r="F147" s="10">
         <v>-5488035</v>
       </c>
-      <c r="G147" s="197">
+      <c r="G147" s="196">
         <v>-3373023</v>
       </c>
-      <c r="H147" s="197">
+      <c r="H147" s="196">
         <f t="shared" si="16"/>
         <v>-8861058</v>
       </c>
@@ -18841,10 +18844,10 @@
       <c r="F148" s="10">
         <v>15216635</v>
       </c>
-      <c r="G148" s="197">
+      <c r="G148" s="196">
         <v>7092645</v>
       </c>
-      <c r="H148" s="197">
+      <c r="H148" s="196">
         <f t="shared" si="16"/>
         <v>22309280</v>
       </c>
@@ -18866,41 +18869,41 @@
       <c r="C149" s="57"/>
       <c r="D149" s="57"/>
       <c r="E149" s="57"/>
-      <c r="F149" s="195">
+      <c r="F149" s="194">
         <f>SUM(F143:F148)</f>
         <v>41487356</v>
       </c>
-      <c r="G149" s="195">
+      <c r="G149" s="194">
         <f>SUM(G143:G148)</f>
         <v>6002382</v>
       </c>
-      <c r="H149" s="195">
+      <c r="H149" s="194">
         <f>SUM(H143:H148)</f>
         <v>47489738</v>
       </c>
-      <c r="I149" s="195">
+      <c r="I149" s="194">
         <f>-AD!G42+AD!H17</f>
         <v>-9763133.7534000017</v>
       </c>
-      <c r="J149" s="195">
+      <c r="J149" s="194">
         <f>SUM(J143:J148)</f>
         <v>37726604.75</v>
       </c>
-      <c r="K149" s="294">
+      <c r="K149" s="274">
         <f>+I143+I148-I149</f>
         <v>0.50340000167489052</v>
       </c>
       <c r="L149" s="2"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B150" s="282" t="s">
+      <c r="B150" s="263" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="283"/>
-      <c r="D150" s="283"/>
-      <c r="E150" s="283"/>
-      <c r="F150" s="286"/>
-      <c r="G150" s="286">
+      <c r="C150" s="264"/>
+      <c r="D150" s="264"/>
+      <c r="E150" s="264"/>
+      <c r="F150" s="267"/>
+      <c r="G150" s="267">
         <v>-709264</v>
       </c>
       <c r="H150" s="6">
@@ -18916,7 +18919,7 @@
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" s="30" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C151" s="57"/>
       <c r="D151" s="57"/>
@@ -18925,7 +18928,7 @@
         <f>1859768+660505</f>
         <v>2520273</v>
       </c>
-      <c r="G151" s="284">
+      <c r="G151" s="265">
         <v>63402</v>
       </c>
       <c r="H151" s="10">
@@ -18940,14 +18943,14 @@
       <c r="K151" s="32"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B152" s="282" t="s">
+      <c r="B152" s="263" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="283"/>
-      <c r="D152" s="283"/>
-      <c r="E152" s="283"/>
-      <c r="F152" s="284"/>
-      <c r="G152" s="284">
+      <c r="C152" s="264"/>
+      <c r="D152" s="264"/>
+      <c r="E152" s="264"/>
+      <c r="F152" s="265"/>
+      <c r="G152" s="265">
         <v>-5404856</v>
       </c>
       <c r="H152" s="10">
@@ -18962,17 +18965,17 @@
       <c r="K152" s="32"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B153" s="282" t="s">
+      <c r="B153" s="263" t="s">
         <v>301</v>
       </c>
-      <c r="C153" s="283"/>
-      <c r="D153" s="283"/>
-      <c r="E153" s="283"/>
-      <c r="F153" s="285">
+      <c r="C153" s="264"/>
+      <c r="D153" s="264"/>
+      <c r="E153" s="264"/>
+      <c r="F153" s="266">
         <f>ER!D40</f>
         <v>19151165</v>
       </c>
-      <c r="G153" s="285">
+      <c r="G153" s="266">
         <f>ER!E36</f>
         <v>14579979</v>
       </c>
@@ -18997,52 +19000,52 @@
       <c r="C154" s="57"/>
       <c r="D154" s="57"/>
       <c r="E154" s="57"/>
-      <c r="F154" s="187">
+      <c r="F154" s="186">
         <f>SUM(F149:F153)</f>
         <v>63158794</v>
       </c>
-      <c r="G154" s="187">
+      <c r="G154" s="186">
         <f>SUM(G149:G153)</f>
         <v>14531643</v>
       </c>
-      <c r="H154" s="187">
+      <c r="H154" s="186">
         <f>SUM(H149:H153)</f>
         <v>77690437</v>
       </c>
-      <c r="I154" s="187">
+      <c r="I154" s="186">
         <f>SUM(I149:I153)</f>
         <v>-5109772.7534000017</v>
       </c>
-      <c r="J154" s="187">
+      <c r="J154" s="186">
         <f>SUM(J149:J153)</f>
         <v>72580664.75</v>
       </c>
       <c r="K154" s="32"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B155" s="191" t="s">
+      <c r="B155" s="190" t="s">
         <v>304</v>
       </c>
-      <c r="C155" s="192"/>
-      <c r="D155" s="192"/>
-      <c r="E155" s="192"/>
-      <c r="F155" s="193">
+      <c r="C155" s="191"/>
+      <c r="D155" s="191"/>
+      <c r="E155" s="191"/>
+      <c r="F155" s="192">
         <f>F154+F107+F90+F81</f>
         <v>60507678</v>
       </c>
-      <c r="G155" s="193">
+      <c r="G155" s="192">
         <f>G154+G107+G90+G81</f>
         <v>14290661</v>
       </c>
-      <c r="H155" s="193">
+      <c r="H155" s="192">
         <f>H154+H107+H90+H81</f>
         <v>74798339</v>
       </c>
-      <c r="I155" s="193">
+      <c r="I155" s="192">
         <f>I154+I107+I90+I81</f>
         <v>-5109772.7534000017</v>
       </c>
-      <c r="J155" s="193">
+      <c r="J155" s="192">
         <f>J154+J107+J90+J81</f>
         <v>69688566.75</v>
       </c>
@@ -19050,20 +19053,20 @@
       <c r="L155" s="2"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B156" s="191"/>
-      <c r="C156" s="192"/>
-      <c r="D156" s="192"/>
-      <c r="E156" s="192"/>
-      <c r="F156" s="193"/>
-      <c r="G156" s="193"/>
-      <c r="H156" s="193"/>
-      <c r="I156" s="193"/>
-      <c r="J156" s="193"/>
+      <c r="B156" s="190"/>
+      <c r="C156" s="191"/>
+      <c r="D156" s="191"/>
+      <c r="E156" s="191"/>
+      <c r="F156" s="192"/>
+      <c r="G156" s="192"/>
+      <c r="H156" s="192"/>
+      <c r="I156" s="192"/>
+      <c r="J156" s="192"/>
       <c r="K156" s="32"/>
       <c r="L156" s="2"/>
     </row>
     <row r="157" spans="2:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="188" t="s">
+      <c r="B157" s="187" t="s">
         <v>305</v>
       </c>
       <c r="C157" s="57"/>
@@ -19578,12 +19581,12 @@
       <c r="L177" s="2"/>
     </row>
     <row r="178" spans="2:12" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="272" t="s">
+      <c r="B178" s="289" t="s">
         <v>262</v>
       </c>
-      <c r="C178" s="272"/>
-      <c r="D178" s="272"/>
-      <c r="E178" s="272"/>
+      <c r="C178" s="289"/>
+      <c r="D178" s="289"/>
+      <c r="E178" s="289"/>
       <c r="F178" s="10">
         <v>-705016</v>
       </c>
@@ -19694,10 +19697,10 @@
       <c r="F182" s="10">
         <v>251108</v>
       </c>
-      <c r="G182" s="197">
+      <c r="G182" s="196">
         <v>-48910</v>
       </c>
-      <c r="H182" s="197">
+      <c r="H182" s="196">
         <f>+F182+G182</f>
         <v>202198</v>
       </c>
@@ -19718,10 +19721,10 @@
       <c r="F183" s="10">
         <v>854455</v>
       </c>
-      <c r="G183" s="197">
+      <c r="G183" s="196">
         <v>-334309</v>
       </c>
-      <c r="H183" s="197">
+      <c r="H183" s="196">
         <f>+F183+G183</f>
         <v>520146</v>
       </c>
@@ -19740,10 +19743,10 @@
       <c r="D184" s="57"/>
       <c r="E184" s="57"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="197">
+      <c r="G184" s="196">
         <v>-190570</v>
       </c>
-      <c r="H184" s="197">
+      <c r="H184" s="196">
         <f>+F184+G184</f>
         <v>-190570</v>
       </c>
@@ -19765,19 +19768,19 @@
         <f>+F142</f>
         <v>9390028</v>
       </c>
-      <c r="G185" s="197">
+      <c r="G185" s="196">
         <f>+G142</f>
         <v>3747805</v>
       </c>
-      <c r="H185" s="197">
+      <c r="H185" s="196">
         <f>+H142</f>
         <v>13137833</v>
       </c>
-      <c r="I185" s="197">
+      <c r="I185" s="196">
         <f>+I142</f>
         <v>1762103.75</v>
       </c>
-      <c r="J185" s="197">
+      <c r="J185" s="196">
         <f>+J142</f>
         <v>14899936.75</v>
       </c>
@@ -19837,7 +19840,7 @@
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B188" s="194" t="s">
+      <c r="B188" s="193" t="s">
         <v>300</v>
       </c>
       <c r="C188" s="57"/>
@@ -19862,7 +19865,7 @@
       </c>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B189" s="194" t="s">
+      <c r="B189" s="193" t="s">
         <v>309</v>
       </c>
       <c r="C189" s="57"/>
@@ -19890,7 +19893,7 @@
       </c>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B190" s="194" t="s">
+      <c r="B190" s="193" t="s">
         <v>278</v>
       </c>
       <c r="C190" s="44"/>
@@ -19919,16 +19922,16 @@
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B191" s="30" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C191" s="44"/>
       <c r="D191" s="44"/>
       <c r="E191" s="44"/>
-      <c r="F191" s="254">
+      <c r="F191" s="253">
         <f>+F151</f>
         <v>2520273</v>
       </c>
-      <c r="G191" s="254">
+      <c r="G191" s="253">
         <f>+G151</f>
         <v>63402</v>
       </c>
@@ -19936,15 +19939,15 @@
         <f>+F191+G191</f>
         <v>2583675</v>
       </c>
-      <c r="I191" s="254"/>
-      <c r="J191" s="254">
+      <c r="I191" s="253"/>
+      <c r="J191" s="253">
         <f t="shared" ref="J191:J194" si="22">+H191+I191</f>
         <v>2583675</v>
       </c>
     </row>
     <row r="192" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C192" s="44"/>
       <c r="D192" s="44"/>
@@ -19965,7 +19968,7 @@
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="30" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C193" s="44"/>
       <c r="D193" s="44"/>
@@ -20014,12 +20017,12 @@
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B195" s="257" t="s">
+      <c r="B195" s="256" t="s">
         <v>310</v>
       </c>
-      <c r="C195" s="201"/>
-      <c r="D195" s="201"/>
-      <c r="E195" s="201"/>
+      <c r="C195" s="200"/>
+      <c r="D195" s="200"/>
+      <c r="E195" s="200"/>
       <c r="F195" s="19">
         <f>SUM(F190:F194)</f>
         <v>88307938</v>
@@ -20043,23 +20046,23 @@
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="30"/>
-      <c r="F196" s="295">
+      <c r="F196" s="275">
         <f>+F154+F107+F90+F81+F71+F62+F43+F27-F195</f>
         <v>0</v>
       </c>
-      <c r="G196" s="295">
+      <c r="G196" s="275">
         <f>+G154+G107+G90+G81+G71+G62+G43+G27-G195</f>
         <v>0</v>
       </c>
-      <c r="H196" s="295">
+      <c r="H196" s="275">
         <f>+H154+H107+H90+H81+H71+H62+H43+H27-H195</f>
         <v>0</v>
       </c>
-      <c r="I196" s="295">
+      <c r="I196" s="275">
         <f>+I149+I105+I89+I80+I70+I60+I41+I24-I190</f>
         <v>-0.50340000167489052</v>
       </c>
-      <c r="J196" s="295">
+      <c r="J196" s="275">
         <f>+J154+J107+J90+J81+J71+J62+J43+J27-J195</f>
         <v>0</v>
       </c>
@@ -20110,8 +20113,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A39" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -20151,83 +20154,83 @@
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="277">
+      <c r="G4" s="294">
         <v>2020</v>
       </c>
-      <c r="H4" s="277"/>
-      <c r="I4" s="278">
+      <c r="H4" s="294"/>
+      <c r="I4" s="295">
         <v>2019</v>
       </c>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273">
+      <c r="J4" s="290"/>
+      <c r="K4" s="290">
         <v>2018</v>
       </c>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273">
+      <c r="L4" s="290"/>
+      <c r="M4" s="290">
         <v>2017</v>
       </c>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273">
+      <c r="N4" s="290"/>
+      <c r="O4" s="290">
         <v>2016</v>
       </c>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="273">
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290">
         <v>2015</v>
       </c>
-      <c r="R4" s="273"/>
-      <c r="T4" s="273">
+      <c r="R4" s="290"/>
+      <c r="T4" s="290">
         <v>2014</v>
       </c>
-      <c r="U4" s="273"/>
+      <c r="U4" s="290"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G5" s="202" t="s">
+      <c r="G5" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="202" t="s">
+      <c r="H5" s="201" t="s">
         <v>314</v>
       </c>
-      <c r="I5" s="241" t="s">
+      <c r="I5" s="240" t="s">
         <v>313</v>
       </c>
-      <c r="J5" s="202" t="s">
+      <c r="J5" s="201" t="s">
         <v>314</v>
       </c>
-      <c r="K5" s="202" t="s">
+      <c r="K5" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="L5" s="202" t="s">
+      <c r="L5" s="201" t="s">
         <v>314</v>
       </c>
-      <c r="M5" s="202" t="s">
+      <c r="M5" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="N5" s="202" t="s">
+      <c r="N5" s="201" t="s">
         <v>314</v>
       </c>
-      <c r="O5" s="202" t="s">
+      <c r="O5" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="P5" s="202" t="s">
+      <c r="P5" s="201" t="s">
         <v>314</v>
       </c>
-      <c r="Q5" s="202" t="s">
+      <c r="Q5" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="R5" s="202" t="s">
+      <c r="R5" s="201" t="s">
         <v>314</v>
       </c>
-      <c r="S5" s="203"/>
-      <c r="T5" s="202" t="s">
+      <c r="S5" s="202"/>
+      <c r="T5" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="U5" s="202" t="s">
+      <c r="U5" s="201" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="64"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="203" t="s">
         <v>315</v>
       </c>
       <c r="D6" s="50"/>
@@ -20249,17 +20252,17 @@
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="187" t="s">
         <v>316</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
-      <c r="G7" s="245">
+      <c r="G7" s="244">
         <v>30135</v>
       </c>
-      <c r="H7" s="245"/>
+      <c r="H7" s="244"/>
       <c r="I7" s="26">
         <v>548165</v>
       </c>
@@ -20287,15 +20290,15 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="187" t="s">
         <v>317</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="245"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
       <c r="I8" s="26"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -20317,15 +20320,15 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="187" t="s">
         <v>318</v>
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245">
+      <c r="G9" s="244"/>
+      <c r="H9" s="244">
         <f>+G7</f>
         <v>30135</v>
       </c>
@@ -20367,8 +20370,8 @@
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="245"/>
-      <c r="H10" s="245"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
       <c r="I10" s="26"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -20399,7 +20402,7 @@
         <f t="shared" ref="H11" si="1">SUM(H7:H10)</f>
         <v>30135</v>
       </c>
-      <c r="I11" s="242">
+      <c r="I11" s="241">
         <f t="shared" ref="I11:R11" si="2">SUM(I7:I10)</f>
         <v>548165</v>
       </c>
@@ -20451,14 +20454,14 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="64"/>
-      <c r="C12" s="204" t="s">
+      <c r="C12" s="203" t="s">
         <v>321</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="245"/>
       <c r="I12" s="52"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -20474,17 +20477,17 @@
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="287" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="262">
+      <c r="B13" s="268" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="261">
         <v>26543205</v>
       </c>
-      <c r="H13" s="245"/>
+      <c r="H13" s="244"/>
       <c r="I13" s="26">
         <v>12478474</v>
       </c>
@@ -20511,16 +20514,16 @@
       </c>
       <c r="U13" s="10"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="188" t="s">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="187" t="s">
         <v>322</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="245"/>
-      <c r="H14" s="245"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
       <c r="I14" s="26">
         <v>150402</v>
       </c>
@@ -20537,16 +20540,16 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="188" t="s">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="187" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
       <c r="F15" s="57"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="244"/>
       <c r="I15" s="26">
         <v>2053333</v>
       </c>
@@ -20564,18 +20567,18 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="249" t="s">
+      <c r="B16" s="248" t="s">
         <v>323</v>
       </c>
-      <c r="C16" s="250"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="250"/>
-      <c r="G16" s="251">
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="250">
         <f>+H18+H17-G13</f>
         <v>2483589</v>
       </c>
-      <c r="H16" s="251"/>
+      <c r="H16" s="250"/>
       <c r="I16" s="26"/>
       <c r="J16" s="10">
         <v>289600</v>
@@ -20599,15 +20602,15 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="187" t="s">
         <v>324</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
-      <c r="F17" s="288"/>
-      <c r="G17" s="245"/>
-      <c r="H17" s="245">
+      <c r="F17" s="269"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244">
         <v>289600</v>
       </c>
       <c r="I17" s="26"/>
@@ -20632,15 +20635,15 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="287" t="s">
+      <c r="B18" s="268" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="283"/>
-      <c r="D18" s="283"/>
-      <c r="E18" s="283"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="262">
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="261">
         <v>28737194</v>
       </c>
       <c r="I18" s="26"/>
@@ -20671,14 +20674,14 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
       <c r="I19" s="26"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -20702,14 +20705,14 @@
         <v>320</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" ref="G20:H20" si="3">SUM(G13:G19)</f>
+        <f>SUM(G13:G19)</f>
         <v>29026794</v>
       </c>
-      <c r="H20" s="242">
-        <f t="shared" si="3"/>
+      <c r="H20" s="241">
+        <f t="shared" ref="H20" si="3">SUM(H13:H19)</f>
         <v>29026794</v>
       </c>
-      <c r="I20" s="242">
+      <c r="I20" s="241">
         <f>SUM(I13:I19)</f>
         <v>14682209</v>
       </c>
@@ -20761,15 +20764,15 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="64"/>
-      <c r="C21" s="204" t="s">
+      <c r="C21" s="203" t="s">
         <v>326</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="246"/>
-      <c r="I21" s="243">
+      <c r="G21" s="245"/>
+      <c r="H21" s="245"/>
+      <c r="I21" s="242">
         <f>+J20-I20</f>
         <v>0</v>
       </c>
@@ -20788,17 +20791,17 @@
       <c r="V21" s="32"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="187" t="s">
         <v>327</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
-      <c r="G22" s="245">
+      <c r="G22" s="244">
         <v>111106162</v>
       </c>
-      <c r="H22" s="245"/>
+      <c r="H22" s="244"/>
       <c r="I22" s="26">
         <v>92592770</v>
       </c>
@@ -20829,15 +20832,15 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="205" t="s">
+      <c r="B23" s="204" t="s">
         <v>328</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245">
+      <c r="G23" s="244"/>
+      <c r="H23" s="244">
         <v>4118950</v>
       </c>
       <c r="I23" s="26"/>
@@ -20865,18 +20868,22 @@
       <c r="U23" s="10">
         <v>1475332</v>
       </c>
+      <c r="V23" s="277">
+        <f>+G37-H23</f>
+        <v>5709560</v>
+      </c>
       <c r="W23" s="32"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="187" t="s">
         <v>329</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="245">
+      <c r="G24" s="244"/>
+      <c r="H24" s="244">
         <f>+G22-H23</f>
         <v>106987212</v>
       </c>
@@ -20914,15 +20921,15 @@
       <c r="W24" s="32"/>
     </row>
     <row r="25" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="187" t="s">
         <v>330</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
-      <c r="G25" s="245"/>
-      <c r="H25" s="245"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
       <c r="I25" s="26"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -20952,8 +20959,8 @@
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
       <c r="I26" s="26"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -20981,11 +20988,11 @@
         <f t="shared" ref="G27:H27" si="5">SUM(G21:G24)</f>
         <v>111106162</v>
       </c>
-      <c r="H27" s="242">
+      <c r="H27" s="241">
         <f t="shared" si="5"/>
         <v>111106162</v>
       </c>
-      <c r="I27" s="242">
+      <c r="I27" s="241">
         <f>SUM(I21:I24)</f>
         <v>92592770</v>
       </c>
@@ -21037,14 +21044,14 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="64"/>
-      <c r="C28" s="204" t="s">
+      <c r="C28" s="203" t="s">
         <v>332</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="246"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="245"/>
       <c r="I28" s="52"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -21060,15 +21067,15 @@
       <c r="U28" s="6"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="187" t="s">
         <v>333</v>
       </c>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="245"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
       <c r="I29" s="26">
         <f>2053333+2566667</f>
         <v>4620000</v>
@@ -21098,15 +21105,15 @@
       <c r="U29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="187" t="s">
         <v>334</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="245"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
       <c r="I30" s="26">
         <v>15292925</v>
       </c>
@@ -21128,18 +21135,18 @@
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="188" t="s">
-        <v>439</v>
+      <c r="B31" s="187" t="s">
+        <v>435</v>
       </c>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
-      <c r="G31" s="245">
+      <c r="G31" s="244">
         <f>+H33</f>
         <v>29886240</v>
       </c>
-      <c r="H31" s="245"/>
+      <c r="H31" s="244"/>
       <c r="I31" s="26"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10">
@@ -21165,15 +21172,15 @@
       <c r="U31" s="10"/>
     </row>
     <row r="32" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="187" t="s">
         <v>335</v>
       </c>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="57"/>
-      <c r="G32" s="245"/>
-      <c r="H32" s="245"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
       <c r="I32" s="26"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10">
@@ -21196,15 +21203,15 @@
       <c r="V32" s="32"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="187" t="s">
         <v>336</v>
       </c>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
-      <c r="G33" s="245"/>
-      <c r="H33" s="245">
+      <c r="G33" s="244"/>
+      <c r="H33" s="244">
         <v>29886240</v>
       </c>
       <c r="I33" s="26"/>
@@ -21237,14 +21244,14 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="245"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
       <c r="I34" s="26"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -21264,18 +21271,18 @@
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
-      <c r="F35" s="240" t="s">
+      <c r="F35" s="239" t="s">
         <v>320</v>
       </c>
       <c r="G35" s="19">
         <f>SUM(G29:G33)</f>
         <v>29886240</v>
       </c>
-      <c r="H35" s="242">
+      <c r="H35" s="241">
         <f>SUM(H29:H33)</f>
         <v>29886240</v>
       </c>
-      <c r="I35" s="242">
+      <c r="I35" s="241">
         <f>SUM(I29:I33)</f>
         <v>19912925</v>
       </c>
@@ -21327,15 +21334,15 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
-      <c r="C36" s="206" t="s">
+      <c r="C36" s="205" t="s">
         <v>337</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
-      <c r="G36" s="245"/>
-      <c r="H36" s="245"/>
-      <c r="I36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="243"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -21350,17 +21357,17 @@
       <c r="U36" s="6"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="187" t="s">
         <v>338</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
-      <c r="G37" s="245">
+      <c r="G37" s="244">
         <v>9828510</v>
       </c>
-      <c r="H37" s="245"/>
+      <c r="H37" s="244"/>
       <c r="I37" s="26">
         <v>9636341</v>
       </c>
@@ -21386,15 +21393,15 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="187" t="s">
         <v>339</v>
       </c>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
-      <c r="G38" s="245"/>
-      <c r="H38" s="245">
+      <c r="G38" s="244"/>
+      <c r="H38" s="244">
         <v>9828510</v>
       </c>
       <c r="I38" s="26"/>
@@ -21422,15 +21429,15 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="2:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="274" t="s">
+      <c r="B39" s="291" t="s">
         <v>340</v>
       </c>
-      <c r="C39" s="274"/>
-      <c r="D39" s="274"/>
-      <c r="E39" s="274"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="245"/>
-      <c r="H39" s="245"/>
+      <c r="C39" s="291"/>
+      <c r="D39" s="291"/>
+      <c r="E39" s="291"/>
+      <c r="F39" s="291"/>
+      <c r="G39" s="244"/>
+      <c r="H39" s="244"/>
       <c r="I39" s="26"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -21457,11 +21464,11 @@
         <f t="shared" ref="G40:H40" si="7">+G37+G38</f>
         <v>9828510</v>
       </c>
-      <c r="H40" s="242">
+      <c r="H40" s="241">
         <f t="shared" si="7"/>
         <v>9828510</v>
       </c>
-      <c r="I40" s="242">
+      <c r="I40" s="241">
         <f>+I37+I38</f>
         <v>9636341</v>
       </c>
@@ -21501,14 +21508,14 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="64"/>
-      <c r="C41" s="204" t="s">
+      <c r="C41" s="203" t="s">
         <v>341</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
-      <c r="G41" s="246"/>
-      <c r="H41" s="246"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="245"/>
       <c r="I41" s="52"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
@@ -21524,18 +21531,18 @@
       <c r="U41" s="6"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="187" t="s">
         <v>342</v>
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
-      <c r="G42" s="245">
+      <c r="G42" s="244">
         <f>+H50-G44-G43</f>
         <v>10052733.753400002</v>
       </c>
-      <c r="H42" s="245"/>
+      <c r="H42" s="244"/>
       <c r="I42" s="26">
         <v>11525237</v>
       </c>
@@ -21568,18 +21575,18 @@
       <c r="V42" s="2"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="188" t="s">
+      <c r="B43" s="187" t="s">
         <v>343</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
       <c r="F43" s="57"/>
-      <c r="G43" s="262">
+      <c r="G43" s="261">
         <f>+I43-J59</f>
         <v>3164337.1851480007</v>
       </c>
-      <c r="H43" s="262"/>
+      <c r="H43" s="261"/>
       <c r="I43" s="26">
         <f>+K43+K54+K59</f>
         <v>3522607.4351480007</v>
@@ -21605,18 +21612,18 @@
       <c r="V43" s="32"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="187" t="s">
         <v>344</v>
       </c>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
-      <c r="G44" s="262">
+      <c r="G44" s="261">
         <f>+I44+I37</f>
         <v>19362783</v>
       </c>
-      <c r="H44" s="262"/>
+      <c r="H44" s="261"/>
       <c r="I44" s="26">
         <f>+K37</f>
         <v>9726442</v>
@@ -21633,18 +21640,21 @@
       <c r="S44" s="2"/>
       <c r="T44" s="9"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="32"/>
+      <c r="V44" s="32">
+        <f>+H50-G44</f>
+        <v>13217070.938548002</v>
+      </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="187" t="s">
         <v>345</v>
       </c>
       <c r="C45" s="57"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="262"/>
-      <c r="H45" s="262"/>
+      <c r="G45" s="261"/>
+      <c r="H45" s="261"/>
       <c r="I45" s="26"/>
       <c r="J45" s="10">
         <f>+K17-L16+K32</f>
@@ -21667,17 +21677,17 @@
       <c r="V45" s="32"/>
     </row>
     <row r="46" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="188" t="s">
+      <c r="B46" s="187" t="s">
         <v>346</v>
       </c>
       <c r="C46" s="57"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="57"/>
-      <c r="G46" s="262"/>
-      <c r="H46" s="262"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="261"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="248"/>
+      <c r="J46" s="247"/>
       <c r="K46" s="10"/>
       <c r="M46" s="10"/>
       <c r="O46" s="10"/>
@@ -21689,15 +21699,15 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="188" t="s">
+      <c r="B47" s="187" t="s">
         <v>347</v>
       </c>
       <c r="C47" s="57"/>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="57"/>
-      <c r="G47" s="262"/>
-      <c r="H47" s="262"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="261"/>
       <c r="I47" s="26"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -21718,15 +21728,15 @@
       </c>
     </row>
     <row r="48" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="188" t="s">
+      <c r="B48" s="187" t="s">
         <v>348</v>
       </c>
       <c r="C48" s="57"/>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
-      <c r="G48" s="262"/>
-      <c r="H48" s="262"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="261"/>
       <c r="I48" s="26"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -21751,15 +21761,15 @@
       </c>
     </row>
     <row r="49" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="188" t="s">
+      <c r="B49" s="187" t="s">
         <v>349</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
-      <c r="G49" s="262"/>
-      <c r="H49" s="262"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="261"/>
       <c r="I49" s="26"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -21777,15 +21787,15 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="2:22" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="188" t="s">
+      <c r="B50" s="187" t="s">
         <v>350</v>
       </c>
       <c r="C50" s="57"/>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
-      <c r="G50" s="262"/>
-      <c r="H50" s="262">
+      <c r="G50" s="261"/>
+      <c r="H50" s="261">
         <f>+J50+J23</f>
         <v>32579853.938548002</v>
       </c>
@@ -21828,8 +21838,8 @@
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
-      <c r="G51" s="262"/>
-      <c r="H51" s="262"/>
+      <c r="G51" s="261"/>
+      <c r="H51" s="261"/>
       <c r="I51" s="53"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
@@ -21855,11 +21865,11 @@
         <f t="shared" ref="G52:H52" si="8">SUM(G42:G51)</f>
         <v>32579853.938548002</v>
       </c>
-      <c r="H52" s="242">
+      <c r="H52" s="241">
         <f t="shared" si="8"/>
         <v>32579853.938548002</v>
       </c>
-      <c r="I52" s="242">
+      <c r="I52" s="241">
         <f>SUM(I42:I51)</f>
         <v>24774286.435148001</v>
       </c>
@@ -21907,18 +21917,18 @@
         <f>SUM(U41:U50)</f>
         <v>0</v>
       </c>
-      <c r="V52" s="259"/>
+      <c r="V52" s="258"/>
     </row>
     <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
-      <c r="C53" s="206" t="s">
+      <c r="C53" s="205" t="s">
         <v>352</v>
       </c>
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="57"/>
-      <c r="G53" s="245"/>
-      <c r="H53" s="245"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="244"/>
       <c r="I53" s="53"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
@@ -21932,19 +21942,19 @@
       <c r="S53" s="57"/>
       <c r="T53" s="5"/>
       <c r="U53" s="10"/>
-      <c r="V53" s="260"/>
+      <c r="V53" s="259"/>
     </row>
     <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="188" t="s">
+      <c r="B54" s="187" t="s">
         <v>343</v>
       </c>
       <c r="C54" s="57"/>
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
       <c r="F54" s="57"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="245"/>
-      <c r="I54" s="244">
+      <c r="G54" s="244"/>
+      <c r="H54" s="244"/>
+      <c r="I54" s="243">
         <v>0</v>
       </c>
       <c r="J54" s="18"/>
@@ -21964,18 +21974,18 @@
       <c r="S54" s="57"/>
       <c r="T54" s="9"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="260"/>
+      <c r="V54" s="259"/>
     </row>
     <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="188" t="s">
+      <c r="B55" s="187" t="s">
         <v>353</v>
       </c>
       <c r="C55" s="57"/>
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
       <c r="F55" s="57"/>
-      <c r="G55" s="245"/>
-      <c r="H55" s="245"/>
+      <c r="G55" s="244"/>
+      <c r="H55" s="244"/>
       <c r="I55" s="53"/>
       <c r="J55" s="69">
         <v>0</v>
@@ -21997,7 +22007,7 @@
       <c r="S55" s="57"/>
       <c r="T55" s="9"/>
       <c r="U55" s="10"/>
-      <c r="V55" s="260"/>
+      <c r="V55" s="259"/>
     </row>
     <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30" t="s">
@@ -22007,8 +22017,8 @@
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
       <c r="F56" s="57"/>
-      <c r="G56" s="245"/>
-      <c r="H56" s="245"/>
+      <c r="G56" s="244"/>
+      <c r="H56" s="244"/>
       <c r="I56" s="53"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
@@ -22022,7 +22032,7 @@
       <c r="S56" s="57"/>
       <c r="T56" s="9"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="260"/>
+      <c r="V56" s="259"/>
     </row>
     <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="80" t="s">
@@ -22032,8 +22042,8 @@
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
-      <c r="G57" s="247"/>
-      <c r="H57" s="247"/>
+      <c r="G57" s="246"/>
+      <c r="H57" s="246"/>
       <c r="I57" s="63"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
@@ -22047,18 +22057,18 @@
       <c r="S57" s="57"/>
       <c r="T57" s="23"/>
       <c r="U57" s="24"/>
-      <c r="V57" s="260"/>
+      <c r="V57" s="259"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
-      <c r="C58" s="252" t="s">
+      <c r="C58" s="251" t="s">
         <v>352</v>
       </c>
       <c r="D58" s="57"/>
       <c r="E58" s="57"/>
       <c r="F58" s="57"/>
-      <c r="G58" s="245"/>
-      <c r="H58" s="245"/>
+      <c r="G58" s="244"/>
+      <c r="H58" s="244"/>
       <c r="I58" s="53"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
@@ -22072,23 +22082,23 @@
       <c r="S58" s="57"/>
       <c r="T58" s="5"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="261"/>
+      <c r="V58" s="260"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="188" t="s">
+      <c r="B59" s="187" t="s">
         <v>126</v>
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="57"/>
       <c r="E59" s="57"/>
       <c r="F59" s="57"/>
-      <c r="G59" s="245">
+      <c r="G59" s="244">
         <f>5709560*0.25</f>
         <v>1427390</v>
       </c>
-      <c r="H59" s="245"/>
-      <c r="I59" s="248"/>
-      <c r="J59" s="244">
+      <c r="H59" s="244"/>
+      <c r="I59" s="247"/>
+      <c r="J59" s="243">
         <f>-(+J23-J38)*0.25</f>
         <v>358270.25</v>
       </c>
@@ -22114,23 +22124,23 @@
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="188" t="s">
-        <v>448</v>
+      <c r="B60" s="187" t="s">
+        <v>443</v>
       </c>
       <c r="C60" s="57"/>
       <c r="D60" s="57"/>
       <c r="E60" s="57"/>
       <c r="F60" s="57"/>
-      <c r="G60" s="245"/>
-      <c r="H60" s="245">
+      <c r="G60" s="244"/>
+      <c r="H60" s="244">
         <f>+G59</f>
         <v>1427390</v>
       </c>
-      <c r="I60" s="263">
+      <c r="I60" s="262">
         <f>+J59</f>
         <v>358270.25</v>
       </c>
-      <c r="J60" s="248"/>
+      <c r="J60" s="247"/>
       <c r="K60" s="18"/>
       <c r="L60" s="69">
         <f>+K59</f>
@@ -22160,8 +22170,8 @@
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
       <c r="F61" s="57"/>
-      <c r="G61" s="245"/>
-      <c r="H61" s="245"/>
+      <c r="G61" s="244"/>
+      <c r="H61" s="244"/>
       <c r="I61" s="53"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
@@ -22184,8 +22194,8 @@
       <c r="D62" s="57"/>
       <c r="E62" s="57"/>
       <c r="F62" s="57"/>
-      <c r="G62" s="245"/>
-      <c r="H62" s="245"/>
+      <c r="G62" s="244"/>
+      <c r="H62" s="244"/>
       <c r="I62" s="53"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
@@ -22220,15 +22230,15 @@
         <f t="shared" ref="I63" si="12">SUM(I59:I62)</f>
         <v>358270.25</v>
       </c>
-      <c r="J63" s="207">
+      <c r="J63" s="206">
         <f>SUM(J59:J62)</f>
         <v>358270.25</v>
       </c>
-      <c r="K63" s="207">
+      <c r="K63" s="206">
         <f>SUM(K59:K62)</f>
         <v>-974792.5</v>
       </c>
-      <c r="L63" s="207">
+      <c r="L63" s="206">
         <f>SUM(L59:L62)</f>
         <v>-974792.5</v>
       </c>
@@ -22250,27 +22260,27 @@
       <c r="F64" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="G64" s="187">
-        <f>+G11+G20+G27+G35+G52+G40+G59</f>
+      <c r="G64" s="186">
+        <f>+G11+G20+G27+G35+G52+G40+G63</f>
         <v>213885084.938548</v>
       </c>
-      <c r="H64" s="187">
-        <f>+H11+H20+H27+H35+H52+H40+H59</f>
-        <v>212457694.938548</v>
-      </c>
-      <c r="I64" s="187">
+      <c r="H64" s="186">
+        <f>+H11+H20+H27+H35+H52+H40+H63</f>
+        <v>213885084.938548</v>
+      </c>
+      <c r="I64" s="186">
         <f>+I11+I20+I27+I35+I52+I40+J59</f>
         <v>162504966.685148</v>
       </c>
-      <c r="J64" s="187">
+      <c r="J64" s="186">
         <f>+J11+J20+J27+J35+J52+J40+I60</f>
         <v>162504967.188548</v>
       </c>
-      <c r="K64" s="187">
+      <c r="K64" s="186">
         <f>+K11+K20+K27+K35+K52+K40+K59</f>
         <v>124036288.438548</v>
       </c>
-      <c r="L64" s="187">
+      <c r="L64" s="186">
         <f>+L11+L20+L27+L35+L52+L40+L60</f>
         <v>124036288.438548</v>
       </c>
@@ -22299,7 +22309,7 @@
         <v>#REF!</v>
       </c>
       <c r="S64" s="2"/>
-      <c r="T64" s="208">
+      <c r="T64" s="207">
         <f>+T11+T20+T27+T35</f>
         <v>17692260</v>
       </c>
@@ -22309,6 +22319,10 @@
       </c>
     </row>
     <row r="65" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="277">
+        <f>+G64-H64</f>
+        <v>0</v>
+      </c>
       <c r="O65" s="32"/>
     </row>
     <row r="66" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
@@ -22337,7 +22351,7 @@
         <v>#REF!</v>
       </c>
       <c r="R66" s="52"/>
-      <c r="T66" s="209" t="e">
+      <c r="T66" s="208" t="e">
         <f>+#REF!-U8-#REF!</f>
         <v>#REF!</v>
       </c>
@@ -22373,7 +22387,7 @@
       <c r="U67" s="53"/>
     </row>
     <row r="68" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="210" t="s">
+      <c r="B68" s="209" t="s">
         <v>361</v>
       </c>
       <c r="C68" s="61"/>
@@ -22388,17 +22402,17 @@
       <c r="L68" s="61"/>
       <c r="M68" s="61"/>
       <c r="N68" s="61"/>
-      <c r="O68" s="211" t="e">
+      <c r="O68" s="210" t="e">
         <f>+O66+O67</f>
         <v>#REF!</v>
       </c>
       <c r="P68" s="61"/>
-      <c r="Q68" s="211" t="e">
+      <c r="Q68" s="210" t="e">
         <f>+Q66+Q67</f>
         <v>#REF!</v>
       </c>
       <c r="R68" s="62"/>
-      <c r="T68" s="212" t="e">
+      <c r="T68" s="211" t="e">
         <f>+T66+T67</f>
         <v>#REF!</v>
       </c>
@@ -22433,32 +22447,32 @@
       <c r="P71" s="57"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F72" s="275" t="s">
+      <c r="F72" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="G72" s="275"/>
-      <c r="H72" s="275"/>
-      <c r="I72" s="275"/>
-      <c r="J72" s="275"/>
-      <c r="K72" s="275"/>
-      <c r="L72" s="275"/>
-      <c r="M72" s="275"/>
-      <c r="N72" s="275"/>
+      <c r="G72" s="292"/>
+      <c r="H72" s="292"/>
+      <c r="I72" s="292"/>
+      <c r="J72" s="292"/>
+      <c r="K72" s="292"/>
+      <c r="L72" s="292"/>
+      <c r="M72" s="292"/>
+      <c r="N72" s="292"/>
       <c r="O72" s="57"/>
       <c r="P72" s="57"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F73" s="276" t="s">
+      <c r="F73" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="276"/>
-      <c r="H73" s="276"/>
-      <c r="I73" s="276"/>
-      <c r="J73" s="276"/>
-      <c r="K73" s="276"/>
-      <c r="L73" s="276"/>
-      <c r="M73" s="276"/>
-      <c r="N73" s="276"/>
+      <c r="G73" s="293"/>
+      <c r="H73" s="293"/>
+      <c r="I73" s="293"/>
+      <c r="J73" s="293"/>
+      <c r="K73" s="293"/>
+      <c r="L73" s="293"/>
+      <c r="M73" s="293"/>
+      <c r="N73" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -22485,16 +22499,18 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="10" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3.28515625" customWidth="1"/>
@@ -22523,22 +22539,22 @@
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="213">
+      <c r="H5" s="212">
         <v>2020</v>
       </c>
-      <c r="I5" s="213">
+      <c r="I5" s="212">
         <v>2019</v>
       </c>
-      <c r="J5" s="213">
+      <c r="J5" s="212">
         <v>2018</v>
       </c>
-      <c r="K5" s="213">
+      <c r="K5" s="212">
         <v>2017</v>
       </c>
-      <c r="L5" s="213">
+      <c r="L5" s="212">
         <v>2016</v>
       </c>
-      <c r="N5" s="202" t="s">
+      <c r="N5" s="201" t="s">
         <v>365</v>
       </c>
     </row>
@@ -22634,16 +22650,15 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="10">
-        <f>-AD!G59</f>
-        <v>-1427390</v>
+        <f>AD!G59</f>
+        <v>1427390</v>
       </c>
       <c r="I9" s="10">
-        <f>+AD!I60</f>
-        <v>358270.25</v>
+        <f>-AD!I60</f>
+        <v>-358270.25</v>
       </c>
       <c r="J9" s="10">
-        <f>+ER!M35</f>
-        <v>-358270.25</v>
+        <v>-555397</v>
       </c>
       <c r="K9" s="10">
         <f>+AD!N60</f>
@@ -22654,12 +22669,12 @@
         <v>3486156.52</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>372</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -22667,40 +22682,39 @@
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="10">
-        <f>4653361-4282170</f>
-        <v>371191</v>
+        <f>-7136950+4653351</f>
+        <v>-2483599</v>
       </c>
       <c r="I10" s="10">
-        <f>+ER!G28</f>
-        <v>-2483589</v>
+        <v>687293</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="N10" s="18" t="s">
-        <v>374</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
       <c r="H11" s="74">
         <f>SUM(H7:H10)</f>
-        <v>4653361</v>
+        <v>4653351</v>
       </c>
       <c r="I11" s="74">
         <f>SUM(I7:I10)</f>
-        <v>-692237.75</v>
+        <v>1762103.75</v>
       </c>
       <c r="J11" s="74">
         <f>SUM(J7:J10)</f>
-        <v>3540899.75</v>
+        <v>3343773</v>
       </c>
       <c r="K11" s="74">
         <f>SUM(K7:K10)</f>
@@ -22719,7 +22733,7 @@
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -22731,11 +22745,11 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="N13" s="190"/>
+      <c r="N13" s="189"/>
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -22747,19 +22761,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="N14" s="190"/>
-    </row>
-    <row r="15" spans="1:14" s="215" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="216"/>
-      <c r="C15" s="217" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
+      <c r="N14" s="189"/>
+    </row>
+    <row r="15" spans="1:14" s="214" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="215"/>
+      <c r="C15" s="216" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="216"/>
       <c r="J15" s="70"/>
       <c r="K15" s="70">
         <f>+AD!M22</f>
@@ -22768,13 +22782,13 @@
       <c r="L15" s="70">
         <v>48803746</v>
       </c>
-      <c r="N15" s="218" t="s">
-        <v>378</v>
+      <c r="N15" s="217" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -22786,12 +22800,12 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="N16" s="190"/>
+      <c r="N16" s="189"/>
     </row>
     <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
@@ -22808,14 +22822,14 @@
         <f>+AD!P23</f>
         <v>15846166</v>
       </c>
-      <c r="N17" s="190" t="s">
-        <v>381</v>
+      <c r="N17" s="189" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -22832,89 +22846,102 @@
         <f>+AD!P24</f>
         <v>26625458</v>
       </c>
-      <c r="N18" s="190"/>
-    </row>
-    <row r="19" spans="2:14" s="215" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="219"/>
-      <c r="C19" s="279" t="s">
-        <v>383</v>
-      </c>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="220">
-        <v>0</v>
-      </c>
-      <c r="L19" s="220">
+      <c r="N18" s="189"/>
+    </row>
+    <row r="19" spans="2:14" s="214" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="218"/>
+      <c r="C19" s="296" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="296"/>
+      <c r="I19" s="296"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="219">
+        <v>0</v>
+      </c>
+      <c r="L19" s="219">
         <f>+L15-L17-L18</f>
         <v>6332122</v>
       </c>
-      <c r="N19" s="221" t="s">
-        <v>384</v>
+      <c r="N19" s="220" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <f t="shared" ref="I20:K20" si="0">+I8+I7</f>
+        <v>1433081</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>3899170</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="0"/>
+        <v>1258029</v>
+      </c>
+      <c r="L20" s="2">
+        <f>+L8+L7</f>
+        <v>-11923648.523399999</v>
+      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="280" t="s">
+      <c r="B22" s="297" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" s="297"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="221" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="222" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="280"/>
-      <c r="D22" s="280"/>
-      <c r="E22" s="222" t="s">
+      <c r="G22" s="221" t="s">
         <v>387</v>
       </c>
-      <c r="F22" s="223" t="s">
+      <c r="H22" s="221" t="s">
         <v>388</v>
       </c>
-      <c r="G22" s="222" t="s">
+      <c r="J22" s="223" t="s">
         <v>389</v>
-      </c>
-      <c r="H22" s="222"/>
-      <c r="I22" s="222" t="s">
-        <v>390</v>
-      </c>
-      <c r="J22" s="224" t="s">
-        <v>391</v>
       </c>
       <c r="L22" s="2"/>
       <c r="N22" s="17"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="225">
+      <c r="B23" s="224">
         <v>2015</v>
       </c>
-      <c r="C23" s="226"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228">
-        <f>-AD!P50</f>
-        <v>-7213414</v>
-      </c>
-      <c r="F23" s="229"/>
-      <c r="G23" s="230">
-        <f>+E23+F23</f>
-        <v>-7213414</v>
-      </c>
-      <c r="H23" s="230"/>
-      <c r="I23" s="231">
-        <v>0</v>
-      </c>
-      <c r="J23" s="228">
-        <f>+G23+I23</f>
-        <v>-7213414</v>
+      <c r="C23" s="225"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="227">
+        <f>-AD!P50-670288</f>
+        <v>-7883702</v>
+      </c>
+      <c r="F23" s="228"/>
+      <c r="G23" s="229">
+        <f>+F23+E23</f>
+        <v>-7883702</v>
+      </c>
+      <c r="H23" s="230">
+        <v>0</v>
+      </c>
+      <c r="J23" s="227">
+        <f t="shared" ref="J23:J28" si="1">+G23+H23</f>
+        <v>-7883702</v>
       </c>
       <c r="L23" s="2"/>
       <c r="N23" s="18"/>
@@ -22933,23 +22960,22 @@
         <f>+L8</f>
         <v>3922517.4766000002</v>
       </c>
-      <c r="G24" s="69">
-        <f>+E24+F24</f>
+      <c r="G24" s="229">
+        <f t="shared" ref="G24:G28" si="2">+F24+E24</f>
         <v>-11923648.523399999</v>
       </c>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69">
+      <c r="H24" s="69">
         <f>+L9</f>
         <v>3486156.52</v>
       </c>
       <c r="J24" s="10">
-        <f>+G24+I24</f>
+        <f t="shared" si="1"/>
         <v>-8437492.0033999998</v>
       </c>
-      <c r="K24" s="232"/>
+      <c r="K24" s="231"/>
       <c r="L24" s="2"/>
       <c r="N24" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -22966,23 +22992,22 @@
         <f>+K8</f>
         <v>8402210</v>
       </c>
-      <c r="G25" s="69">
-        <f>+E25+F25</f>
+      <c r="G25" s="229">
+        <f t="shared" si="2"/>
         <v>1258029</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69">
+      <c r="H25" s="69">
         <f>+K9</f>
         <v>591847.41514800023</v>
       </c>
       <c r="J25" s="10">
-        <f>+G25+I25</f>
+        <f t="shared" si="1"/>
         <v>1849876.4151480002</v>
       </c>
-      <c r="K25" s="232"/>
+      <c r="K25" s="231"/>
       <c r="L25" s="2"/>
       <c r="N25" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -22997,23 +23022,22 @@
         <f>+J8</f>
         <v>9726442</v>
       </c>
-      <c r="G26" s="69">
-        <f>+E26+F26</f>
+      <c r="G26" s="229">
+        <f t="shared" si="2"/>
         <v>3899170</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69">
+      <c r="H26" s="69">
         <f>+J9</f>
-        <v>-358270.25</v>
+        <v>-555397</v>
       </c>
       <c r="J26" s="10">
-        <f>+G26+I26</f>
-        <v>3540899.75</v>
-      </c>
-      <c r="K26" s="232"/>
+        <f t="shared" si="1"/>
+        <v>3343773</v>
+      </c>
+      <c r="K26" s="231"/>
       <c r="L26" s="2"/>
       <c r="N26" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -23028,82 +23052,80 @@
         <f>+I8</f>
         <v>9636341</v>
       </c>
-      <c r="G27" s="69">
-        <f>+E27+F27</f>
+      <c r="G27" s="229">
+        <f t="shared" si="2"/>
         <v>1433081</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69">
+      <c r="H27" s="69">
         <f>+I9</f>
-        <v>358270.25</v>
+        <v>-358270.25</v>
       </c>
       <c r="J27" s="10">
-        <f>+G27+I27</f>
-        <v>1791351.25</v>
-      </c>
-      <c r="K27" s="232"/>
+        <f t="shared" si="1"/>
+        <v>1074810.75</v>
+      </c>
+      <c r="K27" s="231"/>
       <c r="L27" s="2"/>
       <c r="N27" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="30">
         <v>2020</v>
       </c>
-      <c r="E28" s="207">
+      <c r="D28" s="279"/>
+      <c r="E28" s="206">
         <f>+H7</f>
         <v>-4118950</v>
       </c>
-      <c r="F28" s="207">
+      <c r="F28" s="206">
         <f>+H8</f>
         <v>9828510</v>
       </c>
-      <c r="G28" s="69">
-        <f>+E28+F28</f>
+      <c r="G28" s="229">
+        <f t="shared" si="2"/>
         <v>5709560</v>
       </c>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207">
+      <c r="H28" s="206">
         <f>+H9</f>
-        <v>-1427390</v>
+        <v>1427390</v>
       </c>
       <c r="J28" s="10">
-        <f>+G28+I28</f>
-        <v>4282170</v>
-      </c>
-      <c r="K28" s="232"/>
+        <f t="shared" si="1"/>
+        <v>7136950</v>
+      </c>
+      <c r="K28" s="231"/>
       <c r="L28" s="2"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="53"/>
       <c r="E29" s="45">
         <f>SUM(E23:E28)</f>
-        <v>-48353243</v>
+        <v>-49023531</v>
       </c>
       <c r="F29" s="45">
-        <f t="shared" ref="F29:G29" si="0">SUM(F23:F28)</f>
+        <f t="shared" ref="F29:G29" si="3">SUM(F23:F28)</f>
         <v>41516020.476599999</v>
       </c>
-      <c r="G29" s="45">
-        <f t="shared" si="0"/>
-        <v>-6837222.5234000012</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="298">
-        <f>SUM(I23:I28)</f>
-        <v>2650613.9351480003</v>
+      <c r="G29" s="280">
+        <f t="shared" si="3"/>
+        <v>-7507510.5234000012</v>
+      </c>
+      <c r="H29" s="278">
+        <f>SUM(H23:H28)</f>
+        <v>4591726.6851480007</v>
       </c>
       <c r="J29" s="45">
         <f>SUM(J23:J28)</f>
-        <v>-4186608.5882520005</v>
-      </c>
-      <c r="K29" s="233"/>
+        <v>-2915783.8382520005</v>
+      </c>
+      <c r="K29" s="232"/>
       <c r="L29" s="2"/>
       <c r="N29" s="18"/>
     </row>
@@ -23117,21 +23139,20 @@
         <v>0</v>
       </c>
       <c r="F30" s="10">
-        <f>(-E29-F29)/3</f>
-        <v>2279074.1744666672</v>
+        <f>-E26/3-E27/3-E28/3</f>
+        <v>6049827.333333333</v>
       </c>
       <c r="G30" s="69">
         <f>+E30+F30</f>
-        <v>2279074.1744666672</v>
-      </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="10">
+        <v>6049827.333333333</v>
+      </c>
+      <c r="H30" s="10">
         <f>-G30*0.25</f>
-        <v>-569768.54361666681</v>
+        <v>-1512456.8333333333</v>
       </c>
       <c r="J30" s="10">
-        <f>+G30+I30</f>
-        <v>1709305.6308500003</v>
+        <f>+G30+H30</f>
+        <v>4537370.5</v>
       </c>
       <c r="N30" s="18"/>
     </row>
@@ -23145,25 +23166,22 @@
         <v>0</v>
       </c>
       <c r="F31" s="69">
-        <f>+F30</f>
-        <v>2279074.1744666672</v>
+        <f>-E27/3-E28/3</f>
+        <v>4107403.333333333</v>
       </c>
       <c r="G31" s="69">
         <f>+E31+F31</f>
-        <v>2279074.1744666672</v>
-      </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="10">
+        <v>4107403.333333333</v>
+      </c>
+      <c r="H31" s="10">
         <f>-G31*0.25</f>
-        <v>-569768.54361666681</v>
+        <v>-1026850.8333333333</v>
       </c>
       <c r="J31" s="10">
-        <f>+G31+I31</f>
-        <v>1709305.6308500003</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>397</v>
-      </c>
+        <f>+G31+H31</f>
+        <v>3080552.5</v>
+      </c>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="30">
@@ -23175,28 +23193,27 @@
         <v>0</v>
       </c>
       <c r="F32" s="69">
-        <f>+F31</f>
-        <v>2279074.1744666672</v>
+        <f>-E28/3</f>
+        <v>1372983.3333333333</v>
       </c>
       <c r="G32" s="69">
         <f>+E32+F32</f>
-        <v>2279074.1744666672</v>
-      </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="10">
+        <v>1372983.3333333333</v>
+      </c>
+      <c r="H32" s="10">
         <f>-G32*0.25</f>
-        <v>-569768.54361666681</v>
+        <v>-343245.83333333331</v>
       </c>
       <c r="J32" s="10">
-        <f>+G32+I32</f>
-        <v>1709305.6308500003</v>
+        <f>+G32+H32</f>
+        <v>1029737.5</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="N32" s="27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N32" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="80" t="s">
         <v>18</v>
       </c>
@@ -23204,24 +23221,26 @@
       <c r="D33" s="63"/>
       <c r="E33" s="45">
         <f>SUM(E29:E32)</f>
-        <v>-48353243</v>
+        <v>-49023531</v>
       </c>
       <c r="F33" s="45">
         <f>SUM(F30:F32)</f>
-        <v>6837222.5234000012</v>
+        <v>11530214</v>
       </c>
       <c r="G33" s="45">
         <f>SUM(G29:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45">
-        <f>SUM(I29:I32)</f>
-        <v>941308.3042979996</v>
+        <v>4022703.4765999978</v>
+      </c>
+      <c r="H33" s="45">
+        <f>SUM(H29:H32)</f>
+        <v>1709173.1851480012</v>
       </c>
       <c r="J33" s="45">
         <f>SUM(J29:J32)</f>
-        <v>941308.30429800041</v>
+        <v>5731876.6617479995</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -23230,7 +23249,7 @@
     <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23239,7 +23258,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23259,7 +23278,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -23269,46 +23288,45 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" s="234">
+        <v>396</v>
+      </c>
+      <c r="F5" s="233">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="233">
         <v>2019</v>
       </c>
-      <c r="G5" s="234">
-        <v>2019</v>
-      </c>
-      <c r="H5" s="234">
+      <c r="H5" s="233">
         <v>2018</v>
       </c>
-      <c r="I5" s="234">
+      <c r="I5" s="233">
         <v>2017</v>
       </c>
-      <c r="J5" s="234">
+      <c r="J5" s="233">
         <v>2016</v>
       </c>
-      <c r="K5" s="234">
+      <c r="K5" s="233">
         <v>2015</v>
       </c>
-      <c r="L5" s="234">
+      <c r="L5" s="233">
         <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F9" s="2">
-        <f>+ER!G32</f>
-        <v>3225971</v>
+        <f>+ER!H32</f>
+        <v>58247732</v>
       </c>
       <c r="G9" s="2">
-        <f>+ER!H32</f>
-        <v>54763390</v>
+        <v>39916747</v>
       </c>
       <c r="H9" s="2">
         <f>+ER!N32</f>
@@ -23330,19 +23348,18 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="2">
-        <f>-ER!G31</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
         <f>-ER!H31</f>
         <v>2563374</v>
       </c>
+      <c r="G10" s="2">
+        <v>2981098</v>
+      </c>
       <c r="H10" s="2">
         <v>3489748</v>
       </c>
@@ -23361,45 +23378,44 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="235">
-        <f>+EFE!N12+EFE!N13+EFE!N14+EFE!N16</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="235">
-        <f>+EFE!O12+EFE!O13+EFE!O14+EFE!O16</f>
+        <v>400</v>
+      </c>
+      <c r="F11" s="234">
+        <f>9966219+2380934+39210+17432605</f>
+        <v>29818968</v>
+      </c>
+      <c r="G11" s="234">
         <v>33282575</v>
       </c>
-      <c r="H11" s="235">
+      <c r="H11" s="234">
         <f>19410412+1818050</f>
         <v>21228462</v>
       </c>
-      <c r="I11" s="235">
+      <c r="I11" s="234">
         <f>+EFE!AA12+EFE!AA16</f>
         <v>19495936</v>
       </c>
-      <c r="J11" s="235">
+      <c r="J11" s="234">
         <v>20363773.523400001</v>
       </c>
-      <c r="K11" s="235">
+      <c r="K11" s="234">
         <v>19601882</v>
       </c>
-      <c r="L11" s="235">
+      <c r="L11" s="234">
         <v>15975450</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F12" s="2">
         <f>SUM(F9:F11)</f>
-        <v>3225971</v>
+        <v>90630074</v>
       </c>
       <c r="G12" s="2">
         <f>SUM(G9:G11)</f>
-        <v>90609339</v>
+        <v>76180420</v>
       </c>
       <c r="H12" s="2">
         <f>SUM(H9:H11)</f>
@@ -23429,15 +23445,14 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F14" s="2">
-        <f>-ER!G31</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
         <f>-ER!H31</f>
         <v>2563374</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2981098</v>
       </c>
       <c r="H14" s="2">
         <f>-ER!N31</f>
@@ -23463,32 +23478,32 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>400</v>
-      </c>
-      <c r="F16" s="236" t="e">
+        <v>396</v>
+      </c>
+      <c r="F16" s="235">
         <f>+F12/F14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="236">
+        <v>35.355774849865838</v>
+      </c>
+      <c r="G16" s="235">
         <f>+G12/G14</f>
-        <v>35.347685901472047</v>
-      </c>
-      <c r="H16" s="236">
+        <v>25.554483616439313</v>
+      </c>
+      <c r="H16" s="235">
         <f>+H12/H14</f>
         <v>21.681594164297852</v>
       </c>
-      <c r="I16" s="237">
+      <c r="I16" s="236">
         <f>+I12/I14</f>
         <v>6.8643722978311628</v>
       </c>
-      <c r="J16" s="237">
+      <c r="J16" s="236">
         <f>+J12/J14</f>
         <v>5.6441581674700183</v>
       </c>
-      <c r="K16" s="237">
+      <c r="K16" s="236">
         <v>7.7511656937806501</v>
       </c>
-      <c r="L16" s="237">
+      <c r="L16" s="236">
         <f>+L12/L14</f>
         <v>10.521817659522618</v>
       </c>
@@ -23499,7 +23514,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -23510,15 +23525,14 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F20" s="2">
-        <f>+ER!G29</f>
-        <v>3225971</v>
+        <f>+ER!H29</f>
+        <v>60811106</v>
       </c>
       <c r="G20" s="2">
-        <f>+ER!H29</f>
-        <v>57326764</v>
+        <v>42897845</v>
       </c>
       <c r="H20" s="2">
         <f>+ER!N29</f>
@@ -23545,22 +23559,21 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F23" s="2">
-        <f>+'BG '!H40+'BG '!H41-54803</f>
-        <v>-54803</v>
+        <f>+'BG '!I40+'BG '!I41+'BG '!I39-54804</f>
+        <v>11301347</v>
       </c>
       <c r="G23" s="2">
-        <f>+'BG '!I40+'BG '!I41-54803</f>
-        <v>9821712</v>
+        <v>7538300</v>
       </c>
       <c r="H23" s="2">
         <f>+'BG '!O40+'BG '!O41</f>
@@ -23582,42 +23595,43 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="F24" s="235">
+      <c r="F24" s="234">
+        <f>17173+37631</f>
+        <v>54804</v>
+      </c>
+      <c r="G24" s="234">
         <v>54803</v>
       </c>
-      <c r="G24" s="235">
-        <v>54803</v>
-      </c>
-      <c r="H24" s="235">
+      <c r="H24" s="234">
         <v>241620</v>
       </c>
-      <c r="I24" s="235">
+      <c r="I24" s="234">
         <v>474206</v>
       </c>
-      <c r="J24" s="235">
+      <c r="J24" s="234">
         <v>468655.790862364</v>
       </c>
-      <c r="K24" s="235">
+      <c r="K24" s="234">
         <v>369086</v>
       </c>
-      <c r="L24" s="235">
+      <c r="L24" s="234">
         <v>259746</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F25" s="2">
         <f>+F23+F24</f>
-        <v>0</v>
+        <v>11356151</v>
       </c>
       <c r="G25" s="2">
         <f>+G23+G24</f>
-        <v>9876515</v>
+        <v>7593103</v>
       </c>
       <c r="H25" s="2">
         <f>+H23+H24</f>
@@ -23645,32 +23659,32 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>413</v>
-      </c>
-      <c r="F27" s="237" t="e">
+        <v>409</v>
+      </c>
+      <c r="F27" s="236">
         <f>+F20/F25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="237">
+        <v>5.3549046679636438</v>
+      </c>
+      <c r="G27" s="236">
         <f>+G20/G25</f>
-        <v>5.8043514336787823</v>
-      </c>
-      <c r="H27" s="237">
+        <v>5.6495802835810336</v>
+      </c>
+      <c r="H27" s="236">
         <f>+H20/H25</f>
         <v>5.475349288034816</v>
       </c>
-      <c r="I27" s="237">
+      <c r="I27" s="236">
         <f>+I20/I25</f>
         <v>0.69389331368107188</v>
       </c>
-      <c r="J27" s="237">
+      <c r="J27" s="236">
         <f>+J20/J25</f>
         <v>0.21676208039034764</v>
       </c>
-      <c r="K27" s="237">
+      <c r="K27" s="236">
         <v>0.49498075080882797</v>
       </c>
-      <c r="L27" s="237">
+      <c r="L27" s="236">
         <f>+L20/L25</f>
         <v>0.78906880499086873</v>
       </c>
@@ -23681,7 +23695,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -23692,15 +23706,15 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F31" s="32">
         <f>+F23</f>
-        <v>-54803</v>
+        <v>11301347</v>
       </c>
       <c r="G31" s="32">
         <f>+G23</f>
-        <v>9821712</v>
+        <v>7538300</v>
       </c>
       <c r="H31" s="32">
         <f>+H23</f>
@@ -23722,15 +23736,15 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F32" s="32">
         <f>+F12</f>
-        <v>3225971</v>
+        <v>90630074</v>
       </c>
       <c r="G32" s="32">
         <f>+G12</f>
-        <v>90609339</v>
+        <v>76180420</v>
       </c>
       <c r="H32" s="32">
         <f>+H12</f>
@@ -23752,32 +23766,32 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>416</v>
-      </c>
-      <c r="F33" s="237">
+        <v>412</v>
+      </c>
+      <c r="F33" s="236">
         <f>+F31/F32</f>
-        <v>-1.6988063438883982E-2</v>
-      </c>
-      <c r="G33" s="237">
+        <v>0.12469753693459414</v>
+      </c>
+      <c r="G33" s="236">
         <f>+G31/G32</f>
-        <v>0.10839624379116153</v>
-      </c>
-      <c r="H33" s="237">
+        <v>9.8953248091832521E-2</v>
+      </c>
+      <c r="H33" s="236">
         <f>+H31/H32</f>
         <v>0.11747672393438739</v>
       </c>
-      <c r="I33" s="237">
+      <c r="I33" s="236">
         <f>+I31/I32</f>
         <v>0.70212947130931203</v>
       </c>
-      <c r="J33" s="237">
+      <c r="J33" s="236">
         <f>+J31/J32</f>
         <v>1.2467781740563444</v>
       </c>
-      <c r="K33" s="237">
+      <c r="K33" s="236">
         <v>0.82273837616662104</v>
       </c>
-      <c r="L33" s="237">
+      <c r="L33" s="236">
         <f>+L31/L32</f>
         <v>0.51816577088920346</v>
       </c>

--- a/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
+++ b/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\Combinado 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259675EF-E5D0-4689-B894-AD32ADE31C8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C1556A-64AB-4367-AF5C-9C04B39687F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -1848,7 +1848,7 @@
     <numFmt numFmtId="174" formatCode="0.0%"/>
     <numFmt numFmtId="175" formatCode="0.0"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2868,11 +2868,78 @@
     <xf numFmtId="166" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="30" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2910,73 +2977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="30" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3071,6 +3071,82 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Indice"/>
+      <sheetName val="BG "/>
+      <sheetName val="ER"/>
+      <sheetName val="EFE"/>
+      <sheetName val="Hoja de trabajo"/>
+      <sheetName val="PAT"/>
+      <sheetName val="AD"/>
+      <sheetName val="Impuesto diferido"/>
+      <sheetName val="Ratios"/>
+      <sheetName val="PP&amp;E"/>
+      <sheetName val="Impto diferido"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="32">
+          <cell r="J32">
+            <v>13627931.449999988</v>
+          </cell>
+          <cell r="M32">
+            <v>3639537</v>
+          </cell>
+          <cell r="S32">
+            <v>1245089</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="M35">
+            <v>-555396.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="5">
+          <cell r="B5">
+            <v>7639576</v>
+          </cell>
+          <cell r="K5">
+            <v>50776</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="23">
+          <cell r="J23">
+            <v>5827272</v>
+          </cell>
+          <cell r="L23">
+            <v>7144181</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="J41">
+            <v>9726442</v>
+          </cell>
+          <cell r="L41">
+            <v>8402210</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3312,82 +3388,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="24" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Indice"/>
-      <sheetName val="BG "/>
-      <sheetName val="ER"/>
-      <sheetName val="EFE"/>
-      <sheetName val="Hoja de trabajo"/>
-      <sheetName val="PAT"/>
-      <sheetName val="AD"/>
-      <sheetName val="Impuesto diferido"/>
-      <sheetName val="Ratios"/>
-      <sheetName val="PP&amp;E"/>
-      <sheetName val="Impto diferido"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="32">
-          <cell r="J32">
-            <v>13627931.449999988</v>
-          </cell>
-          <cell r="M32">
-            <v>3639537</v>
-          </cell>
-          <cell r="S32">
-            <v>1245089</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="M35">
-            <v>-555396.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="5">
-          <cell r="B5">
-            <v>7639576</v>
-          </cell>
-          <cell r="K5">
-            <v>50776</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="23">
-          <cell r="J23">
-            <v>5827272</v>
-          </cell>
-          <cell r="L23">
-            <v>7144181</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>9726442</v>
-          </cell>
-          <cell r="L41">
-            <v>8402210</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3787,11 +3787,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="278" t="s">
+      <c r="C4" s="321" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
       <c r="F4" s="221" t="s">
         <v>410</v>
       </c>
@@ -4975,11 +4975,11 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="265" t="s">
+      <c r="A21" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="265"/>
-      <c r="C21" s="265"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -8915,11 +8915,11 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="266" t="s">
+      <c r="A39" s="302" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="266"/>
-      <c r="C39" s="266"/>
+      <c r="B39" s="302"/>
+      <c r="C39" s="302"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10">
         <v>139500</v>
@@ -9120,11 +9120,11 @@
   </sheetPr>
   <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -9132,18 +9132,18 @@
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="1.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="280" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.140625" style="280" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="266" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.140625" style="266" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="1.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="280" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.140625" style="280" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.28515625" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.140625" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" hidden="1" customWidth="1"/>
@@ -9151,45 +9151,45 @@
     <col min="20" max="20" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="2.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="280" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="280" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="266" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="266" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="12.140625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="265" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="280"/>
+      <c r="R2" s="266"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="267" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="282"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
-      <c r="Q3" s="282"/>
-      <c r="R3" s="282"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="268"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
@@ -9198,275 +9198,275 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="284" t="s">
+      <c r="H4" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="284">
+      <c r="I4" s="270">
         <v>2020</v>
       </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
+      <c r="K4" s="269"/>
+      <c r="L4" s="269"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="284" t="s">
+      <c r="N4" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="284">
+      <c r="O4" s="270">
         <v>2019</v>
       </c>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="283"/>
+      <c r="Q4" s="269"/>
+      <c r="R4" s="269"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="284" t="s">
+      <c r="T4" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="284">
+      <c r="U4" s="270">
         <v>2018</v>
       </c>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
+      <c r="W4" s="269"/>
+      <c r="X4" s="269"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="284" t="s">
+      <c r="Z4" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="284">
+      <c r="AA4" s="270">
         <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E5" s="285" t="s">
+      <c r="E5" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="285" t="s">
+      <c r="F5" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="286" t="s">
+      <c r="G5" s="272" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="287" t="s">
+      <c r="H5" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="286" t="s">
+      <c r="I5" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="285" t="s">
+      <c r="K5" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="285" t="s">
+      <c r="L5" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="286" t="s">
+      <c r="M5" s="272" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="287" t="s">
+      <c r="N5" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="286" t="s">
+      <c r="O5" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="285" t="s">
+      <c r="Q5" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="285" t="s">
+      <c r="R5" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="286" t="s">
+      <c r="S5" s="272" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="287" t="s">
+      <c r="T5" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="286" t="s">
+      <c r="U5" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="285" t="s">
+      <c r="W5" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="285" t="s">
+      <c r="X5" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="286" t="s">
+      <c r="Y5" s="272" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="287" t="s">
+      <c r="Z5" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="286" t="s">
+      <c r="AA5" s="272" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="K6" s="283"/>
-      <c r="L6" s="283"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="Q6" s="283"/>
-      <c r="R6" s="283"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="269"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="W6" s="283"/>
-      <c r="X6" s="283"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="274" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
       <c r="J7" s="52"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="283"/>
-      <c r="N7" s="283"/>
-      <c r="O7" s="283"/>
-      <c r="Q7" s="283"/>
-      <c r="R7" s="283"/>
-      <c r="S7" s="283"/>
-      <c r="T7" s="283"/>
-      <c r="U7" s="283"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="Q7" s="269"/>
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
       <c r="V7" s="52"/>
-      <c r="W7" s="283"/>
-      <c r="X7" s="283"/>
-      <c r="Y7" s="283"/>
-      <c r="Z7" s="283"/>
-      <c r="AA7" s="283"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="275" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="52"/>
-      <c r="E8" s="283">
+      <c r="E8" s="269">
         <f>+ER!D32+ER!D34</f>
         <v>27023893</v>
       </c>
-      <c r="F8" s="283">
+      <c r="F8" s="269">
         <f>+ER!E32+ER!E34</f>
         <v>19744604</v>
       </c>
-      <c r="G8" s="283">
+      <c r="G8" s="269">
         <f>+E8+F8</f>
         <v>46768497</v>
       </c>
-      <c r="H8" s="283">
+      <c r="H8" s="269">
         <f>+ER!G32+ER!G34</f>
         <v>3225971</v>
       </c>
-      <c r="I8" s="304">
+      <c r="I8" s="298">
         <f t="shared" ref="I8:I22" si="0">+G8+H8</f>
         <v>49994468</v>
       </c>
       <c r="J8" s="52"/>
-      <c r="K8" s="283">
+      <c r="K8" s="269">
         <v>21433650</v>
       </c>
-      <c r="L8" s="283">
+      <c r="L8" s="269">
         <v>9577830</v>
       </c>
-      <c r="M8" s="283">
+      <c r="M8" s="269">
         <v>31011480</v>
       </c>
-      <c r="N8" s="283">
+      <c r="N8" s="269">
         <v>2120374</v>
       </c>
-      <c r="O8" s="283">
+      <c r="O8" s="269">
         <v>33131854</v>
       </c>
-      <c r="Q8" s="283">
-        <f>[2]ER!J32</f>
+      <c r="Q8" s="269">
+        <f>[1]ER!J32</f>
         <v>13627931.449999988</v>
       </c>
-      <c r="R8" s="283">
+      <c r="R8" s="269">
         <v>5215409</v>
       </c>
-      <c r="S8" s="283">
+      <c r="S8" s="269">
         <f>+Q8+R8</f>
         <v>18843340.449999988</v>
       </c>
-      <c r="T8" s="283">
-        <f>+[2]ER!M32</f>
+      <c r="T8" s="269">
+        <f>+[1]ER!M32</f>
         <v>3639537</v>
       </c>
-      <c r="U8" s="283">
+      <c r="U8" s="269">
         <f>+S8+T8</f>
         <v>22482877.449999988</v>
       </c>
       <c r="V8" s="52"/>
-      <c r="W8" s="283">
+      <c r="W8" s="269">
         <f>10608696-1591304</f>
         <v>9017392</v>
       </c>
-      <c r="X8" s="283">
+      <c r="X8" s="269">
         <v>3270021</v>
       </c>
-      <c r="Y8" s="283">
+      <c r="Y8" s="269">
         <f>+W8+X8</f>
         <v>12287413</v>
       </c>
-      <c r="Z8" s="283">
-        <f>+[2]ER!S32</f>
+      <c r="Z8" s="269">
+        <f>+[1]ER!S32</f>
         <v>1245089</v>
       </c>
-      <c r="AA8" s="283">
+      <c r="AA8" s="269">
         <f>+Y8+Z8</f>
         <v>13532502</v>
       </c>
-      <c r="AC8" s="310">
+      <c r="AC8" s="289">
         <f>+I8-'Hoja de trabajo'!K47</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="290" t="s">
+      <c r="B9" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="291"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="283">
+      <c r="C9" s="304"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269">
         <f t="shared" ref="G9:G22" si="1">+E9+F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="283"/>
-      <c r="I9" s="283">
+      <c r="H9" s="269"/>
+      <c r="I9" s="269">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="55"/>
-      <c r="K9" s="283"/>
-      <c r="L9" s="283"/>
-      <c r="M9" s="283"/>
-      <c r="N9" s="283"/>
-      <c r="O9" s="283"/>
-      <c r="Q9" s="283"/>
-      <c r="R9" s="283"/>
-      <c r="S9" s="283"/>
-      <c r="T9" s="283"/>
-      <c r="U9" s="283"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="269"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="269"/>
+      <c r="O9" s="269"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="269"/>
+      <c r="S9" s="269"/>
+      <c r="T9" s="269"/>
+      <c r="U9" s="269"/>
       <c r="V9" s="55"/>
-      <c r="W9" s="283"/>
-      <c r="X9" s="283"/>
-      <c r="Y9" s="283"/>
-      <c r="Z9" s="283"/>
-      <c r="AA9" s="283"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="269"/>
+      <c r="AA9" s="269"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
@@ -9474,63 +9474,63 @@
         <v>114</v>
       </c>
       <c r="D10" s="52"/>
-      <c r="E10" s="283">
+      <c r="E10" s="269">
         <v>177231</v>
       </c>
-      <c r="F10" s="283">
+      <c r="F10" s="269">
         <v>519980</v>
       </c>
-      <c r="G10" s="283">
+      <c r="G10" s="269">
         <f t="shared" si="1"/>
         <v>697211</v>
       </c>
-      <c r="H10" s="283"/>
+      <c r="H10" s="269"/>
       <c r="I10" s="283">
         <f t="shared" si="0"/>
         <v>697211</v>
       </c>
       <c r="J10" s="52"/>
-      <c r="K10" s="283">
+      <c r="K10" s="269">
         <v>49054</v>
       </c>
-      <c r="L10" s="283">
+      <c r="L10" s="269">
         <v>251248</v>
       </c>
-      <c r="M10" s="283">
+      <c r="M10" s="269">
         <v>300302</v>
       </c>
-      <c r="N10" s="283"/>
-      <c r="O10" s="283">
+      <c r="N10" s="269"/>
+      <c r="O10" s="269">
         <v>300302</v>
       </c>
-      <c r="Q10" s="283">
+      <c r="Q10" s="269">
         <v>23826</v>
       </c>
-      <c r="R10" s="283">
+      <c r="R10" s="269">
         <v>511226</v>
       </c>
-      <c r="S10" s="283">
+      <c r="S10" s="269">
         <f t="shared" ref="S10:S22" si="2">+Q10+R10</f>
         <v>535052</v>
       </c>
-      <c r="T10" s="283"/>
-      <c r="U10" s="283">
+      <c r="T10" s="269"/>
+      <c r="U10" s="269">
         <f t="shared" ref="U10:U22" si="3">+S10+T10</f>
         <v>535052</v>
       </c>
       <c r="V10" s="52"/>
-      <c r="W10" s="283">
+      <c r="W10" s="269">
         <v>200000</v>
       </c>
-      <c r="X10" s="283">
+      <c r="X10" s="269">
         <v>281795</v>
       </c>
-      <c r="Y10" s="283">
+      <c r="Y10" s="269">
         <f t="shared" ref="Y10:Y21" si="4">+W10+X10</f>
         <v>481795</v>
       </c>
-      <c r="Z10" s="283"/>
-      <c r="AA10" s="283">
+      <c r="Z10" s="269"/>
+      <c r="AA10" s="269">
         <f t="shared" ref="AA10:AA21" si="5">+Y10+Z10</f>
         <v>481795</v>
       </c>
@@ -9541,53 +9541,53 @@
         <v>115</v>
       </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="283">
-        <v>0</v>
-      </c>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283">
+      <c r="E11" s="269">
+        <v>0</v>
+      </c>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="283"/>
-      <c r="I11" s="283">
+      <c r="H11" s="269"/>
+      <c r="I11" s="269">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="283"/>
-      <c r="L11" s="283"/>
-      <c r="M11" s="283">
-        <v>0</v>
-      </c>
-      <c r="N11" s="283"/>
-      <c r="O11" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="283">
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
+      <c r="M11" s="269">
+        <v>0</v>
+      </c>
+      <c r="N11" s="269"/>
+      <c r="O11" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="269">
         <v>2607519</v>
       </c>
-      <c r="R11" s="283"/>
-      <c r="S11" s="283">
+      <c r="R11" s="269"/>
+      <c r="S11" s="269">
         <f t="shared" si="2"/>
         <v>2607519</v>
       </c>
-      <c r="T11" s="283"/>
-      <c r="U11" s="283">
+      <c r="T11" s="269"/>
+      <c r="U11" s="269">
         <f t="shared" si="3"/>
         <v>2607519</v>
       </c>
       <c r="V11" s="52"/>
-      <c r="W11" s="283">
+      <c r="W11" s="269">
         <v>2268000</v>
       </c>
-      <c r="X11" s="283"/>
-      <c r="Y11" s="283">
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269">
         <f t="shared" si="4"/>
         <v>2268000</v>
       </c>
-      <c r="Z11" s="283"/>
-      <c r="AA11" s="283">
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269">
         <f t="shared" si="5"/>
         <v>2268000</v>
       </c>
@@ -9598,72 +9598,72 @@
         <v>116</v>
       </c>
       <c r="D12" s="52"/>
-      <c r="E12" s="283">
+      <c r="E12" s="269">
         <v>17423605</v>
       </c>
-      <c r="F12" s="283">
+      <c r="F12" s="269">
         <v>9966219</v>
       </c>
-      <c r="G12" s="283">
+      <c r="G12" s="269">
         <f t="shared" si="1"/>
         <v>27389824</v>
       </c>
-      <c r="H12" s="283">
+      <c r="H12" s="269">
         <f>-AD!H38</f>
         <v>-9828510</v>
       </c>
-      <c r="I12" s="283">
+      <c r="I12" s="269">
         <f t="shared" si="0"/>
         <v>17561314</v>
       </c>
       <c r="J12" s="52"/>
-      <c r="K12" s="283">
+      <c r="K12" s="269">
         <v>18732617</v>
       </c>
-      <c r="L12" s="283">
+      <c r="L12" s="269">
         <v>9736239</v>
       </c>
-      <c r="M12" s="283">
+      <c r="M12" s="269">
         <v>28468856</v>
       </c>
-      <c r="N12" s="283"/>
-      <c r="O12" s="283">
+      <c r="N12" s="269"/>
+      <c r="O12" s="269">
         <v>28468856</v>
       </c>
-      <c r="Q12" s="283">
+      <c r="Q12" s="269">
         <v>19329207</v>
       </c>
-      <c r="R12" s="283">
+      <c r="R12" s="269">
         <v>9817785</v>
       </c>
-      <c r="S12" s="283">
+      <c r="S12" s="269">
         <f t="shared" si="2"/>
         <v>29146992</v>
       </c>
-      <c r="T12" s="283">
-        <f>-[2]AD!J41</f>
+      <c r="T12" s="269">
+        <f>-[1]AD!J41</f>
         <v>-9726442</v>
       </c>
-      <c r="U12" s="283">
+      <c r="U12" s="269">
         <f t="shared" si="3"/>
         <v>19420550</v>
       </c>
       <c r="V12" s="52"/>
-      <c r="W12" s="283">
+      <c r="W12" s="269">
         <v>17346688</v>
       </c>
-      <c r="X12" s="283">
+      <c r="X12" s="269">
         <v>8496450</v>
       </c>
-      <c r="Y12" s="283">
+      <c r="Y12" s="269">
         <f t="shared" si="4"/>
         <v>25843138</v>
       </c>
-      <c r="Z12" s="283">
-        <f>-[2]AD!L41</f>
+      <c r="Z12" s="269">
+        <f>-[1]AD!L41</f>
         <v>-8402210</v>
       </c>
-      <c r="AA12" s="283">
+      <c r="AA12" s="269">
         <f t="shared" si="5"/>
         <v>17440928</v>
       </c>
@@ -9674,116 +9674,116 @@
         <v>117</v>
       </c>
       <c r="D13" s="52"/>
-      <c r="E13" s="283">
+      <c r="E13" s="269">
         <v>39210</v>
       </c>
-      <c r="F13" s="283"/>
-      <c r="G13" s="283">
+      <c r="F13" s="269"/>
+      <c r="G13" s="269">
         <f t="shared" si="1"/>
         <v>39210</v>
       </c>
-      <c r="H13" s="283"/>
-      <c r="I13" s="283">
+      <c r="H13" s="269"/>
+      <c r="I13" s="269">
         <f t="shared" si="0"/>
         <v>39210</v>
       </c>
       <c r="J13" s="52"/>
-      <c r="K13" s="283">
+      <c r="K13" s="269">
         <v>39210</v>
       </c>
-      <c r="L13" s="283"/>
-      <c r="M13" s="283">
+      <c r="L13" s="269"/>
+      <c r="M13" s="269">
         <v>39210</v>
       </c>
-      <c r="N13" s="283"/>
-      <c r="O13" s="283">
+      <c r="N13" s="269"/>
+      <c r="O13" s="269">
         <v>39210</v>
       </c>
-      <c r="Q13" s="283">
+      <c r="Q13" s="269">
         <v>37744</v>
       </c>
-      <c r="R13" s="283"/>
-      <c r="S13" s="283">
+      <c r="R13" s="269"/>
+      <c r="S13" s="269">
         <f t="shared" si="2"/>
         <v>37744</v>
       </c>
-      <c r="T13" s="283"/>
-      <c r="U13" s="283">
+      <c r="T13" s="269"/>
+      <c r="U13" s="269">
         <f t="shared" si="3"/>
         <v>37744</v>
       </c>
       <c r="V13" s="52"/>
-      <c r="W13" s="283">
+      <c r="W13" s="269">
         <v>39210</v>
       </c>
-      <c r="X13" s="283"/>
-      <c r="Y13" s="283">
+      <c r="X13" s="269"/>
+      <c r="Y13" s="269">
         <f t="shared" si="4"/>
         <v>39210</v>
       </c>
-      <c r="Z13" s="283"/>
-      <c r="AA13" s="283">
+      <c r="Z13" s="269"/>
+      <c r="AA13" s="269">
         <f t="shared" si="5"/>
         <v>39210</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="291" t="s">
+      <c r="C14" s="304" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="292"/>
-      <c r="E14" s="283">
+      <c r="D14" s="305"/>
+      <c r="E14" s="269">
         <v>1808437</v>
       </c>
-      <c r="F14" s="283">
+      <c r="F14" s="269">
         <v>603596</v>
       </c>
-      <c r="G14" s="283">
+      <c r="G14" s="269">
         <f t="shared" si="1"/>
         <v>2412033</v>
       </c>
-      <c r="H14" s="283"/>
-      <c r="I14" s="283">
+      <c r="H14" s="269"/>
+      <c r="I14" s="269">
         <f t="shared" si="0"/>
         <v>2412033</v>
       </c>
       <c r="J14" s="55"/>
-      <c r="K14" s="283">
+      <c r="K14" s="269">
         <v>1484293</v>
       </c>
-      <c r="L14" s="283">
+      <c r="L14" s="269">
         <v>565841</v>
       </c>
-      <c r="M14" s="283">
+      <c r="M14" s="269">
         <v>2050134</v>
       </c>
-      <c r="N14" s="283"/>
-      <c r="O14" s="283">
+      <c r="N14" s="269"/>
+      <c r="O14" s="269">
         <v>2050134</v>
       </c>
-      <c r="Q14" s="283">
-        <v>0</v>
-      </c>
-      <c r="R14" s="283"/>
-      <c r="S14" s="283">
+      <c r="Q14" s="269">
+        <v>0</v>
+      </c>
+      <c r="R14" s="269"/>
+      <c r="S14" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="283"/>
-      <c r="U14" s="283">
+      <c r="T14" s="269"/>
+      <c r="U14" s="269">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14" s="55"/>
-      <c r="W14" s="283"/>
-      <c r="X14" s="283"/>
-      <c r="Y14" s="283">
+      <c r="W14" s="269"/>
+      <c r="X14" s="269"/>
+      <c r="Y14" s="269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="283"/>
-      <c r="AA14" s="283">
+      <c r="Z14" s="269"/>
+      <c r="AA14" s="269">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -9794,57 +9794,57 @@
         <v>119</v>
       </c>
       <c r="D15" s="52"/>
-      <c r="E15" s="283">
+      <c r="E15" s="269">
         <f>1066473-33057</f>
         <v>1033416</v>
       </c>
-      <c r="F15" s="283">
+      <c r="F15" s="269">
         <f>5180994-5208998</f>
         <v>-28004</v>
       </c>
-      <c r="G15" s="283">
+      <c r="G15" s="269">
         <f t="shared" si="1"/>
         <v>1005412</v>
       </c>
-      <c r="H15" s="283"/>
-      <c r="I15" s="283">
+      <c r="H15" s="269"/>
+      <c r="I15" s="269">
         <f t="shared" si="0"/>
         <v>1005412</v>
       </c>
       <c r="J15" s="52"/>
-      <c r="K15" s="283"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="283">
-        <v>0</v>
-      </c>
-      <c r="N15" s="283"/>
-      <c r="O15" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="283">
-        <v>0</v>
-      </c>
-      <c r="R15" s="283"/>
-      <c r="S15" s="283">
+      <c r="K15" s="269"/>
+      <c r="L15" s="269"/>
+      <c r="M15" s="269">
+        <v>0</v>
+      </c>
+      <c r="N15" s="269"/>
+      <c r="O15" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="269">
+        <v>0</v>
+      </c>
+      <c r="R15" s="269"/>
+      <c r="S15" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="283"/>
-      <c r="U15" s="283">
+      <c r="T15" s="269"/>
+      <c r="U15" s="269">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15" s="52"/>
-      <c r="W15" s="283">
-        <v>0</v>
-      </c>
-      <c r="X15" s="283"/>
-      <c r="Y15" s="283">
+      <c r="W15" s="269">
+        <v>0</v>
+      </c>
+      <c r="X15" s="269"/>
+      <c r="Y15" s="269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="283"/>
-      <c r="AA15" s="283">
+      <c r="Z15" s="269"/>
+      <c r="AA15" s="269">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -9855,63 +9855,63 @@
         <v>120</v>
       </c>
       <c r="D16" s="52"/>
-      <c r="E16" s="283">
+      <c r="E16" s="269">
         <v>2380394</v>
       </c>
-      <c r="F16" s="283">
+      <c r="F16" s="269">
         <v>52799</v>
       </c>
-      <c r="G16" s="283">
+      <c r="G16" s="269">
         <f t="shared" si="1"/>
         <v>2433193</v>
       </c>
-      <c r="H16" s="283"/>
-      <c r="I16" s="283">
+      <c r="H16" s="269"/>
+      <c r="I16" s="269">
         <f t="shared" si="0"/>
         <v>2433193</v>
       </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="283">
+      <c r="K16" s="269">
         <v>2692522</v>
       </c>
-      <c r="L16" s="283">
+      <c r="L16" s="269">
         <v>31853</v>
       </c>
-      <c r="M16" s="283">
+      <c r="M16" s="269">
         <v>2724375</v>
       </c>
-      <c r="N16" s="283"/>
-      <c r="O16" s="283">
+      <c r="N16" s="269"/>
+      <c r="O16" s="269">
         <v>2724375</v>
       </c>
-      <c r="Q16" s="283">
+      <c r="Q16" s="269">
         <v>2230401</v>
       </c>
-      <c r="R16" s="283">
+      <c r="R16" s="269">
         <v>25583</v>
       </c>
-      <c r="S16" s="283">
+      <c r="S16" s="269">
         <f t="shared" si="2"/>
         <v>2255984</v>
       </c>
-      <c r="T16" s="283"/>
-      <c r="U16" s="283">
+      <c r="T16" s="269"/>
+      <c r="U16" s="269">
         <f t="shared" si="3"/>
         <v>2255984</v>
       </c>
       <c r="V16" s="52"/>
-      <c r="W16" s="283">
+      <c r="W16" s="269">
         <v>2028637</v>
       </c>
-      <c r="X16" s="283">
+      <c r="X16" s="269">
         <v>26371</v>
       </c>
-      <c r="Y16" s="283">
+      <c r="Y16" s="269">
         <f t="shared" si="4"/>
         <v>2055008</v>
       </c>
-      <c r="Z16" s="283"/>
-      <c r="AA16" s="283">
+      <c r="Z16" s="269"/>
+      <c r="AA16" s="269">
         <f t="shared" si="5"/>
         <v>2055008</v>
       </c>
@@ -9922,51 +9922,51 @@
         <v>433</v>
       </c>
       <c r="D17" s="52"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="283">
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="283"/>
-      <c r="I17" s="283">
+      <c r="H17" s="269"/>
+      <c r="I17" s="269">
         <f>+'Hoja de trabajo'!K39</f>
         <v>-21629181</v>
       </c>
       <c r="J17" s="52"/>
-      <c r="K17" s="283"/>
-      <c r="L17" s="283"/>
-      <c r="M17" s="283">
-        <v>0</v>
-      </c>
-      <c r="N17" s="283"/>
-      <c r="O17" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="283">
+      <c r="K17" s="269"/>
+      <c r="L17" s="269"/>
+      <c r="M17" s="269">
+        <v>0</v>
+      </c>
+      <c r="N17" s="269"/>
+      <c r="O17" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="269">
         <v>366832</v>
       </c>
-      <c r="R17" s="283"/>
-      <c r="S17" s="283">
+      <c r="R17" s="269"/>
+      <c r="S17" s="269">
         <f t="shared" si="2"/>
         <v>366832</v>
       </c>
-      <c r="T17" s="283"/>
-      <c r="U17" s="283">
+      <c r="T17" s="269"/>
+      <c r="U17" s="269">
         <f t="shared" si="3"/>
         <v>366832</v>
       </c>
       <c r="V17" s="52"/>
-      <c r="W17" s="283">
-        <v>0</v>
-      </c>
-      <c r="X17" s="283"/>
-      <c r="Y17" s="283">
+      <c r="W17" s="269">
+        <v>0</v>
+      </c>
+      <c r="X17" s="269"/>
+      <c r="Y17" s="269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="283"/>
-      <c r="AA17" s="283">
+      <c r="Z17" s="269"/>
+      <c r="AA17" s="269">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -9977,60 +9977,60 @@
         <v>121</v>
       </c>
       <c r="D18" s="52"/>
-      <c r="E18" s="283">
+      <c r="E18" s="269">
         <v>4768922</v>
       </c>
-      <c r="F18" s="283">
+      <c r="F18" s="269">
         <f>-ER!E34</f>
         <v>3484342</v>
       </c>
-      <c r="G18" s="283">
+      <c r="G18" s="269">
         <f t="shared" si="1"/>
         <v>8253264</v>
       </c>
-      <c r="H18" s="283"/>
-      <c r="I18" s="283">
+      <c r="H18" s="269"/>
+      <c r="I18" s="269">
         <f t="shared" si="0"/>
         <v>8253264</v>
       </c>
       <c r="J18" s="52"/>
-      <c r="K18" s="283">
+      <c r="K18" s="269">
         <v>3976474</v>
       </c>
-      <c r="L18" s="283">
+      <c r="L18" s="269">
         <v>1692982</v>
       </c>
-      <c r="M18" s="283">
+      <c r="M18" s="269">
         <v>5669456</v>
       </c>
-      <c r="N18" s="283"/>
-      <c r="O18" s="283">
+      <c r="N18" s="269"/>
+      <c r="O18" s="269">
         <v>5669456</v>
       </c>
-      <c r="Q18" s="283">
+      <c r="Q18" s="269">
         <v>2404929</v>
       </c>
-      <c r="R18" s="283"/>
-      <c r="S18" s="283">
+      <c r="R18" s="269"/>
+      <c r="S18" s="269">
         <f t="shared" si="2"/>
         <v>2404929</v>
       </c>
-      <c r="T18" s="283"/>
-      <c r="U18" s="283">
+      <c r="T18" s="269"/>
+      <c r="U18" s="269">
         <f t="shared" si="3"/>
         <v>2404929</v>
       </c>
       <c r="V18" s="52"/>
-      <c r="W18" s="283">
+      <c r="W18" s="269">
         <v>3074772</v>
       </c>
-      <c r="X18" s="283"/>
-      <c r="Y18" s="283">
+      <c r="X18" s="269"/>
+      <c r="Y18" s="269">
         <f t="shared" si="4"/>
         <v>3074772</v>
       </c>
-      <c r="Z18" s="283"/>
-      <c r="AA18" s="283">
+      <c r="Z18" s="269"/>
+      <c r="AA18" s="269">
         <f t="shared" si="5"/>
         <v>3074772</v>
       </c>
@@ -10041,62 +10041,62 @@
         <v>122</v>
       </c>
       <c r="D19" s="52"/>
-      <c r="E19" s="283">
+      <c r="E19" s="269">
         <v>644872</v>
       </c>
-      <c r="F19" s="283">
+      <c r="F19" s="269">
         <f>436847+158319</f>
         <v>595166</v>
       </c>
-      <c r="G19" s="283">
+      <c r="G19" s="269">
         <f t="shared" si="1"/>
         <v>1240038</v>
       </c>
-      <c r="H19" s="283"/>
-      <c r="I19" s="283">
+      <c r="H19" s="269"/>
+      <c r="I19" s="269">
         <f t="shared" si="0"/>
         <v>1240038</v>
       </c>
       <c r="J19" s="52"/>
-      <c r="K19" s="283">
+      <c r="K19" s="269">
         <v>2973618</v>
       </c>
-      <c r="L19" s="283">
+      <c r="L19" s="269">
         <v>331030</v>
       </c>
-      <c r="M19" s="283">
+      <c r="M19" s="269">
         <v>3304648</v>
       </c>
-      <c r="N19" s="283"/>
-      <c r="O19" s="283">
+      <c r="N19" s="269"/>
+      <c r="O19" s="269">
         <v>3304648</v>
       </c>
-      <c r="Q19" s="283">
+      <c r="Q19" s="269">
         <v>1293142</v>
       </c>
-      <c r="R19" s="283">
+      <c r="R19" s="269">
         <v>251418</v>
       </c>
-      <c r="S19" s="283">
+      <c r="S19" s="269">
         <f t="shared" si="2"/>
         <v>1544560</v>
       </c>
-      <c r="T19" s="283"/>
-      <c r="U19" s="283">
+      <c r="T19" s="269"/>
+      <c r="U19" s="269">
         <f t="shared" si="3"/>
         <v>1544560</v>
       </c>
       <c r="V19" s="52"/>
-      <c r="W19" s="283">
+      <c r="W19" s="269">
         <v>1591304</v>
       </c>
-      <c r="X19" s="283"/>
-      <c r="Y19" s="283">
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269">
         <f t="shared" si="4"/>
         <v>1591304</v>
       </c>
-      <c r="Z19" s="283"/>
-      <c r="AA19" s="283">
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269">
         <f t="shared" si="5"/>
         <v>1591304</v>
       </c>
@@ -10107,52 +10107,52 @@
         <v>123</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="F20" s="283"/>
-      <c r="G20" s="283">
+      <c r="F20" s="269"/>
+      <c r="G20" s="269">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="283">
+      <c r="I20" s="269">
         <f>+'Hoja de trabajo'!B88</f>
         <v>-3143848.1851480007</v>
       </c>
       <c r="J20" s="52"/>
-      <c r="K20" s="283"/>
-      <c r="L20" s="283"/>
-      <c r="M20" s="283">
-        <v>0</v>
-      </c>
-      <c r="N20" s="283"/>
-      <c r="O20" s="283">
+      <c r="K20" s="269"/>
+      <c r="L20" s="269"/>
+      <c r="M20" s="269">
+        <v>0</v>
+      </c>
+      <c r="N20" s="269"/>
+      <c r="O20" s="269">
         <v>358270.24999999953</v>
       </c>
-      <c r="Q20" s="283">
+      <c r="Q20" s="269">
         <v>7559526</v>
       </c>
-      <c r="R20" s="283"/>
-      <c r="S20" s="283">
+      <c r="R20" s="269"/>
+      <c r="S20" s="269">
         <f t="shared" si="2"/>
         <v>7559526</v>
       </c>
-      <c r="T20" s="283"/>
-      <c r="U20" s="283">
+      <c r="T20" s="269"/>
+      <c r="U20" s="269">
         <f t="shared" si="3"/>
         <v>7559526</v>
       </c>
       <c r="V20" s="52"/>
-      <c r="W20" s="283">
+      <c r="W20" s="269">
         <f>1308073+234029</f>
         <v>1542102</v>
       </c>
-      <c r="X20" s="283">
+      <c r="X20" s="269">
         <v>175726</v>
       </c>
-      <c r="Y20" s="283">
+      <c r="Y20" s="269">
         <f t="shared" si="4"/>
         <v>1717828</v>
       </c>
-      <c r="Z20" s="283"/>
-      <c r="AA20" s="283">
+      <c r="Z20" s="269"/>
+      <c r="AA20" s="269">
         <f t="shared" si="5"/>
         <v>1717828</v>
       </c>
@@ -10163,49 +10163,49 @@
         <v>124</v>
       </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="283">
+      <c r="E21" s="269"/>
+      <c r="F21" s="269"/>
+      <c r="G21" s="269">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="283"/>
-      <c r="I21" s="283">
+      <c r="H21" s="269"/>
+      <c r="I21" s="269">
         <f>+'Hoja de trabajo'!K40</f>
         <v>2444175</v>
       </c>
       <c r="J21" s="52"/>
-      <c r="K21" s="283"/>
-      <c r="L21" s="283"/>
-      <c r="M21" s="283">
-        <v>0</v>
-      </c>
-      <c r="N21" s="283"/>
-      <c r="O21" s="283">
+      <c r="K21" s="269"/>
+      <c r="L21" s="269"/>
+      <c r="M21" s="269">
+        <v>0</v>
+      </c>
+      <c r="N21" s="269"/>
+      <c r="O21" s="269">
         <v>-1881937</v>
       </c>
-      <c r="Q21" s="283">
+      <c r="Q21" s="269">
         <v>251108</v>
       </c>
-      <c r="R21" s="283"/>
-      <c r="S21" s="283">
+      <c r="R21" s="269"/>
+      <c r="S21" s="269">
         <f t="shared" si="2"/>
         <v>251108</v>
       </c>
-      <c r="T21" s="283"/>
-      <c r="U21" s="283">
+      <c r="T21" s="269"/>
+      <c r="U21" s="269">
         <f t="shared" si="3"/>
         <v>251108</v>
       </c>
       <c r="V21" s="52"/>
-      <c r="W21" s="283"/>
-      <c r="X21" s="283"/>
-      <c r="Y21" s="283">
+      <c r="W21" s="269"/>
+      <c r="X21" s="269"/>
+      <c r="Y21" s="269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="283"/>
-      <c r="AA21" s="283">
+      <c r="Z21" s="269"/>
+      <c r="AA21" s="269">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10216,167 +10216,167 @@
         <v>125</v>
       </c>
       <c r="D22" s="52"/>
-      <c r="E22" s="283">
+      <c r="E22" s="269">
         <v>144534</v>
       </c>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283">
+      <c r="F22" s="269"/>
+      <c r="G22" s="269">
         <f t="shared" si="1"/>
         <v>144534</v>
       </c>
-      <c r="H22" s="283">
+      <c r="H22" s="269">
         <f>+AD!G59</f>
         <v>1427390</v>
       </c>
-      <c r="I22" s="283">
+      <c r="I22" s="269">
         <f t="shared" si="0"/>
         <v>1571924</v>
       </c>
       <c r="J22" s="52"/>
-      <c r="K22" s="283"/>
-      <c r="L22" s="283">
+      <c r="K22" s="269"/>
+      <c r="L22" s="269">
         <v>-73587</v>
       </c>
-      <c r="M22" s="283">
+      <c r="M22" s="269">
         <v>-73587</v>
       </c>
-      <c r="N22" s="283"/>
-      <c r="O22" s="283">
+      <c r="N22" s="269"/>
+      <c r="O22" s="269">
         <v>-73587</v>
       </c>
-      <c r="Q22" s="283">
+      <c r="Q22" s="269">
         <v>-261500</v>
       </c>
-      <c r="R22" s="283"/>
-      <c r="S22" s="283">
+      <c r="R22" s="269"/>
+      <c r="S22" s="269">
         <f t="shared" si="2"/>
         <v>-261500</v>
       </c>
-      <c r="T22" s="283">
-        <f>-[2]ER!M35</f>
+      <c r="T22" s="269">
+        <f>-[1]ER!M35</f>
         <v>555396.5</v>
       </c>
-      <c r="U22" s="283">
+      <c r="U22" s="269">
         <f t="shared" si="3"/>
         <v>293896.5</v>
       </c>
       <c r="V22" s="52"/>
-      <c r="W22" s="283">
+      <c r="W22" s="269">
         <v>476468</v>
       </c>
-      <c r="X22" s="283"/>
-      <c r="Y22" s="283"/>
-      <c r="Z22" s="283"/>
-      <c r="AA22" s="283"/>
+      <c r="X22" s="269"/>
+      <c r="Y22" s="269"/>
+      <c r="Z22" s="269"/>
+      <c r="AA22" s="269"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="D23" s="52"/>
-      <c r="E23" s="282">
+      <c r="E23" s="268">
         <f>SUM(E8:E22)</f>
         <v>55444514</v>
       </c>
-      <c r="F23" s="282">
+      <c r="F23" s="268">
         <f t="shared" ref="F23:I23" si="6">SUM(F8:F22)</f>
         <v>34938702</v>
       </c>
-      <c r="G23" s="282">
+      <c r="G23" s="268">
         <f t="shared" si="6"/>
         <v>90383216</v>
       </c>
-      <c r="H23" s="282">
+      <c r="H23" s="268">
         <f>SUM(H8:H22)</f>
         <v>-5175149</v>
       </c>
-      <c r="I23" s="282">
+      <c r="I23" s="268">
         <f t="shared" si="6"/>
         <v>62879212.814851999</v>
       </c>
       <c r="J23" s="52"/>
-      <c r="K23" s="282">
+      <c r="K23" s="268">
         <v>51381438</v>
       </c>
-      <c r="L23" s="282">
+      <c r="L23" s="268">
         <v>22113436</v>
       </c>
-      <c r="M23" s="282">
+      <c r="M23" s="268">
         <v>73494874</v>
       </c>
-      <c r="N23" s="282">
+      <c r="N23" s="268">
         <v>2120374</v>
       </c>
-      <c r="O23" s="282">
+      <c r="O23" s="268">
         <v>74091581.25</v>
       </c>
-      <c r="Q23" s="282">
+      <c r="Q23" s="268">
         <f>SUM(Q8:Q22)</f>
         <v>49470665.449999988</v>
       </c>
-      <c r="R23" s="282">
+      <c r="R23" s="268">
         <f t="shared" ref="R23:U23" si="7">SUM(R8:R22)</f>
         <v>15821421</v>
       </c>
-      <c r="S23" s="282">
+      <c r="S23" s="268">
         <f t="shared" si="7"/>
         <v>65292086.449999988</v>
       </c>
-      <c r="T23" s="282">
+      <c r="T23" s="268">
         <f t="shared" si="7"/>
         <v>-5531508.5</v>
       </c>
-      <c r="U23" s="282">
+      <c r="U23" s="268">
         <f t="shared" si="7"/>
         <v>59760577.949999988</v>
       </c>
       <c r="V23" s="52"/>
-      <c r="W23" s="282">
+      <c r="W23" s="268">
         <f>SUM(W8:W22)</f>
         <v>37584573</v>
       </c>
-      <c r="X23" s="293">
+      <c r="X23" s="276">
         <f>SUM(X8:X21)</f>
         <v>12250363</v>
       </c>
-      <c r="Y23" s="282">
+      <c r="Y23" s="268">
         <f>SUM(Y8:Y21)</f>
         <v>49358468</v>
       </c>
-      <c r="Z23" s="282">
+      <c r="Z23" s="268">
         <f>SUM(Z8:Z21)</f>
         <v>-7157121</v>
       </c>
-      <c r="AA23" s="282">
+      <c r="AA23" s="268">
         <f>SUM(AA8:AA21)</f>
         <v>42201347</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="275" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="283"/>
-      <c r="F24" s="283"/>
-      <c r="G24" s="283"/>
-      <c r="H24" s="283"/>
-      <c r="I24" s="283"/>
+      <c r="E24" s="269"/>
+      <c r="F24" s="269"/>
+      <c r="G24" s="269"/>
+      <c r="H24" s="269"/>
+      <c r="I24" s="269"/>
       <c r="J24" s="52"/>
-      <c r="K24" s="283"/>
-      <c r="L24" s="283"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="283"/>
-      <c r="O24" s="283"/>
-      <c r="Q24" s="283"/>
-      <c r="R24" s="283"/>
-      <c r="S24" s="283"/>
-      <c r="T24" s="283"/>
-      <c r="U24" s="283"/>
+      <c r="K24" s="269"/>
+      <c r="L24" s="269"/>
+      <c r="M24" s="269"/>
+      <c r="N24" s="269"/>
+      <c r="O24" s="269"/>
+      <c r="Q24" s="269"/>
+      <c r="R24" s="269"/>
+      <c r="S24" s="269"/>
+      <c r="T24" s="269"/>
+      <c r="U24" s="269"/>
       <c r="V24" s="52"/>
-      <c r="W24" s="283"/>
-      <c r="X24" s="283"/>
-      <c r="Y24" s="283"/>
-      <c r="Z24" s="283"/>
-      <c r="AA24" s="283"/>
+      <c r="W24" s="269"/>
+      <c r="X24" s="269"/>
+      <c r="Y24" s="269"/>
+      <c r="Z24" s="269"/>
+      <c r="AA24" s="269"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
@@ -10384,55 +10384,55 @@
         <v>127</v>
       </c>
       <c r="D25" s="52"/>
-      <c r="E25" s="283"/>
-      <c r="F25" s="283"/>
-      <c r="G25" s="283">
+      <c r="E25" s="269"/>
+      <c r="F25" s="269"/>
+      <c r="G25" s="269">
         <f t="shared" ref="G25:G41" si="8">+E25+F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="283"/>
+      <c r="H25" s="269"/>
       <c r="I25" s="283">
         <f>+'Hoja de trabajo'!B83</f>
         <v>-10976377</v>
       </c>
       <c r="J25" s="52"/>
-      <c r="K25" s="283"/>
-      <c r="L25" s="283"/>
-      <c r="M25" s="283">
-        <v>0</v>
-      </c>
-      <c r="N25" s="283"/>
-      <c r="O25" s="283">
+      <c r="K25" s="269"/>
+      <c r="L25" s="269"/>
+      <c r="M25" s="269">
+        <v>0</v>
+      </c>
+      <c r="N25" s="269"/>
+      <c r="O25" s="269">
         <v>-4095201</v>
       </c>
-      <c r="Q25" s="283">
+      <c r="Q25" s="269">
         <v>3944169</v>
       </c>
-      <c r="R25" s="283">
+      <c r="R25" s="269">
         <v>-602469</v>
       </c>
-      <c r="S25" s="283">
+      <c r="S25" s="269">
         <f t="shared" ref="S25:S45" si="9">+Q25+R25</f>
         <v>3341700</v>
       </c>
-      <c r="T25" s="283"/>
-      <c r="U25" s="283">
+      <c r="T25" s="269"/>
+      <c r="U25" s="269">
         <f t="shared" ref="U25:U41" si="10">+S25+T25</f>
         <v>3341700</v>
       </c>
       <c r="V25" s="52"/>
-      <c r="W25" s="283">
+      <c r="W25" s="269">
         <v>2173914</v>
       </c>
-      <c r="X25" s="283">
+      <c r="X25" s="269">
         <v>153450</v>
       </c>
-      <c r="Y25" s="283">
+      <c r="Y25" s="269">
         <f t="shared" ref="Y25:Y41" si="11">+W25+X25</f>
         <v>2327364</v>
       </c>
-      <c r="Z25" s="283"/>
-      <c r="AA25" s="283">
+      <c r="Z25" s="269"/>
+      <c r="AA25" s="269">
         <f t="shared" ref="AA25:AA41" si="12">+Y25+Z25</f>
         <v>2327364</v>
       </c>
@@ -10443,53 +10443,53 @@
         <v>37</v>
       </c>
       <c r="D26" s="52"/>
-      <c r="E26" s="283"/>
-      <c r="F26" s="283"/>
-      <c r="G26" s="283">
+      <c r="E26" s="269"/>
+      <c r="F26" s="269"/>
+      <c r="G26" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H26" s="283"/>
-      <c r="I26" s="283">
+      <c r="H26" s="269"/>
+      <c r="I26" s="269">
         <f>+'Hoja de trabajo'!C9+'Hoja de trabajo'!C20</f>
         <v>14826134</v>
       </c>
       <c r="J26" s="52"/>
-      <c r="K26" s="283"/>
-      <c r="L26" s="283"/>
-      <c r="M26" s="283">
-        <v>0</v>
-      </c>
-      <c r="N26" s="283"/>
-      <c r="O26" s="283">
+      <c r="K26" s="269"/>
+      <c r="L26" s="269"/>
+      <c r="M26" s="269">
+        <v>0</v>
+      </c>
+      <c r="N26" s="269"/>
+      <c r="O26" s="269">
         <v>7403111</v>
       </c>
-      <c r="Q26" s="283">
+      <c r="Q26" s="269">
         <v>-10765719</v>
       </c>
-      <c r="R26" s="283">
+      <c r="R26" s="269">
         <v>-5894109</v>
       </c>
-      <c r="S26" s="283">
+      <c r="S26" s="269">
         <f t="shared" si="9"/>
         <v>-16659828</v>
       </c>
-      <c r="T26" s="283"/>
-      <c r="U26" s="283">
+      <c r="T26" s="269"/>
+      <c r="U26" s="269">
         <f t="shared" si="10"/>
         <v>-16659828</v>
       </c>
       <c r="V26" s="52"/>
-      <c r="W26" s="283">
+      <c r="W26" s="269">
         <v>-16324141</v>
       </c>
-      <c r="X26" s="283"/>
-      <c r="Y26" s="283">
+      <c r="X26" s="269"/>
+      <c r="Y26" s="269">
         <f t="shared" si="11"/>
         <v>-16324141</v>
       </c>
-      <c r="Z26" s="283"/>
-      <c r="AA26" s="283">
+      <c r="Z26" s="269"/>
+      <c r="AA26" s="269">
         <f t="shared" si="12"/>
         <v>-16324141</v>
       </c>
@@ -10500,54 +10500,54 @@
         <v>38</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="283"/>
-      <c r="G27" s="283">
+      <c r="E27" s="269"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H27" s="283"/>
-      <c r="I27" s="283">
+      <c r="H27" s="269"/>
+      <c r="I27" s="269">
         <f>+'Hoja de trabajo'!C11+'Hoja de trabajo'!C19</f>
         <v>7085729</v>
       </c>
       <c r="J27" s="52"/>
-      <c r="K27" s="283"/>
-      <c r="L27" s="283"/>
-      <c r="M27" s="283">
-        <v>0</v>
-      </c>
-      <c r="N27" s="283"/>
-      <c r="O27" s="283">
+      <c r="K27" s="269"/>
+      <c r="L27" s="269"/>
+      <c r="M27" s="269">
+        <v>0</v>
+      </c>
+      <c r="N27" s="269"/>
+      <c r="O27" s="269">
         <v>-11858132</v>
       </c>
-      <c r="Q27" s="283">
+      <c r="Q27" s="269">
         <v>-233583</v>
       </c>
-      <c r="R27" s="283">
+      <c r="R27" s="269">
         <f>-8535012-R26-R25</f>
         <v>-2038434</v>
       </c>
-      <c r="S27" s="283">
+      <c r="S27" s="269">
         <f t="shared" si="9"/>
         <v>-2272017</v>
       </c>
-      <c r="T27" s="283"/>
-      <c r="U27" s="283">
+      <c r="T27" s="269"/>
+      <c r="U27" s="269">
         <f t="shared" si="10"/>
         <v>-2272017</v>
       </c>
       <c r="V27" s="52"/>
-      <c r="W27" s="283">
+      <c r="W27" s="269">
         <v>-6350190</v>
       </c>
-      <c r="X27" s="283"/>
-      <c r="Y27" s="283">
+      <c r="X27" s="269"/>
+      <c r="Y27" s="269">
         <f t="shared" si="11"/>
         <v>-6350190</v>
       </c>
-      <c r="Z27" s="283"/>
-      <c r="AA27" s="283">
+      <c r="Z27" s="269"/>
+      <c r="AA27" s="269">
         <f t="shared" si="12"/>
         <v>-6350190</v>
       </c>
@@ -10558,51 +10558,51 @@
         <v>30</v>
       </c>
       <c r="D28" s="52"/>
-      <c r="E28" s="283"/>
-      <c r="F28" s="283"/>
-      <c r="G28" s="283">
+      <c r="E28" s="269"/>
+      <c r="F28" s="269"/>
+      <c r="G28" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H28" s="283"/>
-      <c r="I28" s="283">
+      <c r="H28" s="269"/>
+      <c r="I28" s="269">
         <f>+'Hoja de trabajo'!C10</f>
         <v>-5084041</v>
       </c>
       <c r="J28" s="52"/>
-      <c r="K28" s="283"/>
-      <c r="L28" s="283"/>
-      <c r="M28" s="283">
-        <v>0</v>
-      </c>
-      <c r="N28" s="283"/>
-      <c r="O28" s="283">
+      <c r="K28" s="269"/>
+      <c r="L28" s="269"/>
+      <c r="M28" s="269">
+        <v>0</v>
+      </c>
+      <c r="N28" s="269"/>
+      <c r="O28" s="269">
         <v>1714619</v>
       </c>
-      <c r="Q28" s="283">
+      <c r="Q28" s="269">
         <v>475548</v>
       </c>
-      <c r="R28" s="283"/>
-      <c r="S28" s="283">
+      <c r="R28" s="269"/>
+      <c r="S28" s="269">
         <f t="shared" si="9"/>
         <v>475548</v>
       </c>
-      <c r="T28" s="283"/>
-      <c r="U28" s="283">
+      <c r="T28" s="269"/>
+      <c r="U28" s="269">
         <f t="shared" si="10"/>
         <v>475548</v>
       </c>
       <c r="V28" s="52"/>
-      <c r="W28" s="283">
+      <c r="W28" s="269">
         <v>546462</v>
       </c>
-      <c r="X28" s="283"/>
-      <c r="Y28" s="283">
+      <c r="X28" s="269"/>
+      <c r="Y28" s="269">
         <f t="shared" si="11"/>
         <v>546462</v>
       </c>
-      <c r="Z28" s="283"/>
-      <c r="AA28" s="283">
+      <c r="Z28" s="269"/>
+      <c r="AA28" s="269">
         <f t="shared" si="12"/>
         <v>546462</v>
       </c>
@@ -10613,51 +10613,51 @@
         <v>31</v>
       </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="283">
+      <c r="E29" s="269"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H29" s="283"/>
-      <c r="I29" s="283">
+      <c r="H29" s="269"/>
+      <c r="I29" s="269">
         <f>+'Hoja de trabajo'!C12</f>
         <v>-5493976</v>
       </c>
       <c r="J29" s="52"/>
-      <c r="K29" s="283"/>
-      <c r="L29" s="283"/>
-      <c r="M29" s="283">
-        <v>0</v>
-      </c>
-      <c r="N29" s="283"/>
-      <c r="O29" s="283">
+      <c r="K29" s="269"/>
+      <c r="L29" s="269"/>
+      <c r="M29" s="269">
+        <v>0</v>
+      </c>
+      <c r="N29" s="269"/>
+      <c r="O29" s="269">
         <v>-246230</v>
       </c>
-      <c r="Q29" s="283">
+      <c r="Q29" s="269">
         <v>124930</v>
       </c>
-      <c r="R29" s="283"/>
-      <c r="S29" s="283">
+      <c r="R29" s="269"/>
+      <c r="S29" s="269">
         <f t="shared" si="9"/>
         <v>124930</v>
       </c>
-      <c r="T29" s="283"/>
-      <c r="U29" s="283">
+      <c r="T29" s="269"/>
+      <c r="U29" s="269">
         <f t="shared" si="10"/>
         <v>124930</v>
       </c>
       <c r="V29" s="52"/>
-      <c r="W29" s="283">
+      <c r="W29" s="269">
         <v>1692356</v>
       </c>
-      <c r="X29" s="283"/>
-      <c r="Y29" s="283">
+      <c r="X29" s="269"/>
+      <c r="Y29" s="269">
         <f t="shared" si="11"/>
         <v>1692356</v>
       </c>
-      <c r="Z29" s="283"/>
-      <c r="AA29" s="283">
+      <c r="Z29" s="269"/>
+      <c r="AA29" s="269">
         <f t="shared" si="12"/>
         <v>1692356</v>
       </c>
@@ -10668,53 +10668,53 @@
         <v>32</v>
       </c>
       <c r="D30" s="52"/>
-      <c r="E30" s="283"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="283">
+      <c r="E30" s="269"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H30" s="283"/>
-      <c r="I30" s="283">
+      <c r="H30" s="269"/>
+      <c r="I30" s="269">
         <f>+'Hoja de trabajo'!C13</f>
         <v>221118</v>
       </c>
       <c r="J30" s="52"/>
-      <c r="K30" s="283"/>
-      <c r="L30" s="283"/>
-      <c r="M30" s="283">
-        <v>0</v>
-      </c>
-      <c r="N30" s="283"/>
-      <c r="O30" s="283">
+      <c r="K30" s="269"/>
+      <c r="L30" s="269"/>
+      <c r="M30" s="269">
+        <v>0</v>
+      </c>
+      <c r="N30" s="269"/>
+      <c r="O30" s="269">
         <v>-4679936.66</v>
       </c>
-      <c r="Q30" s="283">
+      <c r="Q30" s="269">
         <v>-9031384</v>
       </c>
-      <c r="R30" s="283"/>
-      <c r="S30" s="283">
+      <c r="R30" s="269"/>
+      <c r="S30" s="269">
         <f t="shared" si="9"/>
         <v>-9031384</v>
       </c>
-      <c r="T30" s="283"/>
-      <c r="U30" s="283">
+      <c r="T30" s="269"/>
+      <c r="U30" s="269">
         <f t="shared" si="10"/>
         <v>-9031384</v>
       </c>
       <c r="V30" s="52"/>
-      <c r="W30" s="283">
+      <c r="W30" s="269">
         <v>3855566</v>
       </c>
-      <c r="X30" s="283">
+      <c r="X30" s="269">
         <v>16620</v>
       </c>
-      <c r="Y30" s="283">
+      <c r="Y30" s="269">
         <f t="shared" si="11"/>
         <v>3872186</v>
       </c>
-      <c r="Z30" s="283"/>
-      <c r="AA30" s="283">
+      <c r="Z30" s="269"/>
+      <c r="AA30" s="269">
         <f t="shared" si="12"/>
         <v>3872186</v>
       </c>
@@ -10725,53 +10725,53 @@
         <v>46</v>
       </c>
       <c r="D31" s="52"/>
-      <c r="E31" s="283"/>
-      <c r="F31" s="283"/>
-      <c r="G31" s="283">
+      <c r="E31" s="269"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H31" s="283"/>
-      <c r="I31" s="283">
+      <c r="H31" s="269"/>
+      <c r="I31" s="269">
         <f>+'Hoja de trabajo'!C14+'Hoja de trabajo'!C26</f>
         <v>-2136621</v>
       </c>
       <c r="J31" s="52"/>
-      <c r="K31" s="283"/>
-      <c r="L31" s="283"/>
-      <c r="M31" s="283">
-        <v>0</v>
-      </c>
-      <c r="N31" s="283"/>
-      <c r="O31" s="283">
+      <c r="K31" s="269"/>
+      <c r="L31" s="269"/>
+      <c r="M31" s="269">
+        <v>0</v>
+      </c>
+      <c r="N31" s="269"/>
+      <c r="O31" s="269">
         <v>84286</v>
       </c>
-      <c r="Q31" s="283"/>
-      <c r="R31" s="283">
+      <c r="Q31" s="269"/>
+      <c r="R31" s="269">
         <v>-86645</v>
       </c>
-      <c r="S31" s="283">
+      <c r="S31" s="269">
         <f t="shared" si="9"/>
         <v>-86645</v>
       </c>
-      <c r="T31" s="283"/>
-      <c r="U31" s="283">
+      <c r="T31" s="269"/>
+      <c r="U31" s="269">
         <f t="shared" si="10"/>
         <v>-86645</v>
       </c>
       <c r="V31" s="52"/>
-      <c r="W31" s="283">
+      <c r="W31" s="269">
         <v>-1495</v>
       </c>
-      <c r="X31" s="283">
+      <c r="X31" s="269">
         <v>-97195</v>
       </c>
-      <c r="Y31" s="283">
+      <c r="Y31" s="269">
         <f t="shared" si="11"/>
         <v>-98690</v>
       </c>
-      <c r="Z31" s="283"/>
-      <c r="AA31" s="283">
+      <c r="Z31" s="269"/>
+      <c r="AA31" s="269">
         <f t="shared" si="12"/>
         <v>-98690</v>
       </c>
@@ -10782,55 +10782,55 @@
         <v>128</v>
       </c>
       <c r="D32" s="52"/>
-      <c r="E32" s="283"/>
-      <c r="F32" s="283"/>
-      <c r="G32" s="283">
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H32" s="283"/>
-      <c r="I32" s="283">
+      <c r="H32" s="269"/>
+      <c r="I32" s="269">
         <f>+'Hoja de trabajo'!L8+'Hoja de trabajo'!L21</f>
         <v>6180016</v>
       </c>
       <c r="J32" s="52"/>
-      <c r="K32" s="283"/>
-      <c r="L32" s="283"/>
-      <c r="M32" s="283">
-        <v>0</v>
-      </c>
-      <c r="N32" s="283"/>
-      <c r="O32" s="283">
+      <c r="K32" s="269"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="269">
+        <v>0</v>
+      </c>
+      <c r="N32" s="269"/>
+      <c r="O32" s="269">
         <v>4254342</v>
       </c>
-      <c r="Q32" s="283">
+      <c r="Q32" s="269">
         <v>-2518955</v>
       </c>
-      <c r="R32" s="283">
+      <c r="R32" s="269">
         <v>94649</v>
       </c>
-      <c r="S32" s="283">
+      <c r="S32" s="269">
         <f t="shared" si="9"/>
         <v>-2424306</v>
       </c>
-      <c r="T32" s="283"/>
-      <c r="U32" s="283">
+      <c r="T32" s="269"/>
+      <c r="U32" s="269">
         <f t="shared" si="10"/>
         <v>-2424306</v>
       </c>
       <c r="V32" s="52"/>
-      <c r="W32" s="283">
+      <c r="W32" s="269">
         <v>-3759434</v>
       </c>
-      <c r="X32" s="283">
+      <c r="X32" s="269">
         <v>-751038</v>
       </c>
-      <c r="Y32" s="283">
+      <c r="Y32" s="269">
         <f t="shared" si="11"/>
         <v>-4510472</v>
       </c>
-      <c r="Z32" s="283"/>
-      <c r="AA32" s="283">
+      <c r="Z32" s="269"/>
+      <c r="AA32" s="269">
         <f t="shared" si="12"/>
         <v>-4510472</v>
       </c>
@@ -10841,53 +10841,53 @@
         <v>129</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="283"/>
-      <c r="F33" s="283"/>
-      <c r="G33" s="283">
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283">
+      <c r="H33" s="269"/>
+      <c r="I33" s="269">
         <f>+'Hoja de trabajo'!L9+'Hoja de trabajo'!L22</f>
         <v>14566080</v>
       </c>
       <c r="J33" s="52"/>
-      <c r="K33" s="283"/>
-      <c r="L33" s="283"/>
-      <c r="M33" s="283">
-        <v>0</v>
-      </c>
-      <c r="N33" s="283"/>
-      <c r="O33" s="283">
+      <c r="K33" s="269"/>
+      <c r="L33" s="269"/>
+      <c r="M33" s="269">
+        <v>0</v>
+      </c>
+      <c r="N33" s="269"/>
+      <c r="O33" s="269">
         <v>-7642880</v>
       </c>
-      <c r="Q33" s="283">
+      <c r="Q33" s="269">
         <v>618571</v>
       </c>
-      <c r="R33" s="283">
+      <c r="R33" s="269">
         <v>5583218</v>
       </c>
-      <c r="S33" s="283">
+      <c r="S33" s="269">
         <f t="shared" si="9"/>
         <v>6201789</v>
       </c>
-      <c r="T33" s="283"/>
-      <c r="U33" s="283">
+      <c r="T33" s="269"/>
+      <c r="U33" s="269">
         <f t="shared" si="10"/>
         <v>6201789</v>
       </c>
       <c r="V33" s="52"/>
-      <c r="W33" s="283">
+      <c r="W33" s="269">
         <v>1235126</v>
       </c>
-      <c r="X33" s="283"/>
-      <c r="Y33" s="283">
+      <c r="X33" s="269"/>
+      <c r="Y33" s="269">
         <f t="shared" si="11"/>
         <v>1235126</v>
       </c>
-      <c r="Z33" s="283"/>
-      <c r="AA33" s="283">
+      <c r="Z33" s="269"/>
+      <c r="AA33" s="269">
         <f t="shared" si="12"/>
         <v>1235126</v>
       </c>
@@ -10898,55 +10898,55 @@
         <v>130</v>
       </c>
       <c r="D34" s="52"/>
-      <c r="E34" s="283"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283">
+      <c r="E34" s="269"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H34" s="283"/>
-      <c r="I34" s="283">
+      <c r="H34" s="269"/>
+      <c r="I34" s="269">
         <f>+'Hoja de trabajo'!B72</f>
         <v>2643846</v>
       </c>
       <c r="J34" s="52"/>
-      <c r="K34" s="283"/>
-      <c r="L34" s="283"/>
-      <c r="M34" s="283">
-        <v>0</v>
-      </c>
-      <c r="N34" s="283"/>
-      <c r="O34" s="283">
+      <c r="K34" s="269"/>
+      <c r="L34" s="269"/>
+      <c r="M34" s="269">
+        <v>0</v>
+      </c>
+      <c r="N34" s="269"/>
+      <c r="O34" s="269">
         <v>-7470499.25</v>
       </c>
-      <c r="Q34" s="283">
+      <c r="Q34" s="269">
         <v>2484728</v>
       </c>
-      <c r="R34" s="283">
+      <c r="R34" s="269">
         <v>-1023114</v>
       </c>
-      <c r="S34" s="283">
+      <c r="S34" s="269">
         <f t="shared" si="9"/>
         <v>1461614</v>
       </c>
-      <c r="T34" s="283"/>
-      <c r="U34" s="283">
+      <c r="T34" s="269"/>
+      <c r="U34" s="269">
         <f t="shared" si="10"/>
         <v>1461614</v>
       </c>
       <c r="V34" s="52"/>
-      <c r="W34" s="283">
+      <c r="W34" s="269">
         <v>64755</v>
       </c>
-      <c r="X34" s="283">
+      <c r="X34" s="269">
         <v>-273465</v>
       </c>
-      <c r="Y34" s="283">
+      <c r="Y34" s="269">
         <f t="shared" si="11"/>
         <v>-208710</v>
       </c>
-      <c r="Z34" s="283"/>
-      <c r="AA34" s="283">
+      <c r="Z34" s="269"/>
+      <c r="AA34" s="269">
         <f t="shared" si="12"/>
         <v>-208710</v>
       </c>
@@ -10957,56 +10957,56 @@
         <v>131</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="283"/>
-      <c r="F35" s="283"/>
-      <c r="G35" s="283">
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283">
+      <c r="H35" s="269"/>
+      <c r="I35" s="269">
         <f>+'Hoja de trabajo'!L11+'Hoja de trabajo'!L23</f>
         <v>-7921265</v>
       </c>
       <c r="J35" s="52"/>
-      <c r="K35" s="283"/>
-      <c r="L35" s="283"/>
-      <c r="M35" s="283">
-        <v>0</v>
-      </c>
-      <c r="N35" s="283"/>
-      <c r="O35" s="283">
+      <c r="K35" s="269"/>
+      <c r="L35" s="269"/>
+      <c r="M35" s="269">
+        <v>0</v>
+      </c>
+      <c r="N35" s="269"/>
+      <c r="O35" s="269">
         <v>18101009</v>
       </c>
-      <c r="Q35" s="283">
+      <c r="Q35" s="269">
         <v>-4641544</v>
       </c>
-      <c r="R35" s="283">
+      <c r="R35" s="269">
         <f>5964089-R33-R32</f>
         <v>286222</v>
       </c>
-      <c r="S35" s="283">
+      <c r="S35" s="269">
         <f t="shared" si="9"/>
         <v>-4355322</v>
       </c>
-      <c r="T35" s="283">
+      <c r="T35" s="269">
         <v>-295764</v>
       </c>
-      <c r="U35" s="283">
+      <c r="U35" s="269">
         <f t="shared" si="10"/>
         <v>-4651086</v>
       </c>
       <c r="V35" s="52"/>
-      <c r="W35" s="283">
+      <c r="W35" s="269">
         <v>4568360</v>
       </c>
-      <c r="X35" s="283"/>
-      <c r="Y35" s="283">
+      <c r="X35" s="269"/>
+      <c r="Y35" s="269">
         <f t="shared" si="11"/>
         <v>4568360</v>
       </c>
-      <c r="Z35" s="283"/>
-      <c r="AA35" s="283">
+      <c r="Z35" s="269"/>
+      <c r="AA35" s="269">
         <f t="shared" si="12"/>
         <v>4568360</v>
       </c>
@@ -11017,42 +11017,42 @@
         <v>59</v>
       </c>
       <c r="D36" s="52"/>
-      <c r="E36" s="283"/>
-      <c r="F36" s="283"/>
-      <c r="G36" s="283">
+      <c r="E36" s="269"/>
+      <c r="F36" s="269"/>
+      <c r="G36" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H36" s="283"/>
-      <c r="I36" s="283">
+      <c r="H36" s="269"/>
+      <c r="I36" s="269">
         <f>+'Hoja de trabajo'!L25+'Hoja de trabajo'!L12</f>
         <v>-12162038</v>
       </c>
       <c r="J36" s="52"/>
-      <c r="K36" s="283"/>
-      <c r="L36" s="283"/>
-      <c r="M36" s="283"/>
-      <c r="N36" s="283"/>
-      <c r="O36" s="283">
+      <c r="K36" s="269"/>
+      <c r="L36" s="269"/>
+      <c r="M36" s="269"/>
+      <c r="N36" s="269"/>
+      <c r="O36" s="269">
         <v>-8643863</v>
       </c>
-      <c r="Q36" s="283"/>
-      <c r="R36" s="283"/>
-      <c r="S36" s="283">
+      <c r="Q36" s="269"/>
+      <c r="R36" s="269"/>
+      <c r="S36" s="269">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T36" s="283"/>
-      <c r="U36" s="283">
+      <c r="T36" s="269"/>
+      <c r="U36" s="269">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V36" s="52"/>
-      <c r="W36" s="283"/>
-      <c r="X36" s="283"/>
-      <c r="Y36" s="283"/>
-      <c r="Z36" s="283"/>
-      <c r="AA36" s="283"/>
+      <c r="W36" s="269"/>
+      <c r="X36" s="269"/>
+      <c r="Y36" s="269"/>
+      <c r="Z36" s="269"/>
+      <c r="AA36" s="269"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
@@ -11060,51 +11060,51 @@
         <v>62</v>
       </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="283"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="283">
+      <c r="E37" s="269"/>
+      <c r="F37" s="269"/>
+      <c r="G37" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283">
+      <c r="H37" s="269"/>
+      <c r="I37" s="269">
         <f>+'Hoja de trabajo'!L27</f>
         <v>-2580000</v>
       </c>
       <c r="J37" s="52"/>
-      <c r="K37" s="283"/>
-      <c r="L37" s="283"/>
-      <c r="M37" s="283">
-        <v>0</v>
-      </c>
-      <c r="N37" s="283"/>
-      <c r="O37" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="283">
+      <c r="K37" s="269"/>
+      <c r="L37" s="269"/>
+      <c r="M37" s="269">
+        <v>0</v>
+      </c>
+      <c r="N37" s="269"/>
+      <c r="O37" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="269">
         <v>-81914</v>
       </c>
-      <c r="R37" s="283"/>
-      <c r="S37" s="283">
+      <c r="R37" s="269"/>
+      <c r="S37" s="269">
         <f t="shared" si="9"/>
         <v>-81914</v>
       </c>
-      <c r="T37" s="283"/>
-      <c r="U37" s="283">
+      <c r="T37" s="269"/>
+      <c r="U37" s="269">
         <f t="shared" si="10"/>
         <v>-81914</v>
       </c>
       <c r="V37" s="52"/>
-      <c r="W37" s="283">
+      <c r="W37" s="269">
         <v>-2404770</v>
       </c>
-      <c r="X37" s="283"/>
-      <c r="Y37" s="283">
+      <c r="X37" s="269"/>
+      <c r="Y37" s="269">
         <f t="shared" si="11"/>
         <v>-2404770</v>
       </c>
-      <c r="Z37" s="283"/>
-      <c r="AA37" s="283">
+      <c r="Z37" s="269"/>
+      <c r="AA37" s="269">
         <f t="shared" si="12"/>
         <v>-2404770</v>
       </c>
@@ -11115,55 +11115,55 @@
         <v>60</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="283"/>
-      <c r="F38" s="283"/>
-      <c r="G38" s="283">
+      <c r="E38" s="269"/>
+      <c r="F38" s="269"/>
+      <c r="G38" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H38" s="283"/>
-      <c r="I38" s="319">
+      <c r="H38" s="269"/>
+      <c r="I38" s="298">
         <f>+'Hoja de trabajo'!B78</f>
         <v>-83181</v>
       </c>
       <c r="J38" s="52"/>
-      <c r="K38" s="283"/>
-      <c r="L38" s="283"/>
-      <c r="M38" s="283">
-        <v>0</v>
-      </c>
-      <c r="N38" s="283"/>
-      <c r="O38" s="283">
+      <c r="K38" s="269"/>
+      <c r="L38" s="269"/>
+      <c r="M38" s="269">
+        <v>0</v>
+      </c>
+      <c r="N38" s="269"/>
+      <c r="O38" s="269">
         <v>-637915</v>
       </c>
-      <c r="Q38" s="283">
+      <c r="Q38" s="269">
         <v>577820</v>
       </c>
-      <c r="R38" s="283">
+      <c r="R38" s="269">
         <v>417024</v>
       </c>
-      <c r="S38" s="283">
+      <c r="S38" s="269">
         <f t="shared" si="9"/>
         <v>994844</v>
       </c>
-      <c r="T38" s="283"/>
-      <c r="U38" s="283">
+      <c r="T38" s="269"/>
+      <c r="U38" s="269">
         <f t="shared" si="10"/>
         <v>994844</v>
       </c>
       <c r="V38" s="52"/>
-      <c r="W38" s="283">
+      <c r="W38" s="269">
         <v>344260</v>
       </c>
-      <c r="X38" s="283">
+      <c r="X38" s="269">
         <v>-620687</v>
       </c>
-      <c r="Y38" s="283">
+      <c r="Y38" s="269">
         <f t="shared" si="11"/>
         <v>-276427</v>
       </c>
-      <c r="Z38" s="283"/>
-      <c r="AA38" s="283">
+      <c r="Z38" s="269"/>
+      <c r="AA38" s="269">
         <f t="shared" si="12"/>
         <v>-276427</v>
       </c>
@@ -11174,47 +11174,47 @@
         <v>132</v>
       </c>
       <c r="D39" s="52"/>
-      <c r="E39" s="283"/>
-      <c r="F39" s="283"/>
-      <c r="G39" s="283">
+      <c r="E39" s="269"/>
+      <c r="F39" s="269"/>
+      <c r="G39" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H39" s="283"/>
-      <c r="I39" s="319">
-        <f t="shared" ref="I25:I41" si="13">+G39+H39</f>
+      <c r="H39" s="269"/>
+      <c r="I39" s="298">
+        <f t="shared" ref="I39:I41" si="13">+G39+H39</f>
         <v>0</v>
       </c>
       <c r="J39" s="52"/>
-      <c r="K39" s="283"/>
-      <c r="L39" s="283"/>
-      <c r="M39" s="283">
-        <v>0</v>
-      </c>
-      <c r="N39" s="283"/>
-      <c r="O39" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="283"/>
-      <c r="R39" s="283"/>
-      <c r="S39" s="283">
+      <c r="K39" s="269"/>
+      <c r="L39" s="269"/>
+      <c r="M39" s="269">
+        <v>0</v>
+      </c>
+      <c r="N39" s="269"/>
+      <c r="O39" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="269"/>
+      <c r="R39" s="269"/>
+      <c r="S39" s="269">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T39" s="283"/>
-      <c r="U39" s="283">
+      <c r="T39" s="269"/>
+      <c r="U39" s="269">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V39" s="52"/>
-      <c r="W39" s="283"/>
-      <c r="X39" s="283"/>
-      <c r="Y39" s="283">
+      <c r="W39" s="269"/>
+      <c r="X39" s="269"/>
+      <c r="Y39" s="269">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="283"/>
-      <c r="AA39" s="283">
+      <c r="Z39" s="269"/>
+      <c r="AA39" s="269">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -11225,47 +11225,47 @@
         <v>133</v>
       </c>
       <c r="D40" s="52"/>
-      <c r="E40" s="283"/>
-      <c r="F40" s="283"/>
-      <c r="G40" s="283">
+      <c r="E40" s="269"/>
+      <c r="F40" s="269"/>
+      <c r="G40" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H40" s="283"/>
-      <c r="I40" s="319">
+      <c r="H40" s="269"/>
+      <c r="I40" s="298">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J40" s="52"/>
-      <c r="K40" s="283"/>
-      <c r="L40" s="283"/>
-      <c r="M40" s="283">
-        <v>0</v>
-      </c>
-      <c r="N40" s="283"/>
-      <c r="O40" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="283"/>
-      <c r="R40" s="283"/>
-      <c r="S40" s="283">
+      <c r="K40" s="269"/>
+      <c r="L40" s="269"/>
+      <c r="M40" s="269">
+        <v>0</v>
+      </c>
+      <c r="N40" s="269"/>
+      <c r="O40" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="269"/>
+      <c r="R40" s="269"/>
+      <c r="S40" s="269">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T40" s="283"/>
-      <c r="U40" s="283">
+      <c r="T40" s="269"/>
+      <c r="U40" s="269">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V40" s="52"/>
-      <c r="W40" s="283"/>
-      <c r="X40" s="283"/>
-      <c r="Y40" s="283">
+      <c r="W40" s="269"/>
+      <c r="X40" s="269"/>
+      <c r="Y40" s="269">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="283"/>
-      <c r="AA40" s="283">
+      <c r="Z40" s="269"/>
+      <c r="AA40" s="269">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -11276,122 +11276,122 @@
         <v>134</v>
       </c>
       <c r="D41" s="52"/>
-      <c r="E41" s="294"/>
-      <c r="F41" s="294"/>
-      <c r="G41" s="283">
+      <c r="E41" s="277"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="269">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H41" s="283"/>
-      <c r="I41" s="319">
+      <c r="H41" s="269"/>
+      <c r="I41" s="298">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J41" s="52"/>
-      <c r="K41" s="294"/>
-      <c r="L41" s="294"/>
-      <c r="M41" s="283">
-        <v>0</v>
-      </c>
-      <c r="N41" s="283"/>
-      <c r="O41" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="294">
+      <c r="K41" s="277"/>
+      <c r="L41" s="277"/>
+      <c r="M41" s="269">
+        <v>0</v>
+      </c>
+      <c r="N41" s="269"/>
+      <c r="O41" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="277">
         <v>-992443</v>
       </c>
-      <c r="R41" s="294"/>
-      <c r="S41" s="283">
+      <c r="R41" s="277"/>
+      <c r="S41" s="269">
         <f t="shared" si="9"/>
         <v>-992443</v>
       </c>
-      <c r="T41" s="283"/>
-      <c r="U41" s="283">
+      <c r="T41" s="269"/>
+      <c r="U41" s="269">
         <f t="shared" si="10"/>
         <v>-992443</v>
       </c>
       <c r="V41" s="52"/>
-      <c r="W41" s="294">
+      <c r="W41" s="277">
         <v>-2999556</v>
       </c>
-      <c r="X41" s="294"/>
-      <c r="Y41" s="283">
+      <c r="X41" s="277"/>
+      <c r="Y41" s="269">
         <f t="shared" si="11"/>
         <v>-2999556</v>
       </c>
-      <c r="Z41" s="283"/>
-      <c r="AA41" s="283">
+      <c r="Z41" s="269"/>
+      <c r="AA41" s="269">
         <f t="shared" si="12"/>
         <v>-2999556</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="289" t="s">
+      <c r="B42" s="275" t="s">
         <v>135</v>
       </c>
       <c r="D42" s="52"/>
-      <c r="E42" s="283"/>
-      <c r="F42" s="283"/>
-      <c r="G42" s="282"/>
-      <c r="H42" s="282"/>
-      <c r="I42" s="320">
+      <c r="E42" s="269"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="268"/>
+      <c r="H42" s="268"/>
+      <c r="I42" s="299">
         <f>SUM(I23:I41)</f>
         <v>61964636.814851999</v>
       </c>
       <c r="J42" s="52"/>
-      <c r="K42" s="283">
+      <c r="K42" s="269">
         <v>51381438</v>
       </c>
-      <c r="L42" s="283">
+      <c r="L42" s="269">
         <v>22113436</v>
       </c>
-      <c r="M42" s="282">
+      <c r="M42" s="268">
         <v>73494874</v>
       </c>
-      <c r="N42" s="282">
+      <c r="N42" s="268">
         <v>2120374</v>
       </c>
-      <c r="O42" s="282">
+      <c r="O42" s="268">
         <v>60374291.340000004</v>
       </c>
-      <c r="Q42" s="283">
+      <c r="Q42" s="269">
         <f>SUM(Q23:Q41)</f>
         <v>29430889.449999988</v>
       </c>
-      <c r="R42" s="283">
+      <c r="R42" s="269">
         <f>SUM(R23:R41)</f>
         <v>12557763</v>
       </c>
-      <c r="S42" s="282">
+      <c r="S42" s="268">
         <f>SUM(S23:S41)</f>
         <v>41988652.449999988</v>
       </c>
-      <c r="T42" s="282">
+      <c r="T42" s="268">
         <f>SUM(T23:T41)</f>
         <v>-5827272.5</v>
       </c>
-      <c r="U42" s="282">
+      <c r="U42" s="268">
         <f>SUM(U23:U41)</f>
         <v>36161379.949999988</v>
       </c>
       <c r="V42" s="52"/>
-      <c r="W42" s="283">
+      <c r="W42" s="269">
         <f>SUM(W23:W41)</f>
         <v>20225786</v>
       </c>
-      <c r="X42" s="283">
+      <c r="X42" s="269">
         <f>SUM(X23:X41)</f>
         <v>10678048</v>
       </c>
-      <c r="Y42" s="282">
+      <c r="Y42" s="268">
         <f>SUM(Y23:Y41)</f>
         <v>30427366</v>
       </c>
-      <c r="Z42" s="282">
+      <c r="Z42" s="268">
         <f>SUM(Z23:Z41)</f>
         <v>-7157121</v>
       </c>
-      <c r="AA42" s="282">
+      <c r="AA42" s="268">
         <f>SUM(AA23:AA41)</f>
         <v>23270245</v>
       </c>
@@ -11402,60 +11402,60 @@
         <v>136</v>
       </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="283">
+      <c r="E43" s="269">
         <v>-3680975</v>
       </c>
-      <c r="F43" s="283">
+      <c r="F43" s="269">
         <f>-483390-4162944</f>
         <v>-4646334</v>
       </c>
-      <c r="G43" s="283">
+      <c r="G43" s="269">
         <f t="shared" ref="G43:I45" si="14">+E43+F43</f>
         <v>-8327309</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="319">
+      <c r="I43" s="298">
         <f t="shared" si="14"/>
         <v>-8327309</v>
       </c>
       <c r="J43" s="52"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="283">
+      <c r="K43" s="269"/>
+      <c r="L43" s="269">
         <v>-2091119</v>
       </c>
-      <c r="M43" s="283">
+      <c r="M43" s="269">
         <v>-2091119</v>
       </c>
       <c r="N43" s="18"/>
-      <c r="O43" s="283">
+      <c r="O43" s="269">
         <v>-2091119</v>
       </c>
-      <c r="Q43" s="283">
+      <c r="Q43" s="269">
         <v>-4237903</v>
       </c>
-      <c r="R43" s="283"/>
-      <c r="S43" s="283">
+      <c r="R43" s="269"/>
+      <c r="S43" s="269">
         <f t="shared" si="9"/>
         <v>-4237903</v>
       </c>
       <c r="T43" s="18"/>
-      <c r="U43" s="283">
+      <c r="U43" s="269">
         <f>+S43+T43</f>
         <v>-4237903</v>
       </c>
       <c r="V43" s="52"/>
-      <c r="W43" s="283">
+      <c r="W43" s="269">
         <v>-3550763</v>
       </c>
-      <c r="X43" s="283">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="283">
+      <c r="X43" s="269">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="269">
         <f t="shared" ref="Y43:Y45" si="15">+W43+X43</f>
         <v>-3550763</v>
       </c>
       <c r="Z43" s="18"/>
-      <c r="AA43" s="283">
+      <c r="AA43" s="269">
         <f>+Y43+Z43</f>
         <v>-3550763</v>
       </c>
@@ -11466,55 +11466,55 @@
         <v>137</v>
       </c>
       <c r="D44" s="52"/>
-      <c r="E44" s="283">
+      <c r="E44" s="269">
         <v>-3976474</v>
       </c>
-      <c r="F44" s="283"/>
-      <c r="G44" s="283">
+      <c r="F44" s="269"/>
+      <c r="G44" s="269">
         <f t="shared" si="14"/>
         <v>-3976474</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="283">
+      <c r="I44" s="269">
         <f t="shared" si="14"/>
         <v>-3976474</v>
       </c>
       <c r="J44" s="52"/>
-      <c r="K44" s="283">
+      <c r="K44" s="269">
         <v>-2840226</v>
       </c>
-      <c r="L44" s="283"/>
-      <c r="M44" s="283">
+      <c r="L44" s="269"/>
+      <c r="M44" s="269">
         <v>-2840226</v>
       </c>
       <c r="N44" s="18"/>
-      <c r="O44" s="283">
+      <c r="O44" s="269">
         <v>-2840226</v>
       </c>
-      <c r="Q44" s="283">
+      <c r="Q44" s="269">
         <v>-1591304</v>
       </c>
-      <c r="R44" s="283"/>
-      <c r="S44" s="283">
+      <c r="R44" s="269"/>
+      <c r="S44" s="269">
         <f t="shared" si="9"/>
         <v>-1591304</v>
       </c>
       <c r="T44" s="18"/>
-      <c r="U44" s="283">
+      <c r="U44" s="269">
         <f>+S44+T44</f>
         <v>-1591304</v>
       </c>
       <c r="V44" s="52"/>
-      <c r="W44" s="283">
+      <c r="W44" s="269">
         <v>-1759101</v>
       </c>
-      <c r="X44" s="283"/>
-      <c r="Y44" s="283">
+      <c r="X44" s="269"/>
+      <c r="Y44" s="269">
         <f t="shared" si="15"/>
         <v>-1759101</v>
       </c>
       <c r="Z44" s="18"/>
-      <c r="AA44" s="283">
+      <c r="AA44" s="269">
         <f>+Y44+Z44</f>
         <v>-1759101</v>
       </c>
@@ -11525,128 +11525,128 @@
         <v>138</v>
       </c>
       <c r="D45" s="52"/>
-      <c r="E45" s="294">
+      <c r="E45" s="277">
         <v>-17000</v>
       </c>
-      <c r="F45" s="294">
+      <c r="F45" s="277">
         <f>-41759-29720</f>
         <v>-71479</v>
       </c>
-      <c r="G45" s="283">
+      <c r="G45" s="269">
         <f t="shared" si="14"/>
         <v>-88479</v>
       </c>
       <c r="H45" s="18"/>
-      <c r="I45" s="283">
+      <c r="I45" s="269">
         <f>+'Hoja de trabajo'!B56</f>
         <v>-1668962</v>
       </c>
       <c r="J45" s="52"/>
-      <c r="K45" s="294"/>
-      <c r="L45" s="294"/>
-      <c r="M45" s="283">
+      <c r="K45" s="277"/>
+      <c r="L45" s="277"/>
+      <c r="M45" s="269">
         <v>0</v>
       </c>
       <c r="N45" s="18"/>
-      <c r="O45" s="283">
+      <c r="O45" s="269">
         <v>-685257</v>
       </c>
-      <c r="Q45" s="294">
+      <c r="Q45" s="277">
         <v>-207177</v>
       </c>
-      <c r="R45" s="294"/>
-      <c r="S45" s="283">
+      <c r="R45" s="277"/>
+      <c r="S45" s="269">
         <f t="shared" si="9"/>
         <v>-207177</v>
       </c>
       <c r="T45" s="18"/>
-      <c r="U45" s="283">
+      <c r="U45" s="269">
         <f>+S45+T45</f>
         <v>-207177</v>
       </c>
       <c r="V45" s="52"/>
-      <c r="W45" s="294">
+      <c r="W45" s="277">
         <v>-107410</v>
       </c>
-      <c r="X45" s="294"/>
-      <c r="Y45" s="283">
+      <c r="X45" s="277"/>
+      <c r="Y45" s="269">
         <f t="shared" si="15"/>
         <v>-107410</v>
       </c>
       <c r="Z45" s="18"/>
-      <c r="AA45" s="283">
+      <c r="AA45" s="269">
         <f>+Y45+Z45</f>
         <v>-107410</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B46" s="295" t="s">
+      <c r="B46" s="278" t="s">
         <v>139</v>
       </c>
       <c r="C46" s="56"/>
       <c r="D46" s="57"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="296"/>
-      <c r="G46" s="296"/>
-      <c r="H46" s="296"/>
-      <c r="I46" s="296">
+      <c r="E46" s="279"/>
+      <c r="F46" s="279"/>
+      <c r="G46" s="279"/>
+      <c r="H46" s="279"/>
+      <c r="I46" s="279">
         <f>SUM(I42:I45)</f>
         <v>47991891.814851999</v>
       </c>
       <c r="J46" s="57"/>
-      <c r="K46" s="296">
+      <c r="K46" s="279">
         <v>48541212</v>
       </c>
-      <c r="L46" s="296">
+      <c r="L46" s="279">
         <v>20022317</v>
       </c>
-      <c r="M46" s="296">
+      <c r="M46" s="279">
         <v>68563529</v>
       </c>
-      <c r="N46" s="296">
+      <c r="N46" s="279">
         <v>2120374</v>
       </c>
-      <c r="O46" s="296">
+      <c r="O46" s="279">
         <v>54757689.340000004</v>
       </c>
-      <c r="Q46" s="296">
+      <c r="Q46" s="279">
         <f>SUM(Q42:Q45)</f>
         <v>23394505.449999988</v>
       </c>
-      <c r="R46" s="296">
+      <c r="R46" s="279">
         <f>SUM(R42:R45)</f>
         <v>12557763</v>
       </c>
-      <c r="S46" s="296">
+      <c r="S46" s="279">
         <f>SUM(S42:S45)</f>
         <v>35952268.449999988</v>
       </c>
-      <c r="T46" s="296">
+      <c r="T46" s="279">
         <f>SUM(T42:T45)</f>
         <v>-5827272.5</v>
       </c>
-      <c r="U46" s="296">
+      <c r="U46" s="279">
         <f>SUM(U42:U45)</f>
         <v>30124995.949999988</v>
       </c>
       <c r="V46" s="58"/>
-      <c r="W46" s="296">
+      <c r="W46" s="279">
         <f>SUM(W42:W45)</f>
         <v>14808512</v>
       </c>
-      <c r="X46" s="296">
+      <c r="X46" s="279">
         <f>SUM(X42:X45)</f>
         <v>10678048</v>
       </c>
-      <c r="Y46" s="296">
+      <c r="Y46" s="279">
         <f>SUM(Y42:Y45)</f>
         <v>25010092</v>
       </c>
-      <c r="Z46" s="296">
+      <c r="Z46" s="279">
         <f>SUM(Z42:Z45)</f>
         <v>-7157121</v>
       </c>
-      <c r="AA46" s="296">
+      <c r="AA46" s="279">
         <f>SUM(AA42:AA45)</f>
         <v>17852971</v>
       </c>
@@ -11655,161 +11655,161 @@
       <c r="B47" s="59"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
-      <c r="E47" s="283"/>
-      <c r="F47" s="283"/>
+      <c r="E47" s="269"/>
+      <c r="F47" s="269"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="52"/>
-      <c r="K47" s="283"/>
-      <c r="L47" s="283"/>
+      <c r="K47" s="269"/>
+      <c r="L47" s="269"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
-      <c r="Q47" s="283"/>
-      <c r="R47" s="283"/>
+      <c r="Q47" s="269"/>
+      <c r="R47" s="269"/>
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
       <c r="U47" s="18"/>
-      <c r="W47" s="283"/>
-      <c r="X47" s="283"/>
+      <c r="W47" s="269"/>
+      <c r="X47" s="269"/>
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
       <c r="AA47" s="18"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="289" t="s">
+      <c r="B48" s="275" t="s">
         <v>140</v>
       </c>
       <c r="D48" s="52"/>
-      <c r="E48" s="283"/>
-      <c r="F48" s="283"/>
+      <c r="E48" s="269"/>
+      <c r="F48" s="269"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="52"/>
-      <c r="K48" s="283"/>
-      <c r="L48" s="283"/>
+      <c r="K48" s="269"/>
+      <c r="L48" s="269"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
-      <c r="Q48" s="283"/>
-      <c r="R48" s="283"/>
+      <c r="Q48" s="269"/>
+      <c r="R48" s="269"/>
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
       <c r="U48" s="18"/>
-      <c r="W48" s="283"/>
-      <c r="X48" s="283"/>
+      <c r="W48" s="269"/>
+      <c r="X48" s="269"/>
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
     </row>
     <row r="49" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
-      <c r="C49" s="297" t="s">
+      <c r="C49" s="306" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="298"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="283"/>
-      <c r="G49" s="283">
+      <c r="D49" s="307"/>
+      <c r="E49" s="269"/>
+      <c r="F49" s="269"/>
+      <c r="G49" s="269">
         <f>+E49+F49</f>
         <v>0</v>
       </c>
       <c r="H49" s="18"/>
-      <c r="I49" s="283">
+      <c r="I49" s="269">
         <f>+'Hoja de trabajo'!C7</f>
         <v>3358789</v>
       </c>
-      <c r="J49" s="316"/>
-      <c r="K49" s="283"/>
-      <c r="L49" s="283"/>
-      <c r="M49" s="283">
+      <c r="J49" s="295"/>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
+      <c r="M49" s="269">
         <v>0</v>
       </c>
       <c r="N49" s="18"/>
-      <c r="O49" s="283">
+      <c r="O49" s="269">
         <v>-965344.68000000017</v>
       </c>
-      <c r="Q49" s="283">
+      <c r="Q49" s="269">
         <v>251011</v>
       </c>
-      <c r="R49" s="283"/>
-      <c r="S49" s="283">
+      <c r="R49" s="269"/>
+      <c r="S49" s="269">
         <f t="shared" ref="S49:S57" si="16">+Q49+R49</f>
         <v>251011</v>
       </c>
       <c r="T49" s="18"/>
-      <c r="U49" s="283">
+      <c r="U49" s="269">
         <f>+S49+T49</f>
         <v>251011</v>
       </c>
-      <c r="W49" s="283">
+      <c r="W49" s="269">
         <v>-593863</v>
       </c>
-      <c r="X49" s="283"/>
-      <c r="Y49" s="283">
+      <c r="X49" s="269"/>
+      <c r="Y49" s="269">
         <f t="shared" ref="Y49:Y55" si="17">+W49+X49</f>
         <v>-593863</v>
       </c>
       <c r="Z49" s="18"/>
-      <c r="AA49" s="283">
+      <c r="AA49" s="269">
         <f>+Y49+Z49</f>
         <v>-593863</v>
       </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
-      <c r="C50" s="299" t="s">
+      <c r="C50" s="280" t="s">
         <v>142</v>
       </c>
       <c r="D50" s="52"/>
-      <c r="E50" s="283"/>
-      <c r="F50" s="283"/>
-      <c r="G50" s="283">
+      <c r="E50" s="269"/>
+      <c r="F50" s="269"/>
+      <c r="G50" s="269">
         <f t="shared" ref="G50:G57" si="18">+E50+F50</f>
         <v>0</v>
       </c>
       <c r="H50" s="18"/>
-      <c r="I50" s="283">
+      <c r="I50" s="269">
         <f>+'Hoja de trabajo'!C6</f>
         <v>-3107992</v>
       </c>
       <c r="J50" s="52"/>
-      <c r="K50" s="283"/>
-      <c r="L50" s="283"/>
-      <c r="M50" s="283">
+      <c r="K50" s="269"/>
+      <c r="L50" s="269"/>
+      <c r="M50" s="269">
         <v>0</v>
       </c>
       <c r="N50" s="18"/>
-      <c r="O50" s="283">
+      <c r="O50" s="269">
         <v>266474</v>
       </c>
-      <c r="Q50" s="283">
+      <c r="Q50" s="269">
         <v>29809</v>
       </c>
-      <c r="R50" s="283">
+      <c r="R50" s="269">
         <v>-205582</v>
       </c>
-      <c r="S50" s="283">
+      <c r="S50" s="269">
         <f t="shared" si="16"/>
         <v>-175773</v>
       </c>
       <c r="T50" s="18"/>
-      <c r="U50" s="283">
+      <c r="U50" s="269">
         <f>+S50+T50</f>
         <v>-175773</v>
       </c>
-      <c r="W50" s="283">
+      <c r="W50" s="269">
         <v>5828169</v>
       </c>
-      <c r="X50" s="283"/>
-      <c r="Y50" s="283">
+      <c r="X50" s="269"/>
+      <c r="Y50" s="269">
         <f t="shared" si="17"/>
         <v>5828169</v>
       </c>
       <c r="Z50" s="18"/>
-      <c r="AA50" s="283">
+      <c r="AA50" s="269">
         <f t="shared" ref="AA50:AA57" si="19">+Y50+Z50</f>
         <v>5828169</v>
       </c>
@@ -11820,83 +11820,83 @@
         <v>143</v>
       </c>
       <c r="D51" s="52"/>
-      <c r="E51" s="283"/>
-      <c r="F51" s="283"/>
-      <c r="G51" s="283">
+      <c r="E51" s="269"/>
+      <c r="F51" s="269"/>
+      <c r="G51" s="269">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H51" s="18"/>
-      <c r="I51" s="283">
+      <c r="I51" s="269">
         <f>+'Hoja de trabajo'!C24</f>
         <v>-163132</v>
       </c>
       <c r="J51" s="52"/>
-      <c r="K51" s="283"/>
-      <c r="L51" s="283"/>
-      <c r="M51" s="283"/>
+      <c r="K51" s="269"/>
+      <c r="L51" s="269"/>
+      <c r="M51" s="269"/>
       <c r="N51" s="18"/>
-      <c r="O51" s="283">
+      <c r="O51" s="269">
         <v>-251355</v>
       </c>
-      <c r="Q51" s="283"/>
-      <c r="R51" s="283"/>
-      <c r="S51" s="283"/>
+      <c r="Q51" s="269"/>
+      <c r="R51" s="269"/>
+      <c r="S51" s="269"/>
       <c r="T51" s="18"/>
-      <c r="U51" s="283"/>
-      <c r="W51" s="283"/>
-      <c r="X51" s="283"/>
-      <c r="Y51" s="283"/>
+      <c r="U51" s="269"/>
+      <c r="W51" s="269"/>
+      <c r="X51" s="269"/>
+      <c r="Y51" s="269"/>
       <c r="Z51" s="18"/>
-      <c r="AA51" s="283"/>
+      <c r="AA51" s="269"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
-      <c r="C52" s="300" t="s">
+      <c r="C52" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="301"/>
-      <c r="E52" s="283"/>
-      <c r="F52" s="283"/>
-      <c r="G52" s="283">
+      <c r="D52" s="309"/>
+      <c r="E52" s="269"/>
+      <c r="F52" s="269"/>
+      <c r="G52" s="269">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H52" s="18"/>
-      <c r="I52" s="283">
+      <c r="I52" s="269">
         <f>+'Hoja de trabajo'!B51</f>
         <v>-2214500</v>
       </c>
-      <c r="J52" s="317"/>
-      <c r="K52" s="283"/>
-      <c r="L52" s="283">
+      <c r="J52" s="296"/>
+      <c r="K52" s="269"/>
+      <c r="L52" s="269">
         <v>205582</v>
       </c>
-      <c r="M52" s="283">
+      <c r="M52" s="269">
         <v>205582</v>
       </c>
       <c r="N52" s="18"/>
-      <c r="O52" s="283">
+      <c r="O52" s="269">
         <v>-253825</v>
       </c>
-      <c r="Q52" s="283"/>
-      <c r="R52" s="283"/>
-      <c r="S52" s="283">
+      <c r="Q52" s="269"/>
+      <c r="R52" s="269"/>
+      <c r="S52" s="269">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T52" s="18"/>
-      <c r="U52" s="283"/>
-      <c r="W52" s="283">
-        <v>0</v>
-      </c>
-      <c r="X52" s="283"/>
-      <c r="Y52" s="283">
+      <c r="U52" s="269"/>
+      <c r="W52" s="269">
+        <v>0</v>
+      </c>
+      <c r="X52" s="269"/>
+      <c r="Y52" s="269">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z52" s="18"/>
-      <c r="AA52" s="283"/>
+      <c r="AA52" s="269"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
@@ -11904,50 +11904,50 @@
         <v>145</v>
       </c>
       <c r="D53" s="52"/>
-      <c r="E53" s="283"/>
-      <c r="F53" s="283"/>
-      <c r="G53" s="283">
+      <c r="E53" s="269"/>
+      <c r="F53" s="269"/>
+      <c r="G53" s="269">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H53" s="18"/>
-      <c r="I53" s="283">
+      <c r="I53" s="269">
         <f>+'Hoja de trabajo'!B39</f>
         <v>-3610086</v>
       </c>
       <c r="J53" s="52"/>
-      <c r="K53" s="283"/>
-      <c r="L53" s="283"/>
-      <c r="M53" s="283">
+      <c r="K53" s="269"/>
+      <c r="L53" s="269"/>
+      <c r="M53" s="269">
         <v>0</v>
       </c>
       <c r="N53" s="18"/>
-      <c r="O53" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="283">
+      <c r="O53" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="269">
         <v>1978971</v>
       </c>
-      <c r="R53" s="283"/>
-      <c r="S53" s="283">
+      <c r="R53" s="269"/>
+      <c r="S53" s="269">
         <f t="shared" si="16"/>
         <v>1978971</v>
       </c>
       <c r="T53" s="18"/>
-      <c r="U53" s="283">
+      <c r="U53" s="269">
         <f>+S53+T53</f>
         <v>1978971</v>
       </c>
-      <c r="W53" s="283">
+      <c r="W53" s="269">
         <v>-962949</v>
       </c>
-      <c r="X53" s="283"/>
-      <c r="Y53" s="283">
+      <c r="X53" s="269"/>
+      <c r="Y53" s="269">
         <f t="shared" si="17"/>
         <v>-962949</v>
       </c>
       <c r="Z53" s="18"/>
-      <c r="AA53" s="283">
+      <c r="AA53" s="269">
         <f t="shared" si="19"/>
         <v>-962949</v>
       </c>
@@ -11958,62 +11958,62 @@
         <v>146</v>
       </c>
       <c r="D54" s="52"/>
-      <c r="E54" s="283"/>
-      <c r="F54" s="283"/>
-      <c r="G54" s="283">
+      <c r="E54" s="269"/>
+      <c r="F54" s="269"/>
+      <c r="G54" s="269">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H54" s="283"/>
-      <c r="I54" s="283">
+      <c r="H54" s="269"/>
+      <c r="I54" s="269">
         <f>+'Hoja de trabajo'!B45</f>
         <v>-34164512.061452001</v>
       </c>
       <c r="J54" s="52"/>
-      <c r="K54" s="283"/>
-      <c r="L54" s="283">
+      <c r="K54" s="269"/>
+      <c r="L54" s="269">
         <v>-11702814</v>
       </c>
-      <c r="M54" s="283">
+      <c r="M54" s="269">
         <v>-11702814</v>
       </c>
-      <c r="N54" s="283"/>
-      <c r="O54" s="283">
+      <c r="N54" s="269"/>
+      <c r="O54" s="269">
         <v>-17331131</v>
       </c>
-      <c r="Q54" s="283">
+      <c r="Q54" s="269">
         <v>-10976052</v>
       </c>
-      <c r="R54" s="283">
+      <c r="R54" s="269">
         <v>-6427483</v>
       </c>
-      <c r="S54" s="283">
+      <c r="S54" s="269">
         <f t="shared" si="16"/>
         <v>-17403535</v>
       </c>
-      <c r="T54" s="283">
-        <f>+[2]AD!J23</f>
+      <c r="T54" s="269">
+        <f>+[1]AD!J23</f>
         <v>5827272</v>
       </c>
-      <c r="U54" s="283">
+      <c r="U54" s="269">
         <f>+S54+T54</f>
         <v>-11576263</v>
       </c>
-      <c r="W54" s="283">
+      <c r="W54" s="269">
         <v>-13974701</v>
       </c>
-      <c r="X54" s="283">
+      <c r="X54" s="269">
         <v>-7233185</v>
       </c>
-      <c r="Y54" s="283">
+      <c r="Y54" s="269">
         <f t="shared" si="17"/>
         <v>-21207886</v>
       </c>
-      <c r="Z54" s="283">
-        <f>+[2]AD!L23</f>
+      <c r="Z54" s="269">
+        <f>+[1]AD!L23</f>
         <v>7144181</v>
       </c>
-      <c r="AA54" s="283">
+      <c r="AA54" s="269">
         <f t="shared" si="19"/>
         <v>-14063705</v>
       </c>
@@ -12024,90 +12024,90 @@
         <v>147</v>
       </c>
       <c r="D55" s="52"/>
-      <c r="E55" s="283"/>
-      <c r="F55" s="283"/>
-      <c r="G55" s="283">
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H55" s="18"/>
-      <c r="I55" s="283">
-        <f t="shared" ref="I49:I57" si="20">+G55+H55</f>
+      <c r="I55" s="269">
+        <f t="shared" ref="I55:I56" si="20">+G55+H55</f>
         <v>0</v>
       </c>
       <c r="J55" s="52"/>
-      <c r="K55" s="283"/>
-      <c r="L55" s="283"/>
-      <c r="M55" s="283">
+      <c r="K55" s="269"/>
+      <c r="L55" s="269"/>
+      <c r="M55" s="269">
         <v>0</v>
       </c>
       <c r="N55" s="18"/>
-      <c r="O55" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="283"/>
-      <c r="R55" s="283"/>
-      <c r="S55" s="283">
+      <c r="O55" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="269"/>
+      <c r="R55" s="269"/>
+      <c r="S55" s="269">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T55" s="18"/>
-      <c r="U55" s="283">
+      <c r="U55" s="269">
         <f>+S55+T55</f>
         <v>0</v>
       </c>
-      <c r="W55" s="283">
-        <v>0</v>
-      </c>
-      <c r="X55" s="283"/>
-      <c r="Y55" s="283">
+      <c r="W55" s="269">
+        <v>0</v>
+      </c>
+      <c r="X55" s="269"/>
+      <c r="Y55" s="269">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z55" s="18"/>
-      <c r="AA55" s="283">
+      <c r="AA55" s="269">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
-      <c r="C56" s="302" t="s">
+      <c r="C56" s="281" t="s">
         <v>148</v>
       </c>
       <c r="D56" s="52"/>
-      <c r="E56" s="283"/>
-      <c r="F56" s="283"/>
-      <c r="G56" s="283">
+      <c r="E56" s="269"/>
+      <c r="F56" s="269"/>
+      <c r="G56" s="269">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H56" s="18"/>
-      <c r="I56" s="283">
+      <c r="I56" s="269">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J56" s="52"/>
-      <c r="K56" s="283"/>
-      <c r="L56" s="283"/>
-      <c r="M56" s="283"/>
+      <c r="K56" s="269"/>
+      <c r="L56" s="269"/>
+      <c r="M56" s="269"/>
       <c r="N56" s="18"/>
-      <c r="O56" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="283"/>
-      <c r="R56" s="283"/>
-      <c r="S56" s="283"/>
+      <c r="O56" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="269"/>
+      <c r="R56" s="269"/>
+      <c r="S56" s="269"/>
       <c r="T56" s="18"/>
-      <c r="U56" s="283">
+      <c r="U56" s="269">
         <f>+S56+T56</f>
         <v>0</v>
       </c>
-      <c r="W56" s="283"/>
-      <c r="X56" s="283"/>
-      <c r="Y56" s="283"/>
+      <c r="W56" s="269"/>
+      <c r="X56" s="269"/>
+      <c r="Y56" s="269"/>
       <c r="Z56" s="18"/>
-      <c r="AA56" s="283">
+      <c r="AA56" s="269">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -12118,135 +12118,135 @@
         <v>149</v>
       </c>
       <c r="D57" s="52"/>
-      <c r="E57" s="294"/>
-      <c r="F57" s="294"/>
-      <c r="G57" s="283">
+      <c r="E57" s="277"/>
+      <c r="F57" s="277"/>
+      <c r="G57" s="269">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H57" s="18"/>
-      <c r="I57" s="283">
+      <c r="I57" s="269">
         <f>+'Hoja de trabajo'!B61</f>
         <v>761222</v>
       </c>
       <c r="J57" s="52"/>
-      <c r="K57" s="294"/>
-      <c r="L57" s="294">
+      <c r="K57" s="277"/>
+      <c r="L57" s="277">
         <v>-231006</v>
       </c>
-      <c r="M57" s="283">
+      <c r="M57" s="269">
         <v>-231006</v>
       </c>
       <c r="N57" s="18"/>
-      <c r="O57" s="283">
+      <c r="O57" s="269">
         <v>-2961541.5700000003</v>
       </c>
-      <c r="Q57" s="294">
+      <c r="Q57" s="277">
         <v>-4862718</v>
       </c>
-      <c r="R57" s="294">
+      <c r="R57" s="277">
         <v>-15600</v>
       </c>
-      <c r="S57" s="283">
+      <c r="S57" s="269">
         <f t="shared" si="16"/>
         <v>-4878318</v>
       </c>
       <c r="T57" s="18"/>
-      <c r="U57" s="283">
+      <c r="U57" s="269">
         <f>+S57+T57</f>
         <v>-4878318</v>
       </c>
-      <c r="W57" s="294">
+      <c r="W57" s="277">
         <v>-1204028</v>
       </c>
-      <c r="X57" s="294">
+      <c r="X57" s="277">
         <v>-261435</v>
       </c>
-      <c r="Y57" s="283">
+      <c r="Y57" s="269">
         <f t="shared" ref="Y57" si="21">+W57+X57</f>
         <v>-1465463</v>
       </c>
       <c r="Z57" s="18"/>
-      <c r="AA57" s="283">
+      <c r="AA57" s="269">
         <f t="shared" si="19"/>
         <v>-1465463</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="295" t="s">
+      <c r="B58" s="278" t="s">
         <v>150</v>
       </c>
       <c r="C58" s="56"/>
       <c r="D58" s="57"/>
-      <c r="E58" s="296">
-        <v>0</v>
-      </c>
-      <c r="F58" s="296">
+      <c r="E58" s="279">
+        <v>0</v>
+      </c>
+      <c r="F58" s="279">
         <v>-11728238</v>
       </c>
-      <c r="G58" s="296">
+      <c r="G58" s="279">
         <v>-11728238</v>
       </c>
-      <c r="H58" s="296">
-        <v>0</v>
-      </c>
-      <c r="I58" s="296">
+      <c r="H58" s="279">
+        <v>0</v>
+      </c>
+      <c r="I58" s="279">
         <f>SUM(I49:I57)</f>
         <v>-39140211.061452001</v>
       </c>
       <c r="J58" s="57"/>
-      <c r="K58" s="296">
-        <v>0</v>
-      </c>
-      <c r="L58" s="296">
+      <c r="K58" s="279">
+        <v>0</v>
+      </c>
+      <c r="L58" s="279">
         <v>-11728238</v>
       </c>
-      <c r="M58" s="296">
+      <c r="M58" s="279">
         <v>-11728238</v>
       </c>
-      <c r="N58" s="296">
-        <v>0</v>
-      </c>
-      <c r="O58" s="296">
+      <c r="N58" s="279">
+        <v>0</v>
+      </c>
+      <c r="O58" s="279">
         <v>-21496723.25</v>
       </c>
-      <c r="Q58" s="296">
+      <c r="Q58" s="279">
         <f>Q49+Q50+Q52+Q53+Q54+Q55+Q57</f>
         <v>-13578979</v>
       </c>
-      <c r="R58" s="296">
+      <c r="R58" s="279">
         <f>SUM(R49:R57)</f>
         <v>-6648665</v>
       </c>
-      <c r="S58" s="296">
+      <c r="S58" s="279">
         <f>SUM(S49:S57)</f>
         <v>-20227644</v>
       </c>
-      <c r="T58" s="296">
+      <c r="T58" s="279">
         <f>SUM(T49:T57)</f>
         <v>5827272</v>
       </c>
-      <c r="U58" s="296">
+      <c r="U58" s="279">
         <f>SUM(U49:U57)</f>
         <v>-14400372</v>
       </c>
-      <c r="W58" s="296">
+      <c r="W58" s="279">
         <f>W49+W50+W52+W53+W54+W55+W57</f>
         <v>-10907372</v>
       </c>
-      <c r="X58" s="296">
+      <c r="X58" s="279">
         <f>SUM(X49:X57)</f>
         <v>-7494620</v>
       </c>
-      <c r="Y58" s="296">
+      <c r="Y58" s="279">
         <f>SUM(Y49:Y57)</f>
         <v>-18401992</v>
       </c>
-      <c r="Z58" s="296">
+      <c r="Z58" s="279">
         <f>SUM(Z49:Z57)</f>
         <v>7144181</v>
       </c>
-      <c r="AA58" s="296">
+      <c r="AA58" s="279">
         <f>SUM(AA49:AA57)</f>
         <v>-11257811</v>
       </c>
@@ -12255,54 +12255,54 @@
       <c r="B59" s="59"/>
       <c r="C59" s="50"/>
       <c r="D59" s="51"/>
-      <c r="E59" s="283"/>
-      <c r="F59" s="283"/>
+      <c r="E59" s="269"/>
+      <c r="F59" s="269"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="52"/>
-      <c r="K59" s="283"/>
-      <c r="L59" s="283"/>
+      <c r="K59" s="269"/>
+      <c r="L59" s="269"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
-      <c r="Q59" s="283"/>
-      <c r="R59" s="283"/>
+      <c r="Q59" s="269"/>
+      <c r="R59" s="269"/>
       <c r="S59" s="18"/>
       <c r="T59" s="18"/>
       <c r="U59" s="18"/>
-      <c r="W59" s="283"/>
-      <c r="X59" s="283"/>
+      <c r="W59" s="269"/>
+      <c r="X59" s="269"/>
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
       <c r="AA59" s="18"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="289" t="s">
+      <c r="B60" s="275" t="s">
         <v>151</v>
       </c>
       <c r="D60" s="52"/>
-      <c r="E60" s="283"/>
-      <c r="F60" s="283"/>
+      <c r="E60" s="269"/>
+      <c r="F60" s="269"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="52"/>
-      <c r="K60" s="283"/>
-      <c r="L60" s="283"/>
+      <c r="K60" s="269"/>
+      <c r="L60" s="269"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
-      <c r="Q60" s="283"/>
-      <c r="R60" s="283"/>
-      <c r="S60" s="283">
+      <c r="Q60" s="269"/>
+      <c r="R60" s="269"/>
+      <c r="S60" s="269">
         <f t="shared" ref="S60:S68" si="22">+Q60+R60</f>
         <v>0</v>
       </c>
       <c r="T60" s="18"/>
       <c r="U60" s="18"/>
-      <c r="W60" s="283"/>
-      <c r="X60" s="283"/>
+      <c r="W60" s="269"/>
+      <c r="X60" s="269"/>
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
       <c r="AA60" s="18"/>
@@ -12313,52 +12313,52 @@
         <v>444</v>
       </c>
       <c r="D61" s="52"/>
-      <c r="E61" s="283">
-        <v>0</v>
-      </c>
-      <c r="F61" s="283"/>
-      <c r="G61" s="303">
+      <c r="E61" s="269">
+        <v>0</v>
+      </c>
+      <c r="F61" s="269"/>
+      <c r="G61" s="282">
         <v>0</v>
       </c>
       <c r="H61" s="18"/>
-      <c r="I61" s="283">
+      <c r="I61" s="269">
         <v>0</v>
       </c>
       <c r="J61" s="52"/>
-      <c r="K61" s="283">
-        <v>0</v>
-      </c>
-      <c r="L61" s="283"/>
-      <c r="M61" s="303">
+      <c r="K61" s="269">
+        <v>0</v>
+      </c>
+      <c r="L61" s="269"/>
+      <c r="M61" s="282">
         <v>0</v>
       </c>
       <c r="N61" s="18"/>
-      <c r="O61" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="283">
-        <v>0</v>
-      </c>
-      <c r="R61" s="283"/>
-      <c r="S61" s="283">
+      <c r="O61" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="269">
+        <v>0</v>
+      </c>
+      <c r="R61" s="269"/>
+      <c r="S61" s="269">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T61" s="18"/>
-      <c r="U61" s="283">
+      <c r="U61" s="269">
         <f t="shared" ref="U61:U68" si="23">+S61+T61</f>
         <v>0</v>
       </c>
-      <c r="W61" s="283">
-        <v>0</v>
-      </c>
-      <c r="X61" s="283"/>
-      <c r="Y61" s="303">
+      <c r="W61" s="269">
+        <v>0</v>
+      </c>
+      <c r="X61" s="269"/>
+      <c r="Y61" s="282">
         <f t="shared" ref="Y61:Y68" si="24">+W61+X61</f>
         <v>0</v>
       </c>
       <c r="Z61" s="18"/>
-      <c r="AA61" s="283">
+      <c r="AA61" s="269">
         <f t="shared" ref="AA61:AA68" si="25">+Y61+Z61</f>
         <v>0</v>
       </c>
@@ -12369,44 +12369,44 @@
         <v>73</v>
       </c>
       <c r="D62" s="52"/>
-      <c r="E62" s="283"/>
-      <c r="F62" s="283"/>
-      <c r="G62" s="283">
+      <c r="E62" s="269"/>
+      <c r="F62" s="269"/>
+      <c r="G62" s="269">
         <v>0</v>
       </c>
       <c r="H62" s="18"/>
-      <c r="I62" s="283">
+      <c r="I62" s="269">
         <v>0</v>
       </c>
       <c r="J62" s="52"/>
-      <c r="K62" s="283"/>
-      <c r="L62" s="283"/>
-      <c r="M62" s="283">
+      <c r="K62" s="269"/>
+      <c r="L62" s="269"/>
+      <c r="M62" s="269">
         <v>0</v>
       </c>
       <c r="N62" s="18"/>
-      <c r="O62" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="283"/>
-      <c r="R62" s="283"/>
-      <c r="S62" s="283">
+      <c r="O62" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="269"/>
+      <c r="R62" s="269"/>
+      <c r="S62" s="269">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T62" s="18"/>
-      <c r="U62" s="283">
+      <c r="U62" s="269">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W62" s="283"/>
-      <c r="X62" s="283"/>
-      <c r="Y62" s="283">
+      <c r="W62" s="269"/>
+      <c r="X62" s="269"/>
+      <c r="Y62" s="269">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z62" s="18"/>
-      <c r="AA62" s="283">
+      <c r="AA62" s="269">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -12417,44 +12417,44 @@
         <v>445</v>
       </c>
       <c r="D63" s="52"/>
-      <c r="E63" s="283"/>
-      <c r="F63" s="283"/>
-      <c r="G63" s="283">
+      <c r="E63" s="269"/>
+      <c r="F63" s="269"/>
+      <c r="G63" s="269">
         <v>0</v>
       </c>
       <c r="H63" s="18"/>
-      <c r="I63" s="283">
+      <c r="I63" s="269">
         <v>0</v>
       </c>
       <c r="J63" s="52"/>
-      <c r="K63" s="283"/>
-      <c r="L63" s="283"/>
-      <c r="M63" s="283">
+      <c r="K63" s="269"/>
+      <c r="L63" s="269"/>
+      <c r="M63" s="269">
         <v>0</v>
       </c>
       <c r="N63" s="18"/>
-      <c r="O63" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="283"/>
-      <c r="R63" s="283"/>
-      <c r="S63" s="283">
+      <c r="O63" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="269"/>
+      <c r="R63" s="269"/>
+      <c r="S63" s="269">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T63" s="18"/>
-      <c r="U63" s="283">
+      <c r="U63" s="269">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W63" s="283"/>
-      <c r="X63" s="283"/>
-      <c r="Y63" s="283">
+      <c r="W63" s="269"/>
+      <c r="X63" s="269"/>
+      <c r="Y63" s="269">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z63" s="18"/>
-      <c r="AA63" s="283">
+      <c r="AA63" s="269">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -12465,56 +12465,56 @@
         <v>152</v>
       </c>
       <c r="D64" s="52"/>
-      <c r="E64" s="283"/>
-      <c r="F64" s="283"/>
-      <c r="G64" s="283">
+      <c r="E64" s="269"/>
+      <c r="F64" s="269"/>
+      <c r="G64" s="269">
         <f t="shared" ref="G64:G67" si="26">+E64+F64</f>
         <v>0</v>
       </c>
       <c r="H64" s="18"/>
-      <c r="I64" s="283">
-        <f>+'Hoja de trabajo'!L5+'Hoja de trabajo'!L6+'Hoja de trabajo'!L19</f>
-        <v>-1660559</v>
+      <c r="I64" s="269">
+        <f>+'Hoja de trabajo'!L6+'Hoja de trabajo'!L19</f>
+        <v>-3089419</v>
       </c>
       <c r="J64" s="52"/>
-      <c r="K64" s="283"/>
-      <c r="L64" s="283">
+      <c r="K64" s="269"/>
+      <c r="L64" s="269">
         <v>-1606362</v>
       </c>
-      <c r="M64" s="283">
+      <c r="M64" s="269">
         <v>-1606362</v>
       </c>
       <c r="N64" s="18"/>
-      <c r="O64" s="283">
+      <c r="O64" s="269">
         <v>-12414999</v>
       </c>
-      <c r="Q64" s="283">
+      <c r="Q64" s="269">
         <v>-7240853</v>
       </c>
-      <c r="R64" s="283">
+      <c r="R64" s="269">
         <v>873161</v>
       </c>
-      <c r="S64" s="283">
+      <c r="S64" s="269">
         <f t="shared" si="22"/>
         <v>-6367692</v>
       </c>
       <c r="T64" s="18"/>
-      <c r="U64" s="283">
+      <c r="U64" s="269">
         <f t="shared" si="23"/>
         <v>-6367692</v>
       </c>
-      <c r="W64" s="283">
+      <c r="W64" s="269">
         <v>-4709384</v>
       </c>
-      <c r="X64" s="283">
+      <c r="X64" s="269">
         <v>-3372028</v>
       </c>
-      <c r="Y64" s="283">
+      <c r="Y64" s="269">
         <f t="shared" si="24"/>
         <v>-8081412</v>
       </c>
       <c r="Z64" s="18"/>
-      <c r="AA64" s="283">
+      <c r="AA64" s="269">
         <f t="shared" si="25"/>
         <v>-8081412</v>
       </c>
@@ -12525,39 +12525,39 @@
         <v>153</v>
       </c>
       <c r="D65" s="52"/>
-      <c r="E65" s="283"/>
-      <c r="F65" s="283"/>
-      <c r="G65" s="283">
+      <c r="E65" s="269"/>
+      <c r="F65" s="269"/>
+      <c r="G65" s="269">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H65" s="18"/>
-      <c r="I65" s="283">
-        <f t="shared" ref="I64:I67" si="27">+G65+H65</f>
+      <c r="I65" s="269">
+        <f t="shared" ref="I65" si="27">+G65+H65</f>
         <v>0</v>
       </c>
       <c r="J65" s="52"/>
-      <c r="K65" s="283"/>
-      <c r="L65" s="283">
+      <c r="K65" s="269"/>
+      <c r="L65" s="269">
         <v>-715413</v>
       </c>
-      <c r="M65" s="283">
+      <c r="M65" s="269">
         <v>-715413</v>
       </c>
       <c r="N65" s="18"/>
-      <c r="O65" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="283"/>
-      <c r="R65" s="283"/>
-      <c r="S65" s="283"/>
+      <c r="O65" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="269"/>
+      <c r="R65" s="269"/>
+      <c r="S65" s="269"/>
       <c r="T65" s="18"/>
-      <c r="U65" s="283"/>
-      <c r="W65" s="283"/>
-      <c r="X65" s="283"/>
-      <c r="Y65" s="283"/>
+      <c r="U65" s="269"/>
+      <c r="W65" s="269"/>
+      <c r="X65" s="269"/>
+      <c r="Y65" s="269"/>
       <c r="Z65" s="18"/>
-      <c r="AA65" s="283"/>
+      <c r="AA65" s="269"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B66" s="30"/>
@@ -12565,43 +12565,43 @@
         <v>447</v>
       </c>
       <c r="D66" s="52"/>
-      <c r="E66" s="283">
+      <c r="E66" s="269">
         <v>-1307540</v>
       </c>
-      <c r="F66" s="283"/>
-      <c r="G66" s="283">
+      <c r="F66" s="269"/>
+      <c r="G66" s="269">
         <f t="shared" si="26"/>
         <v>-1307540</v>
       </c>
       <c r="H66" s="18"/>
-      <c r="I66" s="283">
+      <c r="I66" s="269">
         <f>+G66+H66+'Hoja de trabajo'!B94</f>
         <v>-1826770</v>
       </c>
       <c r="J66" s="52"/>
-      <c r="K66" s="283">
+      <c r="K66" s="269">
         <v>-5488035</v>
       </c>
-      <c r="L66" s="283">
+      <c r="L66" s="269">
         <v>-3373023</v>
       </c>
-      <c r="M66" s="283">
+      <c r="M66" s="269">
         <v>-8861058</v>
       </c>
       <c r="N66" s="18"/>
-      <c r="O66" s="283">
+      <c r="O66" s="269">
         <v>-8861058</v>
       </c>
-      <c r="Q66" s="283"/>
-      <c r="R66" s="283"/>
-      <c r="S66" s="283"/>
+      <c r="Q66" s="269"/>
+      <c r="R66" s="269"/>
+      <c r="S66" s="269"/>
       <c r="T66" s="18"/>
-      <c r="U66" s="283"/>
-      <c r="W66" s="283"/>
-      <c r="X66" s="283"/>
-      <c r="Y66" s="283"/>
+      <c r="U66" s="269"/>
+      <c r="W66" s="269"/>
+      <c r="X66" s="269"/>
+      <c r="Y66" s="269"/>
       <c r="Z66" s="18"/>
-      <c r="AA66" s="283"/>
+      <c r="AA66" s="269"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -12609,52 +12609,52 @@
         <v>154</v>
       </c>
       <c r="D67" s="52"/>
-      <c r="E67" s="283"/>
-      <c r="F67" s="283"/>
-      <c r="G67" s="283">
+      <c r="E67" s="269"/>
+      <c r="F67" s="269"/>
+      <c r="G67" s="269">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H67" s="18"/>
-      <c r="I67" s="283">
+      <c r="I67" s="269">
         <f>+'Hoja de trabajo'!L7+'Hoja de trabajo'!L20</f>
         <v>11113051</v>
       </c>
       <c r="J67" s="52"/>
-      <c r="K67" s="283"/>
-      <c r="L67" s="283"/>
-      <c r="M67" s="283">
+      <c r="K67" s="269"/>
+      <c r="L67" s="269"/>
+      <c r="M67" s="269">
         <v>0</v>
       </c>
       <c r="N67" s="18"/>
-      <c r="O67" s="283">
+      <c r="O67" s="269">
         <v>-8550313</v>
       </c>
-      <c r="Q67" s="283">
+      <c r="Q67" s="269">
         <v>-7134782</v>
       </c>
-      <c r="R67" s="283"/>
-      <c r="S67" s="283">
+      <c r="R67" s="269"/>
+      <c r="S67" s="269">
         <f t="shared" si="22"/>
         <v>-7134782</v>
       </c>
       <c r="T67" s="18"/>
-      <c r="U67" s="283">
+      <c r="U67" s="269">
         <f t="shared" si="23"/>
         <v>-7134782</v>
       </c>
-      <c r="W67" s="283">
+      <c r="W67" s="269">
         <v>-8370991</v>
       </c>
-      <c r="X67" s="283">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="283">
+      <c r="X67" s="269">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="269">
         <f t="shared" si="24"/>
         <v>-8370991</v>
       </c>
       <c r="Z67" s="18"/>
-      <c r="AA67" s="283">
+      <c r="AA67" s="269">
         <f t="shared" si="25"/>
         <v>-8370991</v>
       </c>
@@ -12665,194 +12665,194 @@
         <v>155</v>
       </c>
       <c r="D68" s="52"/>
-      <c r="E68" s="283"/>
-      <c r="F68" s="283"/>
-      <c r="G68" s="283">
+      <c r="E68" s="269"/>
+      <c r="F68" s="269"/>
+      <c r="G68" s="269">
         <v>0</v>
       </c>
       <c r="H68" s="18"/>
-      <c r="I68" s="283">
+      <c r="I68" s="269">
         <v>0</v>
       </c>
       <c r="J68" s="52"/>
-      <c r="K68" s="283"/>
-      <c r="L68" s="283"/>
-      <c r="M68" s="283">
+      <c r="K68" s="269"/>
+      <c r="L68" s="269"/>
+      <c r="M68" s="269">
         <v>0</v>
       </c>
       <c r="N68" s="18"/>
-      <c r="O68" s="283">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="283"/>
-      <c r="R68" s="304"/>
-      <c r="S68" s="283">
+      <c r="O68" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="269"/>
+      <c r="R68" s="283"/>
+      <c r="S68" s="269">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T68" s="18"/>
-      <c r="U68" s="283">
+      <c r="U68" s="269">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W68" s="283"/>
-      <c r="X68" s="283"/>
-      <c r="Y68" s="283">
+      <c r="W68" s="269"/>
+      <c r="X68" s="269"/>
+      <c r="Y68" s="269">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z68" s="18"/>
-      <c r="AA68" s="283">
+      <c r="AA68" s="269">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B69" s="305" t="s">
+      <c r="B69" s="284" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="56"/>
       <c r="D69" s="57"/>
-      <c r="E69" s="296"/>
-      <c r="F69" s="296"/>
-      <c r="G69" s="296"/>
-      <c r="H69" s="296"/>
-      <c r="I69" s="296">
+      <c r="E69" s="279"/>
+      <c r="F69" s="279"/>
+      <c r="G69" s="279"/>
+      <c r="H69" s="279"/>
+      <c r="I69" s="279">
         <f>SUM(I61:I68)</f>
-        <v>7625722</v>
+        <v>6196862</v>
       </c>
       <c r="J69" s="57"/>
-      <c r="K69" s="296">
+      <c r="K69" s="279">
         <v>-5488035</v>
       </c>
-      <c r="L69" s="296">
+      <c r="L69" s="279">
         <v>-5694798</v>
       </c>
-      <c r="M69" s="296">
+      <c r="M69" s="279">
         <v>-11182833</v>
       </c>
-      <c r="N69" s="296">
-        <v>0</v>
-      </c>
-      <c r="O69" s="296">
+      <c r="N69" s="279">
+        <v>0</v>
+      </c>
+      <c r="O69" s="279">
         <v>-29826370</v>
       </c>
-      <c r="Q69" s="296">
+      <c r="Q69" s="279">
         <f>SUM(Q61:Q68)</f>
         <v>-14375635</v>
       </c>
-      <c r="R69" s="296">
+      <c r="R69" s="279">
         <f>SUM(R61:R68)</f>
         <v>873161</v>
       </c>
-      <c r="S69" s="296">
+      <c r="S69" s="279">
         <f>SUM(S61:S68)</f>
         <v>-13502474</v>
       </c>
-      <c r="T69" s="296">
+      <c r="T69" s="279">
         <f>SUM(T61:T68)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="296">
+      <c r="U69" s="279">
         <f>SUM(U61:U68)</f>
         <v>-13502474</v>
       </c>
-      <c r="W69" s="296">
+      <c r="W69" s="279">
         <f>SUM(W61:W68)</f>
         <v>-13080375</v>
       </c>
-      <c r="X69" s="296">
+      <c r="X69" s="279">
         <f>SUM(X61:X68)</f>
         <v>-3372028</v>
       </c>
-      <c r="Y69" s="296">
+      <c r="Y69" s="279">
         <f>SUM(Y61:Y68)</f>
         <v>-16452403</v>
       </c>
-      <c r="Z69" s="296">
+      <c r="Z69" s="279">
         <f>SUM(Z61:Z68)</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="296">
+      <c r="AA69" s="279">
         <f>SUM(AA61:AA68)</f>
         <v>-16452403</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B70" s="306" t="s">
+      <c r="B70" s="285" t="s">
         <v>157</v>
       </c>
       <c r="C70" s="56"/>
       <c r="D70" s="57"/>
-      <c r="E70" s="307"/>
-      <c r="F70" s="307"/>
-      <c r="G70" s="308"/>
-      <c r="H70" s="308"/>
-      <c r="I70" s="308">
+      <c r="E70" s="286"/>
+      <c r="F70" s="286"/>
+      <c r="G70" s="287"/>
+      <c r="H70" s="287"/>
+      <c r="I70" s="287">
         <f>+I69+I58+I46</f>
-        <v>16477402.753399998</v>
+        <v>15048542.753399998</v>
       </c>
       <c r="J70" s="58"/>
-      <c r="K70" s="307">
+      <c r="K70" s="286">
         <v>43053177</v>
       </c>
-      <c r="L70" s="307">
+      <c r="L70" s="286">
         <v>2599281</v>
       </c>
-      <c r="M70" s="308">
+      <c r="M70" s="287">
         <v>45652458</v>
       </c>
-      <c r="N70" s="308">
+      <c r="N70" s="287">
         <v>2120374</v>
       </c>
-      <c r="O70" s="308">
+      <c r="O70" s="287">
         <v>3434596.0900000036</v>
       </c>
-      <c r="Q70" s="307">
+      <c r="Q70" s="286">
         <f>+Q69+Q58+Q46</f>
         <v>-4560108.5500000119</v>
       </c>
-      <c r="R70" s="307">
+      <c r="R70" s="286">
         <f>+R69+R58+R46</f>
         <v>6782259</v>
       </c>
-      <c r="S70" s="308">
+      <c r="S70" s="287">
         <f>+S69+S58+S46</f>
         <v>2222150.4499999881</v>
       </c>
-      <c r="T70" s="309">
+      <c r="T70" s="288">
         <f>+T69+T58+T46</f>
         <v>-0.5</v>
       </c>
-      <c r="U70" s="308">
+      <c r="U70" s="287">
         <f>+U69+U58+U46</f>
         <v>2222149.9499999881</v>
       </c>
-      <c r="W70" s="307">
+      <c r="W70" s="286">
         <f>+W69+W58+W46</f>
         <v>-9179235</v>
       </c>
-      <c r="X70" s="307">
+      <c r="X70" s="286">
         <f>+X69+X58+X46</f>
         <v>-188600</v>
       </c>
-      <c r="Y70" s="308">
+      <c r="Y70" s="287">
         <f>+Y69+Y58+Y46</f>
         <v>-9844303</v>
       </c>
-      <c r="Z70" s="308">
+      <c r="Z70" s="287">
         <f>+Z69+Z58+Z46</f>
         <v>-12940</v>
       </c>
-      <c r="AA70" s="308">
+      <c r="AA70" s="287">
         <f>+AA69+AA58+AA46</f>
         <v>-9857243</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Q71" s="280"/>
-      <c r="R71" s="280"/>
-      <c r="S71" s="310">
+      <c r="Q71" s="266"/>
+      <c r="R71" s="266"/>
+      <c r="S71" s="289">
         <f>+R70+Q70-S70</f>
         <v>0</v>
       </c>
@@ -12864,62 +12864,62 @@
       </c>
       <c r="C72" s="50"/>
       <c r="D72" s="50"/>
-      <c r="E72" s="282"/>
-      <c r="F72" s="282"/>
-      <c r="G72" s="282">
+      <c r="E72" s="268"/>
+      <c r="F72" s="268"/>
+      <c r="G72" s="268">
         <f t="shared" ref="G72:G73" si="28">+E72+F72</f>
         <v>0</v>
       </c>
       <c r="H72" s="17"/>
-      <c r="I72" s="311">
+      <c r="I72" s="290">
         <f>+I70</f>
-        <v>16477402.753399998</v>
+        <v>15048542.753399998</v>
       </c>
       <c r="J72" s="50"/>
-      <c r="K72" s="282">
+      <c r="K72" s="268">
         <v>43053177</v>
       </c>
-      <c r="L72" s="282">
+      <c r="L72" s="268">
         <v>-188600</v>
       </c>
-      <c r="M72" s="282">
+      <c r="M72" s="268">
         <v>42864577</v>
       </c>
       <c r="N72" s="17"/>
-      <c r="O72" s="311">
+      <c r="O72" s="290">
         <v>3434596.0900000036</v>
       </c>
-      <c r="Q72" s="282">
+      <c r="Q72" s="268">
         <f>+Q70</f>
         <v>-4560108.5500000119</v>
       </c>
-      <c r="R72" s="282">
+      <c r="R72" s="268">
         <f>+R70</f>
         <v>6782259</v>
       </c>
-      <c r="S72" s="282">
+      <c r="S72" s="268">
         <f t="shared" ref="S72:S73" si="29">+Q72+R72</f>
         <v>2222150.4499999881</v>
       </c>
       <c r="T72" s="17"/>
-      <c r="U72" s="311">
+      <c r="U72" s="290">
         <f>+S72+T72</f>
         <v>2222150.4499999881</v>
       </c>
       <c r="V72" s="50"/>
-      <c r="W72" s="282">
+      <c r="W72" s="268">
         <f>+W70</f>
         <v>-9179235</v>
       </c>
-      <c r="X72" s="282">
+      <c r="X72" s="268">
         <v>-188600</v>
       </c>
-      <c r="Y72" s="282">
+      <c r="Y72" s="268">
         <f t="shared" ref="Y72:Y73" si="30">+W72+X72</f>
         <v>-9367835</v>
       </c>
       <c r="Z72" s="17"/>
-      <c r="AA72" s="311">
+      <c r="AA72" s="290">
         <f>+Y72+Z72</f>
         <v>-9367835</v>
       </c>
@@ -12929,197 +12929,197 @@
       <c r="B73" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="283"/>
-      <c r="F73" s="283"/>
-      <c r="G73" s="283">
+      <c r="E73" s="269"/>
+      <c r="F73" s="269"/>
+      <c r="G73" s="269">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H73" s="18"/>
-      <c r="I73" s="303">
+      <c r="I73" s="282">
         <f>+O74</f>
         <v>7588800.0900000036</v>
       </c>
-      <c r="K73" s="283">
+      <c r="K73" s="269">
         <v>-3213378.5500000119</v>
       </c>
-      <c r="L73" s="283">
+      <c r="L73" s="269">
         <v>7367583</v>
       </c>
-      <c r="M73" s="283">
+      <c r="M73" s="269">
         <v>4154204.4499999881</v>
       </c>
       <c r="N73" s="18"/>
-      <c r="O73" s="303">
+      <c r="O73" s="282">
         <v>4154204</v>
       </c>
-      <c r="Q73" s="283">
+      <c r="Q73" s="269">
         <v>1346730</v>
       </c>
-      <c r="R73" s="283">
+      <c r="R73" s="269">
         <v>585324</v>
       </c>
-      <c r="S73" s="283">
+      <c r="S73" s="269">
         <f t="shared" si="29"/>
         <v>1932054</v>
       </c>
       <c r="T73" s="18"/>
-      <c r="U73" s="303">
+      <c r="U73" s="282">
         <f>+S73</f>
         <v>1932054</v>
       </c>
-      <c r="W73" s="283">
+      <c r="W73" s="269">
         <v>10525965</v>
       </c>
-      <c r="X73" s="283">
+      <c r="X73" s="269">
         <v>773924</v>
       </c>
-      <c r="Y73" s="283">
+      <c r="Y73" s="269">
         <f t="shared" si="30"/>
         <v>11299889</v>
       </c>
       <c r="Z73" s="18"/>
-      <c r="AA73" s="303">
+      <c r="AA73" s="282">
         <f>+Y73</f>
         <v>11299889</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
-      <c r="B74" s="312" t="s">
+      <c r="B74" s="291" t="s">
         <v>160</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
-      <c r="E74" s="296"/>
-      <c r="F74" s="296"/>
-      <c r="G74" s="296"/>
-      <c r="H74" s="296">
-        <v>0</v>
-      </c>
-      <c r="I74" s="296">
+      <c r="E74" s="279"/>
+      <c r="F74" s="279"/>
+      <c r="G74" s="279"/>
+      <c r="H74" s="279">
+        <v>0</v>
+      </c>
+      <c r="I74" s="279">
         <f>SUM(I72:I73)</f>
-        <v>24066202.843400002</v>
+        <v>22637342.843400002</v>
       </c>
       <c r="J74" s="36"/>
-      <c r="K74" s="296">
+      <c r="K74" s="279">
         <v>39839798.449999988</v>
       </c>
-      <c r="L74" s="296">
+      <c r="L74" s="279">
         <v>7178983</v>
       </c>
-      <c r="M74" s="296">
+      <c r="M74" s="279">
         <v>47018781.449999988</v>
       </c>
-      <c r="N74" s="296">
-        <v>0</v>
-      </c>
-      <c r="O74" s="296">
+      <c r="N74" s="279">
+        <v>0</v>
+      </c>
+      <c r="O74" s="279">
         <v>7588800.0900000036</v>
       </c>
-      <c r="Q74" s="296">
+      <c r="Q74" s="279">
         <f>Q72+Q73</f>
         <v>-3213378.5500000119</v>
       </c>
-      <c r="R74" s="296">
+      <c r="R74" s="279">
         <f>R72+R73</f>
         <v>7367583</v>
       </c>
-      <c r="S74" s="296">
+      <c r="S74" s="279">
         <f>+S72+S73</f>
         <v>4154204.4499999881</v>
       </c>
-      <c r="T74" s="296">
+      <c r="T74" s="279">
         <f>+T72+T73</f>
         <v>0</v>
       </c>
-      <c r="U74" s="296">
+      <c r="U74" s="279">
         <f>+U72+U73</f>
         <v>4154204.4499999881</v>
       </c>
       <c r="V74" s="36"/>
-      <c r="W74" s="296">
+      <c r="W74" s="279">
         <f>W72+W73</f>
         <v>1346730</v>
       </c>
-      <c r="X74" s="296">
+      <c r="X74" s="279">
         <f>X72+X73</f>
         <v>585324</v>
       </c>
-      <c r="Y74" s="296">
+      <c r="Y74" s="279">
         <f>+Y72+Y73</f>
         <v>1932054</v>
       </c>
-      <c r="Z74" s="296">
+      <c r="Z74" s="279">
         <f>+Z72+Z73</f>
         <v>0</v>
       </c>
-      <c r="AA74" s="296">
+      <c r="AA74" s="279">
         <f>+AA72+AA73</f>
         <v>1932054</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I75" s="321">
-        <f>+I74-'BG '!I8</f>
-        <v>954635.84340000153</v>
-      </c>
-      <c r="O75" s="313">
-        <f>+'[2]Hoja de trabajo'!B5-'[2]Hoja de trabajo'!K5-O74</f>
+      <c r="I75" s="300">
+        <f>+I74-'BG '!I8-'Hoja de trabajo'!K5</f>
+        <v>-1953860.1565999985</v>
+      </c>
+      <c r="O75" s="292">
+        <f>+'[1]Hoja de trabajo'!B5-'[1]Hoja de trabajo'!K5-O74</f>
         <v>-9.0000003576278687E-2</v>
       </c>
-      <c r="Q75" s="280"/>
-      <c r="R75" s="280"/>
+      <c r="Q75" s="266"/>
+      <c r="R75" s="266"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I76" s="310"/>
-      <c r="O76" s="310"/>
-      <c r="Q76" s="280"/>
-      <c r="R76" s="280"/>
+      <c r="I76" s="289"/>
+      <c r="O76" s="289"/>
+      <c r="Q76" s="266"/>
+      <c r="R76" s="266"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E77" s="314"/>
-      <c r="F77" s="314"/>
-      <c r="G77" s="314"/>
-      <c r="H77" s="314"/>
-      <c r="I77" s="314"/>
-      <c r="K77" s="314"/>
-      <c r="L77" s="314"/>
-      <c r="M77" s="314"/>
-      <c r="N77" s="314"/>
-      <c r="O77" s="314"/>
-      <c r="Q77" s="280"/>
-      <c r="R77" s="280"/>
-      <c r="W77" s="314"/>
-      <c r="X77" s="314"/>
-      <c r="Y77" s="314"/>
-      <c r="Z77" s="314"/>
-      <c r="AA77" s="314"/>
+      <c r="E77" s="293"/>
+      <c r="F77" s="293"/>
+      <c r="G77" s="293"/>
+      <c r="H77" s="293"/>
+      <c r="I77" s="293"/>
+      <c r="K77" s="293"/>
+      <c r="L77" s="293"/>
+      <c r="M77" s="293"/>
+      <c r="N77" s="293"/>
+      <c r="O77" s="293"/>
+      <c r="Q77" s="266"/>
+      <c r="R77" s="266"/>
+      <c r="W77" s="293"/>
+      <c r="X77" s="293"/>
+      <c r="Y77" s="293"/>
+      <c r="Z77" s="293"/>
+      <c r="AA77" s="293"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E78" s="314"/>
+      <c r="E78" s="293"/>
       <c r="F78"/>
-      <c r="I78" s="310"/>
-      <c r="K78" s="314"/>
+      <c r="I78" s="289"/>
+      <c r="K78" s="293"/>
       <c r="L78"/>
-      <c r="O78" s="310"/>
-      <c r="Q78" s="315" t="s">
+      <c r="O78" s="289"/>
+      <c r="Q78" s="294" t="s">
         <v>78</v>
       </c>
       <c r="R78" s="50"/>
       <c r="S78" s="50"/>
-      <c r="W78" s="314"/>
+      <c r="W78" s="293"/>
       <c r="X78"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E79" s="314"/>
+      <c r="E79" s="293"/>
       <c r="F79"/>
-      <c r="K79" s="314"/>
+      <c r="K79" s="293"/>
       <c r="L79"/>
-      <c r="Q79" s="280" t="s">
+      <c r="Q79" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="W79" s="314"/>
+      <c r="W79" s="293"/>
       <c r="X79"/>
     </row>
   </sheetData>
@@ -13141,8 +13141,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ116"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13292,7 +13292,7 @@
         <v>-5897014</v>
       </c>
       <c r="F5" s="99">
-        <f>'[1]Planilla Final 2017'!R5</f>
+        <f>'[2]Planilla Final 2017'!R5</f>
         <v>1742562</v>
       </c>
       <c r="G5" s="100">
@@ -13323,7 +13323,7 @@
         <v>-209626</v>
       </c>
       <c r="O5" s="103">
-        <f>'[1]Planilla Final 2017'!R24</f>
+        <f>'[2]Planilla Final 2017'!R24</f>
         <v>260402</v>
       </c>
       <c r="P5" s="100">
@@ -13362,7 +13362,7 @@
         <v>90701</v>
       </c>
       <c r="F6" s="99">
-        <f>'[1]Planilla Final 2017'!R7</f>
+        <f>'[2]Planilla Final 2017'!R7</f>
         <v>102620</v>
       </c>
       <c r="G6" s="100">
@@ -13393,7 +13393,7 @@
         <v>-8305303</v>
       </c>
       <c r="O6" s="108">
-        <f>'[1]Planilla Final 2017'!R25</f>
+        <f>'[2]Planilla Final 2017'!R25</f>
         <v>13413675</v>
       </c>
       <c r="P6" s="100">
@@ -13429,7 +13429,7 @@
         <v>-714334</v>
       </c>
       <c r="F7" s="99">
-        <f>'[1]Planilla Final 2017'!R6</f>
+        <f>'[2]Planilla Final 2017'!R6</f>
         <v>2644455</v>
       </c>
       <c r="G7" s="100">
@@ -13460,7 +13460,7 @@
         <v>-8974579</v>
       </c>
       <c r="O7" s="108">
-        <f>'[1]Planilla Final 2017'!R26</f>
+        <f>'[2]Planilla Final 2017'!R26</f>
         <v>11459310</v>
       </c>
       <c r="P7" s="100">
@@ -13495,7 +13495,7 @@
         <v>2950458</v>
       </c>
       <c r="F8" s="99">
-        <f>'[1]Planilla Final 2017'!R8</f>
+        <f>'[2]Planilla Final 2017'!R8</f>
         <v>15563404</v>
       </c>
       <c r="G8" s="100">
@@ -13526,7 +13526,7 @@
         <v>2636101</v>
       </c>
       <c r="O8" s="108">
-        <f>'[1]Planilla Final 2017'!R27</f>
+        <f>'[2]Planilla Final 2017'!R27</f>
         <v>20436045</v>
       </c>
       <c r="P8" s="100">
@@ -13561,7 +13561,7 @@
         <v>-1545107</v>
       </c>
       <c r="F9" s="99">
-        <f>'[1]Planilla Final 2017'!R9</f>
+        <f>'[2]Planilla Final 2017'!R9</f>
         <v>25074997</v>
       </c>
       <c r="G9" s="100">
@@ -13592,7 +13592,7 @@
         <v>3005845</v>
       </c>
       <c r="O9" s="108">
-        <f>'[1]Planilla Final 2017'!R28</f>
+        <f>'[2]Planilla Final 2017'!R28</f>
         <v>1913629</v>
       </c>
       <c r="P9" s="100">
@@ -13626,7 +13626,7 @@
         <v>-849063</v>
       </c>
       <c r="F10" s="99">
-        <f>'[1]Planilla Final 2017'!R11</f>
+        <f>'[2]Planilla Final 2017'!R11</f>
         <v>1124779</v>
       </c>
       <c r="G10" s="100">
@@ -13657,7 +13657,7 @@
         <v>4646339</v>
       </c>
       <c r="O10" s="108">
-        <f>'[1]Planilla Final 2017'!R29</f>
+        <f>'[2]Planilla Final 2017'!R29</f>
         <v>4274907</v>
       </c>
       <c r="P10" s="100">
@@ -13691,7 +13691,7 @@
         <v>-12518600</v>
       </c>
       <c r="F11" s="99">
-        <f>'[1]Planilla Final 2017'!R10</f>
+        <f>'[2]Planilla Final 2017'!R10</f>
         <v>5538448</v>
       </c>
       <c r="G11" s="100">
@@ -13722,7 +13722,7 @@
         <v>185723</v>
       </c>
       <c r="O11" s="108">
-        <f>'[1]Planilla Final 2017'!R30</f>
+        <f>'[2]Planilla Final 2017'!R30</f>
         <v>3688368</v>
       </c>
       <c r="P11" s="100">
@@ -13757,7 +13757,7 @@
         <v>-105080</v>
       </c>
       <c r="F12" s="99">
-        <f>'[1]Planilla Final 2017'!R12</f>
+        <f>'[2]Planilla Final 2017'!R12</f>
         <v>642184</v>
       </c>
       <c r="G12" s="100">
@@ -13788,7 +13788,7 @@
         <v>-4702711</v>
       </c>
       <c r="O12" s="108">
-        <f>'[1]Planilla Final 2017'!R31+'[1]Planilla Final 2017'!R33</f>
+        <f>'[2]Planilla Final 2017'!R31+'[2]Planilla Final 2017'!R33</f>
         <v>6136555</v>
       </c>
       <c r="P12" s="100">
@@ -13823,7 +13823,7 @@
         <v>-13709615</v>
       </c>
       <c r="F13" s="99">
-        <f>'[1]Planilla Final 2017'!R13</f>
+        <f>'[2]Planilla Final 2017'!R13</f>
         <v>14885027</v>
       </c>
       <c r="G13" s="100">
@@ -13904,7 +13904,7 @@
         <v>5194050</v>
       </c>
       <c r="O14" s="108">
-        <f>'[1]Planilla Final 2017'!R32</f>
+        <f>'[2]Planilla Final 2017'!R32</f>
         <v>4559467</v>
       </c>
       <c r="T14" s="107"/>
@@ -13993,7 +13993,7 @@
         <v>2851570</v>
       </c>
       <c r="F17" s="99">
-        <f>'[1]Planilla Final 2017'!R15</f>
+        <f>'[2]Planilla Final 2017'!R15</f>
         <v>3212434</v>
       </c>
       <c r="G17" s="100">
@@ -14032,7 +14032,7 @@
         <v>1073025</v>
       </c>
       <c r="F18" s="81">
-        <f>+'[1]Planilla Final 2017'!R14</f>
+        <f>+'[2]Planilla Final 2017'!R14</f>
         <v>3150764</v>
       </c>
       <c r="G18" s="100">
@@ -14082,7 +14082,7 @@
         <v>66493952</v>
       </c>
       <c r="F19" s="99">
-        <f>'[1]Planilla Final 2017'!R16</f>
+        <f>'[2]Planilla Final 2017'!R16</f>
         <v>112886401</v>
       </c>
       <c r="G19" s="100">
@@ -14113,7 +14113,7 @@
         <v>-7111642</v>
       </c>
       <c r="O19" s="124">
-        <f>'[1]Planilla Final 2017'!R34</f>
+        <f>'[2]Planilla Final 2017'!R34</f>
         <v>9674932</v>
       </c>
       <c r="P19" s="100">
@@ -14147,7 +14147,7 @@
         <v>76954</v>
       </c>
       <c r="F20" s="99">
-        <f>'[1]Planilla Final 2017'!R17</f>
+        <f>'[2]Planilla Final 2017'!R17</f>
         <v>661755</v>
       </c>
       <c r="G20" s="100">
@@ -14178,7 +14178,7 @@
         <v>-6710516</v>
       </c>
       <c r="O20" s="124">
-        <f>'[1]Planilla Final 2017'!R35</f>
+        <f>'[2]Planilla Final 2017'!R35</f>
         <v>6710516</v>
       </c>
       <c r="P20" s="100">
@@ -14215,7 +14215,7 @@
         <v>-3411476</v>
       </c>
       <c r="F21" s="99">
-        <f>'[1]Planilla Final 2017'!R18</f>
+        <f>'[2]Planilla Final 2017'!R18</f>
         <v>11276112</v>
       </c>
       <c r="G21" s="100">
@@ -14246,7 +14246,7 @@
         <v>-2203673</v>
       </c>
       <c r="O21" s="124">
-        <f>'[1]Planilla Final 2017'!R36</f>
+        <f>'[2]Planilla Final 2017'!R36</f>
         <v>2203673</v>
       </c>
       <c r="P21" s="100">
@@ -14285,7 +14285,7 @@
         <v>-251355</v>
       </c>
       <c r="F22" s="99">
-        <f>'[1]Planilla Final 2017'!R19</f>
+        <f>'[2]Planilla Final 2017'!R19</f>
         <v>1422229</v>
       </c>
       <c r="G22" s="100">
@@ -14316,7 +14316,7 @@
         <v>-10628880</v>
       </c>
       <c r="O22" s="124">
-        <f>'[1]Planilla Final 2017'!R37</f>
+        <f>'[2]Planilla Final 2017'!R37</f>
         <v>10628880</v>
       </c>
       <c r="P22" s="100">
@@ -14350,7 +14350,7 @@
         <v>-35698843</v>
       </c>
       <c r="F23" s="99">
-        <f>'[1]Planilla Final 2017'!R20</f>
+        <f>'[2]Planilla Final 2017'!R20</f>
         <v>3318028</v>
       </c>
       <c r="G23" s="100">
@@ -14381,7 +14381,7 @@
         <v>11329859</v>
       </c>
       <c r="O23" s="124">
-        <f>'[1]Planilla Final 2017'!R38</f>
+        <f>'[2]Planilla Final 2017'!R38</f>
         <v>2315979</v>
       </c>
       <c r="P23" s="100">
@@ -14415,7 +14415,7 @@
         <v>4266160</v>
       </c>
       <c r="F24" s="99">
-        <f>'[1]Planilla Final 2017'!R21+'[1]Planilla Final 2017'!R22</f>
+        <f>'[2]Planilla Final 2017'!R21+'[2]Planilla Final 2017'!R22</f>
         <v>4326687</v>
       </c>
       <c r="G24" s="100">
@@ -14447,7 +14447,7 @@
         <v>4575944</v>
       </c>
       <c r="O24" s="124">
-        <f>'[1]Planilla Final 2017'!R39</f>
+        <f>'[2]Planilla Final 2017'!R39</f>
         <v>5185547</v>
       </c>
       <c r="P24" s="100">
@@ -14503,7 +14503,7 @@
         <v>-2249885</v>
       </c>
       <c r="O25" s="124">
-        <f>'[1]Planilla Final 2017'!R40</f>
+        <f>'[2]Planilla Final 2017'!R40</f>
         <v>20813206</v>
       </c>
       <c r="P25" s="100"/>
@@ -14561,7 +14561,7 @@
         <v>151756</v>
       </c>
       <c r="O26" s="124">
-        <f>'[1]Planilla Final 2017'!R41</f>
+        <f>'[2]Planilla Final 2017'!R41</f>
         <v>3572443</v>
       </c>
       <c r="P26" s="100">
@@ -14750,7 +14750,7 @@
         <v>19178254.450000003</v>
       </c>
       <c r="O31" s="99">
-        <f>'[1]Planilla Final 2017'!R51</f>
+        <f>'[2]Planilla Final 2017'!R51</f>
         <v>80325352</v>
       </c>
       <c r="P31" s="68">
@@ -15031,7 +15031,7 @@
       <c r="H43" s="138"/>
       <c r="I43" s="72"/>
       <c r="J43" s="158"/>
-      <c r="K43" s="318">
+      <c r="K43" s="297">
         <f>+K42-L31</f>
         <v>0.20340000092983246</v>
       </c>
@@ -15057,7 +15057,7 @@
       <c r="H44" s="138"/>
       <c r="I44" s="72"/>
       <c r="J44" s="158"/>
-      <c r="K44" s="318"/>
+      <c r="K44" s="297"/>
       <c r="L44" s="138"/>
       <c r="M44" s="138"/>
       <c r="N44" s="71"/>
@@ -16539,12 +16539,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="267" t="s">
+      <c r="B37" s="310" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="267"/>
-      <c r="D37" s="267"/>
-      <c r="E37" s="267"/>
+      <c r="C37" s="310"/>
+      <c r="D37" s="310"/>
+      <c r="E37" s="310"/>
       <c r="F37" s="24">
         <v>-705016</v>
       </c>
@@ -16562,12 +16562,12 @@
       </c>
     </row>
     <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="268" t="s">
+      <c r="B38" s="311" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="268"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="268"/>
+      <c r="C38" s="311"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="311"/>
       <c r="F38" s="6">
         <f>+F36+F37</f>
         <v>920</v>
@@ -16586,12 +16586,12 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="268" t="s">
+      <c r="B39" s="311" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="268"/>
-      <c r="D39" s="268"/>
-      <c r="E39" s="268"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="311"/>
       <c r="F39" s="6">
         <f>SUM(F38:F38)</f>
         <v>920</v>
@@ -16614,12 +16614,12 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="268" t="s">
+      <c r="B40" s="311" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="268"/>
-      <c r="D40" s="268"/>
-      <c r="E40" s="268"/>
+      <c r="C40" s="311"/>
+      <c r="D40" s="311"/>
+      <c r="E40" s="311"/>
       <c r="F40" s="10">
         <v>6115000</v>
       </c>
@@ -19904,12 +19904,12 @@
       <c r="L177" s="2"/>
     </row>
     <row r="178" spans="2:12" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="269" t="s">
+      <c r="B178" s="312" t="s">
         <v>257</v>
       </c>
-      <c r="C178" s="269"/>
-      <c r="D178" s="269"/>
-      <c r="E178" s="269"/>
+      <c r="C178" s="312"/>
+      <c r="D178" s="312"/>
+      <c r="E178" s="312"/>
       <c r="F178" s="10">
         <v>-705016</v>
       </c>
@@ -20477,34 +20477,34 @@
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="274">
+      <c r="G4" s="317">
         <v>2020</v>
       </c>
-      <c r="H4" s="274"/>
-      <c r="I4" s="275">
+      <c r="H4" s="317"/>
+      <c r="I4" s="318">
         <v>2019</v>
       </c>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270">
+      <c r="J4" s="313"/>
+      <c r="K4" s="313">
         <v>2018</v>
       </c>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270">
+      <c r="L4" s="313"/>
+      <c r="M4" s="313">
         <v>2017</v>
       </c>
-      <c r="N4" s="270"/>
-      <c r="O4" s="270">
+      <c r="N4" s="313"/>
+      <c r="O4" s="313">
         <v>2016</v>
       </c>
-      <c r="P4" s="270"/>
-      <c r="Q4" s="270">
+      <c r="P4" s="313"/>
+      <c r="Q4" s="313">
         <v>2015</v>
       </c>
-      <c r="R4" s="270"/>
-      <c r="T4" s="270">
+      <c r="R4" s="313"/>
+      <c r="T4" s="313">
         <v>2014</v>
       </c>
-      <c r="U4" s="270"/>
+      <c r="U4" s="313"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G5" s="185" t="s">
@@ -21752,13 +21752,13 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="2:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="271" t="s">
+      <c r="B39" s="314" t="s">
         <v>335</v>
       </c>
-      <c r="C39" s="271"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="271"/>
+      <c r="C39" s="314"/>
+      <c r="D39" s="314"/>
+      <c r="E39" s="314"/>
+      <c r="F39" s="314"/>
       <c r="G39" s="228"/>
       <c r="H39" s="228"/>
       <c r="I39" s="26"/>
@@ -22770,32 +22770,32 @@
       <c r="P71" s="54"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F72" s="272" t="s">
+      <c r="F72" s="315" t="s">
         <v>78</v>
       </c>
-      <c r="G72" s="272"/>
-      <c r="H72" s="272"/>
-      <c r="I72" s="272"/>
-      <c r="J72" s="272"/>
-      <c r="K72" s="272"/>
-      <c r="L72" s="272"/>
-      <c r="M72" s="272"/>
-      <c r="N72" s="272"/>
+      <c r="G72" s="315"/>
+      <c r="H72" s="315"/>
+      <c r="I72" s="315"/>
+      <c r="J72" s="315"/>
+      <c r="K72" s="315"/>
+      <c r="L72" s="315"/>
+      <c r="M72" s="315"/>
+      <c r="N72" s="315"/>
       <c r="O72" s="54"/>
       <c r="P72" s="54"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F73" s="273" t="s">
+      <c r="F73" s="316" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="273"/>
-      <c r="H73" s="273"/>
-      <c r="I73" s="273"/>
-      <c r="J73" s="273"/>
-      <c r="K73" s="273"/>
-      <c r="L73" s="273"/>
-      <c r="M73" s="273"/>
-      <c r="N73" s="273"/>
+      <c r="G73" s="316"/>
+      <c r="H73" s="316"/>
+      <c r="I73" s="316"/>
+      <c r="J73" s="316"/>
+      <c r="K73" s="316"/>
+      <c r="L73" s="316"/>
+      <c r="M73" s="316"/>
+      <c r="N73" s="316"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -23173,15 +23173,15 @@
     </row>
     <row r="19" spans="2:14" s="198" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="202"/>
-      <c r="C19" s="276" t="s">
+      <c r="C19" s="319" t="s">
         <v>376</v>
       </c>
-      <c r="D19" s="276"/>
-      <c r="E19" s="276"/>
-      <c r="F19" s="276"/>
-      <c r="G19" s="276"/>
-      <c r="H19" s="276"/>
-      <c r="I19" s="276"/>
+      <c r="D19" s="319"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="319"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="319"/>
+      <c r="I19" s="319"/>
       <c r="J19" s="203"/>
       <c r="K19" s="203">
         <v>0</v>
@@ -23221,11 +23221,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="277" t="s">
+      <c r="B22" s="320" t="s">
         <v>379</v>
       </c>
-      <c r="C22" s="277"/>
-      <c r="D22" s="277"/>
+      <c r="C22" s="320"/>
+      <c r="D22" s="320"/>
       <c r="E22" s="205" t="s">
         <v>380</v>
       </c>

--- a/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
+++ b/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\Combinado 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C1556A-64AB-4367-AF5C-9C04B39687F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE2A9C9-20A5-4FA9-B427-8D65D2E34A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
     <sheet name="BG " sheetId="2" r:id="rId2"/>
     <sheet name="ER" sheetId="3" r:id="rId3"/>
     <sheet name="EFE" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja de trabajo" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja de trabajo" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="PAT" sheetId="6" r:id="rId6"/>
     <sheet name="AD" sheetId="7" r:id="rId7"/>
     <sheet name="Impuesto diferido" sheetId="8" r:id="rId8"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">AD!$A$1:$U$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'BG '!$A$6:$U$75</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">EFE!$B$1:$AH$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">EFE!$B$1:$AH$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ER!$A$1:$Y$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">PAT!$A$1:$J$171</definedName>
   </definedNames>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="456">
   <si>
     <t>1.</t>
   </si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>Activos por derechos de uso (pagos)</t>
-  </si>
-  <si>
-    <t>Aumento de inversiones en subsidiarias y asociadas</t>
   </si>
   <si>
     <t>Adiciones de propiedades y equipos</t>
@@ -1012,9 +1009,6 @@
   </si>
   <si>
     <t>ASIENTOS DE COMBINACION</t>
-  </si>
-  <si>
-    <t>Al 31 de diciembre del 2019 y 2018</t>
   </si>
   <si>
     <t>DEBITO</t>
@@ -1818,9 +1812,6 @@
     <t xml:space="preserve"> Acciones en tesoreria</t>
   </si>
   <si>
-    <t>Pagos de capital de pasivo por arrendamientos</t>
-  </si>
-  <si>
     <t>Pagos de capital</t>
   </si>
   <si>
@@ -1828,6 +1819,30 @@
   </si>
   <si>
     <t>Otros resultados integrales</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo de las operaciones:</t>
+  </si>
+  <si>
+    <t>Recibido de clientes, relacionadas y terceros</t>
+  </si>
+  <si>
+    <t>Impuesto a la renta</t>
+  </si>
+  <si>
+    <t>Intereses y comisiones bancarias pagadas</t>
+  </si>
+  <si>
+    <t>Flujo neto proveniente de las operaciones</t>
+  </si>
+  <si>
+    <t>Otros ingresos, neto</t>
+  </si>
+  <si>
+    <t>Adiciones o pagos de capital de pasivo por arrendamientos</t>
+  </si>
+  <si>
+    <t>Pagado a proveedores, relacionadas, trabajadores y otros</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2491,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2889,7 +2904,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2901,19 +2915,21 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="30" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="30" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2977,6 +2993,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3112,9 +3140,6 @@
         <row r="5">
           <cell r="B5">
             <v>7639576</v>
-          </cell>
-          <cell r="K5">
-            <v>50776</v>
           </cell>
         </row>
       </sheetData>
@@ -3783,20 +3808,20 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="320" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="221" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="321" t="s">
+      <c r="H4" t="s">
         <v>409</v>
-      </c>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="221" t="s">
-        <v>410</v>
-      </c>
-      <c r="H4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -3813,21 +3838,21 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="G5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H5" t="s">
+        <v>411</v>
+      </c>
+      <c r="I5" t="s">
         <v>412</v>
       </c>
-      <c r="H5" t="s">
-        <v>413</v>
-      </c>
-      <c r="I5" t="s">
-        <v>414</v>
-      </c>
       <c r="J5" s="221" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3839,7 +3864,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3851,7 +3876,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3863,7 +3888,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3875,7 +3900,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3887,7 +3912,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3899,7 +3924,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3911,7 +3936,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3923,7 +3948,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3935,7 +3960,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3947,7 +3972,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3959,7 +3984,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3971,7 +3996,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C18" s="2">
         <v>15846166</v>
@@ -4005,48 +4030,48 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" t="s">
         <v>415</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>416</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>417</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>418</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>419</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>420</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>421</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>422</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>423</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>424</v>
       </c>
-      <c r="M20" t="s">
-        <v>425</v>
-      </c>
-      <c r="N20" t="s">
-        <v>426</v>
-      </c>
       <c r="O20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4102,57 +4127,57 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4179,7 +4204,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E3" s="2">
         <f>+'PP&amp;E'!E18</f>
@@ -4188,7 +4213,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E4" s="2">
         <f>+'PP&amp;E'!D18</f>
@@ -4197,7 +4222,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E5" s="2">
         <f>+'PP&amp;E'!C18</f>
@@ -4214,11 +4239,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,11 +5000,11 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="301" t="s">
+      <c r="A21" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -8915,11 +8940,11 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="302" t="s">
+      <c r="A39" s="301" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="302"/>
-      <c r="C39" s="302"/>
+      <c r="B39" s="301"/>
+      <c r="C39" s="301"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10">
         <v>139500</v>
@@ -9045,7 +9070,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="256" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D42" s="257">
         <f>-D35/(D32+D34)</f>
@@ -9115,16 +9140,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:AC79"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomRight" activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -9133,17 +9155,17 @@
     <col min="2" max="2" width="1.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="266" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.140625" style="266" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="13.42578125" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.140625" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="13.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="1.85546875" style="44" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="14.140625" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" hidden="1" customWidth="1"/>
@@ -9171,7 +9193,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="267" t="s">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="E3" s="268"/>
       <c r="F3" s="268"/>
@@ -9348,7 +9370,7 @@
       <c r="Z7" s="269"/>
       <c r="AA7" s="269"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="275" t="s">
         <v>112</v>
       </c>
@@ -9369,7 +9391,7 @@
         <f>+ER!G32+ER!G34</f>
         <v>3225971</v>
       </c>
-      <c r="I8" s="298">
+      <c r="I8" s="294">
         <f t="shared" ref="I8:I22" si="0">+G8+H8</f>
         <v>49994468</v>
       </c>
@@ -9428,17 +9450,17 @@
         <f>+Y8+Z8</f>
         <v>13532502</v>
       </c>
-      <c r="AC8" s="289">
+      <c r="AC8" s="288">
         <f>+I8-'Hoja de trabajo'!K47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="303" t="s">
+    <row r="9" spans="1:29" ht="28.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="302" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="304"/>
-      <c r="D9" s="305"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="304"/>
       <c r="E9" s="269"/>
       <c r="F9" s="269"/>
       <c r="G9" s="269">
@@ -9450,7 +9472,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="297"/>
       <c r="K9" s="269"/>
       <c r="L9" s="269"/>
       <c r="M9" s="269"/>
@@ -9468,7 +9490,7 @@
       <c r="Z9" s="269"/>
       <c r="AA9" s="269"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" t="s">
         <v>114</v>
@@ -9485,7 +9507,7 @@
         <v>697211</v>
       </c>
       <c r="H10" s="269"/>
-      <c r="I10" s="283">
+      <c r="I10" s="282">
         <f t="shared" si="0"/>
         <v>697211</v>
       </c>
@@ -9535,7 +9557,7 @@
         <v>481795</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" t="s">
         <v>115</v>
@@ -9592,7 +9614,7 @@
         <v>2268000</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" t="s">
         <v>116</v>
@@ -9668,7 +9690,7 @@
         <v>17440928</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" t="s">
         <v>117</v>
@@ -9727,12 +9749,12 @@
         <v>39210</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="304" t="s">
+      <c r="C14" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="305"/>
+      <c r="D14" s="304"/>
       <c r="E14" s="269">
         <v>1808437</v>
       </c>
@@ -9748,7 +9770,7 @@
         <f t="shared" si="0"/>
         <v>2412033</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="297"/>
       <c r="K14" s="269">
         <v>1484293</v>
       </c>
@@ -9788,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" t="s">
         <v>119</v>
@@ -9849,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" t="s">
         <v>120</v>
@@ -9916,10 +9938,10 @@
         <v>2055008</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="269"/>
@@ -9971,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" t="s">
         <v>121</v>
@@ -10035,7 +10057,7 @@
         <v>3074772</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
       <c r="C19" t="s">
         <v>122</v>
@@ -10101,7 +10123,7 @@
         <v>1591304</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
       <c r="C20" t="s">
         <v>123</v>
@@ -10157,7 +10179,7 @@
         <v>1717828</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
       <c r="C21" t="s">
         <v>124</v>
@@ -10210,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" t="s">
         <v>125</v>
@@ -10269,7 +10291,7 @@
       <c r="Z22" s="269"/>
       <c r="AA22" s="269"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="D23" s="52"/>
       <c r="E23" s="268">
@@ -10350,7 +10372,7 @@
         <v>42201347</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="275" t="s">
         <v>126</v>
       </c>
@@ -10378,7 +10400,7 @@
       <c r="Z24" s="269"/>
       <c r="AA24" s="269"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" t="s">
         <v>127</v>
@@ -10391,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="269"/>
-      <c r="I25" s="283">
+      <c r="I25" s="282">
         <f>+'Hoja de trabajo'!B83</f>
         <v>-10976377</v>
       </c>
@@ -10437,7 +10459,7 @@
         <v>2327364</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" t="s">
         <v>37</v>
@@ -10494,7 +10516,7 @@
         <v>-16324141</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" t="s">
         <v>38</v>
@@ -10552,7 +10574,7 @@
         <v>-6350190</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" t="s">
         <v>30</v>
@@ -10607,7 +10629,7 @@
         <v>546462</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" t="s">
         <v>31</v>
@@ -10662,7 +10684,7 @@
         <v>1692356</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" t="s">
         <v>32</v>
@@ -10719,7 +10741,7 @@
         <v>3872186</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" t="s">
         <v>46</v>
@@ -10776,7 +10798,7 @@
         <v>-98690</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" t="s">
         <v>128</v>
@@ -10835,7 +10857,7 @@
         <v>-4510472</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" t="s">
         <v>129</v>
@@ -10892,7 +10914,7 @@
         <v>1235126</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" t="s">
         <v>130</v>
@@ -10951,7 +10973,7 @@
         <v>-208710</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" t="s">
         <v>131</v>
@@ -11011,7 +11033,7 @@
         <v>4568360</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" t="s">
         <v>59</v>
@@ -11054,7 +11076,7 @@
       <c r="Z36" s="269"/>
       <c r="AA36" s="269"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" t="s">
         <v>62</v>
@@ -11109,7 +11131,7 @@
         <v>-2404770</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" t="s">
         <v>60</v>
@@ -11122,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="269"/>
-      <c r="I38" s="298">
+      <c r="I38" s="294">
         <f>+'Hoja de trabajo'!B78</f>
         <v>-83181</v>
       </c>
@@ -11181,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="269"/>
-      <c r="I39" s="298">
+      <c r="I39" s="294">
         <f t="shared" ref="I39:I41" si="13">+G39+H39</f>
         <v>0</v>
       </c>
@@ -11232,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="269"/>
-      <c r="I40" s="298">
+      <c r="I40" s="294">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -11283,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="269"/>
-      <c r="I41" s="298">
+      <c r="I41" s="294">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -11325,7 +11347,7 @@
         <v>-2999556</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="275" t="s">
         <v>135</v>
       </c>
@@ -11334,7 +11356,7 @@
       <c r="F42" s="269"/>
       <c r="G42" s="268"/>
       <c r="H42" s="268"/>
-      <c r="I42" s="299">
+      <c r="I42" s="295">
         <f>SUM(I23:I41)</f>
         <v>61964636.814851999</v>
       </c>
@@ -11396,7 +11418,7 @@
         <v>23270245</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" t="s">
         <v>136</v>
@@ -11414,7 +11436,7 @@
         <v>-8327309</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="298">
+      <c r="I43" s="294">
         <f t="shared" si="14"/>
         <v>-8327309</v>
       </c>
@@ -11460,7 +11482,7 @@
         <v>-3550763</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" t="s">
         <v>137</v>
@@ -11519,7 +11541,7 @@
         <v>-1759101</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" t="s">
         <v>138</v>
@@ -11579,7 +11601,7 @@
         <v>-107410</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="278" t="s">
         <v>139</v>
       </c>
@@ -11593,7 +11615,7 @@
         <f>SUM(I42:I45)</f>
         <v>47991891.814851999</v>
       </c>
-      <c r="J46" s="57"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="279">
         <v>48541212</v>
       </c>
@@ -11652,1017 +11674,1059 @@
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="59"/>
+      <c r="B47" s="321" t="s">
+        <v>448</v>
+      </c>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="269"/>
       <c r="F47" s="269"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
+      <c r="G47" s="269"/>
+      <c r="H47" s="269"/>
+      <c r="I47" s="269"/>
       <c r="J47" s="52"/>
       <c r="K47" s="269"/>
       <c r="L47" s="269"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
+      <c r="M47" s="269"/>
+      <c r="N47" s="269"/>
+      <c r="O47" s="269"/>
       <c r="Q47" s="269"/>
       <c r="R47" s="269"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
+      <c r="S47" s="269"/>
+      <c r="T47" s="269"/>
+      <c r="U47" s="269"/>
+      <c r="V47" s="44"/>
       <c r="W47" s="269"/>
       <c r="X47" s="269"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
+      <c r="Y47" s="269"/>
+      <c r="Z47" s="269"/>
+      <c r="AA47" s="269"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="275" t="s">
-        <v>140</v>
+      <c r="B48" s="322"/>
+      <c r="C48" s="323" t="s">
+        <v>449</v>
       </c>
       <c r="D48" s="52"/>
-      <c r="E48" s="269"/>
-      <c r="F48" s="269"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="E48" s="269">
+        <v>180367119</v>
+      </c>
+      <c r="F48" s="269">
+        <v>166632935</v>
+      </c>
+      <c r="G48" s="269">
+        <f>+E48+F48</f>
+        <v>347000054</v>
+      </c>
+      <c r="H48" s="269">
+        <f>-H60</f>
+        <v>-4118950</v>
+      </c>
+      <c r="I48" s="269">
+        <f>+G48+H48</f>
+        <v>342881104</v>
+      </c>
       <c r="J48" s="52"/>
-      <c r="K48" s="269"/>
-      <c r="L48" s="269"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
+      <c r="K48" s="269">
+        <v>200376926</v>
+      </c>
+      <c r="L48" s="269">
+        <v>126653747</v>
+      </c>
+      <c r="M48" s="269">
+        <f>+K48+L48</f>
+        <v>327030673</v>
+      </c>
+      <c r="N48" s="269">
+        <f>-N60</f>
+        <v>-8203260</v>
+      </c>
+      <c r="O48" s="269">
+        <f>+M48+N48</f>
+        <v>318827413</v>
+      </c>
       <c r="Q48" s="269"/>
       <c r="R48" s="269"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
+      <c r="S48" s="269"/>
+      <c r="T48" s="269"/>
+      <c r="U48" s="269"/>
+      <c r="V48" s="44"/>
       <c r="W48" s="269"/>
       <c r="X48" s="269"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-    </row>
-    <row r="49" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
-      <c r="C49" s="306" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="307"/>
-      <c r="E49" s="269"/>
-      <c r="F49" s="269"/>
+      <c r="Y48" s="269"/>
+      <c r="Z48" s="269"/>
+      <c r="AA48" s="269"/>
+    </row>
+    <row r="49" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="322"/>
+      <c r="C49" s="324" t="s">
+        <v>455</v>
+      </c>
+      <c r="D49" s="325"/>
+      <c r="E49" s="269">
+        <v>-164103721</v>
+      </c>
+      <c r="F49" s="269">
+        <f>-138318661+4162944</f>
+        <v>-134155717</v>
+      </c>
       <c r="G49" s="269">
-        <f>+E49+F49</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="18"/>
+        <f t="shared" ref="G49:G52" si="16">+E49+F49</f>
+        <v>-298259438</v>
+      </c>
+      <c r="H49" s="269"/>
       <c r="I49" s="269">
-        <f>+'Hoja de trabajo'!C7</f>
-        <v>3358789</v>
-      </c>
-      <c r="J49" s="295"/>
-      <c r="K49" s="269"/>
-      <c r="L49" s="269"/>
+        <f t="shared" ref="I49:I52" si="17">+G49+H49</f>
+        <v>-298259438</v>
+      </c>
+      <c r="J49" s="52"/>
+      <c r="K49" s="269">
+        <v>-156943511</v>
+      </c>
+      <c r="L49" s="269">
+        <v>-114597477</v>
+      </c>
       <c r="M49" s="269">
-        <v>0</v>
-      </c>
-      <c r="N49" s="18"/>
+        <f t="shared" ref="M49:M52" si="18">+K49+L49</f>
+        <v>-271540988</v>
+      </c>
+      <c r="N49" s="269"/>
       <c r="O49" s="269">
-        <v>-965344.68000000017</v>
-      </c>
-      <c r="Q49" s="269">
-        <v>251011</v>
-      </c>
+        <f t="shared" ref="O49:O52" si="19">+M49+N49</f>
+        <v>-271540988</v>
+      </c>
+      <c r="Q49" s="269"/>
       <c r="R49" s="269"/>
-      <c r="S49" s="269">
-        <f t="shared" ref="S49:S57" si="16">+Q49+R49</f>
-        <v>251011</v>
-      </c>
-      <c r="T49" s="18"/>
-      <c r="U49" s="269">
-        <f>+S49+T49</f>
-        <v>251011</v>
-      </c>
-      <c r="W49" s="269">
-        <v>-593863</v>
-      </c>
+      <c r="S49" s="269"/>
+      <c r="T49" s="269"/>
+      <c r="U49" s="269"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="269"/>
       <c r="X49" s="269"/>
-      <c r="Y49" s="269">
-        <f t="shared" ref="Y49:Y55" si="17">+W49+X49</f>
-        <v>-593863</v>
-      </c>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="269">
-        <f>+Y49+Z49</f>
-        <v>-593863</v>
-      </c>
+      <c r="Y49" s="269"/>
+      <c r="Z49" s="269"/>
+      <c r="AA49" s="269"/>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="280" t="s">
-        <v>142</v>
+      <c r="B50" s="322"/>
+      <c r="C50" s="323" t="s">
+        <v>453</v>
       </c>
       <c r="D50" s="52"/>
-      <c r="E50" s="269"/>
-      <c r="F50" s="269"/>
+      <c r="E50" s="269">
+        <v>-501019</v>
+      </c>
+      <c r="F50" s="269">
+        <f>1386241+113140</f>
+        <v>1499381</v>
+      </c>
       <c r="G50" s="269">
-        <f t="shared" ref="G50:G57" si="18">+E50+F50</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="18"/>
+        <f t="shared" si="16"/>
+        <v>998362</v>
+      </c>
+      <c r="H50" s="269"/>
       <c r="I50" s="269">
-        <f>+'Hoja de trabajo'!C6</f>
-        <v>-3107992</v>
+        <f t="shared" si="17"/>
+        <v>998362</v>
       </c>
       <c r="J50" s="52"/>
       <c r="K50" s="269"/>
-      <c r="L50" s="269"/>
+      <c r="L50" s="269">
+        <f>451754+174049</f>
+        <v>625803</v>
+      </c>
       <c r="M50" s="269">
-        <v>0</v>
-      </c>
-      <c r="N50" s="18"/>
+        <f t="shared" si="18"/>
+        <v>625803</v>
+      </c>
+      <c r="N50" s="269"/>
       <c r="O50" s="269">
-        <v>266474</v>
-      </c>
-      <c r="Q50" s="269">
-        <v>29809</v>
-      </c>
-      <c r="R50" s="269">
-        <v>-205582</v>
-      </c>
-      <c r="S50" s="269">
+        <f t="shared" si="19"/>
+        <v>625803</v>
+      </c>
+      <c r="Q50" s="269"/>
+      <c r="R50" s="269"/>
+      <c r="S50" s="269"/>
+      <c r="T50" s="269"/>
+      <c r="U50" s="269"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="269"/>
+      <c r="X50" s="269"/>
+      <c r="Y50" s="269"/>
+      <c r="Z50" s="269"/>
+      <c r="AA50" s="269"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B51" s="322"/>
+      <c r="C51" s="323" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="52"/>
+      <c r="E51" s="269">
+        <v>-3680975</v>
+      </c>
+      <c r="F51" s="294">
+        <v>-4162944</v>
+      </c>
+      <c r="G51" s="269">
         <f t="shared" si="16"/>
-        <v>-175773</v>
-      </c>
-      <c r="T50" s="18"/>
-      <c r="U50" s="269">
-        <f>+S50+T50</f>
-        <v>-175773</v>
-      </c>
-      <c r="W50" s="269">
-        <v>5828169</v>
-      </c>
-      <c r="X50" s="269"/>
-      <c r="Y50" s="269">
+        <v>-7843919</v>
+      </c>
+      <c r="H51" s="269"/>
+      <c r="I51" s="269">
         <f t="shared" si="17"/>
-        <v>5828169</v>
-      </c>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="269">
-        <f t="shared" ref="AA50:AA57" si="19">+Y50+Z50</f>
-        <v>5828169</v>
-      </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="269"/>
-      <c r="F51" s="269"/>
-      <c r="G51" s="269">
+        <v>-7843919</v>
+      </c>
+      <c r="J51" s="52"/>
+      <c r="K51" s="269">
+        <v>-7316715</v>
+      </c>
+      <c r="L51" s="269"/>
+      <c r="M51" s="269">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="269">
-        <f>+'Hoja de trabajo'!C24</f>
-        <v>-163132</v>
-      </c>
-      <c r="J51" s="52"/>
-      <c r="K51" s="269"/>
-      <c r="L51" s="269"/>
-      <c r="M51" s="269"/>
-      <c r="N51" s="18"/>
+        <v>-7316715</v>
+      </c>
+      <c r="N51" s="269"/>
       <c r="O51" s="269">
-        <v>-251355</v>
+        <f t="shared" si="19"/>
+        <v>-7316715</v>
       </c>
       <c r="Q51" s="269"/>
       <c r="R51" s="269"/>
       <c r="S51" s="269"/>
-      <c r="T51" s="18"/>
+      <c r="T51" s="269"/>
       <c r="U51" s="269"/>
+      <c r="V51" s="44"/>
       <c r="W51" s="269"/>
       <c r="X51" s="269"/>
       <c r="Y51" s="269"/>
-      <c r="Z51" s="18"/>
+      <c r="Z51" s="269"/>
       <c r="AA51" s="269"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="308" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="309"/>
-      <c r="E52" s="269"/>
-      <c r="F52" s="269"/>
+      <c r="B52" s="322"/>
+      <c r="C52" s="323" t="s">
+        <v>451</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="269">
+        <v>-1888989</v>
+      </c>
+      <c r="F52" s="269">
+        <v>-674385</v>
+      </c>
       <c r="G52" s="269">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="18"/>
+        <f t="shared" si="16"/>
+        <v>-2563374</v>
+      </c>
+      <c r="H52" s="269"/>
       <c r="I52" s="269">
-        <f>+'Hoja de trabajo'!B51</f>
-        <v>-2214500</v>
-      </c>
-      <c r="J52" s="296"/>
+        <f t="shared" si="17"/>
+        <v>-2563374</v>
+      </c>
+      <c r="J52" s="52"/>
       <c r="K52" s="269"/>
       <c r="L52" s="269">
-        <v>205582</v>
+        <v>-670216</v>
       </c>
       <c r="M52" s="269">
-        <v>205582</v>
-      </c>
-      <c r="N52" s="18"/>
+        <f t="shared" si="18"/>
+        <v>-670216</v>
+      </c>
+      <c r="N52" s="269"/>
       <c r="O52" s="269">
-        <v>-253825</v>
+        <f t="shared" si="19"/>
+        <v>-670216</v>
       </c>
       <c r="Q52" s="269"/>
       <c r="R52" s="269"/>
-      <c r="S52" s="269">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="18"/>
+      <c r="S52" s="269"/>
+      <c r="T52" s="269"/>
       <c r="U52" s="269"/>
-      <c r="W52" s="269">
-        <v>0</v>
-      </c>
+      <c r="V52" s="44"/>
+      <c r="W52" s="269"/>
       <c r="X52" s="269"/>
-      <c r="Y52" s="269">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="18"/>
+      <c r="Y52" s="269"/>
+      <c r="Z52" s="269"/>
       <c r="AA52" s="269"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" t="s">
-        <v>145</v>
-      </c>
+      <c r="B53" s="322" t="s">
+        <v>452</v>
+      </c>
+      <c r="C53" s="44"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="269"/>
-      <c r="F53" s="269"/>
-      <c r="G53" s="269">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="269">
-        <f>+'Hoja de trabajo'!B39</f>
-        <v>-3610086</v>
+      <c r="E53" s="279">
+        <f>SUM(E48:E52)</f>
+        <v>10192415</v>
+      </c>
+      <c r="F53" s="279">
+        <f t="shared" ref="F53:I53" si="20">SUM(F48:F52)</f>
+        <v>29139270</v>
+      </c>
+      <c r="G53" s="279">
+        <f t="shared" si="20"/>
+        <v>39331685</v>
+      </c>
+      <c r="H53" s="279">
+        <f t="shared" si="20"/>
+        <v>-4118950</v>
+      </c>
+      <c r="I53" s="279">
+        <f t="shared" si="20"/>
+        <v>35212735</v>
       </c>
       <c r="J53" s="52"/>
-      <c r="K53" s="269"/>
-      <c r="L53" s="269"/>
-      <c r="M53" s="269">
-        <v>0</v>
-      </c>
-      <c r="N53" s="18"/>
-      <c r="O53" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="269">
-        <v>1978971</v>
-      </c>
+      <c r="K53" s="279">
+        <f>SUM(K48:K52)</f>
+        <v>36116700</v>
+      </c>
+      <c r="L53" s="279">
+        <f t="shared" ref="L53" si="21">SUM(L48:L52)</f>
+        <v>12011857</v>
+      </c>
+      <c r="M53" s="279">
+        <f t="shared" ref="M53:N53" si="22">SUM(M48:M52)</f>
+        <v>48128557</v>
+      </c>
+      <c r="N53" s="279">
+        <f t="shared" si="22"/>
+        <v>-8203260</v>
+      </c>
+      <c r="O53" s="279">
+        <f t="shared" ref="O53" si="23">SUM(O48:O52)</f>
+        <v>39925297</v>
+      </c>
+      <c r="Q53" s="269"/>
       <c r="R53" s="269"/>
-      <c r="S53" s="269">
-        <f t="shared" si="16"/>
-        <v>1978971</v>
-      </c>
-      <c r="T53" s="18"/>
-      <c r="U53" s="269">
-        <f>+S53+T53</f>
-        <v>1978971</v>
-      </c>
-      <c r="W53" s="269">
-        <v>-962949</v>
-      </c>
+      <c r="S53" s="269"/>
+      <c r="T53" s="269"/>
+      <c r="U53" s="269"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="269"/>
       <c r="X53" s="269"/>
-      <c r="Y53" s="269">
-        <f t="shared" si="17"/>
-        <v>-962949</v>
-      </c>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="269">
-        <f t="shared" si="19"/>
-        <v>-962949</v>
-      </c>
+      <c r="Y53" s="269"/>
+      <c r="Z53" s="269"/>
+      <c r="AA53" s="269"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" t="s">
-        <v>146</v>
-      </c>
+      <c r="B54" s="322"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="52"/>
       <c r="E54" s="269"/>
       <c r="F54" s="269"/>
-      <c r="G54" s="269">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="G54" s="269"/>
       <c r="H54" s="269"/>
-      <c r="I54" s="269">
-        <f>+'Hoja de trabajo'!B45</f>
-        <v>-34164512.061452001</v>
-      </c>
+      <c r="I54" s="269"/>
       <c r="J54" s="52"/>
       <c r="K54" s="269"/>
-      <c r="L54" s="269">
-        <v>-11702814</v>
-      </c>
-      <c r="M54" s="269">
-        <v>-11702814</v>
-      </c>
+      <c r="L54" s="269"/>
+      <c r="M54" s="269"/>
       <c r="N54" s="269"/>
-      <c r="O54" s="269">
-        <v>-17331131</v>
-      </c>
-      <c r="Q54" s="269">
-        <v>-10976052</v>
-      </c>
-      <c r="R54" s="269">
-        <v>-6427483</v>
-      </c>
-      <c r="S54" s="269">
-        <f t="shared" si="16"/>
-        <v>-17403535</v>
-      </c>
-      <c r="T54" s="269">
-        <f>+[1]AD!J23</f>
-        <v>5827272</v>
-      </c>
-      <c r="U54" s="269">
-        <f>+S54+T54</f>
-        <v>-11576263</v>
-      </c>
-      <c r="W54" s="269">
-        <v>-13974701</v>
-      </c>
-      <c r="X54" s="269">
-        <v>-7233185</v>
-      </c>
-      <c r="Y54" s="269">
-        <f t="shared" si="17"/>
-        <v>-21207886</v>
-      </c>
-      <c r="Z54" s="269">
-        <f>+[1]AD!L23</f>
-        <v>7144181</v>
-      </c>
-      <c r="AA54" s="269">
-        <f t="shared" si="19"/>
-        <v>-14063705</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="30"/>
-      <c r="C55" t="s">
-        <v>147</v>
+      <c r="O54" s="269"/>
+      <c r="Q54" s="269"/>
+      <c r="R54" s="269"/>
+      <c r="S54" s="269"/>
+      <c r="T54" s="269"/>
+      <c r="U54" s="269"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="269"/>
+      <c r="X54" s="269"/>
+      <c r="Y54" s="269"/>
+      <c r="Z54" s="269"/>
+      <c r="AA54" s="269"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B55" s="275" t="s">
+        <v>140</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="269"/>
       <c r="F55" s="269"/>
-      <c r="G55" s="269">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="G55" s="18"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="269">
-        <f t="shared" ref="I55:I56" si="20">+G55+H55</f>
-        <v>0</v>
-      </c>
+      <c r="I55" s="18"/>
       <c r="J55" s="52"/>
       <c r="K55" s="269"/>
       <c r="L55" s="269"/>
-      <c r="M55" s="269">
-        <v>0</v>
-      </c>
+      <c r="M55" s="18"/>
       <c r="N55" s="18"/>
-      <c r="O55" s="269">
-        <v>0</v>
-      </c>
+      <c r="O55" s="18"/>
       <c r="Q55" s="269"/>
       <c r="R55" s="269"/>
-      <c r="S55" s="269">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="S55" s="18"/>
       <c r="T55" s="18"/>
-      <c r="U55" s="269">
-        <f>+S55+T55</f>
-        <v>0</v>
-      </c>
-      <c r="W55" s="269">
-        <v>0</v>
-      </c>
+      <c r="U55" s="18"/>
+      <c r="W55" s="269"/>
       <c r="X55" s="269"/>
-      <c r="Y55" s="269">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
-      <c r="AA55" s="269">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AA55" s="18"/>
+    </row>
+    <row r="56" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
-      <c r="C56" s="281" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="269"/>
+      <c r="C56" s="305" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="306"/>
+      <c r="E56" s="269">
+        <v>238878</v>
+      </c>
       <c r="F56" s="269"/>
       <c r="G56" s="269">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>+E56+F56</f>
+        <v>238878</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="269">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="52"/>
-      <c r="K56" s="269"/>
+        <f t="shared" ref="I56:I63" si="24">+G56+H56</f>
+        <v>238878</v>
+      </c>
+      <c r="J56" s="298"/>
+      <c r="K56" s="269">
+        <v>-904453</v>
+      </c>
       <c r="L56" s="269"/>
-      <c r="M56" s="269"/>
+      <c r="M56" s="269">
+        <f>+K56+L56</f>
+        <v>-904453</v>
+      </c>
       <c r="N56" s="18"/>
       <c r="O56" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="269"/>
+        <f>+M56+N56</f>
+        <v>-904453</v>
+      </c>
+      <c r="Q56" s="269">
+        <v>251011</v>
+      </c>
       <c r="R56" s="269"/>
-      <c r="S56" s="269"/>
+      <c r="S56" s="269">
+        <f t="shared" ref="S56:S63" si="25">+Q56+R56</f>
+        <v>251011</v>
+      </c>
       <c r="T56" s="18"/>
       <c r="U56" s="269">
         <f>+S56+T56</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="269"/>
+        <v>251011</v>
+      </c>
+      <c r="W56" s="269">
+        <v>-593863</v>
+      </c>
       <c r="X56" s="269"/>
-      <c r="Y56" s="269"/>
+      <c r="Y56" s="269">
+        <f t="shared" ref="Y56:Y61" si="26">+W56+X56</f>
+        <v>-593863</v>
+      </c>
       <c r="Z56" s="18"/>
       <c r="AA56" s="269">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+        <f>+Y56+Z56</f>
+        <v>-593863</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
-      <c r="C57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="277"/>
-      <c r="F57" s="277"/>
+      <c r="C57" s="305" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="306"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="269"/>
       <c r="G57" s="269">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G57:G63" si="27">+E57+F57</f>
         <v>0</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="269">
-        <f>+'Hoja de trabajo'!B61</f>
-        <v>761222</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="J57" s="52"/>
-      <c r="K57" s="277"/>
-      <c r="L57" s="277">
-        <v>-231006</v>
-      </c>
+      <c r="K57" s="269"/>
+      <c r="L57" s="269"/>
       <c r="M57" s="269">
-        <v>-231006</v>
+        <f>+K57+L57</f>
+        <v>0</v>
       </c>
       <c r="N57" s="18"/>
       <c r="O57" s="269">
-        <v>-2961541.5700000003</v>
-      </c>
-      <c r="Q57" s="277">
-        <v>-4862718</v>
-      </c>
-      <c r="R57" s="277">
-        <v>-15600</v>
+        <f t="shared" ref="O57:O63" si="28">+M57+N57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="269">
+        <v>29809</v>
+      </c>
+      <c r="R57" s="269">
+        <v>-205582</v>
       </c>
       <c r="S57" s="269">
-        <f t="shared" si="16"/>
-        <v>-4878318</v>
+        <f t="shared" si="25"/>
+        <v>-175773</v>
       </c>
       <c r="T57" s="18"/>
       <c r="U57" s="269">
         <f>+S57+T57</f>
-        <v>-4878318</v>
-      </c>
-      <c r="W57" s="277">
-        <v>-1204028</v>
-      </c>
-      <c r="X57" s="277">
-        <v>-261435</v>
-      </c>
+        <v>-175773</v>
+      </c>
+      <c r="W57" s="269">
+        <v>5828169</v>
+      </c>
+      <c r="X57" s="269"/>
       <c r="Y57" s="269">
-        <f t="shared" ref="Y57" si="21">+W57+X57</f>
-        <v>-1465463</v>
+        <f t="shared" si="26"/>
+        <v>5828169</v>
       </c>
       <c r="Z57" s="18"/>
       <c r="AA57" s="269">
-        <f t="shared" si="19"/>
-        <v>-1465463</v>
+        <f t="shared" ref="AA57:AA63" si="29">+Y57+Z57</f>
+        <v>5828169</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="278" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="279">
-        <v>0</v>
-      </c>
-      <c r="F58" s="279">
-        <v>-11728238</v>
-      </c>
-      <c r="G58" s="279">
-        <v>-11728238</v>
-      </c>
-      <c r="H58" s="279">
-        <v>0</v>
-      </c>
-      <c r="I58" s="279">
-        <f>SUM(I49:I57)</f>
-        <v>-39140211.061452001</v>
-      </c>
-      <c r="J58" s="57"/>
-      <c r="K58" s="279">
-        <v>0</v>
-      </c>
-      <c r="L58" s="279">
-        <v>-11728238</v>
-      </c>
-      <c r="M58" s="279">
-        <v>-11728238</v>
-      </c>
-      <c r="N58" s="279">
-        <v>0</v>
-      </c>
-      <c r="O58" s="279">
-        <v>-21496723.25</v>
-      </c>
-      <c r="Q58" s="279">
-        <f>Q49+Q50+Q52+Q53+Q54+Q55+Q57</f>
-        <v>-13578979</v>
-      </c>
-      <c r="R58" s="279">
-        <f>SUM(R49:R57)</f>
-        <v>-6648665</v>
-      </c>
-      <c r="S58" s="279">
-        <f>SUM(S49:S57)</f>
-        <v>-20227644</v>
-      </c>
-      <c r="T58" s="279">
-        <f>SUM(T49:T57)</f>
-        <v>5827272</v>
-      </c>
-      <c r="U58" s="279">
-        <f>SUM(U49:U57)</f>
-        <v>-14400372</v>
-      </c>
-      <c r="W58" s="279">
-        <f>W49+W50+W52+W53+W54+W55+W57</f>
-        <v>-10907372</v>
-      </c>
-      <c r="X58" s="279">
-        <f>SUM(X49:X57)</f>
-        <v>-7494620</v>
-      </c>
-      <c r="Y58" s="279">
-        <f>SUM(Y49:Y57)</f>
-        <v>-18401992</v>
-      </c>
-      <c r="Z58" s="279">
-        <f>SUM(Z49:Z57)</f>
-        <v>7144181</v>
-      </c>
-      <c r="AA58" s="279">
-        <f>SUM(AA49:AA57)</f>
-        <v>-11257811</v>
-      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="269">
+        <v>252048</v>
+      </c>
+      <c r="F58" s="269"/>
+      <c r="G58" s="269">
+        <f t="shared" si="27"/>
+        <v>252048</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="269">
+        <f t="shared" si="24"/>
+        <v>252048</v>
+      </c>
+      <c r="J58" s="52"/>
+      <c r="K58" s="269">
+        <v>-251355</v>
+      </c>
+      <c r="L58" s="269"/>
+      <c r="M58" s="269">
+        <f t="shared" ref="M58:M63" si="30">+K58+L58</f>
+        <v>-251355</v>
+      </c>
+      <c r="N58" s="18"/>
+      <c r="O58" s="269">
+        <f t="shared" si="28"/>
+        <v>-251355</v>
+      </c>
+      <c r="Q58" s="269"/>
+      <c r="R58" s="269"/>
+      <c r="S58" s="269"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="269"/>
+      <c r="W58" s="269"/>
+      <c r="X58" s="269"/>
+      <c r="Y58" s="269"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="269"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="269"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="307" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="308"/>
+      <c r="E59" s="269">
+        <v>-1606904</v>
+      </c>
       <c r="F59" s="269"/>
-      <c r="G59" s="18"/>
+      <c r="G59" s="269">
+        <f t="shared" si="27"/>
+        <v>-1606904</v>
+      </c>
       <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="52"/>
+      <c r="I59" s="269">
+        <f t="shared" si="24"/>
+        <v>-1606904</v>
+      </c>
+      <c r="J59" s="299"/>
       <c r="K59" s="269"/>
-      <c r="L59" s="269"/>
-      <c r="M59" s="18"/>
+      <c r="L59" s="269">
+        <v>205582</v>
+      </c>
+      <c r="M59" s="269">
+        <f t="shared" si="30"/>
+        <v>205582</v>
+      </c>
       <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
+      <c r="O59" s="269">
+        <f t="shared" si="28"/>
+        <v>205582</v>
+      </c>
       <c r="Q59" s="269"/>
       <c r="R59" s="269"/>
-      <c r="S59" s="18"/>
+      <c r="S59" s="269">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="W59" s="269"/>
+      <c r="U59" s="269"/>
+      <c r="W59" s="269">
+        <v>0</v>
+      </c>
       <c r="X59" s="269"/>
-      <c r="Y59" s="18"/>
+      <c r="Y59" s="269">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
+      <c r="AA59" s="269"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="275" t="s">
-        <v>151</v>
+      <c r="B60" s="30"/>
+      <c r="C60" t="s">
+        <v>145</v>
       </c>
       <c r="D60" s="52"/>
-      <c r="E60" s="269"/>
-      <c r="F60" s="269"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
+      <c r="E60" s="269">
+        <v>-5703268</v>
+      </c>
+      <c r="F60" s="269">
+        <v>-26967681</v>
+      </c>
+      <c r="G60" s="269">
+        <f t="shared" si="27"/>
+        <v>-32670949</v>
+      </c>
+      <c r="H60" s="269">
+        <f>+AD!H23</f>
+        <v>4118950</v>
+      </c>
+      <c r="I60" s="269">
+        <f t="shared" si="24"/>
+        <v>-28551999</v>
+      </c>
       <c r="J60" s="52"/>
-      <c r="K60" s="269"/>
-      <c r="L60" s="269"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="Q60" s="269"/>
-      <c r="R60" s="269"/>
+      <c r="K60" s="269">
+        <v>-4195235</v>
+      </c>
+      <c r="L60" s="269">
+        <v>-11702814</v>
+      </c>
+      <c r="M60" s="269">
+        <f t="shared" si="30"/>
+        <v>-15898049</v>
+      </c>
+      <c r="N60" s="269">
+        <f>+AD!J23</f>
+        <v>8203260</v>
+      </c>
+      <c r="O60" s="269">
+        <f t="shared" si="28"/>
+        <v>-7694789</v>
+      </c>
+      <c r="Q60" s="269">
+        <v>-10976052</v>
+      </c>
+      <c r="R60" s="269">
+        <v>-6427483</v>
+      </c>
       <c r="S60" s="269">
-        <f t="shared" ref="S60:S68" si="22">+Q60+R60</f>
-        <v>0</v>
-      </c>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="W60" s="269"/>
-      <c r="X60" s="269"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
+        <f t="shared" si="25"/>
+        <v>-17403535</v>
+      </c>
+      <c r="T60" s="269">
+        <f>+[1]AD!J23</f>
+        <v>5827272</v>
+      </c>
+      <c r="U60" s="269">
+        <f>+S60+T60</f>
+        <v>-11576263</v>
+      </c>
+      <c r="W60" s="269">
+        <v>-13974701</v>
+      </c>
+      <c r="X60" s="269">
+        <v>-7233185</v>
+      </c>
+      <c r="Y60" s="269">
+        <f t="shared" si="26"/>
+        <v>-21207886</v>
+      </c>
+      <c r="Z60" s="269">
+        <f>+[1]AD!L23</f>
+        <v>7144181</v>
+      </c>
+      <c r="AA60" s="269">
+        <f t="shared" si="29"/>
+        <v>-14063705</v>
+      </c>
     </row>
     <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="30"/>
       <c r="C61" t="s">
-        <v>444</v>
+        <v>146</v>
       </c>
       <c r="D61" s="52"/>
-      <c r="E61" s="269">
-        <v>0</v>
-      </c>
+      <c r="E61" s="269"/>
       <c r="F61" s="269"/>
-      <c r="G61" s="282">
+      <c r="G61" s="269">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="269">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J61" s="52"/>
-      <c r="K61" s="269">
-        <v>0</v>
-      </c>
+      <c r="K61" s="269"/>
       <c r="L61" s="269"/>
-      <c r="M61" s="282">
+      <c r="M61" s="269">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N61" s="18"/>
       <c r="O61" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="269">
-        <v>0</v>
-      </c>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="269"/>
       <c r="R61" s="269"/>
       <c r="S61" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T61" s="18"/>
       <c r="U61" s="269">
-        <f t="shared" ref="U61:U68" si="23">+S61+T61</f>
+        <f>+S61+T61</f>
         <v>0</v>
       </c>
       <c r="W61" s="269">
         <v>0</v>
       </c>
       <c r="X61" s="269"/>
-      <c r="Y61" s="282">
-        <f t="shared" ref="Y61:Y68" si="24">+W61+X61</f>
+      <c r="Y61" s="269">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z61" s="18"/>
       <c r="AA61" s="269">
-        <f t="shared" ref="AA61:AA68" si="25">+Y61+Z61</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
-      <c r="C62" t="s">
-        <v>73</v>
+      <c r="C62" s="280" t="s">
+        <v>147</v>
       </c>
       <c r="D62" s="52"/>
       <c r="E62" s="269"/>
       <c r="F62" s="269"/>
       <c r="G62" s="269">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H62" s="18"/>
       <c r="I62" s="269">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J62" s="52"/>
       <c r="K62" s="269"/>
       <c r="L62" s="269"/>
       <c r="M62" s="269">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N62" s="18"/>
       <c r="O62" s="269">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q62" s="269"/>
       <c r="R62" s="269"/>
-      <c r="S62" s="269">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="S62" s="269"/>
       <c r="T62" s="18"/>
       <c r="U62" s="269">
-        <f t="shared" si="23"/>
+        <f>+S62+T62</f>
         <v>0</v>
       </c>
       <c r="W62" s="269"/>
       <c r="X62" s="269"/>
-      <c r="Y62" s="269">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="Y62" s="269"/>
       <c r="Z62" s="18"/>
       <c r="AA62" s="269">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" s="30"/>
       <c r="C63" t="s">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="D63" s="52"/>
-      <c r="E63" s="269"/>
-      <c r="F63" s="269"/>
+      <c r="E63" s="277"/>
+      <c r="F63" s="277">
+        <v>-39400</v>
+      </c>
       <c r="G63" s="269">
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>-39400</v>
       </c>
       <c r="H63" s="18"/>
       <c r="I63" s="269">
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>-39400</v>
       </c>
       <c r="J63" s="52"/>
-      <c r="K63" s="269"/>
-      <c r="L63" s="269"/>
+      <c r="K63" s="277">
+        <v>-1253393</v>
+      </c>
+      <c r="L63" s="277">
+        <v>-231006</v>
+      </c>
       <c r="M63" s="269">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>-1484399</v>
       </c>
       <c r="N63" s="18"/>
       <c r="O63" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="269"/>
-      <c r="R63" s="269"/>
+        <f t="shared" si="28"/>
+        <v>-1484399</v>
+      </c>
+      <c r="Q63" s="277">
+        <v>-4862718</v>
+      </c>
+      <c r="R63" s="277">
+        <v>-15600</v>
+      </c>
       <c r="S63" s="269">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>-4878318</v>
       </c>
       <c r="T63" s="18"/>
       <c r="U63" s="269">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="269"/>
-      <c r="X63" s="269"/>
+        <f>+S63+T63</f>
+        <v>-4878318</v>
+      </c>
+      <c r="W63" s="277">
+        <v>-1204028</v>
+      </c>
+      <c r="X63" s="277">
+        <v>-261435</v>
+      </c>
       <c r="Y63" s="269">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" ref="Y63" si="31">+W63+X63</f>
+        <v>-1465463</v>
       </c>
       <c r="Z63" s="18"/>
       <c r="AA63" s="269">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-1465463</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
-      <c r="C64" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="269"/>
-      <c r="F64" s="269"/>
-      <c r="G64" s="269">
-        <f t="shared" ref="G64:G67" si="26">+E64+F64</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="269">
-        <f>+'Hoja de trabajo'!L6+'Hoja de trabajo'!L19</f>
-        <v>-3089419</v>
+      <c r="B64" s="278" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="279">
+        <f>SUM(E56:E63)</f>
+        <v>-6819246</v>
+      </c>
+      <c r="F64" s="279">
+        <f>SUM(F56:F63)</f>
+        <v>-27007081</v>
+      </c>
+      <c r="G64" s="279">
+        <f>SUM(G56:G63)</f>
+        <v>-33826327</v>
+      </c>
+      <c r="H64" s="279">
+        <f>SUM(H56:H63)</f>
+        <v>4118950</v>
+      </c>
+      <c r="I64" s="279">
+        <f>SUM(I56:I63)</f>
+        <v>-29707377</v>
       </c>
       <c r="J64" s="52"/>
-      <c r="K64" s="269"/>
-      <c r="L64" s="269">
-        <v>-1606362</v>
-      </c>
-      <c r="M64" s="269">
-        <v>-1606362</v>
-      </c>
-      <c r="N64" s="18"/>
-      <c r="O64" s="269">
-        <v>-12414999</v>
-      </c>
-      <c r="Q64" s="269">
-        <v>-7240853</v>
-      </c>
-      <c r="R64" s="269">
-        <v>873161</v>
-      </c>
-      <c r="S64" s="269">
-        <f t="shared" si="22"/>
-        <v>-6367692</v>
-      </c>
-      <c r="T64" s="18"/>
-      <c r="U64" s="269">
-        <f t="shared" si="23"/>
-        <v>-6367692</v>
-      </c>
-      <c r="W64" s="269">
-        <v>-4709384</v>
-      </c>
-      <c r="X64" s="269">
-        <v>-3372028</v>
-      </c>
-      <c r="Y64" s="269">
-        <f t="shared" si="24"/>
-        <v>-8081412</v>
-      </c>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="269">
-        <f t="shared" si="25"/>
-        <v>-8081412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="30"/>
-      <c r="C65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" s="52"/>
+      <c r="K64" s="279">
+        <f>SUM(K56:K63)</f>
+        <v>-6604436</v>
+      </c>
+      <c r="L64" s="279">
+        <f t="shared" ref="L64:O64" si="32">SUM(L56:L63)</f>
+        <v>-11728238</v>
+      </c>
+      <c r="M64" s="279">
+        <f t="shared" si="32"/>
+        <v>-18332674</v>
+      </c>
+      <c r="N64" s="279">
+        <f t="shared" si="32"/>
+        <v>8203260</v>
+      </c>
+      <c r="O64" s="279">
+        <f t="shared" si="32"/>
+        <v>-10129414</v>
+      </c>
+      <c r="Q64" s="279" t="e">
+        <f>Q56+Q57+Q59+#REF!+Q60+Q61+Q63</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R64" s="279">
+        <f>SUM(R56:R63)</f>
+        <v>-6648665</v>
+      </c>
+      <c r="S64" s="279">
+        <f>SUM(S56:S63)</f>
+        <v>-22206615</v>
+      </c>
+      <c r="T64" s="279">
+        <f>SUM(T56:T63)</f>
+        <v>5827272</v>
+      </c>
+      <c r="U64" s="279">
+        <f>SUM(U56:U63)</f>
+        <v>-16379343</v>
+      </c>
+      <c r="W64" s="279" t="e">
+        <f>W56+W57+W59+#REF!+W60+W61+W63</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X64" s="279">
+        <f>SUM(X56:X63)</f>
+        <v>-7494620</v>
+      </c>
+      <c r="Y64" s="279">
+        <f>SUM(Y56:Y63)</f>
+        <v>-17439043</v>
+      </c>
+      <c r="Z64" s="279">
+        <f>SUM(Z56:Z63)</f>
+        <v>7144181</v>
+      </c>
+      <c r="AA64" s="279">
+        <f>SUM(AA56:AA63)</f>
+        <v>-10294862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B65" s="59"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="51"/>
       <c r="E65" s="269"/>
       <c r="F65" s="269"/>
-      <c r="G65" s="269">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+      <c r="G65" s="18"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="269">
-        <f t="shared" ref="I65" si="27">+G65+H65</f>
-        <v>0</v>
-      </c>
+      <c r="I65" s="18"/>
       <c r="J65" s="52"/>
       <c r="K65" s="269"/>
-      <c r="L65" s="269">
-        <v>-715413</v>
-      </c>
-      <c r="M65" s="269">
-        <v>-715413</v>
-      </c>
+      <c r="L65" s="269"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="18"/>
-      <c r="O65" s="269">
-        <v>0</v>
-      </c>
+      <c r="O65" s="18"/>
       <c r="Q65" s="269"/>
       <c r="R65" s="269"/>
-      <c r="S65" s="269"/>
+      <c r="S65" s="18"/>
       <c r="T65" s="18"/>
-      <c r="U65" s="269"/>
+      <c r="U65" s="18"/>
       <c r="W65" s="269"/>
       <c r="X65" s="269"/>
-      <c r="Y65" s="269"/>
+      <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
-      <c r="AA65" s="269"/>
+      <c r="AA65" s="18"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B66" s="30"/>
-      <c r="C66" t="s">
-        <v>447</v>
+      <c r="B66" s="275" t="s">
+        <v>150</v>
       </c>
       <c r="D66" s="52"/>
-      <c r="E66" s="269">
-        <v>-1307540</v>
-      </c>
+      <c r="E66" s="269"/>
       <c r="F66" s="269"/>
-      <c r="G66" s="269">
-        <f t="shared" si="26"/>
-        <v>-1307540</v>
-      </c>
+      <c r="G66" s="18"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="269">
-        <f>+G66+H66+'Hoja de trabajo'!B94</f>
-        <v>-1826770</v>
-      </c>
+      <c r="I66" s="18"/>
       <c r="J66" s="52"/>
-      <c r="K66" s="269">
-        <v>-5488035</v>
-      </c>
-      <c r="L66" s="269">
-        <v>-3373023</v>
-      </c>
-      <c r="M66" s="269">
-        <v>-8861058</v>
-      </c>
+      <c r="K66" s="269"/>
+      <c r="L66" s="269"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="18"/>
-      <c r="O66" s="269">
-        <v>-8861058</v>
-      </c>
+      <c r="O66" s="18"/>
       <c r="Q66" s="269"/>
       <c r="R66" s="269"/>
-      <c r="S66" s="269"/>
+      <c r="S66" s="269">
+        <f t="shared" ref="S66:S74" si="33">+Q66+R66</f>
+        <v>0</v>
+      </c>
       <c r="T66" s="18"/>
-      <c r="U66" s="269"/>
+      <c r="U66" s="18"/>
       <c r="W66" s="269"/>
       <c r="X66" s="269"/>
-      <c r="Y66" s="269"/>
+      <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
-      <c r="AA66" s="269"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA66" s="18"/>
+    </row>
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>442</v>
       </c>
       <c r="D67" s="52"/>
-      <c r="E67" s="269"/>
+      <c r="E67" s="269">
+        <v>0</v>
+      </c>
       <c r="F67" s="269"/>
-      <c r="G67" s="269">
-        <f t="shared" si="26"/>
+      <c r="G67" s="281">
         <v>0</v>
       </c>
       <c r="H67" s="18"/>
       <c r="I67" s="269">
-        <f>+'Hoja de trabajo'!L7+'Hoja de trabajo'!L20</f>
-        <v>11113051</v>
+        <v>0</v>
       </c>
       <c r="J67" s="52"/>
-      <c r="K67" s="269"/>
+      <c r="K67" s="269">
+        <v>0</v>
+      </c>
       <c r="L67" s="269"/>
-      <c r="M67" s="269">
+      <c r="M67" s="281">
         <v>0</v>
       </c>
       <c r="N67" s="18"/>
       <c r="O67" s="269">
-        <v>-8550313</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="269">
-        <v>-7134782</v>
+        <v>0</v>
       </c>
       <c r="R67" s="269"/>
       <c r="S67" s="269">
-        <f t="shared" si="22"/>
-        <v>-7134782</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="T67" s="18"/>
       <c r="U67" s="269">
-        <f t="shared" si="23"/>
-        <v>-7134782</v>
+        <f t="shared" ref="U67:U74" si="34">+S67+T67</f>
+        <v>0</v>
       </c>
       <c r="W67" s="269">
-        <v>-8370991</v>
-      </c>
-      <c r="X67" s="269">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="269">
-        <f t="shared" si="24"/>
-        <v>-8370991</v>
+        <v>0</v>
+      </c>
+      <c r="X67" s="269"/>
+      <c r="Y67" s="281">
+        <f t="shared" ref="Y67:Y74" si="35">+W67+X67</f>
+        <v>0</v>
       </c>
       <c r="Z67" s="18"/>
       <c r="AA67" s="269">
-        <f t="shared" si="25"/>
-        <v>-8370991</v>
+        <f t="shared" ref="AA67:AA74" si="36">+Y67+Z67</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="30"/>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="269"/>
@@ -12685,452 +12749,870 @@
         <v>0</v>
       </c>
       <c r="Q68" s="269"/>
-      <c r="R68" s="283"/>
+      <c r="R68" s="269"/>
       <c r="S68" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T68" s="18"/>
       <c r="U68" s="269">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W68" s="269"/>
       <c r="X68" s="269"/>
       <c r="Y68" s="269">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z68" s="18"/>
       <c r="AA68" s="269">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B69" s="284" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="279"/>
-      <c r="F69" s="279"/>
-      <c r="G69" s="279"/>
-      <c r="H69" s="279"/>
-      <c r="I69" s="279">
-        <f>SUM(I61:I68)</f>
-        <v>6196862</v>
-      </c>
-      <c r="J69" s="57"/>
-      <c r="K69" s="279">
-        <v>-5488035</v>
-      </c>
-      <c r="L69" s="279">
-        <v>-5694798</v>
-      </c>
-      <c r="M69" s="279">
-        <v>-11182833</v>
-      </c>
-      <c r="N69" s="279">
-        <v>0</v>
-      </c>
-      <c r="O69" s="279">
-        <v>-29826370</v>
-      </c>
-      <c r="Q69" s="279">
-        <f>SUM(Q61:Q68)</f>
-        <v>-14375635</v>
-      </c>
-      <c r="R69" s="279">
-        <f>SUM(R61:R68)</f>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="30"/>
+      <c r="C69" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" s="52"/>
+      <c r="E69" s="269"/>
+      <c r="F69" s="269"/>
+      <c r="G69" s="269">
+        <v>0</v>
+      </c>
+      <c r="H69" s="18"/>
+      <c r="I69" s="269">
+        <v>0</v>
+      </c>
+      <c r="J69" s="52"/>
+      <c r="K69" s="269"/>
+      <c r="L69" s="269"/>
+      <c r="M69" s="269">
+        <v>0</v>
+      </c>
+      <c r="N69" s="18"/>
+      <c r="O69" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="269"/>
+      <c r="R69" s="269"/>
+      <c r="S69" s="269">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="18"/>
+      <c r="U69" s="269">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="269"/>
+      <c r="X69" s="269"/>
+      <c r="Y69" s="269">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="18"/>
+      <c r="AA69" s="269">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B70" s="30"/>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="52"/>
+      <c r="E70" s="269">
+        <v>-457235</v>
+      </c>
+      <c r="F70" s="269">
+        <v>-1152908</v>
+      </c>
+      <c r="G70" s="269">
+        <f t="shared" ref="G70:G73" si="37">+E70+F70</f>
+        <v>-1610143</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="269">
+        <f t="shared" ref="I70:I73" si="38">+G70+H70</f>
+        <v>-1610143</v>
+      </c>
+      <c r="J70" s="52"/>
+      <c r="K70" s="269">
+        <v>-10808637</v>
+      </c>
+      <c r="L70" s="269">
+        <v>-1606362</v>
+      </c>
+      <c r="M70" s="269">
+        <f>+K70+L70</f>
+        <v>-12414999</v>
+      </c>
+      <c r="N70" s="18"/>
+      <c r="O70" s="269">
+        <f>+M70+N70</f>
+        <v>-12414999</v>
+      </c>
+      <c r="Q70" s="269">
+        <v>-7240853</v>
+      </c>
+      <c r="R70" s="269">
         <v>873161</v>
       </c>
-      <c r="S69" s="279">
-        <f>SUM(S61:S68)</f>
-        <v>-13502474</v>
-      </c>
-      <c r="T69" s="279">
-        <f>SUM(T61:T68)</f>
-        <v>0</v>
-      </c>
-      <c r="U69" s="279">
-        <f>SUM(U61:U68)</f>
-        <v>-13502474</v>
-      </c>
-      <c r="W69" s="279">
-        <f>SUM(W61:W68)</f>
-        <v>-13080375</v>
-      </c>
-      <c r="X69" s="279">
-        <f>SUM(X61:X68)</f>
+      <c r="S70" s="269">
+        <f t="shared" si="33"/>
+        <v>-6367692</v>
+      </c>
+      <c r="T70" s="18"/>
+      <c r="U70" s="269">
+        <f t="shared" si="34"/>
+        <v>-6367692</v>
+      </c>
+      <c r="W70" s="269">
+        <v>-4709384</v>
+      </c>
+      <c r="X70" s="269">
         <v>-3372028</v>
       </c>
-      <c r="Y69" s="279">
-        <f>SUM(Y61:Y68)</f>
-        <v>-16452403</v>
-      </c>
-      <c r="Z69" s="279">
-        <f>SUM(Z61:Z68)</f>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="279">
-        <f>SUM(AA61:AA68)</f>
-        <v>-16452403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B70" s="285" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="286"/>
-      <c r="F70" s="286"/>
-      <c r="G70" s="287"/>
-      <c r="H70" s="287"/>
-      <c r="I70" s="287">
-        <f>+I69+I58+I46</f>
-        <v>15048542.753399998</v>
-      </c>
-      <c r="J70" s="58"/>
-      <c r="K70" s="286">
-        <v>43053177</v>
-      </c>
-      <c r="L70" s="286">
-        <v>2599281</v>
-      </c>
-      <c r="M70" s="287">
-        <v>45652458</v>
-      </c>
-      <c r="N70" s="287">
-        <v>2120374</v>
-      </c>
-      <c r="O70" s="287">
-        <v>3434596.0900000036</v>
-      </c>
-      <c r="Q70" s="286">
-        <f>+Q69+Q58+Q46</f>
-        <v>-4560108.5500000119</v>
-      </c>
-      <c r="R70" s="286">
-        <f>+R69+R58+R46</f>
-        <v>6782259</v>
-      </c>
-      <c r="S70" s="287">
-        <f>+S69+S58+S46</f>
-        <v>2222150.4499999881</v>
-      </c>
-      <c r="T70" s="288">
-        <f>+T69+T58+T46</f>
-        <v>-0.5</v>
-      </c>
-      <c r="U70" s="287">
-        <f>+U69+U58+U46</f>
-        <v>2222149.9499999881</v>
-      </c>
-      <c r="W70" s="286">
-        <f>+W69+W58+W46</f>
-        <v>-9179235</v>
-      </c>
-      <c r="X70" s="286">
-        <f>+X69+X58+X46</f>
-        <v>-188600</v>
-      </c>
-      <c r="Y70" s="287">
-        <f>+Y69+Y58+Y46</f>
-        <v>-9844303</v>
-      </c>
-      <c r="Z70" s="287">
-        <f>+Z69+Z58+Z46</f>
-        <v>-12940</v>
-      </c>
-      <c r="AA70" s="287">
-        <f>+AA69+AA58+AA46</f>
-        <v>-9857243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Q71" s="266"/>
-      <c r="R71" s="266"/>
-      <c r="S71" s="289">
-        <f>+R70+Q70-S70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="268"/>
-      <c r="F72" s="268"/>
-      <c r="G72" s="268">
-        <f t="shared" ref="G72:G73" si="28">+E72+F72</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="290">
-        <f>+I70</f>
-        <v>15048542.753399998</v>
-      </c>
-      <c r="J72" s="50"/>
-      <c r="K72" s="268">
-        <v>43053177</v>
-      </c>
-      <c r="L72" s="268">
-        <v>-188600</v>
-      </c>
-      <c r="M72" s="268">
-        <v>42864577</v>
-      </c>
-      <c r="N72" s="17"/>
-      <c r="O72" s="290">
-        <v>3434596.0900000036</v>
-      </c>
-      <c r="Q72" s="268">
-        <f>+Q70</f>
-        <v>-4560108.5500000119</v>
-      </c>
-      <c r="R72" s="268">
-        <f>+R70</f>
-        <v>6782259</v>
-      </c>
-      <c r="S72" s="268">
-        <f t="shared" ref="S72:S73" si="29">+Q72+R72</f>
-        <v>2222150.4499999881</v>
-      </c>
-      <c r="T72" s="17"/>
-      <c r="U72" s="290">
-        <f>+S72+T72</f>
-        <v>2222150.4499999881</v>
-      </c>
-      <c r="V72" s="50"/>
-      <c r="W72" s="268">
-        <f>+W70</f>
-        <v>-9179235</v>
-      </c>
-      <c r="X72" s="268">
-        <v>-188600</v>
-      </c>
-      <c r="Y72" s="268">
-        <f t="shared" ref="Y72:Y73" si="30">+W72+X72</f>
-        <v>-9367835</v>
-      </c>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="290">
-        <f>+Y72+Z72</f>
-        <v>-9367835</v>
-      </c>
+      <c r="Y70" s="269">
+        <f t="shared" si="35"/>
+        <v>-8081412</v>
+      </c>
+      <c r="Z70" s="18"/>
+      <c r="AA70" s="269">
+        <f t="shared" si="36"/>
+        <v>-8081412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="30"/>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="52"/>
+      <c r="E71" s="269"/>
+      <c r="F71" s="269"/>
+      <c r="G71" s="269">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="18"/>
+      <c r="I71" s="269">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="52"/>
+      <c r="K71" s="269"/>
+      <c r="L71" s="269">
+        <v>-715413</v>
+      </c>
+      <c r="M71" s="269">
+        <f t="shared" ref="M71:M73" si="39">+K71+L71</f>
+        <v>-715413</v>
+      </c>
+      <c r="N71" s="18"/>
+      <c r="O71" s="269">
+        <f t="shared" ref="O71:O73" si="40">+M71+N71</f>
+        <v>-715413</v>
+      </c>
+      <c r="Q71" s="269"/>
+      <c r="R71" s="269"/>
+      <c r="S71" s="269"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="269"/>
+      <c r="W71" s="269"/>
+      <c r="X71" s="269"/>
+      <c r="Y71" s="269"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="269"/>
+    </row>
+    <row r="72" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="30"/>
+      <c r="C72" s="303" t="s">
+        <v>454</v>
+      </c>
+      <c r="D72" s="304"/>
+      <c r="E72" s="269">
+        <v>-207214</v>
+      </c>
+      <c r="F72" s="269">
+        <v>721715</v>
+      </c>
+      <c r="G72" s="269">
+        <f t="shared" si="37"/>
+        <v>514501</v>
+      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="269">
+        <f t="shared" si="38"/>
+        <v>514501</v>
+      </c>
+      <c r="J72" s="52"/>
+      <c r="K72" s="269">
+        <v>-1307540</v>
+      </c>
+      <c r="L72" s="269">
+        <v>-3373023</v>
+      </c>
+      <c r="M72" s="269">
+        <f t="shared" si="39"/>
+        <v>-4680563</v>
+      </c>
+      <c r="N72" s="18"/>
+      <c r="O72" s="269">
+        <f t="shared" si="40"/>
+        <v>-4680563</v>
+      </c>
+      <c r="Q72" s="269"/>
+      <c r="R72" s="269"/>
+      <c r="S72" s="269"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="269"/>
+      <c r="W72" s="269"/>
+      <c r="X72" s="269"/>
+      <c r="Y72" s="269"/>
+      <c r="Z72" s="18"/>
+      <c r="AA72" s="269"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="269"/>
+      <c r="B73" s="30"/>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="52"/>
+      <c r="E73" s="269">
+        <v>11113051</v>
+      </c>
       <c r="F73" s="269"/>
       <c r="G73" s="269">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>11113051</v>
       </c>
       <c r="H73" s="18"/>
-      <c r="I73" s="282">
-        <f>+O74</f>
-        <v>7588800.0900000036</v>
-      </c>
+      <c r="I73" s="269">
+        <f t="shared" si="38"/>
+        <v>11113051</v>
+      </c>
+      <c r="J73" s="52"/>
       <c r="K73" s="269">
-        <v>-3213378.5500000119</v>
-      </c>
-      <c r="L73" s="269">
-        <v>7367583</v>
-      </c>
+        <v>-8550313</v>
+      </c>
+      <c r="L73" s="269"/>
       <c r="M73" s="269">
-        <v>4154204.4499999881</v>
+        <f t="shared" si="39"/>
+        <v>-8550313</v>
       </c>
       <c r="N73" s="18"/>
-      <c r="O73" s="282">
-        <v>4154204</v>
+      <c r="O73" s="269">
+        <f t="shared" si="40"/>
+        <v>-8550313</v>
       </c>
       <c r="Q73" s="269">
-        <v>1346730</v>
-      </c>
-      <c r="R73" s="269">
-        <v>585324</v>
-      </c>
+        <v>-7134782</v>
+      </c>
+      <c r="R73" s="269"/>
       <c r="S73" s="269">
-        <f t="shared" si="29"/>
-        <v>1932054</v>
+        <f t="shared" si="33"/>
+        <v>-7134782</v>
       </c>
       <c r="T73" s="18"/>
-      <c r="U73" s="282">
-        <f>+S73</f>
-        <v>1932054</v>
+      <c r="U73" s="269">
+        <f t="shared" si="34"/>
+        <v>-7134782</v>
       </c>
       <c r="W73" s="269">
-        <v>10525965</v>
+        <v>-8370991</v>
       </c>
       <c r="X73" s="269">
-        <v>773924</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="269">
-        <f t="shared" si="30"/>
-        <v>11299889</v>
+        <f t="shared" si="35"/>
+        <v>-8370991</v>
       </c>
       <c r="Z73" s="18"/>
-      <c r="AA73" s="282">
-        <f>+Y73</f>
-        <v>11299889</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="291" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="279"/>
-      <c r="F74" s="279"/>
-      <c r="G74" s="279"/>
-      <c r="H74" s="279">
-        <v>0</v>
-      </c>
-      <c r="I74" s="279">
-        <f>SUM(I72:I73)</f>
-        <v>22637342.843400002</v>
-      </c>
-      <c r="J74" s="36"/>
-      <c r="K74" s="279">
-        <v>39839798.449999988</v>
-      </c>
-      <c r="L74" s="279">
-        <v>7178983</v>
-      </c>
-      <c r="M74" s="279">
-        <v>47018781.449999988</v>
-      </c>
-      <c r="N74" s="279">
-        <v>0</v>
-      </c>
-      <c r="O74" s="279">
-        <v>7588800.0900000036</v>
-      </c>
-      <c r="Q74" s="279">
-        <f>Q72+Q73</f>
-        <v>-3213378.5500000119</v>
-      </c>
-      <c r="R74" s="279">
-        <f>R72+R73</f>
-        <v>7367583</v>
-      </c>
-      <c r="S74" s="279">
-        <f>+S72+S73</f>
-        <v>4154204.4499999881</v>
-      </c>
-      <c r="T74" s="279">
-        <f>+T72+T73</f>
-        <v>0</v>
-      </c>
-      <c r="U74" s="279">
-        <f>+U72+U73</f>
-        <v>4154204.4499999881</v>
-      </c>
-      <c r="V74" s="36"/>
-      <c r="W74" s="279">
-        <f>W72+W73</f>
-        <v>1346730</v>
-      </c>
-      <c r="X74" s="279">
-        <f>X72+X73</f>
-        <v>585324</v>
-      </c>
-      <c r="Y74" s="279">
-        <f>+Y72+Y73</f>
-        <v>1932054</v>
-      </c>
-      <c r="Z74" s="279">
-        <f>+Z72+Z73</f>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="279">
-        <f>+AA72+AA73</f>
-        <v>1932054</v>
+      <c r="AA73" s="269">
+        <f t="shared" si="36"/>
+        <v>-8370991</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="30"/>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="52"/>
+      <c r="E74" s="269"/>
+      <c r="F74" s="269"/>
+      <c r="G74" s="269">
+        <v>0</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="269">
+        <v>0</v>
+      </c>
+      <c r="J74" s="52"/>
+      <c r="K74" s="269"/>
+      <c r="L74" s="269"/>
+      <c r="M74" s="269">
+        <v>0</v>
+      </c>
+      <c r="N74" s="18"/>
+      <c r="O74" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="269"/>
+      <c r="R74" s="282"/>
+      <c r="S74" s="269">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="18"/>
+      <c r="U74" s="269">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="269"/>
+      <c r="X74" s="269"/>
+      <c r="Y74" s="269">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="269">
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I75" s="300">
-        <f>+I74-'BG '!I8-'Hoja de trabajo'!K5</f>
-        <v>-1953860.1565999985</v>
-      </c>
-      <c r="O75" s="292">
-        <f>+'[1]Hoja de trabajo'!B5-'[1]Hoja de trabajo'!K5-O74</f>
-        <v>-9.0000003576278687E-2</v>
-      </c>
-      <c r="Q75" s="266"/>
-      <c r="R75" s="266"/>
+      <c r="B75" s="283" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="56"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="279">
+        <f>SUM(E70:E74)</f>
+        <v>10448602</v>
+      </c>
+      <c r="F75" s="279">
+        <f>SUM(F70:F74)</f>
+        <v>-431193</v>
+      </c>
+      <c r="G75" s="279">
+        <f>SUM(G70:G74)</f>
+        <v>10017409</v>
+      </c>
+      <c r="H75" s="279">
+        <f>SUM(H70:H74)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="279">
+        <f>SUM(I67:I74)</f>
+        <v>10017409</v>
+      </c>
+      <c r="J75" s="52"/>
+      <c r="K75" s="279">
+        <f>SUM(K70:K74)</f>
+        <v>-20666490</v>
+      </c>
+      <c r="L75" s="279">
+        <f t="shared" ref="L75:N75" si="41">SUM(L70:L74)</f>
+        <v>-5694798</v>
+      </c>
+      <c r="M75" s="279">
+        <f t="shared" si="41"/>
+        <v>-26361288</v>
+      </c>
+      <c r="N75" s="279">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="279">
+        <f>SUM(O67:O74)</f>
+        <v>-26361288</v>
+      </c>
+      <c r="Q75" s="279">
+        <f>SUM(Q67:Q74)</f>
+        <v>-14375635</v>
+      </c>
+      <c r="R75" s="279">
+        <f>SUM(R67:R74)</f>
+        <v>873161</v>
+      </c>
+      <c r="S75" s="279">
+        <f>SUM(S67:S74)</f>
+        <v>-13502474</v>
+      </c>
+      <c r="T75" s="279">
+        <f>SUM(T67:T74)</f>
+        <v>0</v>
+      </c>
+      <c r="U75" s="279">
+        <f>SUM(U67:U74)</f>
+        <v>-13502474</v>
+      </c>
+      <c r="W75" s="279">
+        <f>SUM(W67:W74)</f>
+        <v>-13080375</v>
+      </c>
+      <c r="X75" s="279">
+        <f>SUM(X67:X74)</f>
+        <v>-3372028</v>
+      </c>
+      <c r="Y75" s="279">
+        <f>SUM(Y67:Y74)</f>
+        <v>-16452403</v>
+      </c>
+      <c r="Z75" s="279">
+        <f>SUM(Z67:Z74)</f>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="279">
+        <f>SUM(AA67:AA74)</f>
+        <v>-16452403</v>
+      </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I76" s="289"/>
-      <c r="O76" s="289"/>
-      <c r="Q76" s="266"/>
-      <c r="R76" s="266"/>
+      <c r="B76" s="284" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="56"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="286">
+        <f>+E75+E64+E53</f>
+        <v>13821771</v>
+      </c>
+      <c r="F76" s="286">
+        <f>+F75+F64+F53</f>
+        <v>1700996</v>
+      </c>
+      <c r="G76" s="286">
+        <f>+G75+G64+G53</f>
+        <v>15522767</v>
+      </c>
+      <c r="H76" s="286">
+        <f>+H75+H64+H53</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="286">
+        <f>+I75+I64+I53</f>
+        <v>15522767</v>
+      </c>
+      <c r="J76" s="52"/>
+      <c r="K76" s="286">
+        <f>+K75+K64+K53</f>
+        <v>8845774</v>
+      </c>
+      <c r="L76" s="286">
+        <f t="shared" ref="L76:O76" si="42">+L75+L64+L53</f>
+        <v>-5411179</v>
+      </c>
+      <c r="M76" s="286">
+        <f t="shared" si="42"/>
+        <v>3434595</v>
+      </c>
+      <c r="N76" s="286">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="286">
+        <f t="shared" si="42"/>
+        <v>3434595</v>
+      </c>
+      <c r="Q76" s="285" t="e">
+        <f>+Q75+Q64+Q46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R76" s="285">
+        <f>+R75+R64+R46</f>
+        <v>6782259</v>
+      </c>
+      <c r="S76" s="286">
+        <f>+S75+S64+S46</f>
+        <v>243179.44999998808</v>
+      </c>
+      <c r="T76" s="287">
+        <f>+T75+T64+T46</f>
+        <v>-0.5</v>
+      </c>
+      <c r="U76" s="286">
+        <f>+U75+U64+U46</f>
+        <v>243178.94999998808</v>
+      </c>
+      <c r="W76" s="285" t="e">
+        <f>+W75+W64+W46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X76" s="285">
+        <f>+X75+X64+X46</f>
+        <v>-188600</v>
+      </c>
+      <c r="Y76" s="286">
+        <f>+Y75+Y64+Y46</f>
+        <v>-8881354</v>
+      </c>
+      <c r="Z76" s="286">
+        <f>+Z75+Z64+Z46</f>
+        <v>-12940</v>
+      </c>
+      <c r="AA76" s="286">
+        <f>+AA75+AA64+AA46</f>
+        <v>-8894294</v>
+      </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E77" s="293"/>
-      <c r="F77" s="293"/>
-      <c r="G77" s="293"/>
-      <c r="H77" s="293"/>
-      <c r="I77" s="293"/>
-      <c r="K77" s="293"/>
-      <c r="L77" s="293"/>
-      <c r="M77" s="293"/>
-      <c r="N77" s="293"/>
-      <c r="O77" s="293"/>
       <c r="Q77" s="266"/>
       <c r="R77" s="266"/>
-      <c r="W77" s="293"/>
-      <c r="X77" s="293"/>
-      <c r="Y77" s="293"/>
-      <c r="Z77" s="293"/>
-      <c r="AA77" s="293"/>
+      <c r="S77" s="288" t="e">
+        <f>+R76+Q76-S76</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E78" s="293"/>
-      <c r="F78"/>
-      <c r="I78" s="289"/>
-      <c r="K78" s="293"/>
-      <c r="L78"/>
-      <c r="O78" s="289"/>
-      <c r="Q78" s="294" t="s">
+      <c r="A78" s="30"/>
+      <c r="B78" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="268">
+        <f>+E75+E64+E53</f>
+        <v>13821771</v>
+      </c>
+      <c r="F78" s="268">
+        <f>+F75+F64+F53</f>
+        <v>1700996</v>
+      </c>
+      <c r="G78" s="268">
+        <f t="shared" ref="G78:G79" si="43">+E78+F78</f>
+        <v>15522767</v>
+      </c>
+      <c r="H78" s="17"/>
+      <c r="I78" s="289">
+        <f>+I76</f>
+        <v>15522767</v>
+      </c>
+      <c r="K78" s="268">
+        <f>+K76</f>
+        <v>8845774</v>
+      </c>
+      <c r="L78" s="268">
+        <f t="shared" ref="L78:O78" si="44">+L76</f>
+        <v>-5411179</v>
+      </c>
+      <c r="M78" s="268">
+        <f t="shared" si="44"/>
+        <v>3434595</v>
+      </c>
+      <c r="N78" s="268">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="268">
+        <f t="shared" si="44"/>
+        <v>3434595</v>
+      </c>
+      <c r="Q78" s="268" t="e">
+        <f>+Q76</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R78" s="268">
+        <f>+R76</f>
+        <v>6782259</v>
+      </c>
+      <c r="S78" s="268" t="e">
+        <f t="shared" ref="S78:S79" si="45">+Q78+R78</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T78" s="17"/>
+      <c r="U78" s="289" t="e">
+        <f>+S78+T78</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V78" s="50"/>
+      <c r="W78" s="268" t="e">
+        <f>+W76</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X78" s="268">
+        <v>-188600</v>
+      </c>
+      <c r="Y78" s="268" t="e">
+        <f t="shared" ref="Y78:Y79" si="46">+W78+X78</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="289" t="e">
+        <f>+Y78+Z78</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="269">
+        <v>5632396</v>
+      </c>
+      <c r="F79" s="269">
+        <v>1956404</v>
+      </c>
+      <c r="G79" s="269">
+        <f t="shared" si="43"/>
+        <v>7588800</v>
+      </c>
+      <c r="H79" s="18"/>
+      <c r="I79" s="281">
+        <f>+O80</f>
+        <v>7588799</v>
+      </c>
+      <c r="K79" s="269">
+        <v>-3213378.5500000119</v>
+      </c>
+      <c r="L79" s="269">
+        <v>7367583</v>
+      </c>
+      <c r="M79" s="269">
+        <f>+K79+L79</f>
+        <v>4154204.4499999881</v>
+      </c>
+      <c r="N79" s="18"/>
+      <c r="O79" s="281">
+        <v>4154204</v>
+      </c>
+      <c r="Q79" s="269">
+        <v>1346730</v>
+      </c>
+      <c r="R79" s="269">
+        <v>585324</v>
+      </c>
+      <c r="S79" s="269">
+        <f t="shared" si="45"/>
+        <v>1932054</v>
+      </c>
+      <c r="T79" s="18"/>
+      <c r="U79" s="281">
+        <f>+S79</f>
+        <v>1932054</v>
+      </c>
+      <c r="W79" s="269">
+        <v>10525965</v>
+      </c>
+      <c r="X79" s="269">
+        <v>773924</v>
+      </c>
+      <c r="Y79" s="269">
+        <f t="shared" si="46"/>
+        <v>11299889</v>
+      </c>
+      <c r="Z79" s="18"/>
+      <c r="AA79" s="281">
+        <f>+Y79</f>
+        <v>11299889</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="290" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="279">
+        <f>+E78+E79</f>
+        <v>19454167</v>
+      </c>
+      <c r="F80" s="279">
+        <f>+F78+F79</f>
+        <v>3657400</v>
+      </c>
+      <c r="G80" s="279">
+        <f>+G78+G79</f>
+        <v>23111567</v>
+      </c>
+      <c r="H80" s="279">
+        <v>0</v>
+      </c>
+      <c r="I80" s="279">
+        <f>SUM(I78:I79)</f>
+        <v>23111566</v>
+      </c>
+      <c r="K80" s="279">
+        <f>+K78+K79</f>
+        <v>5632395.4499999881</v>
+      </c>
+      <c r="L80" s="279">
+        <f t="shared" ref="L80:O80" si="47">+L78+L79</f>
+        <v>1956404</v>
+      </c>
+      <c r="M80" s="279">
+        <f>+K80+L80</f>
+        <v>7588799.4499999881</v>
+      </c>
+      <c r="N80" s="279">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="279">
+        <f t="shared" si="47"/>
+        <v>7588799</v>
+      </c>
+      <c r="Q80" s="279" t="e">
+        <f>Q78+Q79</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R80" s="279">
+        <f>R78+R79</f>
+        <v>7367583</v>
+      </c>
+      <c r="S80" s="279" t="e">
+        <f>+S78+S79</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T80" s="279">
+        <f>+T78+T79</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="279" t="e">
+        <f>+U78+U79</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V80" s="36"/>
+      <c r="W80" s="279" t="e">
+        <f>W78+W79</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X80" s="279">
+        <f>X78+X79</f>
+        <v>585324</v>
+      </c>
+      <c r="Y80" s="279" t="e">
+        <f>+Y78+Y79</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z80" s="279">
+        <f>+Z78+Z79</f>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="279" t="e">
+        <f>+AA78+AA79</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="5:27" s="326" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="296">
+        <f>+E80-(+'BG '!E8-'BG '!E39)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="296">
+        <f>+F80-(+'BG '!F8-'BG '!F39)</f>
+        <v>1479636</v>
+      </c>
+      <c r="G81" s="296">
+        <f>+G80-(+'BG '!G8-'BG '!G39)</f>
+        <v>1479636</v>
+      </c>
+      <c r="H81" s="296">
+        <f>+H80-(+'BG '!H8-'BG '!H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="296">
+        <f>+I80-(+'BG '!I8-'BG '!I39)</f>
+        <v>1479635</v>
+      </c>
+      <c r="J81" s="328"/>
+      <c r="K81" s="296">
+        <f>+K80-'BG '!K8</f>
+        <v>-50776.550000011921</v>
+      </c>
+      <c r="L81" s="296">
+        <f>+L80-'BG '!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="296">
+        <f>+M80-'BG '!M8</f>
+        <v>-50776.550000011921</v>
+      </c>
+      <c r="N81" s="296">
+        <f>+N80-'BG '!N8</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="296">
+        <f>+O80-'BG '!O8</f>
+        <v>-50777</v>
+      </c>
+      <c r="Q81" s="327"/>
+      <c r="R81" s="327"/>
+      <c r="W81" s="327"/>
+      <c r="X81" s="327"/>
+    </row>
+    <row r="82" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="I82" s="288"/>
+      <c r="O82" s="288"/>
+      <c r="Q82" s="266"/>
+      <c r="R82" s="266"/>
+    </row>
+    <row r="83" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E83" s="291"/>
+      <c r="F83" s="291"/>
+      <c r="G83" s="291"/>
+      <c r="H83" s="291"/>
+      <c r="I83" s="291"/>
+      <c r="K83" s="291"/>
+      <c r="L83" s="291"/>
+      <c r="M83" s="291"/>
+      <c r="N83" s="291"/>
+      <c r="O83" s="291"/>
+      <c r="Q83" s="266"/>
+      <c r="R83" s="266"/>
+      <c r="W83" s="291"/>
+      <c r="X83" s="291"/>
+      <c r="Y83" s="291"/>
+      <c r="Z83" s="291"/>
+      <c r="AA83" s="291"/>
+    </row>
+    <row r="84" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E84" s="291"/>
+      <c r="F84"/>
+      <c r="I84" s="288"/>
+      <c r="K84" s="291"/>
+      <c r="L84"/>
+      <c r="O84" s="288"/>
+      <c r="Q84" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="R78" s="50"/>
-      <c r="S78" s="50"/>
-      <c r="W78" s="293"/>
-      <c r="X78"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E79" s="293"/>
-      <c r="F79"/>
-      <c r="K79" s="293"/>
-      <c r="L79"/>
-      <c r="Q79" s="266" t="s">
+      <c r="R84" s="50"/>
+      <c r="S84" s="50"/>
+      <c r="W84" s="291"/>
+      <c r="X84"/>
+    </row>
+    <row r="85" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E85" s="291"/>
+      <c r="F85"/>
+      <c r="K85" s="291"/>
+      <c r="L85"/>
+      <c r="Q85" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="W79" s="293"/>
-      <c r="X79"/>
+      <c r="W85" s="291"/>
+      <c r="X85"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup scale="50" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="50" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13141,8 +13623,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13189,7 +13671,7 @@
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="78">
         <v>2020</v>
@@ -13208,7 +13690,7 @@
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K2" s="78">
         <v>2020</v>
@@ -13250,7 +13732,7 @@
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="81"/>
       <c r="C4" s="89"/>
@@ -13261,7 +13743,7 @@
       <c r="H4" s="88"/>
       <c r="I4" s="72"/>
       <c r="J4" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="92"/>
@@ -13273,7 +13755,7 @@
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="97">
         <f>+'BG '!I8</f>
@@ -13304,7 +13786,7 @@
       </c>
       <c r="I5" s="72"/>
       <c r="J5" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5" s="102">
         <f>+'BG '!I39</f>
@@ -13343,7 +13825,7 @@
     </row>
     <row r="6" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="97">
         <f>+'BG '!I9</f>
@@ -13374,7 +13856,7 @@
       </c>
       <c r="I6" s="70"/>
       <c r="J6" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="102">
         <f>+'BG '!I40</f>
@@ -13441,7 +13923,7 @@
       </c>
       <c r="I7" s="72"/>
       <c r="J7" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="102">
         <f>+'BG '!I41</f>
@@ -13476,7 +13958,7 @@
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="97">
         <f>+'BG '!I12</f>
@@ -13507,7 +13989,7 @@
       </c>
       <c r="I8" s="72"/>
       <c r="J8" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K8" s="102">
         <f>+'BG '!I43</f>
@@ -13542,7 +14024,7 @@
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="97">
         <f>+'BG '!I13</f>
@@ -13573,7 +14055,7 @@
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" s="102">
         <f>+'BG '!I44</f>
@@ -13638,7 +14120,7 @@
       </c>
       <c r="I10" s="72"/>
       <c r="J10" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K10" s="102">
         <f>+'BG '!I46</f>
@@ -13835,7 +14317,7 @@
       </c>
       <c r="I13" s="72"/>
       <c r="J13" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K13" s="102">
         <f>+'BG '!I50</f>
@@ -13865,7 +14347,7 @@
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="113">
         <f>'BG '!I18</f>
@@ -13885,7 +14367,7 @@
       <c r="H14" s="116"/>
       <c r="I14" s="70"/>
       <c r="J14" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K14" s="102">
         <f>+'BG '!I49</f>
@@ -13928,7 +14410,7 @@
       <c r="H15" s="116"/>
       <c r="I15" s="70"/>
       <c r="J15" s="96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K15" s="117">
         <f>'BG '!I51</f>
@@ -13946,7 +14428,7 @@
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="118">
         <f>SUM(B5:B15)</f>
@@ -13963,7 +14445,7 @@
       <c r="H16" s="116"/>
       <c r="I16" s="72"/>
       <c r="J16" s="119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K16" s="97">
         <f>SUM(K5:K15)</f>
@@ -14022,7 +14504,7 @@
     </row>
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="98"/>
@@ -14044,7 +14526,7 @@
       </c>
       <c r="I18" s="72"/>
       <c r="J18" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="98"/>
@@ -14094,7 +14576,7 @@
       </c>
       <c r="I19" s="72"/>
       <c r="J19" s="123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K19" s="97">
         <f>+'BG '!I55</f>
@@ -14128,7 +14610,7 @@
     </row>
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="97">
         <f>+'BG '!I24</f>
@@ -14159,7 +14641,7 @@
       </c>
       <c r="I20" s="72"/>
       <c r="J20" s="123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K20" s="97">
         <f>+'BG '!I56</f>
@@ -14196,7 +14678,7 @@
     </row>
     <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="97">
         <f>+'BG '!I26</f>
@@ -14227,7 +14709,7 @@
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K21" s="97">
         <f>+'BG '!I58</f>
@@ -14266,7 +14748,7 @@
     </row>
     <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="97">
         <f>+'BG '!I27</f>
@@ -14297,7 +14779,7 @@
       </c>
       <c r="I22" s="72"/>
       <c r="J22" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K22" s="97">
         <f>+'BG '!I59</f>
@@ -14331,7 +14813,7 @@
     </row>
     <row r="23" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="97">
         <f>+'BG '!I28</f>
@@ -14428,7 +14910,7 @@
       </c>
       <c r="I24" s="72"/>
       <c r="J24" s="96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K24" s="97">
         <f>+'BG '!I62</f>
@@ -14462,7 +14944,7 @@
     </row>
     <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="97">
         <f>+'BG '!I31</f>
@@ -14542,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K26" s="97">
         <f>+'BG '!I64</f>
@@ -14648,7 +15130,7 @@
       <c r="E28" s="112"/>
       <c r="F28" s="81"/>
       <c r="J28" s="119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K28" s="133">
         <f>SUM(K19:K27)</f>
@@ -14673,7 +15155,7 @@
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="97">
         <f>SUM(B19:B28)</f>
@@ -14687,7 +15169,7 @@
       <c r="E29" s="112"/>
       <c r="F29" s="81"/>
       <c r="J29" s="119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K29" s="133">
         <f>+K16+K28</f>
@@ -14731,7 +15213,7 @@
       <c r="E31" s="112"/>
       <c r="F31" s="81"/>
       <c r="J31" s="119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K31" s="97">
         <f>+'BG '!I73</f>
@@ -14782,7 +15264,7 @@
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="140">
         <f>+B29+B16</f>
@@ -14805,7 +15287,7 @@
       </c>
       <c r="I33" s="72"/>
       <c r="J33" s="143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" s="140">
         <f>+K31+K29</f>
@@ -14877,7 +15359,7 @@
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="150"/>
       <c r="D37" s="151"/>
@@ -14886,7 +15368,7 @@
       <c r="G37" s="71"/>
       <c r="I37" s="72"/>
       <c r="J37" s="152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K37" s="150"/>
       <c r="L37" s="138"/>
@@ -14897,7 +15379,7 @@
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" s="97">
         <v>0</v>
@@ -14910,7 +15392,7 @@
       <c r="H38" s="138"/>
       <c r="I38" s="72"/>
       <c r="J38" s="153" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K38" s="97">
         <f>+K45</f>
@@ -14924,7 +15406,7 @@
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="132">
         <v>-3610086</v>
@@ -14935,7 +15417,7 @@
       <c r="F39" s="138"/>
       <c r="G39" s="71"/>
       <c r="J39" s="157" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K39" s="97">
         <f>+PAT!J193</f>
@@ -14949,7 +15431,7 @@
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="132">
         <f>+B38+B39</f>
@@ -14962,7 +15444,7 @@
       <c r="G40" s="71"/>
       <c r="I40" s="72"/>
       <c r="J40" s="153" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K40" s="160">
         <f>+PAT!J191-139500</f>
@@ -14982,7 +15464,7 @@
       <c r="F41" s="138"/>
       <c r="I41" s="72"/>
       <c r="J41" s="153" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K41" s="97">
         <v>0</v>
@@ -14995,7 +15477,7 @@
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="150"/>
       <c r="E42" s="71"/>
@@ -15003,7 +15485,7 @@
       <c r="G42" s="71"/>
       <c r="I42" s="72"/>
       <c r="J42" s="162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K42" s="133">
         <f>SUM(K38:K41)</f>
@@ -15017,7 +15499,7 @@
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="153" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="97">
         <f>+EFE!I12</f>
@@ -15031,7 +15513,7 @@
       <c r="H43" s="138"/>
       <c r="I43" s="72"/>
       <c r="J43" s="158"/>
-      <c r="K43" s="297">
+      <c r="K43" s="293">
         <f>+K42-L31</f>
         <v>0.20340000092983246</v>
       </c>
@@ -15043,7 +15525,7 @@
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="153" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B44" s="97">
         <f>+EFE!I15</f>
@@ -15057,7 +15539,7 @@
       <c r="H44" s="138"/>
       <c r="I44" s="72"/>
       <c r="J44" s="158"/>
-      <c r="K44" s="297"/>
+      <c r="K44" s="293"/>
       <c r="L44" s="138"/>
       <c r="M44" s="138"/>
       <c r="N44" s="71"/>
@@ -15066,7 +15548,7 @@
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" s="132">
         <f>-B43+C21</f>
@@ -15078,7 +15560,7 @@
       <c r="F45" s="138"/>
       <c r="G45" s="71"/>
       <c r="J45" s="163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K45" s="118">
         <f>+ER!H36</f>
@@ -15092,7 +15574,7 @@
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="132">
         <f>+B43+B45</f>
@@ -15105,7 +15587,7 @@
       <c r="G46" s="71"/>
       <c r="I46" s="72"/>
       <c r="J46" s="164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K46" s="132">
         <f>-ER!H35</f>
@@ -15126,7 +15608,7 @@
       <c r="D47" s="156"/>
       <c r="F47" s="148"/>
       <c r="J47" s="165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K47" s="166">
         <f>+K45+K46</f>
@@ -15138,7 +15620,7 @@
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" s="150"/>
       <c r="E48" s="71"/>
@@ -15154,7 +15636,7 @@
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="153" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="97">
         <f>+EFE!I14</f>
@@ -15176,7 +15658,7 @@
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" s="97">
         <v>0</v>
@@ -15196,7 +15678,7 @@
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" s="132">
         <f>+C27-B49-B50</f>
@@ -15217,7 +15699,7 @@
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B52" s="132">
         <f>SUM(B49:B51)</f>
@@ -15258,7 +15740,7 @@
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" s="150"/>
       <c r="C54" s="156"/>
@@ -15277,7 +15759,7 @@
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" s="97">
         <f>+EFE!I19</f>
@@ -15294,7 +15776,7 @@
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="155" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="132">
         <f>-B55+L24</f>
@@ -15316,7 +15798,7 @@
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B57" s="132">
         <f>+B55+B56</f>
@@ -15357,7 +15839,7 @@
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="149" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="150"/>
       <c r="C59" s="156"/>
@@ -15376,7 +15858,7 @@
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" s="97">
         <f>+EFE!I16</f>
@@ -15397,7 +15879,7 @@
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B61" s="132">
         <f>-B60+C23</f>
@@ -15418,7 +15900,7 @@
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" s="132">
         <f>+B60+B61</f>
@@ -15449,7 +15931,7 @@
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B64" s="150"/>
       <c r="C64" s="156"/>
@@ -15462,7 +15944,7 @@
     </row>
     <row r="65" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="153" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B65" s="97">
         <f>+EFE!I13</f>
@@ -15478,7 +15960,7 @@
     </row>
     <row r="66" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="132">
         <f>-B65+C22</f>
@@ -15491,7 +15973,7 @@
     </row>
     <row r="67" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B67" s="132">
         <f>+B65+B66</f>
@@ -15514,7 +15996,7 @@
     </row>
     <row r="69" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="149" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B69" s="118"/>
       <c r="C69" s="156"/>
@@ -15524,7 +16006,7 @@
     </row>
     <row r="70" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B70" s="97">
         <f>-ER!H35</f>
@@ -15535,7 +16017,7 @@
     </row>
     <row r="71" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B71" s="97">
         <f>+EFE!I43</f>
@@ -15546,7 +16028,7 @@
     </row>
     <row r="72" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B72" s="168">
         <f>-B70-B71+L10</f>
@@ -15557,7 +16039,7 @@
     </row>
     <row r="73" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="168">
         <f>SUM(B70:B72)</f>
@@ -15576,7 +16058,7 @@
     </row>
     <row r="75" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="149" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" s="118"/>
       <c r="K75" s="66"/>
@@ -15584,7 +16066,7 @@
     </row>
     <row r="76" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B76" s="97">
         <f>-ER!H34</f>
@@ -15595,7 +16077,7 @@
     </row>
     <row r="77" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77" s="114">
         <f>+EFE!I44</f>
@@ -15606,7 +16088,7 @@
     </row>
     <row r="78" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B78" s="168">
         <f>-B76-B77+L14</f>
@@ -15617,7 +16099,7 @@
     </row>
     <row r="79" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" s="168">
         <f>SUM(B76:B78)</f>
@@ -15636,7 +16118,7 @@
     </row>
     <row r="81" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="149" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" s="150"/>
       <c r="K81" s="66"/>
@@ -15644,7 +16126,7 @@
     </row>
     <row r="82" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="153" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" s="97">
         <f>+EFE!I10</f>
@@ -15655,7 +16137,7 @@
     </row>
     <row r="83" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="155" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B83" s="132">
         <f>-B82+C8</f>
@@ -15666,7 +16148,7 @@
     </row>
     <row r="84" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B84" s="132">
         <f>+B82+B83</f>
@@ -15685,7 +16167,7 @@
     </row>
     <row r="86" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="149" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B86" s="150"/>
       <c r="K86" s="66"/>
@@ -15693,7 +16175,7 @@
     </row>
     <row r="87" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="153" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B87" s="97">
         <f>+EFE!I22</f>
@@ -15704,7 +16186,7 @@
     </row>
     <row r="88" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" s="132">
         <f>-B87+C28</f>
@@ -15713,7 +16195,7 @@
     </row>
     <row r="89" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B89" s="132">
         <f>+B87+B88</f>
@@ -15728,13 +16210,13 @@
     </row>
     <row r="91" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B91" s="150"/>
     </row>
     <row r="92" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="153" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B92" s="97">
         <v>-1307540</v>
@@ -15742,7 +16224,7 @@
     </row>
     <row r="93" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="153" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B93" s="97">
         <v>0</v>
@@ -15750,7 +16232,7 @@
     </row>
     <row r="94" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="132">
         <v>-519230</v>
@@ -15758,7 +16240,7 @@
     </row>
     <row r="95" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="132">
         <f>SUM(B92:B94)</f>
@@ -15832,12 +16314,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -15878,7 +16360,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -15891,7 +16373,7 @@
     </row>
     <row r="8" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -15914,7 +16396,7 @@
     </row>
     <row r="9" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -15939,7 +16421,7 @@
     </row>
     <row r="10" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -15960,7 +16442,7 @@
     </row>
     <row r="11" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -15981,7 +16463,7 @@
     </row>
     <row r="12" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -16002,7 +16484,7 @@
     </row>
     <row r="13" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -16023,7 +16505,7 @@
     </row>
     <row r="14" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -16047,7 +16529,7 @@
     </row>
     <row r="15" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
@@ -16070,7 +16552,7 @@
     </row>
     <row r="16" spans="1:10" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -16098,7 +16580,7 @@
     </row>
     <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
@@ -16121,7 +16603,7 @@
     </row>
     <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
@@ -16144,7 +16626,7 @@
     </row>
     <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="54"/>
@@ -16169,7 +16651,7 @@
     </row>
     <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
@@ -16192,7 +16674,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
@@ -16220,7 +16702,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -16241,7 +16723,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -16262,7 +16744,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -16290,7 +16772,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
@@ -16311,7 +16793,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -16334,7 +16816,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
@@ -16373,7 +16855,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="171" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
@@ -16386,7 +16868,7 @@
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
@@ -16407,7 +16889,7 @@
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
@@ -16428,7 +16910,7 @@
     </row>
     <row r="32" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
@@ -16450,7 +16932,7 @@
     </row>
     <row r="33" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
@@ -16471,7 +16953,7 @@
     </row>
     <row r="34" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
@@ -16492,7 +16974,7 @@
     </row>
     <row r="35" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
@@ -16516,7 +16998,7 @@
     </row>
     <row r="36" spans="2:10" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
@@ -16539,12 +17021,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="310" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="310"/>
-      <c r="D37" s="310"/>
-      <c r="E37" s="310"/>
+      <c r="B37" s="309" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="309"/>
+      <c r="D37" s="309"/>
+      <c r="E37" s="309"/>
       <c r="F37" s="24">
         <v>-705016</v>
       </c>
@@ -16562,12 +17044,12 @@
       </c>
     </row>
     <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="311" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" s="311"/>
-      <c r="D38" s="311"/>
-      <c r="E38" s="311"/>
+      <c r="B38" s="310" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="310"/>
+      <c r="D38" s="310"/>
+      <c r="E38" s="310"/>
       <c r="F38" s="6">
         <f>+F36+F37</f>
         <v>920</v>
@@ -16586,12 +17068,12 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="311" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="311"/>
-      <c r="D39" s="311"/>
-      <c r="E39" s="311"/>
+      <c r="B39" s="310" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="310"/>
+      <c r="D39" s="310"/>
+      <c r="E39" s="310"/>
       <c r="F39" s="6">
         <f>SUM(F38:F38)</f>
         <v>920</v>
@@ -16614,12 +17096,12 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="311" t="s">
-        <v>258</v>
-      </c>
-      <c r="C40" s="311"/>
-      <c r="D40" s="311"/>
-      <c r="E40" s="311"/>
+      <c r="B40" s="310" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="310"/>
+      <c r="D40" s="310"/>
+      <c r="E40" s="310"/>
       <c r="F40" s="10">
         <v>6115000</v>
       </c>
@@ -16636,7 +17118,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -16664,7 +17146,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
@@ -16685,7 +17167,7 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
@@ -16724,7 +17206,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="171" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
@@ -16737,7 +17219,7 @@
     </row>
     <row r="46" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" s="54"/>
       <c r="D46" s="54"/>
@@ -16760,7 +17242,7 @@
     </row>
     <row r="47" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
@@ -16781,7 +17263,7 @@
     </row>
     <row r="48" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -16806,7 +17288,7 @@
     </row>
     <row r="49" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C49" s="54"/>
       <c r="D49" s="54"/>
@@ -16829,7 +17311,7 @@
     </row>
     <row r="50" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
@@ -16854,7 +17336,7 @@
     </row>
     <row r="51" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
@@ -16882,7 +17364,7 @@
     </row>
     <row r="52" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
@@ -16905,7 +17387,7 @@
     </row>
     <row r="53" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
@@ -16926,7 +17408,7 @@
     </row>
     <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="54"/>
       <c r="D54" s="54"/>
@@ -16954,7 +17436,7 @@
     </row>
     <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C55" s="54"/>
       <c r="D55" s="54"/>
@@ -16977,7 +17459,7 @@
     </row>
     <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C56" s="54"/>
       <c r="D56" s="54"/>
@@ -17001,7 +17483,7 @@
     </row>
     <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C57" s="54"/>
       <c r="D57" s="54"/>
@@ -17022,7 +17504,7 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" s="54"/>
       <c r="D58" s="54"/>
@@ -17051,7 +17533,7 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C59" s="54"/>
       <c r="D59" s="54"/>
@@ -17075,7 +17557,7 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60" s="54"/>
       <c r="D60" s="54"/>
@@ -17104,7 +17586,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="54"/>
       <c r="D61" s="54"/>
@@ -17128,7 +17610,7 @@
     </row>
     <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
@@ -17168,7 +17650,7 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C64" s="54"/>
       <c r="D64" s="54"/>
@@ -17184,7 +17666,7 @@
     </row>
     <row r="65" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C65" s="54"/>
       <c r="D65" s="54"/>
@@ -17207,7 +17689,7 @@
     </row>
     <row r="66" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C66" s="54"/>
       <c r="D66" s="54"/>
@@ -17232,7 +17714,7 @@
     </row>
     <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="54"/>
       <c r="D67" s="54"/>
@@ -17257,7 +17739,7 @@
     </row>
     <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C68" s="54"/>
       <c r="D68" s="54"/>
@@ -17282,7 +17764,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C69" s="54"/>
       <c r="D69" s="54"/>
@@ -17307,7 +17789,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C70" s="54"/>
       <c r="D70" s="54"/>
@@ -17332,7 +17814,7 @@
     </row>
     <row r="71" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C71" s="54"/>
       <c r="D71" s="54"/>
@@ -17361,7 +17843,7 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="174" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="175"/>
       <c r="D72" s="175"/>
@@ -17403,7 +17885,7 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C74" s="54"/>
       <c r="D74" s="54"/>
@@ -17419,7 +17901,7 @@
     </row>
     <row r="75" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C75" s="54"/>
       <c r="D75" s="54"/>
@@ -17442,7 +17924,7 @@
     </row>
     <row r="76" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C76" s="54"/>
       <c r="D76" s="54"/>
@@ -17467,7 +17949,7 @@
     </row>
     <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="54"/>
       <c r="D77" s="54"/>
@@ -17492,7 +17974,7 @@
     </row>
     <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C78" s="54"/>
       <c r="D78" s="54"/>
@@ -17517,7 +17999,7 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C79" s="54"/>
       <c r="D79" s="54"/>
@@ -17542,7 +18024,7 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C80" s="54"/>
       <c r="D80" s="54"/>
@@ -17567,7 +18049,7 @@
     </row>
     <row r="81" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C81" s="54"/>
       <c r="D81" s="54"/>
@@ -17607,7 +18089,7 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="171" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C83" s="54"/>
       <c r="D83" s="54"/>
@@ -17623,7 +18105,7 @@
     </row>
     <row r="84" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C84" s="54"/>
       <c r="D84" s="54"/>
@@ -17646,7 +18128,7 @@
     </row>
     <row r="85" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C85" s="54"/>
       <c r="D85" s="54"/>
@@ -17671,7 +18153,7 @@
     </row>
     <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C86" s="54"/>
       <c r="D86" s="54"/>
@@ -17696,7 +18178,7 @@
     </row>
     <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C87" s="54"/>
       <c r="D87" s="54"/>
@@ -17721,7 +18203,7 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C88" s="54"/>
       <c r="D88" s="54"/>
@@ -17746,7 +18228,7 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" s="54"/>
       <c r="D89" s="54"/>
@@ -17774,7 +18256,7 @@
     </row>
     <row r="90" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C90" s="54"/>
       <c r="D90" s="54"/>
@@ -17817,7 +18299,7 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="171" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92" s="54"/>
       <c r="D92" s="54"/>
@@ -17833,7 +18315,7 @@
     </row>
     <row r="93" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C93" s="54"/>
       <c r="D93" s="54"/>
@@ -17846,7 +18328,7 @@
     </row>
     <row r="94" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" s="54"/>
       <c r="D94" s="54"/>
@@ -17864,7 +18346,7 @@
     </row>
     <row r="95" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="177" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C95" s="54"/>
       <c r="D95" s="54"/>
@@ -17887,7 +18369,7 @@
     </row>
     <row r="96" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B96" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96" s="54"/>
       <c r="D96" s="54"/>
@@ -17910,7 +18392,7 @@
     </row>
     <row r="97" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C97" s="54"/>
       <c r="D97" s="54"/>
@@ -17934,7 +18416,7 @@
     </row>
     <row r="98" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B98" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C98" s="54"/>
       <c r="D98" s="54"/>
@@ -17956,7 +18438,7 @@
     </row>
     <row r="99" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99" s="54"/>
       <c r="D99" s="54"/>
@@ -17980,7 +18462,7 @@
     </row>
     <row r="100" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C100" s="54"/>
       <c r="D100" s="54"/>
@@ -18003,7 +18485,7 @@
     </row>
     <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101" s="54"/>
       <c r="D101" s="54"/>
@@ -18028,7 +18510,7 @@
     </row>
     <row r="102" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C102" s="54"/>
       <c r="D102" s="54"/>
@@ -18051,7 +18533,7 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C103" s="54"/>
       <c r="D103" s="54"/>
@@ -18076,7 +18558,7 @@
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C104" s="54"/>
       <c r="D104" s="54"/>
@@ -18099,7 +18581,7 @@
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C105" s="54"/>
       <c r="D105" s="54"/>
@@ -18127,7 +18609,7 @@
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C106" s="54"/>
       <c r="D106" s="54"/>
@@ -18149,7 +18631,7 @@
     </row>
     <row r="107" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C107" s="54"/>
       <c r="D107" s="54"/>
@@ -18189,7 +18671,7 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="171" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109" s="54"/>
       <c r="D109" s="54"/>
@@ -18205,7 +18687,7 @@
     </row>
     <row r="110" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C110" s="54"/>
       <c r="D110" s="54"/>
@@ -18228,7 +18710,7 @@
     </row>
     <row r="111" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C111" s="54"/>
       <c r="D111" s="54"/>
@@ -18249,7 +18731,7 @@
     </row>
     <row r="112" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C112" s="54"/>
       <c r="D112" s="54"/>
@@ -18277,7 +18759,7 @@
     </row>
     <row r="113" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C113" s="54"/>
       <c r="D113" s="54"/>
@@ -18319,7 +18801,7 @@
     </row>
     <row r="115" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C115" s="54"/>
       <c r="D115" s="54"/>
@@ -18347,7 +18829,7 @@
     </row>
     <row r="116" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C116" s="54"/>
       <c r="D116" s="54"/>
@@ -18370,7 +18852,7 @@
     </row>
     <row r="117" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C117" s="54"/>
       <c r="D117" s="54"/>
@@ -18394,7 +18876,7 @@
     </row>
     <row r="118" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C118" s="54"/>
       <c r="D118" s="54"/>
@@ -18423,7 +18905,7 @@
     </row>
     <row r="119" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C119" s="54"/>
       <c r="D119" s="54"/>
@@ -18447,7 +18929,7 @@
     </row>
     <row r="120" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C120" s="54"/>
       <c r="D120" s="54"/>
@@ -18471,7 +18953,7 @@
     </row>
     <row r="121" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B121" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C121" s="54"/>
       <c r="D121" s="54"/>
@@ -18521,7 +19003,7 @@
     </row>
     <row r="123" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C123" s="54"/>
       <c r="D123" s="54"/>
@@ -18548,7 +19030,7 @@
     </row>
     <row r="124" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B124" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C124" s="54"/>
       <c r="D124" s="54"/>
@@ -18577,7 +19059,7 @@
     </row>
     <row r="125" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B125" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C125" s="54"/>
       <c r="D125" s="54"/>
@@ -18602,7 +19084,7 @@
     </row>
     <row r="126" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B126" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C126" s="54"/>
       <c r="D126" s="54"/>
@@ -18632,7 +19114,7 @@
     </row>
     <row r="127" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B127" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C127" s="54"/>
       <c r="D127" s="54"/>
@@ -18656,7 +19138,7 @@
     </row>
     <row r="128" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B128" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C128" s="54"/>
       <c r="D128" s="54"/>
@@ -18704,7 +19186,7 @@
     </row>
     <row r="130" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C130" s="54"/>
       <c r="D130" s="54"/>
@@ -18734,7 +19216,7 @@
     </row>
     <row r="131" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C131" s="54"/>
       <c r="D131" s="54"/>
@@ -18757,7 +19239,7 @@
     </row>
     <row r="132" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C132" s="54"/>
       <c r="D132" s="54"/>
@@ -18782,7 +19264,7 @@
     </row>
     <row r="133" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C133" s="54"/>
       <c r="D133" s="54"/>
@@ -18836,7 +19318,7 @@
     </row>
     <row r="135" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135" s="54"/>
       <c r="D135" s="54"/>
@@ -18858,7 +19340,7 @@
     </row>
     <row r="136" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C136" s="54"/>
       <c r="D136" s="54"/>
@@ -18888,7 +19370,7 @@
     </row>
     <row r="137" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C137" s="54"/>
       <c r="D137" s="54"/>
@@ -18912,7 +19394,7 @@
     </row>
     <row r="138" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C138" s="54"/>
       <c r="D138" s="54"/>
@@ -18936,7 +19418,7 @@
     </row>
     <row r="139" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C139" s="54"/>
       <c r="D139" s="54"/>
@@ -18960,7 +19442,7 @@
     </row>
     <row r="140" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
@@ -18982,7 +19464,7 @@
     </row>
     <row r="141" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C141" s="54"/>
       <c r="D141" s="54"/>
@@ -19004,7 +19486,7 @@
     </row>
     <row r="142" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C142" s="54"/>
       <c r="D142" s="54"/>
@@ -19031,7 +19513,7 @@
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C143" s="54"/>
       <c r="D143" s="54"/>
@@ -19060,7 +19542,7 @@
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C144" s="54"/>
       <c r="D144" s="54"/>
@@ -19086,7 +19568,7 @@
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C145" s="54"/>
       <c r="D145" s="54"/>
@@ -19109,7 +19591,7 @@
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C146" s="54"/>
       <c r="D146" s="54"/>
@@ -19134,7 +19616,7 @@
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C147" s="54"/>
       <c r="D147" s="54"/>
@@ -19159,7 +19641,7 @@
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C148" s="54"/>
       <c r="D148" s="54"/>
@@ -19187,7 +19669,7 @@
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C149" s="54"/>
       <c r="D149" s="54"/>
@@ -19220,7 +19702,7 @@
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" s="247" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C150" s="248"/>
       <c r="D150" s="248"/>
@@ -19242,7 +19724,7 @@
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C151" s="54"/>
       <c r="D151" s="54"/>
@@ -19267,7 +19749,7 @@
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152" s="247" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C152" s="248"/>
       <c r="D152" s="248"/>
@@ -19289,7 +19771,7 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153" s="247" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C153" s="248"/>
       <c r="D153" s="248"/>
@@ -19318,7 +19800,7 @@
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C154" s="54"/>
       <c r="D154" s="54"/>
@@ -19347,7 +19829,7 @@
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B155" s="174" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C155" s="175"/>
       <c r="D155" s="175"/>
@@ -19390,7 +19872,7 @@
     </row>
     <row r="157" spans="2:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="171" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C157" s="54"/>
       <c r="D157" s="54"/>
@@ -19404,7 +19886,7 @@
     </row>
     <row r="158" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B158" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158" s="54"/>
       <c r="D158" s="54"/>
@@ -19430,7 +19912,7 @@
     </row>
     <row r="159" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B159" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C159" s="54"/>
       <c r="D159" s="54"/>
@@ -19446,7 +19928,7 @@
     </row>
     <row r="160" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B160" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C160" s="54"/>
       <c r="D160" s="54"/>
@@ -19469,7 +19951,7 @@
     </row>
     <row r="161" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B161" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C161" s="54"/>
       <c r="D161" s="54"/>
@@ -19498,7 +19980,7 @@
     </row>
     <row r="162" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B162" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C162" s="54"/>
       <c r="D162" s="54"/>
@@ -19527,7 +20009,7 @@
     </row>
     <row r="163" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B163" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C163" s="54"/>
       <c r="D163" s="54"/>
@@ -19580,7 +20062,7 @@
     </row>
     <row r="165" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B165" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C165" s="54"/>
       <c r="D165" s="54"/>
@@ -19600,7 +20082,7 @@
     </row>
     <row r="166" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B166" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C166" s="54"/>
       <c r="D166" s="54"/>
@@ -19620,7 +20102,7 @@
     </row>
     <row r="167" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B167" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C167" s="54"/>
       <c r="D167" s="54"/>
@@ -19640,7 +20122,7 @@
     </row>
     <row r="168" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B168" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C168" s="54"/>
       <c r="D168" s="54"/>
@@ -19660,7 +20142,7 @@
     </row>
     <row r="169" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B169" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C169" s="54"/>
       <c r="D169" s="54"/>
@@ -19714,7 +20196,7 @@
     </row>
     <row r="171" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B171" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C171" s="54"/>
       <c r="D171" s="54"/>
@@ -19743,7 +20225,7 @@
     </row>
     <row r="172" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B172" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C172" s="36"/>
       <c r="D172" s="36"/>
@@ -19768,7 +20250,7 @@
     </row>
     <row r="173" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B173" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C173" s="54"/>
       <c r="D173" s="54"/>
@@ -19798,7 +20280,7 @@
     </row>
     <row r="174" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B174" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C174" s="54"/>
       <c r="D174" s="54"/>
@@ -19851,7 +20333,7 @@
     </row>
     <row r="176" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C176" s="54"/>
       <c r="D176" s="54"/>
@@ -19880,7 +20362,7 @@
     </row>
     <row r="177" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C177" s="54"/>
       <c r="D177" s="54"/>
@@ -19904,12 +20386,12 @@
       <c r="L177" s="2"/>
     </row>
     <row r="178" spans="2:12" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="312" t="s">
-        <v>257</v>
-      </c>
-      <c r="C178" s="312"/>
-      <c r="D178" s="312"/>
-      <c r="E178" s="312"/>
+      <c r="B178" s="311" t="s">
+        <v>256</v>
+      </c>
+      <c r="C178" s="311"/>
+      <c r="D178" s="311"/>
+      <c r="E178" s="311"/>
       <c r="F178" s="10">
         <v>-705016</v>
       </c>
@@ -19956,7 +20438,7 @@
     </row>
     <row r="180" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" s="54"/>
       <c r="D180" s="54"/>
@@ -19989,7 +20471,7 @@
     </row>
     <row r="181" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C181" s="54"/>
       <c r="D181" s="54"/>
@@ -20012,7 +20494,7 @@
     </row>
     <row r="182" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C182" s="54"/>
       <c r="D182" s="54"/>
@@ -20036,7 +20518,7 @@
     </row>
     <row r="183" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
@@ -20060,7 +20542,7 @@
     </row>
     <row r="184" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
@@ -20082,7 +20564,7 @@
     </row>
     <row r="185" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C185" s="54"/>
       <c r="D185" s="54"/>
@@ -20111,7 +20593,7 @@
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
@@ -20139,7 +20621,7 @@
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B187" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C187" s="54"/>
       <c r="D187" s="54"/>
@@ -20164,7 +20646,7 @@
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B188" s="177" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
@@ -20189,7 +20671,7 @@
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B189" s="177" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C189" s="54"/>
       <c r="D189" s="54"/>
@@ -20217,7 +20699,7 @@
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B190" s="177" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C190" s="44"/>
       <c r="D190" s="44"/>
@@ -20245,7 +20727,7 @@
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B191" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C191" s="44"/>
       <c r="D191" s="44"/>
@@ -20270,7 +20752,7 @@
     </row>
     <row r="192" spans="2:12" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C192" s="44"/>
       <c r="D192" s="44"/>
@@ -20291,7 +20773,7 @@
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C193" s="44"/>
       <c r="D193" s="44"/>
@@ -20313,7 +20795,7 @@
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C194" s="44"/>
       <c r="D194" s="44"/>
@@ -20341,7 +20823,7 @@
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="240" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C195" s="184"/>
       <c r="D195" s="184"/>
@@ -20436,8 +20918,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A5" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -20464,7 +20946,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V2" s="32"/>
     </row>
@@ -20477,84 +20959,84 @@
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="317">
+      <c r="G4" s="316">
         <v>2020</v>
       </c>
-      <c r="H4" s="317"/>
-      <c r="I4" s="318">
+      <c r="H4" s="316"/>
+      <c r="I4" s="317">
         <v>2019</v>
       </c>
-      <c r="J4" s="313"/>
-      <c r="K4" s="313">
+      <c r="J4" s="312"/>
+      <c r="K4" s="312">
         <v>2018</v>
       </c>
-      <c r="L4" s="313"/>
-      <c r="M4" s="313">
+      <c r="L4" s="312"/>
+      <c r="M4" s="312">
         <v>2017</v>
       </c>
-      <c r="N4" s="313"/>
-      <c r="O4" s="313">
+      <c r="N4" s="312"/>
+      <c r="O4" s="312">
         <v>2016</v>
       </c>
-      <c r="P4" s="313"/>
-      <c r="Q4" s="313">
+      <c r="P4" s="312"/>
+      <c r="Q4" s="312">
         <v>2015</v>
       </c>
-      <c r="R4" s="313"/>
-      <c r="T4" s="313">
+      <c r="R4" s="312"/>
+      <c r="T4" s="312">
         <v>2014</v>
       </c>
-      <c r="U4" s="313"/>
+      <c r="U4" s="312"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G5" s="185" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H5" s="185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I5" s="224" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J5" s="185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K5" s="185" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L5" s="185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M5" s="185" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N5" s="185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O5" s="185" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P5" s="185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="185" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R5" s="185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S5" s="186"/>
       <c r="T5" s="185" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="U5" s="185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="59"/>
       <c r="C6" s="187" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
@@ -20576,7 +21058,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="171" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -20614,7 +21096,7 @@
     </row>
     <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="171" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -20644,7 +21126,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="171" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -20687,7 +21169,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -20715,7 +21197,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ref="G11" si="0">SUM(G7:G10)</f>
@@ -20778,7 +21260,7 @@
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="187" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -20801,7 +21283,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="252" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C13" s="248"/>
       <c r="D13" s="248"/>
@@ -20839,7 +21321,7 @@
     </row>
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="171" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -20891,7 +21373,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="232" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C16" s="233"/>
       <c r="D16" s="233"/>
@@ -20926,7 +21408,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
@@ -20959,7 +21441,7 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="252" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C18" s="248"/>
       <c r="D18" s="248"/>
@@ -20997,7 +21479,7 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="54"/>
@@ -21025,7 +21507,7 @@
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G20" s="19">
         <f>SUM(G13:G19)</f>
@@ -21088,7 +21570,7 @@
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
       <c r="C21" s="187" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -21115,7 +21597,7 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -21156,7 +21638,7 @@
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="188" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -21199,7 +21681,7 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="171" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -21245,7 +21727,7 @@
     </row>
     <row r="25" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
@@ -21276,7 +21758,7 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -21305,7 +21787,7 @@
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" ref="G27:H27" si="5">SUM(G21:G24)</f>
@@ -21368,7 +21850,7 @@
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="59"/>
       <c r="C28" s="187" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
@@ -21391,7 +21873,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
@@ -21429,7 +21911,7 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="171" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
@@ -21459,7 +21941,7 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="171" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
@@ -21496,7 +21978,7 @@
     </row>
     <row r="32" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
@@ -21527,7 +22009,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
@@ -21567,7 +22049,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
@@ -21595,7 +22077,7 @@
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="223" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G35" s="19">
         <f>SUM(G29:G33)</f>
@@ -21658,7 +22140,7 @@
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="189" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
@@ -21681,7 +22163,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
@@ -21717,7 +22199,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -21752,13 +22234,13 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="2:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="314" t="s">
-        <v>335</v>
-      </c>
-      <c r="C39" s="314"/>
-      <c r="D39" s="314"/>
-      <c r="E39" s="314"/>
-      <c r="F39" s="314"/>
+      <c r="B39" s="313" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="313"/>
+      <c r="D39" s="313"/>
+      <c r="E39" s="313"/>
+      <c r="F39" s="313"/>
       <c r="G39" s="228"/>
       <c r="H39" s="228"/>
       <c r="I39" s="26"/>
@@ -21781,7 +22263,7 @@
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
       <c r="F40" s="54" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G40" s="19">
         <f t="shared" ref="G40:H40" si="7">+G37+G38</f>
@@ -21832,7 +22314,7 @@
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="187" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
@@ -21855,7 +22337,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
@@ -21899,7 +22381,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
@@ -21936,7 +22418,7 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
@@ -21970,7 +22452,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
@@ -22001,7 +22483,7 @@
     </row>
     <row r="46" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C46" s="54"/>
       <c r="D46" s="54"/>
@@ -22023,7 +22505,7 @@
     </row>
     <row r="47" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
@@ -22052,7 +22534,7 @@
     </row>
     <row r="48" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="171" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -22085,7 +22567,7 @@
     </row>
     <row r="49" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="171" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C49" s="54"/>
       <c r="D49" s="54"/>
@@ -22111,7 +22593,7 @@
     </row>
     <row r="50" spans="2:22" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B50" s="171" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
@@ -22155,7 +22637,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
@@ -22182,7 +22664,7 @@
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G52" s="19">
         <f t="shared" ref="G52:H52" si="8">SUM(G42:G51)</f>
@@ -22245,7 +22727,7 @@
     <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
       <c r="C53" s="189" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
@@ -22269,7 +22751,7 @@
     </row>
     <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C54" s="54"/>
       <c r="D54" s="54"/>
@@ -22301,7 +22783,7 @@
     </row>
     <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="171" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" s="54"/>
       <c r="D55" s="54"/>
@@ -22334,7 +22816,7 @@
     </row>
     <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C56" s="54"/>
       <c r="D56" s="54"/>
@@ -22359,7 +22841,7 @@
     </row>
     <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="65" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
@@ -22385,7 +22867,7 @@
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
       <c r="C58" s="235" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="54"/>
@@ -22448,7 +22930,7 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="171" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C60" s="54"/>
       <c r="D60" s="54"/>
@@ -22487,7 +22969,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C61" s="54"/>
       <c r="D61" s="54"/>
@@ -22511,7 +22993,7 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
@@ -22539,7 +23021,7 @@
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G63" s="45">
         <f t="shared" ref="G63" si="10">SUM(G59:G62)</f>
@@ -22581,7 +23063,7 @@
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="51" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G64" s="170">
         <f>+G11+G20+G27+G35+G52+G40+G63</f>
@@ -22650,7 +23132,7 @@
     </row>
     <row r="66" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="59" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C66" s="50"/>
       <c r="D66" s="50"/>
@@ -22682,7 +23164,7 @@
     </row>
     <row r="67" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C67" s="54"/>
       <c r="D67" s="54"/>
@@ -22711,7 +23193,7 @@
     </row>
     <row r="68" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="193" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
@@ -22770,32 +23252,32 @@
       <c r="P71" s="54"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F72" s="315" t="s">
+      <c r="F72" s="314" t="s">
         <v>78</v>
       </c>
-      <c r="G72" s="315"/>
-      <c r="H72" s="315"/>
-      <c r="I72" s="315"/>
-      <c r="J72" s="315"/>
-      <c r="K72" s="315"/>
-      <c r="L72" s="315"/>
-      <c r="M72" s="315"/>
-      <c r="N72" s="315"/>
+      <c r="G72" s="314"/>
+      <c r="H72" s="314"/>
+      <c r="I72" s="314"/>
+      <c r="J72" s="314"/>
+      <c r="K72" s="314"/>
+      <c r="L72" s="314"/>
+      <c r="M72" s="314"/>
+      <c r="N72" s="314"/>
       <c r="O72" s="54"/>
       <c r="P72" s="54"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F73" s="316" t="s">
+      <c r="F73" s="315" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="316"/>
-      <c r="H73" s="316"/>
-      <c r="I73" s="316"/>
-      <c r="J73" s="316"/>
-      <c r="K73" s="316"/>
-      <c r="L73" s="316"/>
-      <c r="M73" s="316"/>
-      <c r="N73" s="316"/>
+      <c r="G73" s="315"/>
+      <c r="H73" s="315"/>
+      <c r="I73" s="315"/>
+      <c r="J73" s="315"/>
+      <c r="K73" s="315"/>
+      <c r="L73" s="315"/>
+      <c r="M73" s="315"/>
+      <c r="N73" s="315"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -22842,17 +23324,17 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -22878,12 +23360,12 @@
         <v>2016</v>
       </c>
       <c r="N5" s="185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -22899,7 +23381,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -22927,12 +23409,12 @@
         <v>-15846166</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -22960,12 +23442,12 @@
         <v>3922517.4766000002</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -22992,12 +23474,12 @@
         <v>3486156.52</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -23015,12 +23497,12 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="N10" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11" s="197"/>
       <c r="D11" s="197"/>
@@ -23056,7 +23538,7 @@
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -23072,7 +23554,7 @@
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -23089,7 +23571,7 @@
     <row r="15" spans="1:14" s="198" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="199"/>
       <c r="C15" s="200" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D15" s="200"/>
       <c r="E15" s="200"/>
@@ -23106,12 +23588,12 @@
         <v>48803746</v>
       </c>
       <c r="N15" s="201" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -23128,7 +23610,7 @@
     <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
@@ -23146,13 +23628,13 @@
         <v>15846166</v>
       </c>
       <c r="N17" s="173" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -23173,15 +23655,15 @@
     </row>
     <row r="19" spans="2:14" s="198" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="202"/>
-      <c r="C19" s="319" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="319"/>
-      <c r="G19" s="319"/>
-      <c r="H19" s="319"/>
-      <c r="I19" s="319"/>
+      <c r="C19" s="318" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="318"/>
       <c r="J19" s="203"/>
       <c r="K19" s="203">
         <v>0</v>
@@ -23191,7 +23673,7 @@
         <v>6332122</v>
       </c>
       <c r="N19" s="204" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -23215,31 +23697,31 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="320" t="s">
+      <c r="B22" s="319" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="319"/>
+      <c r="D22" s="319"/>
+      <c r="E22" s="205" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="206" t="s">
         <v>379</v>
       </c>
-      <c r="C22" s="320"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="205" t="s">
+      <c r="G22" s="205" t="s">
         <v>380</v>
       </c>
-      <c r="F22" s="206" t="s">
+      <c r="H22" s="205" t="s">
         <v>381</v>
       </c>
-      <c r="G22" s="205" t="s">
+      <c r="J22" s="207" t="s">
         <v>382</v>
-      </c>
-      <c r="H22" s="205" t="s">
-        <v>383</v>
-      </c>
-      <c r="J22" s="207" t="s">
-        <v>384</v>
       </c>
       <c r="L22" s="2"/>
       <c r="N22" s="17"/>
@@ -23298,7 +23780,7 @@
       <c r="K24" s="215"/>
       <c r="L24" s="2"/>
       <c r="N24" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -23330,7 +23812,7 @@
       <c r="K25" s="215"/>
       <c r="L25" s="2"/>
       <c r="N25" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -23360,7 +23842,7 @@
       <c r="K26" s="215"/>
       <c r="L26" s="2"/>
       <c r="N26" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -23390,7 +23872,7 @@
       <c r="K27" s="215"/>
       <c r="L27" s="2"/>
       <c r="N27" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -23424,7 +23906,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="52"/>
@@ -23533,7 +24015,7 @@
       </c>
       <c r="L32" s="2"/>
       <c r="N32" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -23563,7 +24045,7 @@
         <v>5731876.6617479995</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -23580,8 +24062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23596,22 +24078,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>307</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F5" s="217">
         <v>2020</v>
@@ -23637,12 +24119,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F9" s="2">
         <f>+ER!H32</f>
@@ -23671,7 +24153,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -23701,7 +24183,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F11" s="218">
         <f>9966219+2380934+39210+17432605</f>
@@ -23730,7 +24212,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F12" s="2">
         <f>SUM(F9:F11)</f>
@@ -23768,7 +24250,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F14" s="2">
         <f>-ER!H31</f>
@@ -23801,7 +24283,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F16" s="219">
         <f>+F12/F14</f>
@@ -23837,7 +24319,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -23848,7 +24330,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F20" s="2">
         <f>+ER!H29</f>
@@ -23882,14 +24364,14 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F23" s="2">
         <f>+'BG '!I40+'BG '!I41+'BG '!I39-54804</f>
@@ -23918,7 +24400,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C24" s="8"/>
       <c r="F24" s="218">
@@ -23946,7 +24428,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F25" s="2">
         <f>+F23+F24</f>
@@ -23982,7 +24464,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F27" s="220">
         <f>+F20/F25</f>
@@ -24018,7 +24500,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -24029,7 +24511,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F31" s="32">
         <f>+F23</f>
@@ -24059,7 +24541,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F32" s="32">
         <f>+F12</f>
@@ -24089,7 +24571,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F33" s="220">
         <f>+F31/F32</f>

--- a/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
+++ b/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\Combinado 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE2A9C9-20A5-4FA9-B427-8D65D2E34A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0532EA1B-DA04-48E6-B790-30FFB4290116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">AD!$A$1:$U$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'BG '!$A$6:$U$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'BG '!$A$6:$U$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">EFE!$B$1:$AH$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ER!$A$1:$Y$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">PAT!$A$1:$J$171</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="456">
   <si>
     <t>1.</t>
   </si>
@@ -1827,9 +1827,6 @@
     <t>Recibido de clientes, relacionadas y terceros</t>
   </si>
   <si>
-    <t>Impuesto a la renta</t>
-  </si>
-  <si>
     <t>Intereses y comisiones bancarias pagadas</t>
   </si>
   <si>
@@ -1843,6 +1840,9 @@
   </si>
   <si>
     <t>Pagado a proveedores, relacionadas, trabajadores y otros</t>
+  </si>
+  <si>
+    <t>Otros pasivos no corrientes</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2491,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2848,9 +2848,6 @@
     <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2930,6 +2927,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2956,6 +2959,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2993,18 +3002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3812,11 +3810,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="320" t="s">
+      <c r="C4" s="325" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
       <c r="F4" s="221" t="s">
         <v>408</v>
       </c>
@@ -4237,13 +4235,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,19 +4589,19 @@
         <v>27</v>
       </c>
       <c r="E12" s="9">
-        <v>15126973</v>
+        <v>7980392</v>
       </c>
       <c r="F12" s="9">
         <v>7765139</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" ref="G12:G18" si="3">+E12+F12</f>
-        <v>22892112</v>
+        <v>15745531</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="10">
         <f t="shared" si="0"/>
-        <v>22892112</v>
+        <v>15745531</v>
       </c>
       <c r="K12" s="9">
         <v>10095277</v>
@@ -4641,14 +4639,14 @@
         <v>28</v>
       </c>
       <c r="E13" s="9">
-        <v>43757949</v>
+        <v>39178212</v>
       </c>
       <c r="F13" s="9">
         <v>28737194</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="3"/>
-        <v>72495143</v>
+        <v>67915406</v>
       </c>
       <c r="H13" s="10">
         <f>-AD!H18-AD!H33</f>
@@ -4656,7 +4654,7 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" si="0"/>
-        <v>13871709</v>
+        <v>9291972</v>
       </c>
       <c r="K13" s="9">
         <v>41013343</v>
@@ -4699,19 +4697,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="9">
-        <v>6462502</v>
+        <v>16944276</v>
       </c>
       <c r="F14" s="9">
         <v>224008</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="3"/>
-        <v>6686510</v>
+        <v>17168284</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="10">
         <f t="shared" si="0"/>
-        <v>6686510</v>
+        <v>17168284</v>
       </c>
       <c r="K14" s="9">
         <v>16875125</v>
@@ -4749,19 +4747,19 @@
         <v>30</v>
       </c>
       <c r="E15" s="9">
-        <v>5359704</v>
+        <v>4638</v>
       </c>
       <c r="F15" s="9">
         <v>1698179</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="3"/>
-        <v>7057883</v>
+        <v>1702817</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="10">
         <f t="shared" si="0"/>
-        <v>7057883</v>
+        <v>1702817</v>
       </c>
       <c r="K15" s="9">
         <v>4638</v>
@@ -4799,19 +4797,19 @@
         <v>31</v>
       </c>
       <c r="E16" s="9">
-        <v>1748307</v>
+        <v>2538695</v>
       </c>
       <c r="F16" s="9">
         <v>4492933</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="3"/>
-        <v>6241240</v>
+        <v>7031628</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="10">
         <f t="shared" si="0"/>
-        <v>6241240</v>
+        <v>7031628</v>
       </c>
       <c r="K16" s="9">
         <v>747264</v>
@@ -4848,19 +4846,19 @@
         <v>32</v>
       </c>
       <c r="E17" s="9">
-        <v>28373524</v>
+        <v>28373114</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="3"/>
-        <v>28373524</v>
+        <v>28373114</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="10">
         <f t="shared" si="0"/>
-        <v>28373524</v>
+        <v>28373114</v>
       </c>
       <c r="K17" s="9">
         <v>28594642</v>
@@ -4924,7 +4922,7 @@
       </c>
       <c r="E19" s="19">
         <f>SUM(E8:E18)</f>
-        <v>123816601</v>
+        <v>118006969</v>
       </c>
       <c r="F19" s="19">
         <f>SUM(F8:F18)</f>
@@ -4932,7 +4930,7 @@
       </c>
       <c r="G19" s="19">
         <f>SUM(G8:G18)</f>
-        <v>170391454</v>
+        <v>164581822</v>
       </c>
       <c r="H19" s="19">
         <f>SUM(H8:H18)</f>
@@ -4940,7 +4938,7 @@
       </c>
       <c r="I19" s="19">
         <f>SUM(I8:I18)</f>
-        <v>111768020</v>
+        <v>105958388</v>
       </c>
       <c r="K19" s="19">
         <f>SUM(K8:K18)</f>
@@ -5000,11 +4998,11 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="300" t="s">
+      <c r="A21" s="303" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="303"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5071,17 +5069,17 @@
         <v>37</v>
       </c>
       <c r="E24" s="9">
-        <v>0</v>
+        <v>6718699</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="10">
         <f t="shared" ref="G24:G33" si="6">+E24+F24</f>
-        <v>0</v>
+        <v>6718699</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="10">
         <f t="shared" ref="I24:I33" si="7">+G24+H24</f>
-        <v>0</v>
+        <v>6718699</v>
       </c>
       <c r="K24" s="9">
         <v>2077739</v>
@@ -5113,18 +5111,16 @@
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="9">
-        <v>4645673</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="18"/>
       <c r="G25" s="10">
         <f t="shared" si="6"/>
-        <v>4645673</v>
+        <v>0</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="10">
         <f t="shared" si="7"/>
-        <v>4645673</v>
+        <v>0</v>
       </c>
       <c r="K25" s="9">
         <v>360864</v>
@@ -5157,15 +5153,14 @@
         <v>39</v>
       </c>
       <c r="E26" s="9">
-        <f>183729286-146152287</f>
-        <v>37576999</v>
+        <v>39139158</v>
       </c>
       <c r="F26" s="9">
         <v>32926159</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="6"/>
-        <v>70503158</v>
+        <v>72065317</v>
       </c>
       <c r="H26" s="10">
         <f>-AD!H23+AD!G37+AD!G44-AD!H50</f>
@@ -5173,7 +5168,7 @@
       </c>
       <c r="I26" s="10">
         <f t="shared" si="7"/>
-        <v>62995647.061452001</v>
+        <v>64557806.061452001</v>
       </c>
       <c r="K26" s="9">
         <v>43682484</v>
@@ -5259,19 +5254,19 @@
         <v>41</v>
       </c>
       <c r="E28" s="9">
-        <v>11075558</v>
+        <v>11046486</v>
       </c>
       <c r="F28" s="9">
         <v>417615</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="6"/>
-        <v>11493173</v>
+        <v>11464101</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="10">
         <f t="shared" si="7"/>
-        <v>11493173</v>
+        <v>11464101</v>
       </c>
       <c r="K28" s="9">
         <v>12779430</v>
@@ -5349,19 +5344,19 @@
         <v>43</v>
       </c>
       <c r="E30" s="9">
-        <v>0</v>
+        <v>1429486</v>
       </c>
       <c r="F30" s="9">
         <v>1836716</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="6"/>
-        <v>1836716</v>
+        <v>3266202</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="10">
         <f t="shared" si="7"/>
-        <v>1836716</v>
+        <v>3266202</v>
       </c>
       <c r="K30" s="9">
         <v>1673584</v>
@@ -5394,17 +5389,17 @@
         <v>44</v>
       </c>
       <c r="E31" s="9">
-        <v>42626957</v>
+        <v>42165207</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10">
         <f t="shared" si="6"/>
-        <v>42626957</v>
+        <v>42165207</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="10">
         <f t="shared" si="7"/>
-        <v>42626957</v>
+        <v>42165207</v>
       </c>
       <c r="K31" s="9">
         <v>39016871</v>
@@ -5446,11 +5441,11 @@
         <f t="shared" si="6"/>
         <v>541696</v>
       </c>
-      <c r="H32" s="249">
+      <c r="H32" s="246">
         <f>+AD!G59+AD!G43</f>
         <v>4591727.1851480007</v>
       </c>
-      <c r="I32" s="249">
+      <c r="I32" s="246">
         <f t="shared" si="7"/>
         <v>5133423.1851480007</v>
       </c>
@@ -5493,19 +5488,19 @@
         <v>46</v>
       </c>
       <c r="E33" s="9">
-        <v>1721555</v>
+        <v>292069</v>
       </c>
       <c r="F33" s="9">
         <v>62029</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="6"/>
-        <v>1783584</v>
+        <v>354098</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="10">
         <f t="shared" si="7"/>
-        <v>1783584</v>
+        <v>354098</v>
       </c>
       <c r="K33" s="9">
         <v>1500</v>
@@ -5543,7 +5538,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E24:E33)</f>
-        <v>102403407</v>
+        <v>105547770</v>
       </c>
       <c r="F34" s="19">
         <f>SUM(F24:F33)</f>
@@ -5551,7 +5546,7 @@
       </c>
       <c r="G34" s="19">
         <f>SUM(G24:G33)</f>
-        <v>137926122</v>
+        <v>141070485</v>
       </c>
       <c r="H34" s="19">
         <f>SUM(H24:H33)</f>
@@ -5559,7 +5554,7 @@
       </c>
       <c r="I34" s="19">
         <f>SUM(I24:I33)</f>
-        <v>135010338.2466</v>
+        <v>138154701.2466</v>
       </c>
       <c r="K34" s="19">
         <f>SUM(K24:K33)</f>
@@ -5608,7 +5603,7 @@
       </c>
       <c r="E35" s="19">
         <f>E34+E19</f>
-        <v>226220008</v>
+        <v>223554739</v>
       </c>
       <c r="F35" s="19">
         <f>F34+F19</f>
@@ -5616,7 +5611,7 @@
       </c>
       <c r="G35" s="19">
         <f>G34+G19</f>
-        <v>308317576</v>
+        <v>305652307</v>
       </c>
       <c r="H35" s="19">
         <f>H34+H19</f>
@@ -5624,7 +5619,7 @@
       </c>
       <c r="I35" s="19">
         <f>I34+I19</f>
-        <v>246778358.2466</v>
+        <v>244113089.2466</v>
       </c>
       <c r="K35" s="19">
         <f>K34+K19</f>
@@ -5765,17 +5760,17 @@
         <v>52</v>
       </c>
       <c r="E40" s="9">
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10">
         <f>+E40+F40</f>
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="10">
         <f>+G40+H40</f>
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="K40" s="9">
         <v>3385113</v>
@@ -5812,17 +5807,17 @@
         <v>53</v>
       </c>
       <c r="E41" s="9">
-        <v>6939887</v>
+        <v>6939886</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10">
         <f>+E41+F41</f>
-        <v>6939887</v>
+        <v>6939886</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="10">
         <f>+G41+H41</f>
-        <v>6939887</v>
+        <v>6939886</v>
       </c>
       <c r="K41" s="9">
         <v>2484731</v>
@@ -5879,19 +5874,19 @@
         <v>55</v>
       </c>
       <c r="E43" s="9">
-        <v>25754955</v>
+        <v>29686523</v>
       </c>
       <c r="F43" s="9">
         <v>3497207</v>
       </c>
       <c r="G43" s="10">
         <f>+E43+F43</f>
-        <v>29252162</v>
+        <v>33183730</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="10">
         <f t="shared" ref="I43:I51" si="13">+G43+H43</f>
-        <v>29252162</v>
+        <v>33183730</v>
       </c>
       <c r="K43" s="9">
         <v>20932053</v>
@@ -5928,21 +5923,21 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="255">
+      <c r="E44" s="252">
         <v>673963</v>
       </c>
-      <c r="F44" s="255">
+      <c r="F44" s="252">
         <v>30134511</v>
       </c>
-      <c r="G44" s="249">
+      <c r="G44" s="246">
         <f>+E44+F44</f>
         <v>30808474</v>
       </c>
-      <c r="H44" s="249">
+      <c r="H44" s="246">
         <f>-AD!G31</f>
         <v>-29886240</v>
       </c>
-      <c r="I44" s="249">
+      <c r="I44" s="246">
         <f t="shared" si="13"/>
         <v>922234</v>
       </c>
@@ -6019,19 +6014,19 @@
         <v>57</v>
       </c>
       <c r="E46" s="9">
-        <v>12422401</v>
+        <v>11705642</v>
       </c>
       <c r="F46" s="9">
         <v>2425345</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" ref="G46:G51" si="16">+E46+F46</f>
-        <v>14847746</v>
+        <v>14130987</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="10">
         <f t="shared" si="13"/>
-        <v>14847746</v>
+        <v>14130987</v>
       </c>
       <c r="K46" s="9">
         <v>7588859</v>
@@ -6069,19 +6064,20 @@
         <v>58</v>
       </c>
       <c r="E47" s="9">
-        <v>6333057</v>
+        <f>3245760-1574195</f>
+        <v>1671565</v>
       </c>
       <c r="F47" s="9">
         <v>978621</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="16"/>
-        <v>7311678</v>
+        <v>2650186</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="10">
         <f t="shared" si="13"/>
-        <v>7311678</v>
+        <v>2650186</v>
       </c>
       <c r="K47" s="9">
         <v>3860134</v>
@@ -6115,22 +6111,22 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="E48" s="9">
-        <v>4578384</v>
+        <v>2479542</v>
       </c>
       <c r="F48" s="9">
         <v>676743</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" si="16"/>
-        <v>5255127</v>
+        <v>3156285</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10">
         <f t="shared" si="13"/>
-        <v>5255127</v>
+        <v>3156285</v>
       </c>
       <c r="K48" s="9">
         <v>7675934</v>
@@ -6173,19 +6169,19 @@
         <v>60</v>
       </c>
       <c r="E49" s="9">
-        <v>9733654</v>
+        <v>11189871</v>
       </c>
       <c r="F49" s="9">
         <v>4213472</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="16"/>
-        <v>13947126</v>
+        <v>15403343</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="10">
         <f t="shared" si="13"/>
-        <v>13947126</v>
+        <v>15403343</v>
       </c>
       <c r="K49" s="9">
         <v>7584113</v>
@@ -6307,7 +6303,7 @@
       </c>
       <c r="E52" s="19">
         <f>SUM(E39:E51)</f>
-        <v>70947124</v>
+        <v>70001383</v>
       </c>
       <c r="F52" s="19">
         <f>SUM(F39:F51)</f>
@@ -6315,7 +6311,7 @@
       </c>
       <c r="G52" s="19">
         <f>SUM(G39:G51)</f>
-        <v>114352659</v>
+        <v>113406918</v>
       </c>
       <c r="H52" s="19">
         <f>SUM(H39:H51)</f>
@@ -6323,7 +6319,7 @@
       </c>
       <c r="I52" s="19">
         <f>SUM(I39:I51)</f>
-        <v>84466419</v>
+        <v>83520678</v>
       </c>
       <c r="K52" s="19">
         <f>SUM(K39:K51)</f>
@@ -6404,17 +6400,17 @@
         <v>65</v>
       </c>
       <c r="E55" s="9">
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10">
         <f>+E55+F55</f>
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="10">
         <f>+G55+H55</f>
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="K55" s="9">
         <v>1654005</v>
@@ -6428,7 +6424,7 @@
       </c>
       <c r="N55" s="18"/>
       <c r="O55" s="10">
-        <f t="shared" ref="O55:O64" si="18">+M55+N55</f>
+        <f t="shared" ref="O55:O65" si="18">+M55+N55</f>
         <v>2563290</v>
       </c>
       <c r="Q55" s="9">
@@ -6503,7 +6499,7 @@
       <c r="S57" s="10"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>55</v>
       </c>
@@ -6514,12 +6510,12 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="10">
-        <f t="shared" ref="G58:G64" si="19">+E58+F58</f>
+        <f t="shared" ref="G58:G65" si="19">+E58+F58</f>
         <v>0</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="10">
-        <f t="shared" ref="I58:I64" si="20">+G58+H58</f>
+        <f t="shared" ref="I58:I65" si="20">+G58+H58</f>
         <v>0</v>
       </c>
       <c r="K58" s="9">
@@ -6527,7 +6523,7 @@
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="10">
-        <f t="shared" ref="M58:M64" si="21">+K58+L58</f>
+        <f t="shared" ref="M58:M65" si="21">+K58+L58</f>
         <v>0</v>
       </c>
       <c r="N58" s="18"/>
@@ -6552,21 +6548,19 @@
       <c r="B59" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="9">
-        <v>45106525</v>
-      </c>
+      <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="10">
         <f t="shared" si="19"/>
-        <v>45106525</v>
+        <v>0</v>
       </c>
       <c r="H59" s="228">
         <f>-AD!G13</f>
         <v>-26543205</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="326">
         <f t="shared" si="20"/>
-        <v>18563320</v>
+        <v>-26543205</v>
       </c>
       <c r="K59" s="9">
         <v>0</v>
@@ -6603,19 +6597,17 @@
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="9">
-        <v>1141591</v>
-      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="9">
         <v>1145395</v>
       </c>
       <c r="G60" s="10">
         <f t="shared" si="19"/>
-        <v>2286986</v>
+        <v>1145395</v>
       </c>
       <c r="I60" s="10">
         <f t="shared" si="20"/>
-        <v>2286986</v>
+        <v>1145395</v>
       </c>
       <c r="K60" s="9">
         <v>13415188</v>
@@ -6655,17 +6647,17 @@
         <v>59</v>
       </c>
       <c r="E61" s="9">
-        <v>2580000</v>
+        <v>42626983</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="10">
         <f t="shared" si="19"/>
-        <v>2580000</v>
+        <v>42626983</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="10">
         <f t="shared" si="20"/>
-        <v>2580000</v>
+        <v>42626983</v>
       </c>
       <c r="K61" s="9">
         <v>33856246</v>
@@ -6692,19 +6684,19 @@
         <v>68</v>
       </c>
       <c r="E62" s="9">
-        <v>7290869</v>
+        <v>7288330</v>
       </c>
       <c r="F62" s="9">
         <v>2041698</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="19"/>
-        <v>9332567</v>
+        <v>9330028</v>
       </c>
       <c r="H62" s="18"/>
       <c r="I62" s="10">
         <f t="shared" si="20"/>
-        <v>9332567</v>
+        <v>9330028</v>
       </c>
       <c r="K62" s="9">
         <v>8243480</v>
@@ -6737,22 +6729,22 @@
         <v>6105227</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="9">
-        <v>0</v>
+        <v>2580000</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2580000</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2580000</v>
       </c>
       <c r="K63" s="9">
         <v>2580000</v>
@@ -6780,217 +6772,219 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>61</v>
+        <v>455</v>
       </c>
       <c r="E64" s="9">
-        <v>2542451</v>
-      </c>
-      <c r="F64" s="10"/>
+        <v>4608086</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="10">
         <f t="shared" si="19"/>
-        <v>2542451</v>
-      </c>
-      <c r="H64" s="18"/>
+        <v>4608086</v>
+      </c>
+      <c r="H64" s="10"/>
       <c r="I64" s="10">
         <f t="shared" si="20"/>
+        <v>4608086</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="10"/>
+      <c r="U64" s="10"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="9">
         <v>2542451</v>
       </c>
-      <c r="K64" s="9">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10">
+        <f t="shared" si="19"/>
+        <v>2542451</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="10">
+        <f t="shared" si="20"/>
+        <v>2542451</v>
+      </c>
+      <c r="K65" s="9">
         <v>2804159</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L65" s="18">
         <v>920040</v>
       </c>
-      <c r="M64" s="10">
+      <c r="M65" s="10">
         <f t="shared" si="21"/>
         <v>3724199</v>
       </c>
-      <c r="N64" s="18"/>
-      <c r="O64" s="10">
+      <c r="N65" s="18"/>
+      <c r="O65" s="10">
         <f t="shared" si="18"/>
         <v>3724199</v>
       </c>
-      <c r="Q64" s="9">
+      <c r="Q65" s="9">
         <v>772443</v>
       </c>
-      <c r="R64" s="18"/>
-      <c r="S64" s="24">
-        <f>+Q64+R64</f>
+      <c r="R65" s="18"/>
+      <c r="S65" s="24">
+        <f>+Q65+R65</f>
         <v>772443</v>
       </c>
-      <c r="U64" s="24">
-        <f>+S64+T64</f>
+      <c r="U65" s="24">
+        <f>+S65+T65</f>
         <v>772443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="19">
-        <f>SUM(E55:E64)</f>
-        <v>66964946</v>
-      </c>
-      <c r="F65" s="19">
-        <f>SUM(F55:F64)</f>
-        <v>3187093</v>
-      </c>
-      <c r="G65" s="19">
-        <f>SUM(G55:G64)</f>
-        <v>70152039</v>
-      </c>
-      <c r="H65" s="19">
-        <f>SUM(H55:H64)</f>
-        <v>-26543205</v>
-      </c>
-      <c r="I65" s="19">
-        <f>SUM(I55:I64)</f>
-        <v>43608834</v>
-      </c>
-      <c r="K65" s="19">
-        <f>SUM(K55:K64)</f>
-        <v>62553078</v>
-      </c>
-      <c r="L65" s="19">
-        <f>SUM(L55:L64)</f>
-        <v>3577986</v>
-      </c>
-      <c r="M65" s="19">
-        <f>SUM(M55:M64)</f>
-        <v>66131064</v>
-      </c>
-      <c r="N65" s="19">
-        <f>SUM(N55:N64)</f>
-        <v>-15292925</v>
-      </c>
-      <c r="O65" s="19">
-        <f>SUM(O55:O64)</f>
-        <v>50838139</v>
-      </c>
-      <c r="Q65" s="19">
-        <f>SUM(Q55:Q64)</f>
-        <v>63510988</v>
-      </c>
-      <c r="R65" s="19">
-        <f>SUM(R55:R64)</f>
-        <v>2319181</v>
-      </c>
-      <c r="S65" s="19">
-        <f>+Q65+R65</f>
-        <v>65830169</v>
-      </c>
-      <c r="T65" s="19">
-        <f>SUM(T55:T64)</f>
-        <v>-2251425</v>
-      </c>
-      <c r="U65" s="19">
-        <f>SUM(U55:U64)</f>
-        <v>63578744</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E66" s="19">
-        <f>E52+E65</f>
-        <v>137912070</v>
+        <f>SUM(E55:E65)</f>
+        <v>69035432</v>
       </c>
       <c r="F66" s="19">
-        <f>F52+F65</f>
-        <v>46592628</v>
+        <f>SUM(F55:F65)</f>
+        <v>3187093</v>
       </c>
       <c r="G66" s="19">
-        <f>G52+G65</f>
-        <v>184504698</v>
+        <f>SUM(G55:G65)</f>
+        <v>72222525</v>
       </c>
       <c r="H66" s="19">
-        <f>H52+H65</f>
-        <v>-56429445</v>
+        <f>SUM(H55:H65)</f>
+        <v>-26543205</v>
       </c>
       <c r="I66" s="19">
-        <f>I52+I65</f>
-        <v>128075253</v>
+        <f>SUM(I55:I65)</f>
+        <v>45679320</v>
       </c>
       <c r="K66" s="19">
-        <f>K52+K65</f>
-        <v>122704368</v>
+        <f>SUM(K55:K65)</f>
+        <v>62553078</v>
       </c>
       <c r="L66" s="19">
-        <f>L52+L65</f>
-        <v>24566319</v>
+        <f>SUM(L55:L65)</f>
+        <v>3577986</v>
       </c>
       <c r="M66" s="19">
-        <f>M52+M65</f>
-        <v>147270687</v>
+        <f>SUM(M55:M65)</f>
+        <v>66131064</v>
       </c>
       <c r="N66" s="19">
-        <f>N52+N65</f>
-        <v>-34595134</v>
+        <f>SUM(N55:N65)</f>
+        <v>-15292925</v>
       </c>
       <c r="O66" s="19">
-        <f>O52+O65</f>
-        <v>112675553</v>
+        <f>SUM(O55:O65)</f>
+        <v>50838139</v>
       </c>
       <c r="Q66" s="19">
-        <f>Q52+Q65</f>
-        <v>126573375</v>
+        <f>SUM(Q55:Q65)</f>
+        <v>63510988</v>
       </c>
       <c r="R66" s="19">
-        <f>R52+R65</f>
-        <v>11914233</v>
+        <f>SUM(R55:R65)</f>
+        <v>2319181</v>
       </c>
       <c r="S66" s="19">
         <f>+Q66+R66</f>
+        <v>65830169</v>
+      </c>
+      <c r="T66" s="19">
+        <f>SUM(T55:T65)</f>
+        <v>-2251425</v>
+      </c>
+      <c r="U66" s="19">
+        <f>SUM(U55:U65)</f>
+        <v>63578744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="19">
+        <f>E52+E66</f>
+        <v>139036815</v>
+      </c>
+      <c r="F67" s="19">
+        <f>F52+F66</f>
+        <v>46592628</v>
+      </c>
+      <c r="G67" s="19">
+        <f>G52+G66</f>
+        <v>185629443</v>
+      </c>
+      <c r="H67" s="19">
+        <f>H52+H66</f>
+        <v>-56429445</v>
+      </c>
+      <c r="I67" s="19">
+        <f>I52+I66</f>
+        <v>129199998</v>
+      </c>
+      <c r="K67" s="19">
+        <f>K52+K66</f>
+        <v>122704368</v>
+      </c>
+      <c r="L67" s="19">
+        <f>L52+L66</f>
+        <v>24566319</v>
+      </c>
+      <c r="M67" s="19">
+        <f>M52+M66</f>
+        <v>147270687</v>
+      </c>
+      <c r="N67" s="19">
+        <f>N52+N66</f>
+        <v>-34595134</v>
+      </c>
+      <c r="O67" s="19">
+        <f>O52+O66</f>
+        <v>112675553</v>
+      </c>
+      <c r="Q67" s="19">
+        <f>Q52+Q66</f>
+        <v>126573375</v>
+      </c>
+      <c r="R67" s="19">
+        <f>R52+R66</f>
+        <v>11914233</v>
+      </c>
+      <c r="S67" s="19">
+        <f>+Q67+R67</f>
         <v>138487608</v>
       </c>
-      <c r="T66" s="19" t="e">
-        <f>+T65+T52</f>
+      <c r="T67" s="19" t="e">
+        <f>+T66+T52</f>
         <v>#REF!</v>
       </c>
-      <c r="U66" s="19" t="e">
-        <f>+U65+U52</f>
+      <c r="U67" s="19" t="e">
+        <f>+U66+U52</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-    </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
-      <c r="J68" s="8"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
-      <c r="P68" s="8"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
@@ -6998,462 +6992,487 @@
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="A69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="9">
-        <v>21629181</v>
-      </c>
-      <c r="F69" s="9">
-        <v>18564158</v>
-      </c>
-      <c r="G69" s="10">
-        <f>+E69+F69</f>
-        <v>40193339</v>
-      </c>
-      <c r="H69" s="254"/>
-      <c r="I69" s="10">
-        <f>+G69+H69</f>
-        <v>40193339</v>
-      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="9">
-        <v>37143362</v>
-      </c>
-      <c r="L69" s="9">
-        <v>13159302</v>
-      </c>
-      <c r="M69" s="10">
-        <f>+K69+L69</f>
-        <v>50302664</v>
-      </c>
-      <c r="N69" s="254"/>
-      <c r="O69" s="10">
-        <f>+M69+N69</f>
-        <v>50302664</v>
-      </c>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
       <c r="P69" s="8"/>
-      <c r="Q69" s="9">
-        <f>+PAT!F19</f>
-        <v>30006697</v>
-      </c>
-      <c r="R69" s="9">
-        <f>+PAT!G19</f>
-        <v>11015563</v>
-      </c>
-      <c r="S69" s="10">
-        <f t="shared" ref="S69:S74" si="22">+Q69+R69</f>
-        <v>41022260</v>
-      </c>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
       <c r="T69" s="10"/>
-      <c r="U69" s="10">
-        <f>+S69+T69</f>
-        <v>41022260</v>
-      </c>
+      <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="32"/>
       <c r="E70" s="9">
-        <v>920</v>
+        <v>21629181</v>
       </c>
       <c r="F70" s="9">
-        <v>0</v>
+        <v>18564158</v>
       </c>
       <c r="G70" s="10">
         <f>+E70+F70</f>
-        <v>920</v>
-      </c>
-      <c r="H70" s="254"/>
+        <v>40193339</v>
+      </c>
+      <c r="H70" s="251"/>
       <c r="I70" s="10">
         <f>+G70+H70</f>
-        <v>920</v>
+        <v>40193339</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="9">
-        <v>6115920</v>
-      </c>
-      <c r="L70" s="9"/>
+        <v>37143362</v>
+      </c>
+      <c r="L70" s="9">
+        <v>13159302</v>
+      </c>
       <c r="M70" s="10">
         <f>+K70+L70</f>
-        <v>6115920</v>
-      </c>
-      <c r="N70" s="254"/>
+        <v>50302664</v>
+      </c>
+      <c r="N70" s="251"/>
       <c r="O70" s="10">
         <f>+M70+N70</f>
-        <v>6115920</v>
+        <v>50302664</v>
       </c>
       <c r="P70" s="8"/>
       <c r="Q70" s="9">
-        <f>+PAT!F38</f>
-        <v>920</v>
+        <f>+PAT!F19</f>
+        <v>30006697</v>
       </c>
       <c r="R70" s="9">
-        <f>+PAT!G38</f>
-        <v>0</v>
+        <f>+PAT!G19</f>
+        <v>11015563</v>
       </c>
       <c r="S70" s="10">
-        <f t="shared" si="22"/>
-        <v>920</v>
+        <f t="shared" ref="S70:S75" si="22">+Q70+R70</f>
+        <v>41022260</v>
       </c>
       <c r="T70" s="10"/>
       <c r="U70" s="10">
         <f>+S70+T70</f>
-        <v>920</v>
+        <v>41022260</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="32"/>
       <c r="E71" s="9">
-        <v>6170159</v>
+        <v>920</v>
       </c>
       <c r="F71" s="9">
-        <f>2635685+14436</f>
-        <v>2650121</v>
+        <v>0</v>
       </c>
       <c r="G71" s="10">
         <f>+E71+F71</f>
-        <v>8820280</v>
-      </c>
-      <c r="H71" s="255"/>
+        <v>920</v>
+      </c>
+      <c r="H71" s="251"/>
       <c r="I71" s="10">
         <f>+G71+H71</f>
-        <v>8820280</v>
+        <v>920</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="9">
-        <v>6170159</v>
-      </c>
-      <c r="L71" s="9">
-        <v>2026031</v>
-      </c>
+        <v>6115920</v>
+      </c>
+      <c r="L71" s="9"/>
       <c r="M71" s="10">
         <f>+K71+L71</f>
-        <v>8196190</v>
-      </c>
-      <c r="N71" s="255"/>
+        <v>6115920</v>
+      </c>
+      <c r="N71" s="251"/>
       <c r="O71" s="10">
         <f>+M71+N71</f>
-        <v>8196190</v>
+        <v>6115920</v>
       </c>
       <c r="P71" s="8"/>
       <c r="Q71" s="9">
-        <f>+PAT!F56+PAT!F68</f>
-        <v>4697751</v>
+        <f>+PAT!F38</f>
+        <v>920</v>
       </c>
       <c r="R71" s="9">
-        <f>+PAT!G56+PAT!G68+PAT!G78-1</f>
-        <v>1651249</v>
+        <f>+PAT!G38</f>
+        <v>0</v>
       </c>
       <c r="S71" s="10">
         <f t="shared" si="22"/>
-        <v>6349000</v>
+        <v>920</v>
       </c>
       <c r="T71" s="10"/>
       <c r="U71" s="10">
         <f>+S71+T71</f>
-        <v>6349000</v>
+        <v>920</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="32"/>
-      <c r="E72" s="33">
-        <v>60507678</v>
-      </c>
-      <c r="F72" s="33">
-        <f>35504940-F69-F71</f>
-        <v>14290661</v>
+      <c r="E72" s="9">
+        <v>6170159</v>
+      </c>
+      <c r="F72" s="9">
+        <f>2635685+14436</f>
+        <v>2650121</v>
       </c>
       <c r="G72" s="10">
         <f>+E72+F72</f>
-        <v>74798339</v>
-      </c>
-      <c r="H72" s="255">
+        <v>8820280</v>
+      </c>
+      <c r="H72" s="252"/>
+      <c r="I72" s="10">
+        <f>+G72+H72</f>
+        <v>8820280</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="9">
+        <v>6170159</v>
+      </c>
+      <c r="L72" s="9">
+        <v>2026031</v>
+      </c>
+      <c r="M72" s="10">
+        <f>+K72+L72</f>
+        <v>8196190</v>
+      </c>
+      <c r="N72" s="252"/>
+      <c r="O72" s="10">
+        <f>+M72+N72</f>
+        <v>8196190</v>
+      </c>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="9">
+        <f>+PAT!F56+PAT!F68</f>
+        <v>4697751</v>
+      </c>
+      <c r="R72" s="9">
+        <f>+PAT!G56+PAT!G68+PAT!G78-1</f>
+        <v>1651249</v>
+      </c>
+      <c r="S72" s="10">
+        <f t="shared" si="22"/>
+        <v>6349000</v>
+      </c>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10">
+        <f>+S72+T72</f>
+        <v>6349000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33">
+        <v>56717664</v>
+      </c>
+      <c r="F73" s="33">
+        <f>35504940-F70-F72</f>
+        <v>14290661</v>
+      </c>
+      <c r="G73" s="10">
+        <f>+E73+F73</f>
+        <v>71008325</v>
+      </c>
+      <c r="H73" s="252">
         <f>+PAT!I155</f>
         <v>-5109772.7534000017</v>
       </c>
-      <c r="I72" s="10">
-        <f>+G72+H72</f>
-        <v>69688566.246600002</v>
-      </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="33">
+      <c r="I73" s="10">
+        <f>+G73+H73</f>
+        <v>65898552.246600002</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="33">
         <v>38836240.450000003</v>
       </c>
-      <c r="L72" s="33">
+      <c r="L73" s="33">
         <v>5815726</v>
       </c>
-      <c r="M72" s="10">
-        <f>+K72+L72</f>
+      <c r="M73" s="10">
+        <f>+K73+L73</f>
         <v>44651966.450000003</v>
       </c>
-      <c r="N72" s="255">
+      <c r="N73" s="252">
         <v>-9763133</v>
       </c>
-      <c r="O72" s="10">
-        <f>+M72+N72-1</f>
+      <c r="O73" s="10">
+        <f>+M73+N73-1</f>
         <v>34888832.450000003</v>
       </c>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="9">
+      <c r="P73" s="8"/>
+      <c r="Q73" s="9">
         <f>+PAT!F78+PAT!F87+PAT!F101+PAT!F136</f>
         <v>36135934</v>
       </c>
-      <c r="R72" s="9">
+      <c r="R73" s="9">
         <f>+PAT!G87+PAT!G136+PAT!G101</f>
         <v>1584690</v>
       </c>
-      <c r="S72" s="10">
+      <c r="S73" s="10">
         <f t="shared" si="22"/>
         <v>37720624</v>
       </c>
-      <c r="T72" s="10">
+      <c r="T73" s="10">
         <f>+PAT!I136</f>
         <v>-14609377.588252001</v>
       </c>
-      <c r="U72" s="10">
-        <f>+S72+T72</f>
+      <c r="U73" s="10">
+        <f>+S73+T73</f>
         <v>23111246.411747999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="19">
-        <f>SUM(E69:E72)</f>
-        <v>88307938</v>
-      </c>
-      <c r="F73" s="19">
-        <f>SUM(F69:F72)</f>
-        <v>35504940</v>
-      </c>
-      <c r="G73" s="19">
-        <f>SUM(G69:G72)</f>
-        <v>123812878</v>
-      </c>
-      <c r="H73" s="19">
-        <f>SUM(H69:H72)</f>
-        <v>-5109772.7534000017</v>
-      </c>
-      <c r="I73" s="19">
-        <f>SUM(I69:I72)</f>
-        <v>118703105.2466</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="19">
-        <f>SUM(K69:K72)</f>
-        <v>88265681.450000003</v>
-      </c>
-      <c r="L73" s="19">
-        <f>SUM(L69:L72)</f>
-        <v>21001059</v>
-      </c>
-      <c r="M73" s="19">
-        <f>SUM(M69:M72)</f>
-        <v>109266740.45</v>
-      </c>
-      <c r="N73" s="19">
-        <f>SUM(N69:N72)</f>
-        <v>-9763133</v>
-      </c>
-      <c r="O73" s="19">
-        <f>SUM(O69:O72)</f>
-        <v>99503606.450000003</v>
-      </c>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="19">
-        <f>SUM(Q69:Q72)</f>
-        <v>70841302</v>
-      </c>
-      <c r="R73" s="19">
-        <f>SUM(R69:R72)</f>
-        <v>14251502</v>
-      </c>
-      <c r="S73" s="19">
-        <f t="shared" si="22"/>
-        <v>85092804</v>
-      </c>
-      <c r="T73" s="19">
-        <f>SUM(T69:T72)</f>
-        <v>-14609377.588252001</v>
-      </c>
-      <c r="U73" s="19">
-        <f>SUM(U69:U72)</f>
-        <v>70483426.411747992</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="24">
-        <f>+E73+E66</f>
-        <v>226220008</v>
-      </c>
-      <c r="F74" s="24">
-        <f>+F73+F66</f>
+      <c r="E74" s="19">
+        <f>SUM(E70:E73)</f>
+        <v>84517924</v>
+      </c>
+      <c r="F74" s="19">
+        <f>SUM(F70:F73)</f>
+        <v>35504940</v>
+      </c>
+      <c r="G74" s="19">
+        <f>SUM(G70:G73)</f>
+        <v>120022864</v>
+      </c>
+      <c r="H74" s="19">
+        <f>SUM(H70:H73)</f>
+        <v>-5109772.7534000017</v>
+      </c>
+      <c r="I74" s="19">
+        <f>SUM(I70:I73)</f>
+        <v>114913091.2466</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="19">
+        <f>SUM(K70:K73)</f>
+        <v>88265681.450000003</v>
+      </c>
+      <c r="L74" s="19">
+        <f>SUM(L70:L73)</f>
+        <v>21001059</v>
+      </c>
+      <c r="M74" s="19">
+        <f>SUM(M70:M73)</f>
+        <v>109266740.45</v>
+      </c>
+      <c r="N74" s="19">
+        <f>SUM(N70:N73)</f>
+        <v>-9763133</v>
+      </c>
+      <c r="O74" s="19">
+        <f>SUM(O70:O73)</f>
+        <v>99503606.450000003</v>
+      </c>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="19">
+        <f>SUM(Q70:Q73)</f>
+        <v>70841302</v>
+      </c>
+      <c r="R74" s="19">
+        <f>SUM(R70:R73)</f>
+        <v>14251502</v>
+      </c>
+      <c r="S74" s="19">
+        <f t="shared" si="22"/>
+        <v>85092804</v>
+      </c>
+      <c r="T74" s="19">
+        <f>SUM(T70:T73)</f>
+        <v>-14609377.588252001</v>
+      </c>
+      <c r="U74" s="19">
+        <f>SUM(U70:U73)</f>
+        <v>70483426.411747992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="24">
+        <f>+E74+E67</f>
+        <v>223554739</v>
+      </c>
+      <c r="F75" s="24">
+        <f>+F74+F67</f>
         <v>82097568</v>
       </c>
-      <c r="G74" s="24">
-        <f>+G73+G66</f>
-        <v>308317576</v>
-      </c>
-      <c r="H74" s="24">
-        <f>+H73+H66</f>
+      <c r="G75" s="24">
+        <f>+G74+G67</f>
+        <v>305652307</v>
+      </c>
+      <c r="H75" s="24">
+        <f>+H74+H67</f>
         <v>-61539217.753399998</v>
       </c>
-      <c r="I74" s="24">
-        <f>+I73+I66</f>
-        <v>246778358.2466</v>
-      </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="24">
-        <f>+K73+K66</f>
+      <c r="I75" s="24">
+        <f>+I74+I67</f>
+        <v>244113089.2466</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="24">
+        <f>+K74+K67</f>
         <v>210970049.44999999</v>
       </c>
-      <c r="L74" s="24">
-        <f>+L73+L66</f>
+      <c r="L75" s="24">
+        <f>+L74+L67</f>
         <v>45567378</v>
       </c>
-      <c r="M74" s="24">
-        <f>+M73+M66</f>
+      <c r="M75" s="24">
+        <f>+M74+M67</f>
         <v>256537427.44999999</v>
       </c>
-      <c r="N74" s="24">
-        <f>+N73+N66</f>
+      <c r="N75" s="24">
+        <f>+N74+N67</f>
         <v>-44358267</v>
       </c>
-      <c r="O74" s="24">
-        <f>+O73+O66</f>
+      <c r="O75" s="24">
+        <f>+O74+O67</f>
         <v>212179159.44999999</v>
       </c>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="24">
-        <f>+Q73+Q66</f>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="24">
+        <f>+Q74+Q67</f>
         <v>197414677</v>
       </c>
-      <c r="R74" s="24">
-        <f>+R73+R66</f>
+      <c r="R75" s="24">
+        <f>+R74+R67</f>
         <v>26165735</v>
       </c>
-      <c r="S74" s="24">
+      <c r="S75" s="24">
         <f t="shared" si="22"/>
         <v>223580412</v>
       </c>
-      <c r="T74" s="24" t="e">
-        <f>+T66+T73</f>
+      <c r="T75" s="24" t="e">
+        <f>+T67+T74</f>
         <v>#REF!</v>
       </c>
-      <c r="U74" s="24" t="e">
-        <f>+U73+U66</f>
+      <c r="U75" s="24" t="e">
+        <f>+U74+U67</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E75" s="35">
-        <f>+E74-E35</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="35">
-        <f>+F74-F35</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="35">
-        <f>+G74-G35</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="35">
-        <f>+H74-H35</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="260">
-        <f>+I74-I35</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="35">
-        <f>+K74-K35</f>
+    <row r="76" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E76" s="35">
+        <f>+E75-E35</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="35">
+        <f>+F75-F35</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="35">
+        <f>+G75-G35</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="35">
+        <f>+H75-H35</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="257">
+        <f>+I75-I35</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="35">
+        <f>+K75-K35</f>
         <v>0.44999998807907104</v>
       </c>
-      <c r="L75" s="35">
-        <f>+L74-L35</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="35">
-        <f>+M74-M35</f>
+      <c r="L76" s="35">
+        <f>+L75-L35</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="35">
+        <f>+M75-M35</f>
         <v>0.44999998807907104</v>
       </c>
-      <c r="N75" s="35">
-        <f>+N74-N35</f>
+      <c r="N76" s="35">
+        <f>+N75-N35</f>
         <v>1</v>
       </c>
-      <c r="O75" s="35">
-        <f>+O74-O35</f>
+      <c r="O76" s="35">
+        <f>+O75-O35</f>
         <v>0.44999998807907104</v>
       </c>
-      <c r="Q75" s="35">
-        <f>+Q74-Q35</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="35">
-        <f>+R74-R35</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="35">
-        <f>+S74-S35</f>
-        <v>0</v>
-      </c>
-      <c r="T75" s="35" t="e">
-        <f>+T74-T35</f>
+      <c r="Q76" s="35">
+        <f>+Q75-Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="35">
+        <f>+R75-R35</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="35">
+        <f>+S75-S35</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="35" t="e">
+        <f>+T75-T35</f>
         <v>#REF!</v>
       </c>
-      <c r="U75" s="35" t="e">
-        <f>+U74-U35</f>
+      <c r="U76" s="35" t="e">
+        <f>+U75-U35</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N76" s="32"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N77" s="32"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K79" s="7" t="s">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N78" s="32"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K80" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8940,11 +8959,11 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="301" t="s">
+      <c r="A39" s="304" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
+      <c r="B39" s="304"/>
+      <c r="C39" s="304"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10">
         <v>139500</v>
@@ -9069,22 +9088,22 @@
       <c r="U41" s="44"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="256" t="s">
+      <c r="B42" s="253" t="s">
         <v>435</v>
       </c>
-      <c r="D42" s="257">
+      <c r="D42" s="254">
         <f>-D35/(D32+D34)</f>
         <v>0.29132471772294244</v>
       </c>
-      <c r="E42" s="257">
+      <c r="E42" s="254">
         <f t="shared" ref="E42:H42" si="6">-E35/(E32+E34)</f>
         <v>0.26157146529755676</v>
       </c>
-      <c r="F42" s="257">
+      <c r="F42" s="254">
         <f t="shared" si="6"/>
         <v>0.27876356599614482</v>
       </c>
-      <c r="H42" s="257">
+      <c r="H42" s="254">
         <f t="shared" si="6"/>
         <v>0.23222495336884072</v>
       </c>
@@ -9146,7 +9165,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="AC49" sqref="AC49"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -9155,14 +9174,14 @@
     <col min="2" max="2" width="1.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.140625" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="13.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" style="263" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.140625" style="263" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="1.85546875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.140625" style="266" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.42578125" style="263" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.140625" style="263" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="13.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -9173,45 +9192,45 @@
     <col min="20" max="20" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="2.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="266" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="266" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="263" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="263" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="12.140625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="262" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="264" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="266"/>
+      <c r="R2" s="263"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="268"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="268"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="265"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="W3" s="268"/>
-      <c r="X3" s="268"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
@@ -9220,275 +9239,275 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="270" t="s">
+      <c r="H4" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="270">
+      <c r="I4" s="267">
         <v>2020</v>
       </c>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="270" t="s">
+      <c r="N4" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="270">
+      <c r="O4" s="267">
         <v>2019</v>
       </c>
-      <c r="Q4" s="269"/>
-      <c r="R4" s="269"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="270" t="s">
+      <c r="T4" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="270">
+      <c r="U4" s="267">
         <v>2018</v>
       </c>
-      <c r="W4" s="269"/>
-      <c r="X4" s="269"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="270" t="s">
+      <c r="Z4" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="270">
+      <c r="AA4" s="267">
         <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E5" s="271" t="s">
+      <c r="E5" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="271" t="s">
+      <c r="F5" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="272" t="s">
+      <c r="G5" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="273" t="s">
+      <c r="H5" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="I5" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="271" t="s">
+      <c r="K5" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="271" t="s">
+      <c r="L5" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="272" t="s">
+      <c r="M5" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="273" t="s">
+      <c r="N5" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="272" t="s">
+      <c r="O5" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="271" t="s">
+      <c r="Q5" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="271" t="s">
+      <c r="R5" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="272" t="s">
+      <c r="S5" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="273" t="s">
+      <c r="T5" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="272" t="s">
+      <c r="U5" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="271" t="s">
+      <c r="W5" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="271" t="s">
+      <c r="X5" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="272" t="s">
+      <c r="Y5" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="273" t="s">
+      <c r="Z5" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="272" t="s">
+      <c r="AA5" s="269" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
+      <c r="K6" s="266"/>
+      <c r="L6" s="266"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="Q6" s="269"/>
-      <c r="R6" s="269"/>
+      <c r="Q6" s="266"/>
+      <c r="R6" s="266"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
+      <c r="W6" s="266"/>
+      <c r="X6" s="266"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="274" t="s">
+      <c r="B7" s="271" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="266"/>
       <c r="J7" s="52"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="269"/>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
+      <c r="K7" s="266"/>
+      <c r="L7" s="266"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="266"/>
+      <c r="O7" s="266"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="266"/>
+      <c r="S7" s="266"/>
+      <c r="T7" s="266"/>
+      <c r="U7" s="266"/>
       <c r="V7" s="52"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
+      <c r="W7" s="266"/>
+      <c r="X7" s="266"/>
+      <c r="Y7" s="266"/>
+      <c r="Z7" s="266"/>
+      <c r="AA7" s="266"/>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="275" t="s">
+      <c r="B8" s="272" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="52"/>
-      <c r="E8" s="269">
+      <c r="E8" s="266">
         <f>+ER!D32+ER!D34</f>
         <v>27023893</v>
       </c>
-      <c r="F8" s="269">
+      <c r="F8" s="266">
         <f>+ER!E32+ER!E34</f>
         <v>19744604</v>
       </c>
-      <c r="G8" s="269">
+      <c r="G8" s="266">
         <f>+E8+F8</f>
         <v>46768497</v>
       </c>
-      <c r="H8" s="269">
+      <c r="H8" s="266">
         <f>+ER!G32+ER!G34</f>
         <v>3225971</v>
       </c>
-      <c r="I8" s="294">
+      <c r="I8" s="291">
         <f t="shared" ref="I8:I22" si="0">+G8+H8</f>
         <v>49994468</v>
       </c>
       <c r="J8" s="52"/>
-      <c r="K8" s="269">
+      <c r="K8" s="266">
         <v>21433650</v>
       </c>
-      <c r="L8" s="269">
+      <c r="L8" s="266">
         <v>9577830</v>
       </c>
-      <c r="M8" s="269">
+      <c r="M8" s="266">
         <v>31011480</v>
       </c>
-      <c r="N8" s="269">
+      <c r="N8" s="266">
         <v>2120374</v>
       </c>
-      <c r="O8" s="269">
+      <c r="O8" s="266">
         <v>33131854</v>
       </c>
-      <c r="Q8" s="269">
+      <c r="Q8" s="266">
         <f>[1]ER!J32</f>
         <v>13627931.449999988</v>
       </c>
-      <c r="R8" s="269">
+      <c r="R8" s="266">
         <v>5215409</v>
       </c>
-      <c r="S8" s="269">
+      <c r="S8" s="266">
         <f>+Q8+R8</f>
         <v>18843340.449999988</v>
       </c>
-      <c r="T8" s="269">
+      <c r="T8" s="266">
         <f>+[1]ER!M32</f>
         <v>3639537</v>
       </c>
-      <c r="U8" s="269">
+      <c r="U8" s="266">
         <f>+S8+T8</f>
         <v>22482877.449999988</v>
       </c>
       <c r="V8" s="52"/>
-      <c r="W8" s="269">
+      <c r="W8" s="266">
         <f>10608696-1591304</f>
         <v>9017392</v>
       </c>
-      <c r="X8" s="269">
+      <c r="X8" s="266">
         <v>3270021</v>
       </c>
-      <c r="Y8" s="269">
+      <c r="Y8" s="266">
         <f>+W8+X8</f>
         <v>12287413</v>
       </c>
-      <c r="Z8" s="269">
+      <c r="Z8" s="266">
         <f>+[1]ER!S32</f>
         <v>1245089</v>
       </c>
-      <c r="AA8" s="269">
+      <c r="AA8" s="266">
         <f>+Y8+Z8</f>
         <v>13532502</v>
       </c>
-      <c r="AC8" s="288">
+      <c r="AC8" s="285">
         <f>+I8-'Hoja de trabajo'!K47</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="28.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="302" t="s">
+      <c r="B9" s="305" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="303"/>
-      <c r="D9" s="304"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269">
+      <c r="C9" s="306"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266">
         <f t="shared" ref="G9:G22" si="1">+E9+F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269">
+      <c r="H9" s="266"/>
+      <c r="I9" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="297"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="269"/>
-      <c r="O9" s="269"/>
-      <c r="Q9" s="269"/>
-      <c r="R9" s="269"/>
-      <c r="S9" s="269"/>
-      <c r="T9" s="269"/>
-      <c r="U9" s="269"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
+      <c r="O9" s="266"/>
+      <c r="Q9" s="266"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
       <c r="V9" s="55"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
@@ -9496,63 +9515,63 @@
         <v>114</v>
       </c>
       <c r="D10" s="52"/>
-      <c r="E10" s="269">
+      <c r="E10" s="266">
         <v>177231</v>
       </c>
-      <c r="F10" s="269">
+      <c r="F10" s="266">
         <v>519980</v>
       </c>
-      <c r="G10" s="269">
+      <c r="G10" s="266">
         <f t="shared" si="1"/>
         <v>697211</v>
       </c>
-      <c r="H10" s="269"/>
-      <c r="I10" s="282">
+      <c r="H10" s="266"/>
+      <c r="I10" s="279">
         <f t="shared" si="0"/>
         <v>697211</v>
       </c>
       <c r="J10" s="52"/>
-      <c r="K10" s="269">
+      <c r="K10" s="266">
         <v>49054</v>
       </c>
-      <c r="L10" s="269">
+      <c r="L10" s="266">
         <v>251248</v>
       </c>
-      <c r="M10" s="269">
+      <c r="M10" s="266">
         <v>300302</v>
       </c>
-      <c r="N10" s="269"/>
-      <c r="O10" s="269">
+      <c r="N10" s="266"/>
+      <c r="O10" s="266">
         <v>300302</v>
       </c>
-      <c r="Q10" s="269">
+      <c r="Q10" s="266">
         <v>23826</v>
       </c>
-      <c r="R10" s="269">
+      <c r="R10" s="266">
         <v>511226</v>
       </c>
-      <c r="S10" s="269">
+      <c r="S10" s="266">
         <f t="shared" ref="S10:S22" si="2">+Q10+R10</f>
         <v>535052</v>
       </c>
-      <c r="T10" s="269"/>
-      <c r="U10" s="269">
+      <c r="T10" s="266"/>
+      <c r="U10" s="266">
         <f t="shared" ref="U10:U22" si="3">+S10+T10</f>
         <v>535052</v>
       </c>
       <c r="V10" s="52"/>
-      <c r="W10" s="269">
+      <c r="W10" s="266">
         <v>200000</v>
       </c>
-      <c r="X10" s="269">
+      <c r="X10" s="266">
         <v>281795</v>
       </c>
-      <c r="Y10" s="269">
+      <c r="Y10" s="266">
         <f t="shared" ref="Y10:Y21" si="4">+W10+X10</f>
         <v>481795</v>
       </c>
-      <c r="Z10" s="269"/>
-      <c r="AA10" s="269">
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266">
         <f t="shared" ref="AA10:AA21" si="5">+Y10+Z10</f>
         <v>481795</v>
       </c>
@@ -9563,53 +9582,53 @@
         <v>115</v>
       </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="269">
-        <v>0</v>
-      </c>
-      <c r="F11" s="269"/>
-      <c r="G11" s="269">
+      <c r="E11" s="266">
+        <v>0</v>
+      </c>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="269"/>
-      <c r="I11" s="269">
+      <c r="H11" s="266"/>
+      <c r="I11" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="269"/>
-      <c r="M11" s="269">
-        <v>0</v>
-      </c>
-      <c r="N11" s="269"/>
-      <c r="O11" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="269">
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266">
+        <v>0</v>
+      </c>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="266">
         <v>2607519</v>
       </c>
-      <c r="R11" s="269"/>
-      <c r="S11" s="269">
+      <c r="R11" s="266"/>
+      <c r="S11" s="266">
         <f t="shared" si="2"/>
         <v>2607519</v>
       </c>
-      <c r="T11" s="269"/>
-      <c r="U11" s="269">
+      <c r="T11" s="266"/>
+      <c r="U11" s="266">
         <f t="shared" si="3"/>
         <v>2607519</v>
       </c>
       <c r="V11" s="52"/>
-      <c r="W11" s="269">
+      <c r="W11" s="266">
         <v>2268000</v>
       </c>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269">
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266">
         <f t="shared" si="4"/>
         <v>2268000</v>
       </c>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269">
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266">
         <f t="shared" si="5"/>
         <v>2268000</v>
       </c>
@@ -9620,72 +9639,72 @@
         <v>116</v>
       </c>
       <c r="D12" s="52"/>
-      <c r="E12" s="269">
+      <c r="E12" s="266">
         <v>17423605</v>
       </c>
-      <c r="F12" s="269">
+      <c r="F12" s="266">
         <v>9966219</v>
       </c>
-      <c r="G12" s="269">
+      <c r="G12" s="266">
         <f t="shared" si="1"/>
         <v>27389824</v>
       </c>
-      <c r="H12" s="269">
+      <c r="H12" s="266">
         <f>-AD!H38</f>
         <v>-9828510</v>
       </c>
-      <c r="I12" s="269">
+      <c r="I12" s="266">
         <f t="shared" si="0"/>
         <v>17561314</v>
       </c>
       <c r="J12" s="52"/>
-      <c r="K12" s="269">
+      <c r="K12" s="266">
         <v>18732617</v>
       </c>
-      <c r="L12" s="269">
+      <c r="L12" s="266">
         <v>9736239</v>
       </c>
-      <c r="M12" s="269">
+      <c r="M12" s="266">
         <v>28468856</v>
       </c>
-      <c r="N12" s="269"/>
-      <c r="O12" s="269">
+      <c r="N12" s="266"/>
+      <c r="O12" s="266">
         <v>28468856</v>
       </c>
-      <c r="Q12" s="269">
+      <c r="Q12" s="266">
         <v>19329207</v>
       </c>
-      <c r="R12" s="269">
+      <c r="R12" s="266">
         <v>9817785</v>
       </c>
-      <c r="S12" s="269">
+      <c r="S12" s="266">
         <f t="shared" si="2"/>
         <v>29146992</v>
       </c>
-      <c r="T12" s="269">
+      <c r="T12" s="266">
         <f>-[1]AD!J41</f>
         <v>-9726442</v>
       </c>
-      <c r="U12" s="269">
+      <c r="U12" s="266">
         <f t="shared" si="3"/>
         <v>19420550</v>
       </c>
       <c r="V12" s="52"/>
-      <c r="W12" s="269">
+      <c r="W12" s="266">
         <v>17346688</v>
       </c>
-      <c r="X12" s="269">
+      <c r="X12" s="266">
         <v>8496450</v>
       </c>
-      <c r="Y12" s="269">
+      <c r="Y12" s="266">
         <f t="shared" si="4"/>
         <v>25843138</v>
       </c>
-      <c r="Z12" s="269">
+      <c r="Z12" s="266">
         <f>-[1]AD!L41</f>
         <v>-8402210</v>
       </c>
-      <c r="AA12" s="269">
+      <c r="AA12" s="266">
         <f t="shared" si="5"/>
         <v>17440928</v>
       </c>
@@ -9696,116 +9715,116 @@
         <v>117</v>
       </c>
       <c r="D13" s="52"/>
-      <c r="E13" s="269">
+      <c r="E13" s="266">
         <v>39210</v>
       </c>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269">
+      <c r="F13" s="266"/>
+      <c r="G13" s="266">
         <f t="shared" si="1"/>
         <v>39210</v>
       </c>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269">
+      <c r="H13" s="266"/>
+      <c r="I13" s="266">
         <f t="shared" si="0"/>
         <v>39210</v>
       </c>
       <c r="J13" s="52"/>
-      <c r="K13" s="269">
+      <c r="K13" s="266">
         <v>39210</v>
       </c>
-      <c r="L13" s="269"/>
-      <c r="M13" s="269">
+      <c r="L13" s="266"/>
+      <c r="M13" s="266">
         <v>39210</v>
       </c>
-      <c r="N13" s="269"/>
-      <c r="O13" s="269">
+      <c r="N13" s="266"/>
+      <c r="O13" s="266">
         <v>39210</v>
       </c>
-      <c r="Q13" s="269">
+      <c r="Q13" s="266">
         <v>37744</v>
       </c>
-      <c r="R13" s="269"/>
-      <c r="S13" s="269">
+      <c r="R13" s="266"/>
+      <c r="S13" s="266">
         <f t="shared" si="2"/>
         <v>37744</v>
       </c>
-      <c r="T13" s="269"/>
-      <c r="U13" s="269">
+      <c r="T13" s="266"/>
+      <c r="U13" s="266">
         <f t="shared" si="3"/>
         <v>37744</v>
       </c>
       <c r="V13" s="52"/>
-      <c r="W13" s="269">
+      <c r="W13" s="266">
         <v>39210</v>
       </c>
-      <c r="X13" s="269"/>
-      <c r="Y13" s="269">
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266">
         <f t="shared" si="4"/>
         <v>39210</v>
       </c>
-      <c r="Z13" s="269"/>
-      <c r="AA13" s="269">
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266">
         <f t="shared" si="5"/>
         <v>39210</v>
       </c>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="303" t="s">
+      <c r="C14" s="306" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="304"/>
-      <c r="E14" s="269">
+      <c r="D14" s="307"/>
+      <c r="E14" s="266">
         <v>1808437</v>
       </c>
-      <c r="F14" s="269">
+      <c r="F14" s="266">
         <v>603596</v>
       </c>
-      <c r="G14" s="269">
+      <c r="G14" s="266">
         <f t="shared" si="1"/>
         <v>2412033</v>
       </c>
-      <c r="H14" s="269"/>
-      <c r="I14" s="269">
+      <c r="H14" s="266"/>
+      <c r="I14" s="266">
         <f t="shared" si="0"/>
         <v>2412033</v>
       </c>
-      <c r="J14" s="297"/>
-      <c r="K14" s="269">
+      <c r="J14" s="294"/>
+      <c r="K14" s="266">
         <v>1484293</v>
       </c>
-      <c r="L14" s="269">
+      <c r="L14" s="266">
         <v>565841</v>
       </c>
-      <c r="M14" s="269">
+      <c r="M14" s="266">
         <v>2050134</v>
       </c>
-      <c r="N14" s="269"/>
-      <c r="O14" s="269">
+      <c r="N14" s="266"/>
+      <c r="O14" s="266">
         <v>2050134</v>
       </c>
-      <c r="Q14" s="269">
-        <v>0</v>
-      </c>
-      <c r="R14" s="269"/>
-      <c r="S14" s="269">
+      <c r="Q14" s="266">
+        <v>0</v>
+      </c>
+      <c r="R14" s="266"/>
+      <c r="S14" s="266">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="269"/>
-      <c r="U14" s="269">
+      <c r="T14" s="266"/>
+      <c r="U14" s="266">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14" s="55"/>
-      <c r="W14" s="269"/>
-      <c r="X14" s="269"/>
-      <c r="Y14" s="269">
+      <c r="W14" s="266"/>
+      <c r="X14" s="266"/>
+      <c r="Y14" s="266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="269"/>
-      <c r="AA14" s="269">
+      <c r="Z14" s="266"/>
+      <c r="AA14" s="266">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -9816,57 +9835,57 @@
         <v>119</v>
       </c>
       <c r="D15" s="52"/>
-      <c r="E15" s="269">
+      <c r="E15" s="266">
         <f>1066473-33057</f>
         <v>1033416</v>
       </c>
-      <c r="F15" s="269">
+      <c r="F15" s="266">
         <f>5180994-5208998</f>
         <v>-28004</v>
       </c>
-      <c r="G15" s="269">
+      <c r="G15" s="266">
         <f t="shared" si="1"/>
         <v>1005412</v>
       </c>
-      <c r="H15" s="269"/>
-      <c r="I15" s="269">
+      <c r="H15" s="266"/>
+      <c r="I15" s="266">
         <f t="shared" si="0"/>
         <v>1005412</v>
       </c>
       <c r="J15" s="52"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="269">
-        <v>0</v>
-      </c>
-      <c r="N15" s="269"/>
-      <c r="O15" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="269">
-        <v>0</v>
-      </c>
-      <c r="R15" s="269"/>
-      <c r="S15" s="269">
+      <c r="K15" s="266"/>
+      <c r="L15" s="266"/>
+      <c r="M15" s="266">
+        <v>0</v>
+      </c>
+      <c r="N15" s="266"/>
+      <c r="O15" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="266">
+        <v>0</v>
+      </c>
+      <c r="R15" s="266"/>
+      <c r="S15" s="266">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="269"/>
-      <c r="U15" s="269">
+      <c r="T15" s="266"/>
+      <c r="U15" s="266">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15" s="52"/>
-      <c r="W15" s="269">
-        <v>0</v>
-      </c>
-      <c r="X15" s="269"/>
-      <c r="Y15" s="269">
+      <c r="W15" s="266">
+        <v>0</v>
+      </c>
+      <c r="X15" s="266"/>
+      <c r="Y15" s="266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="269"/>
-      <c r="AA15" s="269">
+      <c r="Z15" s="266"/>
+      <c r="AA15" s="266">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -9877,63 +9896,63 @@
         <v>120</v>
       </c>
       <c r="D16" s="52"/>
-      <c r="E16" s="269">
+      <c r="E16" s="266">
         <v>2380394</v>
       </c>
-      <c r="F16" s="269">
+      <c r="F16" s="266">
         <v>52799</v>
       </c>
-      <c r="G16" s="269">
+      <c r="G16" s="266">
         <f t="shared" si="1"/>
         <v>2433193</v>
       </c>
-      <c r="H16" s="269"/>
-      <c r="I16" s="269">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266">
         <f t="shared" si="0"/>
         <v>2433193</v>
       </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="269">
+      <c r="K16" s="266">
         <v>2692522</v>
       </c>
-      <c r="L16" s="269">
+      <c r="L16" s="266">
         <v>31853</v>
       </c>
-      <c r="M16" s="269">
+      <c r="M16" s="266">
         <v>2724375</v>
       </c>
-      <c r="N16" s="269"/>
-      <c r="O16" s="269">
+      <c r="N16" s="266"/>
+      <c r="O16" s="266">
         <v>2724375</v>
       </c>
-      <c r="Q16" s="269">
+      <c r="Q16" s="266">
         <v>2230401</v>
       </c>
-      <c r="R16" s="269">
+      <c r="R16" s="266">
         <v>25583</v>
       </c>
-      <c r="S16" s="269">
+      <c r="S16" s="266">
         <f t="shared" si="2"/>
         <v>2255984</v>
       </c>
-      <c r="T16" s="269"/>
-      <c r="U16" s="269">
+      <c r="T16" s="266"/>
+      <c r="U16" s="266">
         <f t="shared" si="3"/>
         <v>2255984</v>
       </c>
       <c r="V16" s="52"/>
-      <c r="W16" s="269">
+      <c r="W16" s="266">
         <v>2028637</v>
       </c>
-      <c r="X16" s="269">
+      <c r="X16" s="266">
         <v>26371</v>
       </c>
-      <c r="Y16" s="269">
+      <c r="Y16" s="266">
         <f t="shared" si="4"/>
         <v>2055008</v>
       </c>
-      <c r="Z16" s="269"/>
-      <c r="AA16" s="269">
+      <c r="Z16" s="266"/>
+      <c r="AA16" s="266">
         <f t="shared" si="5"/>
         <v>2055008</v>
       </c>
@@ -9944,51 +9963,51 @@
         <v>431</v>
       </c>
       <c r="D17" s="52"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269">
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="266">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="269"/>
-      <c r="I17" s="269">
+      <c r="H17" s="266"/>
+      <c r="I17" s="266">
         <f>+'Hoja de trabajo'!K39</f>
         <v>-21629181</v>
       </c>
       <c r="J17" s="52"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269">
-        <v>0</v>
-      </c>
-      <c r="N17" s="269"/>
-      <c r="O17" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="269">
+      <c r="K17" s="266"/>
+      <c r="L17" s="266"/>
+      <c r="M17" s="266">
+        <v>0</v>
+      </c>
+      <c r="N17" s="266"/>
+      <c r="O17" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="266">
         <v>366832</v>
       </c>
-      <c r="R17" s="269"/>
-      <c r="S17" s="269">
+      <c r="R17" s="266"/>
+      <c r="S17" s="266">
         <f t="shared" si="2"/>
         <v>366832</v>
       </c>
-      <c r="T17" s="269"/>
-      <c r="U17" s="269">
+      <c r="T17" s="266"/>
+      <c r="U17" s="266">
         <f t="shared" si="3"/>
         <v>366832</v>
       </c>
       <c r="V17" s="52"/>
-      <c r="W17" s="269">
-        <v>0</v>
-      </c>
-      <c r="X17" s="269"/>
-      <c r="Y17" s="269">
+      <c r="W17" s="266">
+        <v>0</v>
+      </c>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="269"/>
-      <c r="AA17" s="269">
+      <c r="Z17" s="266"/>
+      <c r="AA17" s="266">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -9999,60 +10018,60 @@
         <v>121</v>
       </c>
       <c r="D18" s="52"/>
-      <c r="E18" s="269">
+      <c r="E18" s="266">
         <v>4768922</v>
       </c>
-      <c r="F18" s="269">
+      <c r="F18" s="266">
         <f>-ER!E34</f>
         <v>3484342</v>
       </c>
-      <c r="G18" s="269">
+      <c r="G18" s="266">
         <f t="shared" si="1"/>
         <v>8253264</v>
       </c>
-      <c r="H18" s="269"/>
-      <c r="I18" s="269">
+      <c r="H18" s="266"/>
+      <c r="I18" s="266">
         <f t="shared" si="0"/>
         <v>8253264</v>
       </c>
       <c r="J18" s="52"/>
-      <c r="K18" s="269">
+      <c r="K18" s="266">
         <v>3976474</v>
       </c>
-      <c r="L18" s="269">
+      <c r="L18" s="266">
         <v>1692982</v>
       </c>
-      <c r="M18" s="269">
+      <c r="M18" s="266">
         <v>5669456</v>
       </c>
-      <c r="N18" s="269"/>
-      <c r="O18" s="269">
+      <c r="N18" s="266"/>
+      <c r="O18" s="266">
         <v>5669456</v>
       </c>
-      <c r="Q18" s="269">
+      <c r="Q18" s="266">
         <v>2404929</v>
       </c>
-      <c r="R18" s="269"/>
-      <c r="S18" s="269">
+      <c r="R18" s="266"/>
+      <c r="S18" s="266">
         <f t="shared" si="2"/>
         <v>2404929</v>
       </c>
-      <c r="T18" s="269"/>
-      <c r="U18" s="269">
+      <c r="T18" s="266"/>
+      <c r="U18" s="266">
         <f t="shared" si="3"/>
         <v>2404929</v>
       </c>
       <c r="V18" s="52"/>
-      <c r="W18" s="269">
+      <c r="W18" s="266">
         <v>3074772</v>
       </c>
-      <c r="X18" s="269"/>
-      <c r="Y18" s="269">
+      <c r="X18" s="266"/>
+      <c r="Y18" s="266">
         <f t="shared" si="4"/>
         <v>3074772</v>
       </c>
-      <c r="Z18" s="269"/>
-      <c r="AA18" s="269">
+      <c r="Z18" s="266"/>
+      <c r="AA18" s="266">
         <f t="shared" si="5"/>
         <v>3074772</v>
       </c>
@@ -10063,62 +10082,62 @@
         <v>122</v>
       </c>
       <c r="D19" s="52"/>
-      <c r="E19" s="269">
+      <c r="E19" s="266">
         <v>644872</v>
       </c>
-      <c r="F19" s="269">
+      <c r="F19" s="266">
         <f>436847+158319</f>
         <v>595166</v>
       </c>
-      <c r="G19" s="269">
+      <c r="G19" s="266">
         <f t="shared" si="1"/>
         <v>1240038</v>
       </c>
-      <c r="H19" s="269"/>
-      <c r="I19" s="269">
+      <c r="H19" s="266"/>
+      <c r="I19" s="266">
         <f t="shared" si="0"/>
         <v>1240038</v>
       </c>
       <c r="J19" s="52"/>
-      <c r="K19" s="269">
+      <c r="K19" s="266">
         <v>2973618</v>
       </c>
-      <c r="L19" s="269">
+      <c r="L19" s="266">
         <v>331030</v>
       </c>
-      <c r="M19" s="269">
+      <c r="M19" s="266">
         <v>3304648</v>
       </c>
-      <c r="N19" s="269"/>
-      <c r="O19" s="269">
+      <c r="N19" s="266"/>
+      <c r="O19" s="266">
         <v>3304648</v>
       </c>
-      <c r="Q19" s="269">
+      <c r="Q19" s="266">
         <v>1293142</v>
       </c>
-      <c r="R19" s="269">
+      <c r="R19" s="266">
         <v>251418</v>
       </c>
-      <c r="S19" s="269">
+      <c r="S19" s="266">
         <f t="shared" si="2"/>
         <v>1544560</v>
       </c>
-      <c r="T19" s="269"/>
-      <c r="U19" s="269">
+      <c r="T19" s="266"/>
+      <c r="U19" s="266">
         <f t="shared" si="3"/>
         <v>1544560</v>
       </c>
       <c r="V19" s="52"/>
-      <c r="W19" s="269">
+      <c r="W19" s="266">
         <v>1591304</v>
       </c>
-      <c r="X19" s="269"/>
-      <c r="Y19" s="269">
+      <c r="X19" s="266"/>
+      <c r="Y19" s="266">
         <f t="shared" si="4"/>
         <v>1591304</v>
       </c>
-      <c r="Z19" s="269"/>
-      <c r="AA19" s="269">
+      <c r="Z19" s="266"/>
+      <c r="AA19" s="266">
         <f t="shared" si="5"/>
         <v>1591304</v>
       </c>
@@ -10129,52 +10148,52 @@
         <v>123</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="269">
+      <c r="F20" s="266"/>
+      <c r="G20" s="266">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="269">
+      <c r="I20" s="266">
         <f>+'Hoja de trabajo'!B88</f>
         <v>-3143848.1851480007</v>
       </c>
       <c r="J20" s="52"/>
-      <c r="K20" s="269"/>
-      <c r="L20" s="269"/>
-      <c r="M20" s="269">
-        <v>0</v>
-      </c>
-      <c r="N20" s="269"/>
-      <c r="O20" s="269">
+      <c r="K20" s="266"/>
+      <c r="L20" s="266"/>
+      <c r="M20" s="266">
+        <v>0</v>
+      </c>
+      <c r="N20" s="266"/>
+      <c r="O20" s="266">
         <v>358270.24999999953</v>
       </c>
-      <c r="Q20" s="269">
+      <c r="Q20" s="266">
         <v>7559526</v>
       </c>
-      <c r="R20" s="269"/>
-      <c r="S20" s="269">
+      <c r="R20" s="266"/>
+      <c r="S20" s="266">
         <f t="shared" si="2"/>
         <v>7559526</v>
       </c>
-      <c r="T20" s="269"/>
-      <c r="U20" s="269">
+      <c r="T20" s="266"/>
+      <c r="U20" s="266">
         <f t="shared" si="3"/>
         <v>7559526</v>
       </c>
       <c r="V20" s="52"/>
-      <c r="W20" s="269">
+      <c r="W20" s="266">
         <f>1308073+234029</f>
         <v>1542102</v>
       </c>
-      <c r="X20" s="269">
+      <c r="X20" s="266">
         <v>175726</v>
       </c>
-      <c r="Y20" s="269">
+      <c r="Y20" s="266">
         <f t="shared" si="4"/>
         <v>1717828</v>
       </c>
-      <c r="Z20" s="269"/>
-      <c r="AA20" s="269">
+      <c r="Z20" s="266"/>
+      <c r="AA20" s="266">
         <f t="shared" si="5"/>
         <v>1717828</v>
       </c>
@@ -10185,49 +10204,49 @@
         <v>124</v>
       </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="269">
+      <c r="E21" s="266"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="269"/>
-      <c r="I21" s="269">
+      <c r="H21" s="266"/>
+      <c r="I21" s="266">
         <f>+'Hoja de trabajo'!K40</f>
         <v>2444175</v>
       </c>
       <c r="J21" s="52"/>
-      <c r="K21" s="269"/>
-      <c r="L21" s="269"/>
-      <c r="M21" s="269">
-        <v>0</v>
-      </c>
-      <c r="N21" s="269"/>
-      <c r="O21" s="269">
+      <c r="K21" s="266"/>
+      <c r="L21" s="266"/>
+      <c r="M21" s="266">
+        <v>0</v>
+      </c>
+      <c r="N21" s="266"/>
+      <c r="O21" s="266">
         <v>-1881937</v>
       </c>
-      <c r="Q21" s="269">
+      <c r="Q21" s="266">
         <v>251108</v>
       </c>
-      <c r="R21" s="269"/>
-      <c r="S21" s="269">
+      <c r="R21" s="266"/>
+      <c r="S21" s="266">
         <f t="shared" si="2"/>
         <v>251108</v>
       </c>
-      <c r="T21" s="269"/>
-      <c r="U21" s="269">
+      <c r="T21" s="266"/>
+      <c r="U21" s="266">
         <f t="shared" si="3"/>
         <v>251108</v>
       </c>
       <c r="V21" s="52"/>
-      <c r="W21" s="269"/>
-      <c r="X21" s="269"/>
-      <c r="Y21" s="269">
+      <c r="W21" s="266"/>
+      <c r="X21" s="266"/>
+      <c r="Y21" s="266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="269"/>
-      <c r="AA21" s="269">
+      <c r="Z21" s="266"/>
+      <c r="AA21" s="266">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10238,167 +10257,167 @@
         <v>125</v>
       </c>
       <c r="D22" s="52"/>
-      <c r="E22" s="269">
+      <c r="E22" s="266">
         <v>144534</v>
       </c>
-      <c r="F22" s="269"/>
-      <c r="G22" s="269">
+      <c r="F22" s="266"/>
+      <c r="G22" s="266">
         <f t="shared" si="1"/>
         <v>144534</v>
       </c>
-      <c r="H22" s="269">
+      <c r="H22" s="266">
         <f>+AD!G59</f>
         <v>1427390</v>
       </c>
-      <c r="I22" s="269">
+      <c r="I22" s="266">
         <f t="shared" si="0"/>
         <v>1571924</v>
       </c>
       <c r="J22" s="52"/>
-      <c r="K22" s="269"/>
-      <c r="L22" s="269">
+      <c r="K22" s="266"/>
+      <c r="L22" s="266">
         <v>-73587</v>
       </c>
-      <c r="M22" s="269">
+      <c r="M22" s="266">
         <v>-73587</v>
       </c>
-      <c r="N22" s="269"/>
-      <c r="O22" s="269">
+      <c r="N22" s="266"/>
+      <c r="O22" s="266">
         <v>-73587</v>
       </c>
-      <c r="Q22" s="269">
+      <c r="Q22" s="266">
         <v>-261500</v>
       </c>
-      <c r="R22" s="269"/>
-      <c r="S22" s="269">
+      <c r="R22" s="266"/>
+      <c r="S22" s="266">
         <f t="shared" si="2"/>
         <v>-261500</v>
       </c>
-      <c r="T22" s="269">
+      <c r="T22" s="266">
         <f>-[1]ER!M35</f>
         <v>555396.5</v>
       </c>
-      <c r="U22" s="269">
+      <c r="U22" s="266">
         <f t="shared" si="3"/>
         <v>293896.5</v>
       </c>
       <c r="V22" s="52"/>
-      <c r="W22" s="269">
+      <c r="W22" s="266">
         <v>476468</v>
       </c>
-      <c r="X22" s="269"/>
-      <c r="Y22" s="269"/>
-      <c r="Z22" s="269"/>
-      <c r="AA22" s="269"/>
+      <c r="X22" s="266"/>
+      <c r="Y22" s="266"/>
+      <c r="Z22" s="266"/>
+      <c r="AA22" s="266"/>
     </row>
     <row r="23" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="D23" s="52"/>
-      <c r="E23" s="268">
+      <c r="E23" s="265">
         <f>SUM(E8:E22)</f>
         <v>55444514</v>
       </c>
-      <c r="F23" s="268">
+      <c r="F23" s="265">
         <f t="shared" ref="F23:I23" si="6">SUM(F8:F22)</f>
         <v>34938702</v>
       </c>
-      <c r="G23" s="268">
+      <c r="G23" s="265">
         <f t="shared" si="6"/>
         <v>90383216</v>
       </c>
-      <c r="H23" s="268">
+      <c r="H23" s="265">
         <f>SUM(H8:H22)</f>
         <v>-5175149</v>
       </c>
-      <c r="I23" s="268">
+      <c r="I23" s="265">
         <f t="shared" si="6"/>
         <v>62879212.814851999</v>
       </c>
       <c r="J23" s="52"/>
-      <c r="K23" s="268">
+      <c r="K23" s="265">
         <v>51381438</v>
       </c>
-      <c r="L23" s="268">
+      <c r="L23" s="265">
         <v>22113436</v>
       </c>
-      <c r="M23" s="268">
+      <c r="M23" s="265">
         <v>73494874</v>
       </c>
-      <c r="N23" s="268">
+      <c r="N23" s="265">
         <v>2120374</v>
       </c>
-      <c r="O23" s="268">
+      <c r="O23" s="265">
         <v>74091581.25</v>
       </c>
-      <c r="Q23" s="268">
+      <c r="Q23" s="265">
         <f>SUM(Q8:Q22)</f>
         <v>49470665.449999988</v>
       </c>
-      <c r="R23" s="268">
+      <c r="R23" s="265">
         <f t="shared" ref="R23:U23" si="7">SUM(R8:R22)</f>
         <v>15821421</v>
       </c>
-      <c r="S23" s="268">
+      <c r="S23" s="265">
         <f t="shared" si="7"/>
         <v>65292086.449999988</v>
       </c>
-      <c r="T23" s="268">
+      <c r="T23" s="265">
         <f t="shared" si="7"/>
         <v>-5531508.5</v>
       </c>
-      <c r="U23" s="268">
+      <c r="U23" s="265">
         <f t="shared" si="7"/>
         <v>59760577.949999988</v>
       </c>
       <c r="V23" s="52"/>
-      <c r="W23" s="268">
+      <c r="W23" s="265">
         <f>SUM(W8:W22)</f>
         <v>37584573</v>
       </c>
-      <c r="X23" s="276">
+      <c r="X23" s="273">
         <f>SUM(X8:X21)</f>
         <v>12250363</v>
       </c>
-      <c r="Y23" s="268">
+      <c r="Y23" s="265">
         <f>SUM(Y8:Y21)</f>
         <v>49358468</v>
       </c>
-      <c r="Z23" s="268">
+      <c r="Z23" s="265">
         <f>SUM(Z8:Z21)</f>
         <v>-7157121</v>
       </c>
-      <c r="AA23" s="268">
+      <c r="AA23" s="265">
         <f>SUM(AA8:AA21)</f>
         <v>42201347</v>
       </c>
     </row>
     <row r="24" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="275" t="s">
+      <c r="B24" s="272" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="269"/>
-      <c r="H24" s="269"/>
-      <c r="I24" s="269"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="266"/>
       <c r="J24" s="52"/>
-      <c r="K24" s="269"/>
-      <c r="L24" s="269"/>
-      <c r="M24" s="269"/>
-      <c r="N24" s="269"/>
-      <c r="O24" s="269"/>
-      <c r="Q24" s="269"/>
-      <c r="R24" s="269"/>
-      <c r="S24" s="269"/>
-      <c r="T24" s="269"/>
-      <c r="U24" s="269"/>
+      <c r="K24" s="266"/>
+      <c r="L24" s="266"/>
+      <c r="M24" s="266"/>
+      <c r="N24" s="266"/>
+      <c r="O24" s="266"/>
+      <c r="Q24" s="266"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="266"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="266"/>
       <c r="V24" s="52"/>
-      <c r="W24" s="269"/>
-      <c r="X24" s="269"/>
-      <c r="Y24" s="269"/>
-      <c r="Z24" s="269"/>
-      <c r="AA24" s="269"/>
+      <c r="W24" s="266"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="266"/>
+      <c r="Z24" s="266"/>
+      <c r="AA24" s="266"/>
     </row>
     <row r="25" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
@@ -10406,55 +10425,55 @@
         <v>127</v>
       </c>
       <c r="D25" s="52"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="269">
+      <c r="E25" s="266"/>
+      <c r="F25" s="266"/>
+      <c r="G25" s="266">
         <f t="shared" ref="G25:G41" si="8">+E25+F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="269"/>
-      <c r="I25" s="282">
+      <c r="H25" s="266"/>
+      <c r="I25" s="279">
         <f>+'Hoja de trabajo'!B83</f>
-        <v>-10976377</v>
+        <v>-3829796</v>
       </c>
       <c r="J25" s="52"/>
-      <c r="K25" s="269"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="269">
-        <v>0</v>
-      </c>
-      <c r="N25" s="269"/>
-      <c r="O25" s="269">
+      <c r="K25" s="266"/>
+      <c r="L25" s="266"/>
+      <c r="M25" s="266">
+        <v>0</v>
+      </c>
+      <c r="N25" s="266"/>
+      <c r="O25" s="266">
         <v>-4095201</v>
       </c>
-      <c r="Q25" s="269">
+      <c r="Q25" s="266">
         <v>3944169</v>
       </c>
-      <c r="R25" s="269">
+      <c r="R25" s="266">
         <v>-602469</v>
       </c>
-      <c r="S25" s="269">
+      <c r="S25" s="266">
         <f t="shared" ref="S25:S45" si="9">+Q25+R25</f>
         <v>3341700</v>
       </c>
-      <c r="T25" s="269"/>
-      <c r="U25" s="269">
+      <c r="T25" s="266"/>
+      <c r="U25" s="266">
         <f t="shared" ref="U25:U41" si="10">+S25+T25</f>
         <v>3341700</v>
       </c>
       <c r="V25" s="52"/>
-      <c r="W25" s="269">
+      <c r="W25" s="266">
         <v>2173914</v>
       </c>
-      <c r="X25" s="269">
+      <c r="X25" s="266">
         <v>153450</v>
       </c>
-      <c r="Y25" s="269">
+      <c r="Y25" s="266">
         <f t="shared" ref="Y25:Y41" si="11">+W25+X25</f>
         <v>2327364</v>
       </c>
-      <c r="Z25" s="269"/>
-      <c r="AA25" s="269">
+      <c r="Z25" s="266"/>
+      <c r="AA25" s="266">
         <f t="shared" ref="AA25:AA41" si="12">+Y25+Z25</f>
         <v>2327364</v>
       </c>
@@ -10465,53 +10484,53 @@
         <v>37</v>
       </c>
       <c r="D26" s="52"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="269"/>
-      <c r="G26" s="269">
+      <c r="E26" s="266"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H26" s="269"/>
-      <c r="I26" s="269">
+      <c r="H26" s="266"/>
+      <c r="I26" s="266">
         <f>+'Hoja de trabajo'!C9+'Hoja de trabajo'!C20</f>
-        <v>14826134</v>
+        <v>12687172</v>
       </c>
       <c r="J26" s="52"/>
-      <c r="K26" s="269"/>
-      <c r="L26" s="269"/>
-      <c r="M26" s="269">
-        <v>0</v>
-      </c>
-      <c r="N26" s="269"/>
-      <c r="O26" s="269">
+      <c r="K26" s="266"/>
+      <c r="L26" s="266"/>
+      <c r="M26" s="266">
+        <v>0</v>
+      </c>
+      <c r="N26" s="266"/>
+      <c r="O26" s="266">
         <v>7403111</v>
       </c>
-      <c r="Q26" s="269">
+      <c r="Q26" s="266">
         <v>-10765719</v>
       </c>
-      <c r="R26" s="269">
+      <c r="R26" s="266">
         <v>-5894109</v>
       </c>
-      <c r="S26" s="269">
+      <c r="S26" s="266">
         <f t="shared" si="9"/>
         <v>-16659828</v>
       </c>
-      <c r="T26" s="269"/>
-      <c r="U26" s="269">
+      <c r="T26" s="266"/>
+      <c r="U26" s="266">
         <f t="shared" si="10"/>
         <v>-16659828</v>
       </c>
       <c r="V26" s="52"/>
-      <c r="W26" s="269">
+      <c r="W26" s="266">
         <v>-16324141</v>
       </c>
-      <c r="X26" s="269"/>
-      <c r="Y26" s="269">
+      <c r="X26" s="266"/>
+      <c r="Y26" s="266">
         <f t="shared" si="11"/>
         <v>-16324141</v>
       </c>
-      <c r="Z26" s="269"/>
-      <c r="AA26" s="269">
+      <c r="Z26" s="266"/>
+      <c r="AA26" s="266">
         <f t="shared" si="12"/>
         <v>-16324141</v>
       </c>
@@ -10522,54 +10541,54 @@
         <v>38</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="269"/>
-      <c r="G27" s="269">
+      <c r="E27" s="266"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H27" s="269"/>
-      <c r="I27" s="269">
+      <c r="H27" s="266"/>
+      <c r="I27" s="266">
         <f>+'Hoja de trabajo'!C11+'Hoja de trabajo'!C19</f>
-        <v>7085729</v>
+        <v>1249628</v>
       </c>
       <c r="J27" s="52"/>
-      <c r="K27" s="269"/>
-      <c r="L27" s="269"/>
-      <c r="M27" s="269">
-        <v>0</v>
-      </c>
-      <c r="N27" s="269"/>
-      <c r="O27" s="269">
+      <c r="K27" s="266"/>
+      <c r="L27" s="266"/>
+      <c r="M27" s="266">
+        <v>0</v>
+      </c>
+      <c r="N27" s="266"/>
+      <c r="O27" s="266">
         <v>-11858132</v>
       </c>
-      <c r="Q27" s="269">
+      <c r="Q27" s="266">
         <v>-233583</v>
       </c>
-      <c r="R27" s="269">
+      <c r="R27" s="266">
         <f>-8535012-R26-R25</f>
         <v>-2038434</v>
       </c>
-      <c r="S27" s="269">
+      <c r="S27" s="266">
         <f t="shared" si="9"/>
         <v>-2272017</v>
       </c>
-      <c r="T27" s="269"/>
-      <c r="U27" s="269">
+      <c r="T27" s="266"/>
+      <c r="U27" s="266">
         <f t="shared" si="10"/>
         <v>-2272017</v>
       </c>
       <c r="V27" s="52"/>
-      <c r="W27" s="269">
+      <c r="W27" s="266">
         <v>-6350190</v>
       </c>
-      <c r="X27" s="269"/>
-      <c r="Y27" s="269">
+      <c r="X27" s="266"/>
+      <c r="Y27" s="266">
         <f t="shared" si="11"/>
         <v>-6350190</v>
       </c>
-      <c r="Z27" s="269"/>
-      <c r="AA27" s="269">
+      <c r="Z27" s="266"/>
+      <c r="AA27" s="266">
         <f t="shared" si="12"/>
         <v>-6350190</v>
       </c>
@@ -10580,51 +10599,51 @@
         <v>30</v>
       </c>
       <c r="D28" s="52"/>
-      <c r="E28" s="269"/>
-      <c r="F28" s="269"/>
-      <c r="G28" s="269">
+      <c r="E28" s="266"/>
+      <c r="F28" s="266"/>
+      <c r="G28" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H28" s="269"/>
-      <c r="I28" s="269">
+      <c r="H28" s="266"/>
+      <c r="I28" s="266">
         <f>+'Hoja de trabajo'!C10</f>
-        <v>-5084041</v>
+        <v>271025</v>
       </c>
       <c r="J28" s="52"/>
-      <c r="K28" s="269"/>
-      <c r="L28" s="269"/>
-      <c r="M28" s="269">
-        <v>0</v>
-      </c>
-      <c r="N28" s="269"/>
-      <c r="O28" s="269">
+      <c r="K28" s="266"/>
+      <c r="L28" s="266"/>
+      <c r="M28" s="266">
+        <v>0</v>
+      </c>
+      <c r="N28" s="266"/>
+      <c r="O28" s="266">
         <v>1714619</v>
       </c>
-      <c r="Q28" s="269">
+      <c r="Q28" s="266">
         <v>475548</v>
       </c>
-      <c r="R28" s="269"/>
-      <c r="S28" s="269">
+      <c r="R28" s="266"/>
+      <c r="S28" s="266">
         <f t="shared" si="9"/>
         <v>475548</v>
       </c>
-      <c r="T28" s="269"/>
-      <c r="U28" s="269">
+      <c r="T28" s="266"/>
+      <c r="U28" s="266">
         <f t="shared" si="10"/>
         <v>475548</v>
       </c>
       <c r="V28" s="52"/>
-      <c r="W28" s="269">
+      <c r="W28" s="266">
         <v>546462</v>
       </c>
-      <c r="X28" s="269"/>
-      <c r="Y28" s="269">
+      <c r="X28" s="266"/>
+      <c r="Y28" s="266">
         <f t="shared" si="11"/>
         <v>546462</v>
       </c>
-      <c r="Z28" s="269"/>
-      <c r="AA28" s="269">
+      <c r="Z28" s="266"/>
+      <c r="AA28" s="266">
         <f t="shared" si="12"/>
         <v>546462</v>
       </c>
@@ -10635,51 +10654,51 @@
         <v>31</v>
       </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="269"/>
-      <c r="G29" s="269">
+      <c r="E29" s="266"/>
+      <c r="F29" s="266"/>
+      <c r="G29" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H29" s="269"/>
-      <c r="I29" s="269">
+      <c r="H29" s="266"/>
+      <c r="I29" s="266">
         <f>+'Hoja de trabajo'!C12</f>
-        <v>-5493976</v>
+        <v>-6284364</v>
       </c>
       <c r="J29" s="52"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="269"/>
-      <c r="M29" s="269">
-        <v>0</v>
-      </c>
-      <c r="N29" s="269"/>
-      <c r="O29" s="269">
+      <c r="K29" s="266"/>
+      <c r="L29" s="266"/>
+      <c r="M29" s="266">
+        <v>0</v>
+      </c>
+      <c r="N29" s="266"/>
+      <c r="O29" s="266">
         <v>-246230</v>
       </c>
-      <c r="Q29" s="269">
+      <c r="Q29" s="266">
         <v>124930</v>
       </c>
-      <c r="R29" s="269"/>
-      <c r="S29" s="269">
+      <c r="R29" s="266"/>
+      <c r="S29" s="266">
         <f t="shared" si="9"/>
         <v>124930</v>
       </c>
-      <c r="T29" s="269"/>
-      <c r="U29" s="269">
+      <c r="T29" s="266"/>
+      <c r="U29" s="266">
         <f t="shared" si="10"/>
         <v>124930</v>
       </c>
       <c r="V29" s="52"/>
-      <c r="W29" s="269">
+      <c r="W29" s="266">
         <v>1692356</v>
       </c>
-      <c r="X29" s="269"/>
-      <c r="Y29" s="269">
+      <c r="X29" s="266"/>
+      <c r="Y29" s="266">
         <f t="shared" si="11"/>
         <v>1692356</v>
       </c>
-      <c r="Z29" s="269"/>
-      <c r="AA29" s="269">
+      <c r="Z29" s="266"/>
+      <c r="AA29" s="266">
         <f t="shared" si="12"/>
         <v>1692356</v>
       </c>
@@ -10690,53 +10709,53 @@
         <v>32</v>
       </c>
       <c r="D30" s="52"/>
-      <c r="E30" s="269"/>
-      <c r="F30" s="269"/>
-      <c r="G30" s="269">
+      <c r="E30" s="266"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H30" s="269"/>
-      <c r="I30" s="269">
+      <c r="H30" s="266"/>
+      <c r="I30" s="266">
         <f>+'Hoja de trabajo'!C13</f>
-        <v>221118</v>
+        <v>221528</v>
       </c>
       <c r="J30" s="52"/>
-      <c r="K30" s="269"/>
-      <c r="L30" s="269"/>
-      <c r="M30" s="269">
-        <v>0</v>
-      </c>
-      <c r="N30" s="269"/>
-      <c r="O30" s="269">
+      <c r="K30" s="266"/>
+      <c r="L30" s="266"/>
+      <c r="M30" s="266">
+        <v>0</v>
+      </c>
+      <c r="N30" s="266"/>
+      <c r="O30" s="266">
         <v>-4679936.66</v>
       </c>
-      <c r="Q30" s="269">
+      <c r="Q30" s="266">
         <v>-9031384</v>
       </c>
-      <c r="R30" s="269"/>
-      <c r="S30" s="269">
+      <c r="R30" s="266"/>
+      <c r="S30" s="266">
         <f t="shared" si="9"/>
         <v>-9031384</v>
       </c>
-      <c r="T30" s="269"/>
-      <c r="U30" s="269">
+      <c r="T30" s="266"/>
+      <c r="U30" s="266">
         <f t="shared" si="10"/>
         <v>-9031384</v>
       </c>
       <c r="V30" s="52"/>
-      <c r="W30" s="269">
+      <c r="W30" s="266">
         <v>3855566</v>
       </c>
-      <c r="X30" s="269">
+      <c r="X30" s="266">
         <v>16620</v>
       </c>
-      <c r="Y30" s="269">
+      <c r="Y30" s="266">
         <f t="shared" si="11"/>
         <v>3872186</v>
       </c>
-      <c r="Z30" s="269"/>
-      <c r="AA30" s="269">
+      <c r="Z30" s="266"/>
+      <c r="AA30" s="266">
         <f t="shared" si="12"/>
         <v>3872186</v>
       </c>
@@ -10747,53 +10766,53 @@
         <v>46</v>
       </c>
       <c r="D31" s="52"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="269">
+      <c r="E31" s="266"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H31" s="269"/>
-      <c r="I31" s="269">
+      <c r="H31" s="266"/>
+      <c r="I31" s="266">
         <f>+'Hoja de trabajo'!C14+'Hoja de trabajo'!C26</f>
-        <v>-2136621</v>
+        <v>-707135</v>
       </c>
       <c r="J31" s="52"/>
-      <c r="K31" s="269"/>
-      <c r="L31" s="269"/>
-      <c r="M31" s="269">
-        <v>0</v>
-      </c>
-      <c r="N31" s="269"/>
-      <c r="O31" s="269">
+      <c r="K31" s="266"/>
+      <c r="L31" s="266"/>
+      <c r="M31" s="266">
+        <v>0</v>
+      </c>
+      <c r="N31" s="266"/>
+      <c r="O31" s="266">
         <v>84286</v>
       </c>
-      <c r="Q31" s="269"/>
-      <c r="R31" s="269">
+      <c r="Q31" s="266"/>
+      <c r="R31" s="266">
         <v>-86645</v>
       </c>
-      <c r="S31" s="269">
+      <c r="S31" s="266">
         <f t="shared" si="9"/>
         <v>-86645</v>
       </c>
-      <c r="T31" s="269"/>
-      <c r="U31" s="269">
+      <c r="T31" s="266"/>
+      <c r="U31" s="266">
         <f t="shared" si="10"/>
         <v>-86645</v>
       </c>
       <c r="V31" s="52"/>
-      <c r="W31" s="269">
+      <c r="W31" s="266">
         <v>-1495</v>
       </c>
-      <c r="X31" s="269">
+      <c r="X31" s="266">
         <v>-97195</v>
       </c>
-      <c r="Y31" s="269">
+      <c r="Y31" s="266">
         <f t="shared" si="11"/>
         <v>-98690</v>
       </c>
-      <c r="Z31" s="269"/>
-      <c r="AA31" s="269">
+      <c r="Z31" s="266"/>
+      <c r="AA31" s="266">
         <f t="shared" si="12"/>
         <v>-98690</v>
       </c>
@@ -10804,55 +10823,55 @@
         <v>128</v>
       </c>
       <c r="D32" s="52"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="269">
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H32" s="269"/>
-      <c r="I32" s="269">
+      <c r="H32" s="266"/>
+      <c r="I32" s="266">
         <f>+'Hoja de trabajo'!L8+'Hoja de trabajo'!L21</f>
-        <v>6180016</v>
+        <v>10111584</v>
       </c>
       <c r="J32" s="52"/>
-      <c r="K32" s="269"/>
-      <c r="L32" s="269"/>
-      <c r="M32" s="269">
-        <v>0</v>
-      </c>
-      <c r="N32" s="269"/>
-      <c r="O32" s="269">
+      <c r="K32" s="266"/>
+      <c r="L32" s="266"/>
+      <c r="M32" s="266">
+        <v>0</v>
+      </c>
+      <c r="N32" s="266"/>
+      <c r="O32" s="266">
         <v>4254342</v>
       </c>
-      <c r="Q32" s="269">
+      <c r="Q32" s="266">
         <v>-2518955</v>
       </c>
-      <c r="R32" s="269">
+      <c r="R32" s="266">
         <v>94649</v>
       </c>
-      <c r="S32" s="269">
+      <c r="S32" s="266">
         <f t="shared" si="9"/>
         <v>-2424306</v>
       </c>
-      <c r="T32" s="269"/>
-      <c r="U32" s="269">
+      <c r="T32" s="266"/>
+      <c r="U32" s="266">
         <f t="shared" si="10"/>
         <v>-2424306</v>
       </c>
       <c r="V32" s="52"/>
-      <c r="W32" s="269">
+      <c r="W32" s="266">
         <v>-3759434</v>
       </c>
-      <c r="X32" s="269">
+      <c r="X32" s="266">
         <v>-751038</v>
       </c>
-      <c r="Y32" s="269">
+      <c r="Y32" s="266">
         <f t="shared" si="11"/>
         <v>-4510472</v>
       </c>
-      <c r="Z32" s="269"/>
-      <c r="AA32" s="269">
+      <c r="Z32" s="266"/>
+      <c r="AA32" s="266">
         <f t="shared" si="12"/>
         <v>-4510472</v>
       </c>
@@ -10863,53 +10882,53 @@
         <v>129</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269">
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H33" s="269"/>
-      <c r="I33" s="269">
+      <c r="H33" s="266"/>
+      <c r="I33" s="266">
         <f>+'Hoja de trabajo'!L9+'Hoja de trabajo'!L22</f>
-        <v>14566080</v>
+        <v>-30540445</v>
       </c>
       <c r="J33" s="52"/>
-      <c r="K33" s="269"/>
-      <c r="L33" s="269"/>
-      <c r="M33" s="269">
-        <v>0</v>
-      </c>
-      <c r="N33" s="269"/>
-      <c r="O33" s="269">
+      <c r="K33" s="266"/>
+      <c r="L33" s="266"/>
+      <c r="M33" s="266">
+        <v>0</v>
+      </c>
+      <c r="N33" s="266"/>
+      <c r="O33" s="266">
         <v>-7642880</v>
       </c>
-      <c r="Q33" s="269">
+      <c r="Q33" s="266">
         <v>618571</v>
       </c>
-      <c r="R33" s="269">
+      <c r="R33" s="266">
         <v>5583218</v>
       </c>
-      <c r="S33" s="269">
+      <c r="S33" s="266">
         <f t="shared" si="9"/>
         <v>6201789</v>
       </c>
-      <c r="T33" s="269"/>
-      <c r="U33" s="269">
+      <c r="T33" s="266"/>
+      <c r="U33" s="266">
         <f t="shared" si="10"/>
         <v>6201789</v>
       </c>
       <c r="V33" s="52"/>
-      <c r="W33" s="269">
+      <c r="W33" s="266">
         <v>1235126</v>
       </c>
-      <c r="X33" s="269"/>
-      <c r="Y33" s="269">
+      <c r="X33" s="266"/>
+      <c r="Y33" s="266">
         <f t="shared" si="11"/>
         <v>1235126</v>
       </c>
-      <c r="Z33" s="269"/>
-      <c r="AA33" s="269">
+      <c r="Z33" s="266"/>
+      <c r="AA33" s="266">
         <f t="shared" si="12"/>
         <v>1235126</v>
       </c>
@@ -10920,55 +10939,55 @@
         <v>130</v>
       </c>
       <c r="D34" s="52"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="269"/>
-      <c r="G34" s="269">
+      <c r="E34" s="266"/>
+      <c r="F34" s="266"/>
+      <c r="G34" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H34" s="269"/>
-      <c r="I34" s="269">
+      <c r="H34" s="266"/>
+      <c r="I34" s="266">
         <f>+'Hoja de trabajo'!B72</f>
-        <v>2643846</v>
+        <v>1927087</v>
       </c>
       <c r="J34" s="52"/>
-      <c r="K34" s="269"/>
-      <c r="L34" s="269"/>
-      <c r="M34" s="269">
-        <v>0</v>
-      </c>
-      <c r="N34" s="269"/>
-      <c r="O34" s="269">
+      <c r="K34" s="266"/>
+      <c r="L34" s="266"/>
+      <c r="M34" s="266">
+        <v>0</v>
+      </c>
+      <c r="N34" s="266"/>
+      <c r="O34" s="266">
         <v>-7470499.25</v>
       </c>
-      <c r="Q34" s="269">
+      <c r="Q34" s="266">
         <v>2484728</v>
       </c>
-      <c r="R34" s="269">
+      <c r="R34" s="266">
         <v>-1023114</v>
       </c>
-      <c r="S34" s="269">
+      <c r="S34" s="266">
         <f t="shared" si="9"/>
         <v>1461614</v>
       </c>
-      <c r="T34" s="269"/>
-      <c r="U34" s="269">
+      <c r="T34" s="266"/>
+      <c r="U34" s="266">
         <f t="shared" si="10"/>
         <v>1461614</v>
       </c>
       <c r="V34" s="52"/>
-      <c r="W34" s="269">
+      <c r="W34" s="266">
         <v>64755</v>
       </c>
-      <c r="X34" s="269">
+      <c r="X34" s="266">
         <v>-273465</v>
       </c>
-      <c r="Y34" s="269">
+      <c r="Y34" s="266">
         <f t="shared" si="11"/>
         <v>-208710</v>
       </c>
-      <c r="Z34" s="269"/>
-      <c r="AA34" s="269">
+      <c r="Z34" s="266"/>
+      <c r="AA34" s="266">
         <f t="shared" si="12"/>
         <v>-208710</v>
       </c>
@@ -10979,56 +10998,56 @@
         <v>131</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="269"/>
-      <c r="F35" s="269"/>
-      <c r="G35" s="269">
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H35" s="269"/>
-      <c r="I35" s="269">
+      <c r="H35" s="266"/>
+      <c r="I35" s="266">
         <f>+'Hoja de trabajo'!L11+'Hoja de trabajo'!L23</f>
-        <v>-7921265</v>
+        <v>-13724348</v>
       </c>
       <c r="J35" s="52"/>
-      <c r="K35" s="269"/>
-      <c r="L35" s="269"/>
-      <c r="M35" s="269">
-        <v>0</v>
-      </c>
-      <c r="N35" s="269"/>
-      <c r="O35" s="269">
+      <c r="K35" s="266"/>
+      <c r="L35" s="266"/>
+      <c r="M35" s="266">
+        <v>0</v>
+      </c>
+      <c r="N35" s="266"/>
+      <c r="O35" s="266">
         <v>18101009</v>
       </c>
-      <c r="Q35" s="269">
+      <c r="Q35" s="266">
         <v>-4641544</v>
       </c>
-      <c r="R35" s="269">
+      <c r="R35" s="266">
         <f>5964089-R33-R32</f>
         <v>286222</v>
       </c>
-      <c r="S35" s="269">
+      <c r="S35" s="266">
         <f t="shared" si="9"/>
         <v>-4355322</v>
       </c>
-      <c r="T35" s="269">
+      <c r="T35" s="266">
         <v>-295764</v>
       </c>
-      <c r="U35" s="269">
+      <c r="U35" s="266">
         <f t="shared" si="10"/>
         <v>-4651086</v>
       </c>
       <c r="V35" s="52"/>
-      <c r="W35" s="269">
+      <c r="W35" s="266">
         <v>4568360</v>
       </c>
-      <c r="X35" s="269"/>
-      <c r="Y35" s="269">
+      <c r="X35" s="266"/>
+      <c r="Y35" s="266">
         <f t="shared" si="11"/>
         <v>4568360</v>
       </c>
-      <c r="Z35" s="269"/>
-      <c r="AA35" s="269">
+      <c r="Z35" s="266"/>
+      <c r="AA35" s="266">
         <f t="shared" si="12"/>
         <v>4568360</v>
       </c>
@@ -11039,42 +11058,42 @@
         <v>59</v>
       </c>
       <c r="D36" s="52"/>
-      <c r="E36" s="269"/>
-      <c r="F36" s="269"/>
-      <c r="G36" s="269">
+      <c r="E36" s="266"/>
+      <c r="F36" s="266"/>
+      <c r="G36" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H36" s="269"/>
-      <c r="I36" s="269">
+      <c r="H36" s="266"/>
+      <c r="I36" s="266">
         <f>+'Hoja de trabajo'!L25+'Hoja de trabajo'!L12</f>
-        <v>-12162038</v>
+        <v>25786103</v>
       </c>
       <c r="J36" s="52"/>
-      <c r="K36" s="269"/>
-      <c r="L36" s="269"/>
-      <c r="M36" s="269"/>
-      <c r="N36" s="269"/>
-      <c r="O36" s="269">
+      <c r="K36" s="266"/>
+      <c r="L36" s="266"/>
+      <c r="M36" s="266"/>
+      <c r="N36" s="266"/>
+      <c r="O36" s="266">
         <v>-8643863</v>
       </c>
-      <c r="Q36" s="269"/>
-      <c r="R36" s="269"/>
-      <c r="S36" s="269">
+      <c r="Q36" s="266"/>
+      <c r="R36" s="266"/>
+      <c r="S36" s="266">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T36" s="269"/>
-      <c r="U36" s="269">
+      <c r="T36" s="266"/>
+      <c r="U36" s="266">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V36" s="52"/>
-      <c r="W36" s="269"/>
-      <c r="X36" s="269"/>
-      <c r="Y36" s="269"/>
-      <c r="Z36" s="269"/>
-      <c r="AA36" s="269"/>
+      <c r="W36" s="266"/>
+      <c r="X36" s="266"/>
+      <c r="Y36" s="266"/>
+      <c r="Z36" s="266"/>
+      <c r="AA36" s="266"/>
     </row>
     <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
@@ -11082,51 +11101,51 @@
         <v>62</v>
       </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="269"/>
-      <c r="F37" s="269"/>
-      <c r="G37" s="269">
+      <c r="E37" s="266"/>
+      <c r="F37" s="266"/>
+      <c r="G37" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H37" s="269"/>
-      <c r="I37" s="269">
+      <c r="H37" s="266"/>
+      <c r="I37" s="266">
         <f>+'Hoja de trabajo'!L27</f>
-        <v>-2580000</v>
+        <v>0</v>
       </c>
       <c r="J37" s="52"/>
-      <c r="K37" s="269"/>
-      <c r="L37" s="269"/>
-      <c r="M37" s="269">
-        <v>0</v>
-      </c>
-      <c r="N37" s="269"/>
-      <c r="O37" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="269">
+      <c r="K37" s="266"/>
+      <c r="L37" s="266"/>
+      <c r="M37" s="266">
+        <v>0</v>
+      </c>
+      <c r="N37" s="266"/>
+      <c r="O37" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="266">
         <v>-81914</v>
       </c>
-      <c r="R37" s="269"/>
-      <c r="S37" s="269">
+      <c r="R37" s="266"/>
+      <c r="S37" s="266">
         <f t="shared" si="9"/>
         <v>-81914</v>
       </c>
-      <c r="T37" s="269"/>
-      <c r="U37" s="269">
+      <c r="T37" s="266"/>
+      <c r="U37" s="266">
         <f t="shared" si="10"/>
         <v>-81914</v>
       </c>
       <c r="V37" s="52"/>
-      <c r="W37" s="269">
+      <c r="W37" s="266">
         <v>-2404770</v>
       </c>
-      <c r="X37" s="269"/>
-      <c r="Y37" s="269">
+      <c r="X37" s="266"/>
+      <c r="Y37" s="266">
         <f t="shared" si="11"/>
         <v>-2404770</v>
       </c>
-      <c r="Z37" s="269"/>
-      <c r="AA37" s="269">
+      <c r="Z37" s="266"/>
+      <c r="AA37" s="266">
         <f t="shared" si="12"/>
         <v>-2404770</v>
       </c>
@@ -11137,55 +11156,55 @@
         <v>60</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="269"/>
-      <c r="F38" s="269"/>
-      <c r="G38" s="269">
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H38" s="269"/>
-      <c r="I38" s="294">
+      <c r="H38" s="266"/>
+      <c r="I38" s="291">
         <f>+'Hoja de trabajo'!B78</f>
-        <v>-83181</v>
+        <v>1373036</v>
       </c>
       <c r="J38" s="52"/>
-      <c r="K38" s="269"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="269">
-        <v>0</v>
-      </c>
-      <c r="N38" s="269"/>
-      <c r="O38" s="269">
+      <c r="K38" s="266"/>
+      <c r="L38" s="266"/>
+      <c r="M38" s="266">
+        <v>0</v>
+      </c>
+      <c r="N38" s="266"/>
+      <c r="O38" s="266">
         <v>-637915</v>
       </c>
-      <c r="Q38" s="269">
+      <c r="Q38" s="266">
         <v>577820</v>
       </c>
-      <c r="R38" s="269">
+      <c r="R38" s="266">
         <v>417024</v>
       </c>
-      <c r="S38" s="269">
+      <c r="S38" s="266">
         <f t="shared" si="9"/>
         <v>994844</v>
       </c>
-      <c r="T38" s="269"/>
-      <c r="U38" s="269">
+      <c r="T38" s="266"/>
+      <c r="U38" s="266">
         <f t="shared" si="10"/>
         <v>994844</v>
       </c>
       <c r="V38" s="52"/>
-      <c r="W38" s="269">
+      <c r="W38" s="266">
         <v>344260</v>
       </c>
-      <c r="X38" s="269">
+      <c r="X38" s="266">
         <v>-620687</v>
       </c>
-      <c r="Y38" s="269">
+      <c r="Y38" s="266">
         <f t="shared" si="11"/>
         <v>-276427</v>
       </c>
-      <c r="Z38" s="269"/>
-      <c r="AA38" s="269">
+      <c r="Z38" s="266"/>
+      <c r="AA38" s="266">
         <f t="shared" si="12"/>
         <v>-276427</v>
       </c>
@@ -11196,47 +11215,47 @@
         <v>132</v>
       </c>
       <c r="D39" s="52"/>
-      <c r="E39" s="269"/>
-      <c r="F39" s="269"/>
-      <c r="G39" s="269">
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
+      <c r="G39" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H39" s="269"/>
-      <c r="I39" s="294">
+      <c r="H39" s="266"/>
+      <c r="I39" s="291">
         <f t="shared" ref="I39:I41" si="13">+G39+H39</f>
         <v>0</v>
       </c>
       <c r="J39" s="52"/>
-      <c r="K39" s="269"/>
-      <c r="L39" s="269"/>
-      <c r="M39" s="269">
-        <v>0</v>
-      </c>
-      <c r="N39" s="269"/>
-      <c r="O39" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="269"/>
-      <c r="R39" s="269"/>
-      <c r="S39" s="269">
+      <c r="K39" s="266"/>
+      <c r="L39" s="266"/>
+      <c r="M39" s="266">
+        <v>0</v>
+      </c>
+      <c r="N39" s="266"/>
+      <c r="O39" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="266"/>
+      <c r="R39" s="266"/>
+      <c r="S39" s="266">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T39" s="269"/>
-      <c r="U39" s="269">
+      <c r="T39" s="266"/>
+      <c r="U39" s="266">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V39" s="52"/>
-      <c r="W39" s="269"/>
-      <c r="X39" s="269"/>
-      <c r="Y39" s="269">
+      <c r="W39" s="266"/>
+      <c r="X39" s="266"/>
+      <c r="Y39" s="266">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="269"/>
-      <c r="AA39" s="269">
+      <c r="Z39" s="266"/>
+      <c r="AA39" s="266">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -11247,47 +11266,47 @@
         <v>133</v>
       </c>
       <c r="D40" s="52"/>
-      <c r="E40" s="269"/>
-      <c r="F40" s="269"/>
-      <c r="G40" s="269">
+      <c r="E40" s="266"/>
+      <c r="F40" s="266"/>
+      <c r="G40" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H40" s="269"/>
-      <c r="I40" s="294">
+      <c r="H40" s="266"/>
+      <c r="I40" s="291">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J40" s="52"/>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="269">
-        <v>0</v>
-      </c>
-      <c r="N40" s="269"/>
-      <c r="O40" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="269"/>
-      <c r="R40" s="269"/>
-      <c r="S40" s="269">
+      <c r="K40" s="266"/>
+      <c r="L40" s="266"/>
+      <c r="M40" s="266">
+        <v>0</v>
+      </c>
+      <c r="N40" s="266"/>
+      <c r="O40" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="266"/>
+      <c r="R40" s="266"/>
+      <c r="S40" s="266">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T40" s="269"/>
-      <c r="U40" s="269">
+      <c r="T40" s="266"/>
+      <c r="U40" s="266">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V40" s="52"/>
-      <c r="W40" s="269"/>
-      <c r="X40" s="269"/>
-      <c r="Y40" s="269">
+      <c r="W40" s="266"/>
+      <c r="X40" s="266"/>
+      <c r="Y40" s="266">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="269"/>
-      <c r="AA40" s="269">
+      <c r="Z40" s="266"/>
+      <c r="AA40" s="266">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -11298,122 +11317,122 @@
         <v>134</v>
       </c>
       <c r="D41" s="52"/>
-      <c r="E41" s="277"/>
-      <c r="F41" s="277"/>
-      <c r="G41" s="269">
+      <c r="E41" s="274"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="266">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H41" s="269"/>
-      <c r="I41" s="294">
+      <c r="H41" s="266"/>
+      <c r="I41" s="291">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J41" s="52"/>
-      <c r="K41" s="277"/>
-      <c r="L41" s="277"/>
-      <c r="M41" s="269">
-        <v>0</v>
-      </c>
-      <c r="N41" s="269"/>
-      <c r="O41" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="277">
+      <c r="K41" s="274"/>
+      <c r="L41" s="274"/>
+      <c r="M41" s="266">
+        <v>0</v>
+      </c>
+      <c r="N41" s="266"/>
+      <c r="O41" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="274">
         <v>-992443</v>
       </c>
-      <c r="R41" s="277"/>
-      <c r="S41" s="269">
+      <c r="R41" s="274"/>
+      <c r="S41" s="266">
         <f t="shared" si="9"/>
         <v>-992443</v>
       </c>
-      <c r="T41" s="269"/>
-      <c r="U41" s="269">
+      <c r="T41" s="266"/>
+      <c r="U41" s="266">
         <f t="shared" si="10"/>
         <v>-992443</v>
       </c>
       <c r="V41" s="52"/>
-      <c r="W41" s="277">
+      <c r="W41" s="274">
         <v>-2999556</v>
       </c>
-      <c r="X41" s="277"/>
-      <c r="Y41" s="269">
+      <c r="X41" s="274"/>
+      <c r="Y41" s="266">
         <f t="shared" si="11"/>
         <v>-2999556</v>
       </c>
-      <c r="Z41" s="269"/>
-      <c r="AA41" s="269">
+      <c r="Z41" s="266"/>
+      <c r="AA41" s="266">
         <f t="shared" si="12"/>
         <v>-2999556</v>
       </c>
     </row>
     <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="275" t="s">
+      <c r="B42" s="272" t="s">
         <v>135</v>
       </c>
       <c r="D42" s="52"/>
-      <c r="E42" s="269"/>
-      <c r="F42" s="269"/>
-      <c r="G42" s="268"/>
-      <c r="H42" s="268"/>
-      <c r="I42" s="295">
+      <c r="E42" s="266"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="265"/>
+      <c r="H42" s="265"/>
+      <c r="I42" s="292">
         <f>SUM(I23:I41)</f>
-        <v>61964636.814851999</v>
+        <v>61420287.814851999</v>
       </c>
       <c r="J42" s="52"/>
-      <c r="K42" s="269">
+      <c r="K42" s="266">
         <v>51381438</v>
       </c>
-      <c r="L42" s="269">
+      <c r="L42" s="266">
         <v>22113436</v>
       </c>
-      <c r="M42" s="268">
+      <c r="M42" s="265">
         <v>73494874</v>
       </c>
-      <c r="N42" s="268">
+      <c r="N42" s="265">
         <v>2120374</v>
       </c>
-      <c r="O42" s="268">
+      <c r="O42" s="265">
         <v>60374291.340000004</v>
       </c>
-      <c r="Q42" s="269">
+      <c r="Q42" s="266">
         <f>SUM(Q23:Q41)</f>
         <v>29430889.449999988</v>
       </c>
-      <c r="R42" s="269">
+      <c r="R42" s="266">
         <f>SUM(R23:R41)</f>
         <v>12557763</v>
       </c>
-      <c r="S42" s="268">
+      <c r="S42" s="265">
         <f>SUM(S23:S41)</f>
         <v>41988652.449999988</v>
       </c>
-      <c r="T42" s="268">
+      <c r="T42" s="265">
         <f>SUM(T23:T41)</f>
         <v>-5827272.5</v>
       </c>
-      <c r="U42" s="268">
+      <c r="U42" s="265">
         <f>SUM(U23:U41)</f>
         <v>36161379.949999988</v>
       </c>
       <c r="V42" s="52"/>
-      <c r="W42" s="269">
+      <c r="W42" s="266">
         <f>SUM(W23:W41)</f>
         <v>20225786</v>
       </c>
-      <c r="X42" s="269">
+      <c r="X42" s="266">
         <f>SUM(X23:X41)</f>
         <v>10678048</v>
       </c>
-      <c r="Y42" s="268">
+      <c r="Y42" s="265">
         <f>SUM(Y23:Y41)</f>
         <v>30427366</v>
       </c>
-      <c r="Z42" s="268">
+      <c r="Z42" s="265">
         <f>SUM(Z23:Z41)</f>
         <v>-7157121</v>
       </c>
-      <c r="AA42" s="268">
+      <c r="AA42" s="265">
         <f>SUM(AA23:AA41)</f>
         <v>23270245</v>
       </c>
@@ -11424,60 +11443,60 @@
         <v>136</v>
       </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="269">
+      <c r="E43" s="266">
         <v>-3680975</v>
       </c>
-      <c r="F43" s="269">
+      <c r="F43" s="266">
         <f>-483390-4162944</f>
         <v>-4646334</v>
       </c>
-      <c r="G43" s="269">
+      <c r="G43" s="266">
         <f t="shared" ref="G43:I45" si="14">+E43+F43</f>
         <v>-8327309</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="294">
+      <c r="I43" s="291">
         <f t="shared" si="14"/>
         <v>-8327309</v>
       </c>
       <c r="J43" s="52"/>
-      <c r="K43" s="269"/>
-      <c r="L43" s="269">
+      <c r="K43" s="266"/>
+      <c r="L43" s="266">
         <v>-2091119</v>
       </c>
-      <c r="M43" s="269">
+      <c r="M43" s="266">
         <v>-2091119</v>
       </c>
       <c r="N43" s="18"/>
-      <c r="O43" s="269">
+      <c r="O43" s="266">
         <v>-2091119</v>
       </c>
-      <c r="Q43" s="269">
+      <c r="Q43" s="266">
         <v>-4237903</v>
       </c>
-      <c r="R43" s="269"/>
-      <c r="S43" s="269">
+      <c r="R43" s="266"/>
+      <c r="S43" s="266">
         <f t="shared" si="9"/>
         <v>-4237903</v>
       </c>
       <c r="T43" s="18"/>
-      <c r="U43" s="269">
+      <c r="U43" s="266">
         <f>+S43+T43</f>
         <v>-4237903</v>
       </c>
       <c r="V43" s="52"/>
-      <c r="W43" s="269">
+      <c r="W43" s="266">
         <v>-3550763</v>
       </c>
-      <c r="X43" s="269">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="269">
+      <c r="X43" s="266">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="266">
         <f t="shared" ref="Y43:Y45" si="15">+W43+X43</f>
         <v>-3550763</v>
       </c>
       <c r="Z43" s="18"/>
-      <c r="AA43" s="269">
+      <c r="AA43" s="266">
         <f>+Y43+Z43</f>
         <v>-3550763</v>
       </c>
@@ -11488,55 +11507,55 @@
         <v>137</v>
       </c>
       <c r="D44" s="52"/>
-      <c r="E44" s="269">
+      <c r="E44" s="266">
         <v>-3976474</v>
       </c>
-      <c r="F44" s="269"/>
-      <c r="G44" s="269">
+      <c r="F44" s="266"/>
+      <c r="G44" s="266">
         <f t="shared" si="14"/>
         <v>-3976474</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="269">
+      <c r="I44" s="266">
         <f t="shared" si="14"/>
         <v>-3976474</v>
       </c>
       <c r="J44" s="52"/>
-      <c r="K44" s="269">
+      <c r="K44" s="266">
         <v>-2840226</v>
       </c>
-      <c r="L44" s="269"/>
-      <c r="M44" s="269">
+      <c r="L44" s="266"/>
+      <c r="M44" s="266">
         <v>-2840226</v>
       </c>
       <c r="N44" s="18"/>
-      <c r="O44" s="269">
+      <c r="O44" s="266">
         <v>-2840226</v>
       </c>
-      <c r="Q44" s="269">
+      <c r="Q44" s="266">
         <v>-1591304</v>
       </c>
-      <c r="R44" s="269"/>
-      <c r="S44" s="269">
+      <c r="R44" s="266"/>
+      <c r="S44" s="266">
         <f t="shared" si="9"/>
         <v>-1591304</v>
       </c>
       <c r="T44" s="18"/>
-      <c r="U44" s="269">
+      <c r="U44" s="266">
         <f>+S44+T44</f>
         <v>-1591304</v>
       </c>
       <c r="V44" s="52"/>
-      <c r="W44" s="269">
+      <c r="W44" s="266">
         <v>-1759101</v>
       </c>
-      <c r="X44" s="269"/>
-      <c r="Y44" s="269">
+      <c r="X44" s="266"/>
+      <c r="Y44" s="266">
         <f t="shared" si="15"/>
         <v>-1759101</v>
       </c>
       <c r="Z44" s="18"/>
-      <c r="AA44" s="269">
+      <c r="AA44" s="266">
         <f>+Y44+Z44</f>
         <v>-1759101</v>
       </c>
@@ -11547,636 +11566,636 @@
         <v>138</v>
       </c>
       <c r="D45" s="52"/>
-      <c r="E45" s="277">
+      <c r="E45" s="274">
         <v>-17000</v>
       </c>
-      <c r="F45" s="277">
+      <c r="F45" s="274">
         <f>-41759-29720</f>
         <v>-71479</v>
       </c>
-      <c r="G45" s="269">
+      <c r="G45" s="266">
         <f t="shared" si="14"/>
         <v>-88479</v>
       </c>
       <c r="H45" s="18"/>
-      <c r="I45" s="269">
+      <c r="I45" s="266">
         <f>+'Hoja de trabajo'!B56</f>
-        <v>-1668962</v>
+        <v>-1671501</v>
       </c>
       <c r="J45" s="52"/>
-      <c r="K45" s="277"/>
-      <c r="L45" s="277"/>
-      <c r="M45" s="269">
+      <c r="K45" s="274"/>
+      <c r="L45" s="274"/>
+      <c r="M45" s="266">
         <v>0</v>
       </c>
       <c r="N45" s="18"/>
-      <c r="O45" s="269">
+      <c r="O45" s="266">
         <v>-685257</v>
       </c>
-      <c r="Q45" s="277">
+      <c r="Q45" s="274">
         <v>-207177</v>
       </c>
-      <c r="R45" s="277"/>
-      <c r="S45" s="269">
+      <c r="R45" s="274"/>
+      <c r="S45" s="266">
         <f t="shared" si="9"/>
         <v>-207177</v>
       </c>
       <c r="T45" s="18"/>
-      <c r="U45" s="269">
+      <c r="U45" s="266">
         <f>+S45+T45</f>
         <v>-207177</v>
       </c>
       <c r="V45" s="52"/>
-      <c r="W45" s="277">
+      <c r="W45" s="274">
         <v>-107410</v>
       </c>
-      <c r="X45" s="277"/>
-      <c r="Y45" s="269">
+      <c r="X45" s="274"/>
+      <c r="Y45" s="266">
         <f t="shared" si="15"/>
         <v>-107410</v>
       </c>
       <c r="Z45" s="18"/>
-      <c r="AA45" s="269">
+      <c r="AA45" s="266">
         <f>+Y45+Z45</f>
         <v>-107410</v>
       </c>
     </row>
     <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="278" t="s">
+      <c r="B46" s="275" t="s">
         <v>139</v>
       </c>
       <c r="C46" s="56"/>
       <c r="D46" s="57"/>
-      <c r="E46" s="279"/>
-      <c r="F46" s="279"/>
-      <c r="G46" s="279"/>
-      <c r="H46" s="279"/>
-      <c r="I46" s="279">
+      <c r="E46" s="276"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="276"/>
+      <c r="H46" s="276"/>
+      <c r="I46" s="276">
         <f>SUM(I42:I45)</f>
-        <v>47991891.814851999</v>
+        <v>47445003.814851999</v>
       </c>
       <c r="J46" s="52"/>
-      <c r="K46" s="279">
+      <c r="K46" s="276">
         <v>48541212</v>
       </c>
-      <c r="L46" s="279">
+      <c r="L46" s="276">
         <v>20022317</v>
       </c>
-      <c r="M46" s="279">
+      <c r="M46" s="276">
         <v>68563529</v>
       </c>
-      <c r="N46" s="279">
+      <c r="N46" s="276">
         <v>2120374</v>
       </c>
-      <c r="O46" s="279">
+      <c r="O46" s="276">
         <v>54757689.340000004</v>
       </c>
-      <c r="Q46" s="279">
+      <c r="Q46" s="276">
         <f>SUM(Q42:Q45)</f>
         <v>23394505.449999988</v>
       </c>
-      <c r="R46" s="279">
+      <c r="R46" s="276">
         <f>SUM(R42:R45)</f>
         <v>12557763</v>
       </c>
-      <c r="S46" s="279">
+      <c r="S46" s="276">
         <f>SUM(S42:S45)</f>
         <v>35952268.449999988</v>
       </c>
-      <c r="T46" s="279">
+      <c r="T46" s="276">
         <f>SUM(T42:T45)</f>
         <v>-5827272.5</v>
       </c>
-      <c r="U46" s="279">
+      <c r="U46" s="276">
         <f>SUM(U42:U45)</f>
         <v>30124995.949999988</v>
       </c>
       <c r="V46" s="58"/>
-      <c r="W46" s="279">
+      <c r="W46" s="276">
         <f>SUM(W42:W45)</f>
         <v>14808512</v>
       </c>
-      <c r="X46" s="279">
+      <c r="X46" s="276">
         <f>SUM(X42:X45)</f>
         <v>10678048</v>
       </c>
-      <c r="Y46" s="279">
+      <c r="Y46" s="276">
         <f>SUM(Y42:Y45)</f>
         <v>25010092</v>
       </c>
-      <c r="Z46" s="279">
+      <c r="Z46" s="276">
         <f>SUM(Z42:Z45)</f>
         <v>-7157121</v>
       </c>
-      <c r="AA46" s="279">
+      <c r="AA46" s="276">
         <f>SUM(AA42:AA45)</f>
         <v>17852971</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="321" t="s">
+      <c r="B47" s="297" t="s">
         <v>448</v>
       </c>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
-      <c r="E47" s="269"/>
-      <c r="F47" s="269"/>
-      <c r="G47" s="269"/>
-      <c r="H47" s="269"/>
-      <c r="I47" s="269"/>
+      <c r="E47" s="266"/>
+      <c r="F47" s="266"/>
+      <c r="G47" s="266"/>
+      <c r="H47" s="266"/>
+      <c r="I47" s="266"/>
       <c r="J47" s="52"/>
-      <c r="K47" s="269"/>
-      <c r="L47" s="269"/>
-      <c r="M47" s="269"/>
-      <c r="N47" s="269"/>
-      <c r="O47" s="269"/>
-      <c r="Q47" s="269"/>
-      <c r="R47" s="269"/>
-      <c r="S47" s="269"/>
-      <c r="T47" s="269"/>
-      <c r="U47" s="269"/>
+      <c r="K47" s="266"/>
+      <c r="L47" s="266"/>
+      <c r="M47" s="266"/>
+      <c r="N47" s="266"/>
+      <c r="O47" s="266"/>
+      <c r="Q47" s="266"/>
+      <c r="R47" s="266"/>
+      <c r="S47" s="266"/>
+      <c r="T47" s="266"/>
+      <c r="U47" s="266"/>
       <c r="V47" s="44"/>
-      <c r="W47" s="269"/>
-      <c r="X47" s="269"/>
-      <c r="Y47" s="269"/>
-      <c r="Z47" s="269"/>
-      <c r="AA47" s="269"/>
+      <c r="W47" s="266"/>
+      <c r="X47" s="266"/>
+      <c r="Y47" s="266"/>
+      <c r="Z47" s="266"/>
+      <c r="AA47" s="266"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="322"/>
-      <c r="C48" s="323" t="s">
+      <c r="B48" s="298"/>
+      <c r="C48" s="299" t="s">
         <v>449</v>
       </c>
       <c r="D48" s="52"/>
-      <c r="E48" s="269">
+      <c r="E48" s="266">
         <v>180367119</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="266">
         <v>166632935</v>
       </c>
-      <c r="G48" s="269">
+      <c r="G48" s="266">
         <f>+E48+F48</f>
         <v>347000054</v>
       </c>
-      <c r="H48" s="269">
+      <c r="H48" s="266">
         <f>-H60</f>
         <v>-4118950</v>
       </c>
-      <c r="I48" s="269">
+      <c r="I48" s="266">
         <f>+G48+H48</f>
         <v>342881104</v>
       </c>
       <c r="J48" s="52"/>
-      <c r="K48" s="269">
+      <c r="K48" s="266">
         <v>200376926</v>
       </c>
-      <c r="L48" s="269">
+      <c r="L48" s="266">
         <v>126653747</v>
       </c>
-      <c r="M48" s="269">
+      <c r="M48" s="266">
         <f>+K48+L48</f>
         <v>327030673</v>
       </c>
-      <c r="N48" s="269">
+      <c r="N48" s="266">
         <f>-N60</f>
         <v>-8203260</v>
       </c>
-      <c r="O48" s="269">
+      <c r="O48" s="266">
         <f>+M48+N48</f>
         <v>318827413</v>
       </c>
-      <c r="Q48" s="269"/>
-      <c r="R48" s="269"/>
-      <c r="S48" s="269"/>
-      <c r="T48" s="269"/>
-      <c r="U48" s="269"/>
+      <c r="Q48" s="266"/>
+      <c r="R48" s="266"/>
+      <c r="S48" s="266"/>
+      <c r="T48" s="266"/>
+      <c r="U48" s="266"/>
       <c r="V48" s="44"/>
-      <c r="W48" s="269"/>
-      <c r="X48" s="269"/>
-      <c r="Y48" s="269"/>
-      <c r="Z48" s="269"/>
-      <c r="AA48" s="269"/>
+      <c r="W48" s="266"/>
+      <c r="X48" s="266"/>
+      <c r="Y48" s="266"/>
+      <c r="Z48" s="266"/>
+      <c r="AA48" s="266"/>
     </row>
     <row r="49" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="322"/>
-      <c r="C49" s="324" t="s">
-        <v>455</v>
-      </c>
-      <c r="D49" s="325"/>
-      <c r="E49" s="269">
-        <v>-164103721</v>
-      </c>
-      <c r="F49" s="269">
+      <c r="B49" s="298"/>
+      <c r="C49" s="312" t="s">
+        <v>454</v>
+      </c>
+      <c r="D49" s="313"/>
+      <c r="E49" s="266">
+        <v>-158748655</v>
+      </c>
+      <c r="F49" s="266">
         <f>-138318661+4162944</f>
         <v>-134155717</v>
       </c>
-      <c r="G49" s="269">
+      <c r="G49" s="266">
         <f t="shared" ref="G49:G52" si="16">+E49+F49</f>
-        <v>-298259438</v>
-      </c>
-      <c r="H49" s="269"/>
-      <c r="I49" s="269">
+        <v>-292904372</v>
+      </c>
+      <c r="H49" s="266"/>
+      <c r="I49" s="266">
         <f t="shared" ref="I49:I52" si="17">+G49+H49</f>
-        <v>-298259438</v>
+        <v>-292904372</v>
       </c>
       <c r="J49" s="52"/>
-      <c r="K49" s="269">
+      <c r="K49" s="266">
         <v>-156943511</v>
       </c>
-      <c r="L49" s="269">
+      <c r="L49" s="266">
         <v>-114597477</v>
       </c>
-      <c r="M49" s="269">
+      <c r="M49" s="266">
         <f t="shared" ref="M49:M52" si="18">+K49+L49</f>
         <v>-271540988</v>
       </c>
-      <c r="N49" s="269"/>
-      <c r="O49" s="269">
+      <c r="N49" s="266"/>
+      <c r="O49" s="266">
         <f t="shared" ref="O49:O52" si="19">+M49+N49</f>
         <v>-271540988</v>
       </c>
-      <c r="Q49" s="269"/>
-      <c r="R49" s="269"/>
-      <c r="S49" s="269"/>
-      <c r="T49" s="269"/>
-      <c r="U49" s="269"/>
+      <c r="Q49" s="266"/>
+      <c r="R49" s="266"/>
+      <c r="S49" s="266"/>
+      <c r="T49" s="266"/>
+      <c r="U49" s="266"/>
       <c r="V49" s="44"/>
-      <c r="W49" s="269"/>
-      <c r="X49" s="269"/>
-      <c r="Y49" s="269"/>
-      <c r="Z49" s="269"/>
-      <c r="AA49" s="269"/>
+      <c r="W49" s="266"/>
+      <c r="X49" s="266"/>
+      <c r="Y49" s="266"/>
+      <c r="Z49" s="266"/>
+      <c r="AA49" s="266"/>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B50" s="322"/>
-      <c r="C50" s="323" t="s">
-        <v>453</v>
+      <c r="B50" s="298"/>
+      <c r="C50" s="299" t="s">
+        <v>452</v>
       </c>
       <c r="D50" s="52"/>
-      <c r="E50" s="269">
+      <c r="E50" s="266">
         <v>-501019</v>
       </c>
-      <c r="F50" s="269">
+      <c r="F50" s="266">
         <f>1386241+113140</f>
         <v>1499381</v>
       </c>
-      <c r="G50" s="269">
+      <c r="G50" s="266">
         <f t="shared" si="16"/>
         <v>998362</v>
       </c>
-      <c r="H50" s="269"/>
-      <c r="I50" s="269">
+      <c r="H50" s="266"/>
+      <c r="I50" s="266">
         <f t="shared" si="17"/>
         <v>998362</v>
       </c>
       <c r="J50" s="52"/>
-      <c r="K50" s="269"/>
-      <c r="L50" s="269">
+      <c r="K50" s="266"/>
+      <c r="L50" s="266">
         <f>451754+174049</f>
         <v>625803</v>
       </c>
-      <c r="M50" s="269">
+      <c r="M50" s="266">
         <f t="shared" si="18"/>
         <v>625803</v>
       </c>
-      <c r="N50" s="269"/>
-      <c r="O50" s="269">
+      <c r="N50" s="266"/>
+      <c r="O50" s="266">
         <f t="shared" si="19"/>
         <v>625803</v>
       </c>
-      <c r="Q50" s="269"/>
-      <c r="R50" s="269"/>
-      <c r="S50" s="269"/>
-      <c r="T50" s="269"/>
-      <c r="U50" s="269"/>
+      <c r="Q50" s="266"/>
+      <c r="R50" s="266"/>
+      <c r="S50" s="266"/>
+      <c r="T50" s="266"/>
+      <c r="U50" s="266"/>
       <c r="V50" s="44"/>
-      <c r="W50" s="269"/>
-      <c r="X50" s="269"/>
-      <c r="Y50" s="269"/>
-      <c r="Z50" s="269"/>
-      <c r="AA50" s="269"/>
+      <c r="W50" s="266"/>
+      <c r="X50" s="266"/>
+      <c r="Y50" s="266"/>
+      <c r="Z50" s="266"/>
+      <c r="AA50" s="266"/>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B51" s="322"/>
-      <c r="C51" s="323" t="s">
-        <v>450</v>
+      <c r="B51" s="298"/>
+      <c r="C51" s="299" t="s">
+        <v>136</v>
       </c>
       <c r="D51" s="52"/>
-      <c r="E51" s="269">
-        <v>-3680975</v>
-      </c>
-      <c r="F51" s="294">
+      <c r="E51" s="266">
+        <v>-9036041</v>
+      </c>
+      <c r="F51" s="291">
         <v>-4162944</v>
       </c>
-      <c r="G51" s="269">
+      <c r="G51" s="266">
         <f t="shared" si="16"/>
-        <v>-7843919</v>
-      </c>
-      <c r="H51" s="269"/>
-      <c r="I51" s="269">
+        <v>-13198985</v>
+      </c>
+      <c r="H51" s="266"/>
+      <c r="I51" s="266">
         <f t="shared" si="17"/>
-        <v>-7843919</v>
+        <v>-13198985</v>
       </c>
       <c r="J51" s="52"/>
-      <c r="K51" s="269">
+      <c r="K51" s="266">
         <v>-7316715</v>
       </c>
-      <c r="L51" s="269"/>
-      <c r="M51" s="269">
+      <c r="L51" s="266"/>
+      <c r="M51" s="266">
         <f t="shared" si="18"/>
         <v>-7316715</v>
       </c>
-      <c r="N51" s="269"/>
-      <c r="O51" s="269">
+      <c r="N51" s="266"/>
+      <c r="O51" s="266">
         <f t="shared" si="19"/>
         <v>-7316715</v>
       </c>
-      <c r="Q51" s="269"/>
-      <c r="R51" s="269"/>
-      <c r="S51" s="269"/>
-      <c r="T51" s="269"/>
-      <c r="U51" s="269"/>
+      <c r="Q51" s="266"/>
+      <c r="R51" s="266"/>
+      <c r="S51" s="266"/>
+      <c r="T51" s="266"/>
+      <c r="U51" s="266"/>
       <c r="V51" s="44"/>
-      <c r="W51" s="269"/>
-      <c r="X51" s="269"/>
-      <c r="Y51" s="269"/>
-      <c r="Z51" s="269"/>
-      <c r="AA51" s="269"/>
+      <c r="W51" s="266"/>
+      <c r="X51" s="266"/>
+      <c r="Y51" s="266"/>
+      <c r="Z51" s="266"/>
+      <c r="AA51" s="266"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B52" s="322"/>
-      <c r="C52" s="323" t="s">
-        <v>451</v>
+      <c r="B52" s="298"/>
+      <c r="C52" s="299" t="s">
+        <v>450</v>
       </c>
       <c r="D52" s="52"/>
-      <c r="E52" s="269">
+      <c r="E52" s="266">
         <v>-1888989</v>
       </c>
-      <c r="F52" s="269">
+      <c r="F52" s="266">
         <v>-674385</v>
       </c>
-      <c r="G52" s="269">
+      <c r="G52" s="266">
         <f t="shared" si="16"/>
         <v>-2563374</v>
       </c>
-      <c r="H52" s="269"/>
-      <c r="I52" s="269">
+      <c r="H52" s="266"/>
+      <c r="I52" s="266">
         <f t="shared" si="17"/>
         <v>-2563374</v>
       </c>
       <c r="J52" s="52"/>
-      <c r="K52" s="269"/>
-      <c r="L52" s="269">
+      <c r="K52" s="266"/>
+      <c r="L52" s="266">
         <v>-670216</v>
       </c>
-      <c r="M52" s="269">
+      <c r="M52" s="266">
         <f t="shared" si="18"/>
         <v>-670216</v>
       </c>
-      <c r="N52" s="269"/>
-      <c r="O52" s="269">
+      <c r="N52" s="266"/>
+      <c r="O52" s="266">
         <f t="shared" si="19"/>
         <v>-670216</v>
       </c>
-      <c r="Q52" s="269"/>
-      <c r="R52" s="269"/>
-      <c r="S52" s="269"/>
-      <c r="T52" s="269"/>
-      <c r="U52" s="269"/>
+      <c r="Q52" s="266"/>
+      <c r="R52" s="266"/>
+      <c r="S52" s="266"/>
+      <c r="T52" s="266"/>
+      <c r="U52" s="266"/>
       <c r="V52" s="44"/>
-      <c r="W52" s="269"/>
-      <c r="X52" s="269"/>
-      <c r="Y52" s="269"/>
-      <c r="Z52" s="269"/>
-      <c r="AA52" s="269"/>
+      <c r="W52" s="266"/>
+      <c r="X52" s="266"/>
+      <c r="Y52" s="266"/>
+      <c r="Z52" s="266"/>
+      <c r="AA52" s="266"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B53" s="322" t="s">
-        <v>452</v>
+      <c r="B53" s="298" t="s">
+        <v>451</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="279">
+      <c r="E53" s="276">
         <f>SUM(E48:E52)</f>
         <v>10192415</v>
       </c>
-      <c r="F53" s="279">
+      <c r="F53" s="276">
         <f t="shared" ref="F53:I53" si="20">SUM(F48:F52)</f>
         <v>29139270</v>
       </c>
-      <c r="G53" s="279">
+      <c r="G53" s="276">
         <f t="shared" si="20"/>
         <v>39331685</v>
       </c>
-      <c r="H53" s="279">
+      <c r="H53" s="276">
         <f t="shared" si="20"/>
         <v>-4118950</v>
       </c>
-      <c r="I53" s="279">
+      <c r="I53" s="276">
         <f t="shared" si="20"/>
         <v>35212735</v>
       </c>
       <c r="J53" s="52"/>
-      <c r="K53" s="279">
+      <c r="K53" s="276">
         <f>SUM(K48:K52)</f>
         <v>36116700</v>
       </c>
-      <c r="L53" s="279">
+      <c r="L53" s="276">
         <f t="shared" ref="L53" si="21">SUM(L48:L52)</f>
         <v>12011857</v>
       </c>
-      <c r="M53" s="279">
+      <c r="M53" s="276">
         <f t="shared" ref="M53:N53" si="22">SUM(M48:M52)</f>
         <v>48128557</v>
       </c>
-      <c r="N53" s="279">
+      <c r="N53" s="276">
         <f t="shared" si="22"/>
         <v>-8203260</v>
       </c>
-      <c r="O53" s="279">
+      <c r="O53" s="276">
         <f t="shared" ref="O53" si="23">SUM(O48:O52)</f>
         <v>39925297</v>
       </c>
-      <c r="Q53" s="269"/>
-      <c r="R53" s="269"/>
-      <c r="S53" s="269"/>
-      <c r="T53" s="269"/>
-      <c r="U53" s="269"/>
+      <c r="Q53" s="266"/>
+      <c r="R53" s="266"/>
+      <c r="S53" s="266"/>
+      <c r="T53" s="266"/>
+      <c r="U53" s="266"/>
       <c r="V53" s="44"/>
-      <c r="W53" s="269"/>
-      <c r="X53" s="269"/>
-      <c r="Y53" s="269"/>
-      <c r="Z53" s="269"/>
-      <c r="AA53" s="269"/>
+      <c r="W53" s="266"/>
+      <c r="X53" s="266"/>
+      <c r="Y53" s="266"/>
+      <c r="Z53" s="266"/>
+      <c r="AA53" s="266"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B54" s="322"/>
+      <c r="B54" s="298"/>
       <c r="C54" s="44"/>
       <c r="D54" s="52"/>
-      <c r="E54" s="269"/>
-      <c r="F54" s="269"/>
-      <c r="G54" s="269"/>
-      <c r="H54" s="269"/>
-      <c r="I54" s="269"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="266"/>
+      <c r="H54" s="266"/>
+      <c r="I54" s="266"/>
       <c r="J54" s="52"/>
-      <c r="K54" s="269"/>
-      <c r="L54" s="269"/>
-      <c r="M54" s="269"/>
-      <c r="N54" s="269"/>
-      <c r="O54" s="269"/>
-      <c r="Q54" s="269"/>
-      <c r="R54" s="269"/>
-      <c r="S54" s="269"/>
-      <c r="T54" s="269"/>
-      <c r="U54" s="269"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="266"/>
+      <c r="N54" s="266"/>
+      <c r="O54" s="266"/>
+      <c r="Q54" s="266"/>
+      <c r="R54" s="266"/>
+      <c r="S54" s="266"/>
+      <c r="T54" s="266"/>
+      <c r="U54" s="266"/>
       <c r="V54" s="44"/>
-      <c r="W54" s="269"/>
-      <c r="X54" s="269"/>
-      <c r="Y54" s="269"/>
-      <c r="Z54" s="269"/>
-      <c r="AA54" s="269"/>
+      <c r="W54" s="266"/>
+      <c r="X54" s="266"/>
+      <c r="Y54" s="266"/>
+      <c r="Z54" s="266"/>
+      <c r="AA54" s="266"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B55" s="275" t="s">
+      <c r="B55" s="272" t="s">
         <v>140</v>
       </c>
       <c r="D55" s="52"/>
-      <c r="E55" s="269"/>
-      <c r="F55" s="269"/>
+      <c r="E55" s="266"/>
+      <c r="F55" s="266"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="52"/>
-      <c r="K55" s="269"/>
-      <c r="L55" s="269"/>
+      <c r="K55" s="266"/>
+      <c r="L55" s="266"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
-      <c r="Q55" s="269"/>
-      <c r="R55" s="269"/>
+      <c r="Q55" s="266"/>
+      <c r="R55" s="266"/>
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="W55" s="269"/>
-      <c r="X55" s="269"/>
+      <c r="W55" s="266"/>
+      <c r="X55" s="266"/>
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
       <c r="AA55" s="18"/>
     </row>
     <row r="56" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
-      <c r="C56" s="305" t="s">
+      <c r="C56" s="308" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="306"/>
-      <c r="E56" s="269">
+      <c r="D56" s="309"/>
+      <c r="E56" s="266">
         <v>238878</v>
       </c>
-      <c r="F56" s="269"/>
-      <c r="G56" s="269">
+      <c r="F56" s="266"/>
+      <c r="G56" s="266">
         <f>+E56+F56</f>
         <v>238878</v>
       </c>
       <c r="H56" s="18"/>
-      <c r="I56" s="269">
+      <c r="I56" s="266">
         <f t="shared" ref="I56:I63" si="24">+G56+H56</f>
         <v>238878</v>
       </c>
-      <c r="J56" s="298"/>
-      <c r="K56" s="269">
+      <c r="J56" s="295"/>
+      <c r="K56" s="266">
         <v>-904453</v>
       </c>
-      <c r="L56" s="269"/>
-      <c r="M56" s="269">
+      <c r="L56" s="266"/>
+      <c r="M56" s="266">
         <f>+K56+L56</f>
         <v>-904453</v>
       </c>
       <c r="N56" s="18"/>
-      <c r="O56" s="269">
+      <c r="O56" s="266">
         <f>+M56+N56</f>
         <v>-904453</v>
       </c>
-      <c r="Q56" s="269">
+      <c r="Q56" s="266">
         <v>251011</v>
       </c>
-      <c r="R56" s="269"/>
-      <c r="S56" s="269">
+      <c r="R56" s="266"/>
+      <c r="S56" s="266">
         <f t="shared" ref="S56:S63" si="25">+Q56+R56</f>
         <v>251011</v>
       </c>
       <c r="T56" s="18"/>
-      <c r="U56" s="269">
+      <c r="U56" s="266">
         <f>+S56+T56</f>
         <v>251011</v>
       </c>
-      <c r="W56" s="269">
+      <c r="W56" s="266">
         <v>-593863</v>
       </c>
-      <c r="X56" s="269"/>
-      <c r="Y56" s="269">
+      <c r="X56" s="266"/>
+      <c r="Y56" s="266">
         <f t="shared" ref="Y56:Y61" si="26">+W56+X56</f>
         <v>-593863</v>
       </c>
       <c r="Z56" s="18"/>
-      <c r="AA56" s="269">
+      <c r="AA56" s="266">
         <f>+Y56+Z56</f>
         <v>-593863</v>
       </c>
     </row>
     <row r="57" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
-      <c r="C57" s="305" t="s">
+      <c r="C57" s="308" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="306"/>
-      <c r="E57" s="269"/>
-      <c r="F57" s="269"/>
-      <c r="G57" s="269">
+      <c r="D57" s="309"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
+      <c r="G57" s="266">
         <f t="shared" ref="G57:G63" si="27">+E57+F57</f>
         <v>0</v>
       </c>
       <c r="H57" s="18"/>
-      <c r="I57" s="269">
+      <c r="I57" s="266">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J57" s="52"/>
-      <c r="K57" s="269"/>
-      <c r="L57" s="269"/>
-      <c r="M57" s="269">
+      <c r="K57" s="266"/>
+      <c r="L57" s="266"/>
+      <c r="M57" s="266">
         <f>+K57+L57</f>
         <v>0</v>
       </c>
       <c r="N57" s="18"/>
-      <c r="O57" s="269">
+      <c r="O57" s="266">
         <f t="shared" ref="O57:O63" si="28">+M57+N57</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="269">
+      <c r="Q57" s="266">
         <v>29809</v>
       </c>
-      <c r="R57" s="269">
+      <c r="R57" s="266">
         <v>-205582</v>
       </c>
-      <c r="S57" s="269">
+      <c r="S57" s="266">
         <f t="shared" si="25"/>
         <v>-175773</v>
       </c>
       <c r="T57" s="18"/>
-      <c r="U57" s="269">
+      <c r="U57" s="266">
         <f>+S57+T57</f>
         <v>-175773</v>
       </c>
-      <c r="W57" s="269">
+      <c r="W57" s="266">
         <v>5828169</v>
       </c>
-      <c r="X57" s="269"/>
-      <c r="Y57" s="269">
+      <c r="X57" s="266"/>
+      <c r="Y57" s="266">
         <f t="shared" si="26"/>
         <v>5828169</v>
       </c>
       <c r="Z57" s="18"/>
-      <c r="AA57" s="269">
+      <c r="AA57" s="266">
         <f t="shared" ref="AA57:AA63" si="29">+Y57+Z57</f>
         <v>5828169</v>
       </c>
@@ -12187,95 +12206,95 @@
         <v>143</v>
       </c>
       <c r="D58" s="52"/>
-      <c r="E58" s="269">
+      <c r="E58" s="266">
         <v>252048</v>
       </c>
-      <c r="F58" s="269"/>
-      <c r="G58" s="269">
+      <c r="F58" s="266"/>
+      <c r="G58" s="266">
         <f t="shared" si="27"/>
         <v>252048</v>
       </c>
       <c r="H58" s="18"/>
-      <c r="I58" s="269">
+      <c r="I58" s="266">
         <f t="shared" si="24"/>
         <v>252048</v>
       </c>
       <c r="J58" s="52"/>
-      <c r="K58" s="269">
+      <c r="K58" s="266">
         <v>-251355</v>
       </c>
-      <c r="L58" s="269"/>
-      <c r="M58" s="269">
+      <c r="L58" s="266"/>
+      <c r="M58" s="266">
         <f t="shared" ref="M58:M63" si="30">+K58+L58</f>
         <v>-251355</v>
       </c>
       <c r="N58" s="18"/>
-      <c r="O58" s="269">
+      <c r="O58" s="266">
         <f t="shared" si="28"/>
         <v>-251355</v>
       </c>
-      <c r="Q58" s="269"/>
-      <c r="R58" s="269"/>
-      <c r="S58" s="269"/>
+      <c r="Q58" s="266"/>
+      <c r="R58" s="266"/>
+      <c r="S58" s="266"/>
       <c r="T58" s="18"/>
-      <c r="U58" s="269"/>
-      <c r="W58" s="269"/>
-      <c r="X58" s="269"/>
-      <c r="Y58" s="269"/>
+      <c r="U58" s="266"/>
+      <c r="W58" s="266"/>
+      <c r="X58" s="266"/>
+      <c r="Y58" s="266"/>
       <c r="Z58" s="18"/>
-      <c r="AA58" s="269"/>
+      <c r="AA58" s="266"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="30"/>
-      <c r="C59" s="307" t="s">
+      <c r="C59" s="310" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="308"/>
-      <c r="E59" s="269">
+      <c r="D59" s="311"/>
+      <c r="E59" s="266">
         <v>-1606904</v>
       </c>
-      <c r="F59" s="269"/>
-      <c r="G59" s="269">
+      <c r="F59" s="266"/>
+      <c r="G59" s="266">
         <f t="shared" si="27"/>
         <v>-1606904</v>
       </c>
       <c r="H59" s="18"/>
-      <c r="I59" s="269">
+      <c r="I59" s="266">
         <f t="shared" si="24"/>
         <v>-1606904</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="269"/>
-      <c r="L59" s="269">
+      <c r="J59" s="296"/>
+      <c r="K59" s="266"/>
+      <c r="L59" s="266">
         <v>205582</v>
       </c>
-      <c r="M59" s="269">
+      <c r="M59" s="266">
         <f t="shared" si="30"/>
         <v>205582</v>
       </c>
       <c r="N59" s="18"/>
-      <c r="O59" s="269">
+      <c r="O59" s="266">
         <f t="shared" si="28"/>
         <v>205582</v>
       </c>
-      <c r="Q59" s="269"/>
-      <c r="R59" s="269"/>
-      <c r="S59" s="269">
+      <c r="Q59" s="266"/>
+      <c r="R59" s="266"/>
+      <c r="S59" s="266">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T59" s="18"/>
-      <c r="U59" s="269"/>
-      <c r="W59" s="269">
-        <v>0</v>
-      </c>
-      <c r="X59" s="269"/>
-      <c r="Y59" s="269">
+      <c r="U59" s="266"/>
+      <c r="W59" s="266">
+        <v>0</v>
+      </c>
+      <c r="X59" s="266"/>
+      <c r="Y59" s="266">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z59" s="18"/>
-      <c r="AA59" s="269"/>
+      <c r="AA59" s="266"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
@@ -12283,76 +12302,76 @@
         <v>145</v>
       </c>
       <c r="D60" s="52"/>
-      <c r="E60" s="269">
+      <c r="E60" s="266">
         <v>-5703268</v>
       </c>
-      <c r="F60" s="269">
+      <c r="F60" s="266">
         <v>-26967681</v>
       </c>
-      <c r="G60" s="269">
+      <c r="G60" s="266">
         <f t="shared" si="27"/>
         <v>-32670949</v>
       </c>
-      <c r="H60" s="269">
+      <c r="H60" s="266">
         <f>+AD!H23</f>
         <v>4118950</v>
       </c>
-      <c r="I60" s="269">
+      <c r="I60" s="266">
         <f t="shared" si="24"/>
         <v>-28551999</v>
       </c>
       <c r="J60" s="52"/>
-      <c r="K60" s="269">
+      <c r="K60" s="266">
         <v>-4195235</v>
       </c>
-      <c r="L60" s="269">
+      <c r="L60" s="266">
         <v>-11702814</v>
       </c>
-      <c r="M60" s="269">
+      <c r="M60" s="266">
         <f t="shared" si="30"/>
         <v>-15898049</v>
       </c>
-      <c r="N60" s="269">
+      <c r="N60" s="266">
         <f>+AD!J23</f>
         <v>8203260</v>
       </c>
-      <c r="O60" s="269">
+      <c r="O60" s="266">
         <f t="shared" si="28"/>
         <v>-7694789</v>
       </c>
-      <c r="Q60" s="269">
+      <c r="Q60" s="266">
         <v>-10976052</v>
       </c>
-      <c r="R60" s="269">
+      <c r="R60" s="266">
         <v>-6427483</v>
       </c>
-      <c r="S60" s="269">
+      <c r="S60" s="266">
         <f t="shared" si="25"/>
         <v>-17403535</v>
       </c>
-      <c r="T60" s="269">
+      <c r="T60" s="266">
         <f>+[1]AD!J23</f>
         <v>5827272</v>
       </c>
-      <c r="U60" s="269">
+      <c r="U60" s="266">
         <f>+S60+T60</f>
         <v>-11576263</v>
       </c>
-      <c r="W60" s="269">
+      <c r="W60" s="266">
         <v>-13974701</v>
       </c>
-      <c r="X60" s="269">
+      <c r="X60" s="266">
         <v>-7233185</v>
       </c>
-      <c r="Y60" s="269">
+      <c r="Y60" s="266">
         <f t="shared" si="26"/>
         <v>-21207886</v>
       </c>
-      <c r="Z60" s="269">
+      <c r="Z60" s="266">
         <f>+[1]AD!L23</f>
         <v>7144181</v>
       </c>
-      <c r="AA60" s="269">
+      <c r="AA60" s="266">
         <f t="shared" si="29"/>
         <v>-14063705</v>
       </c>
@@ -12363,96 +12382,96 @@
         <v>146</v>
       </c>
       <c r="D61" s="52"/>
-      <c r="E61" s="269"/>
-      <c r="F61" s="269"/>
-      <c r="G61" s="269">
+      <c r="E61" s="266"/>
+      <c r="F61" s="266"/>
+      <c r="G61" s="266">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H61" s="18"/>
-      <c r="I61" s="269">
+      <c r="I61" s="266">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J61" s="52"/>
-      <c r="K61" s="269"/>
-      <c r="L61" s="269"/>
-      <c r="M61" s="269">
+      <c r="K61" s="266"/>
+      <c r="L61" s="266"/>
+      <c r="M61" s="266">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N61" s="18"/>
-      <c r="O61" s="269">
+      <c r="O61" s="266">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="269"/>
-      <c r="R61" s="269"/>
-      <c r="S61" s="269">
+      <c r="Q61" s="266"/>
+      <c r="R61" s="266"/>
+      <c r="S61" s="266">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T61" s="18"/>
-      <c r="U61" s="269">
+      <c r="U61" s="266">
         <f>+S61+T61</f>
         <v>0</v>
       </c>
-      <c r="W61" s="269">
-        <v>0</v>
-      </c>
-      <c r="X61" s="269"/>
-      <c r="Y61" s="269">
+      <c r="W61" s="266">
+        <v>0</v>
+      </c>
+      <c r="X61" s="266"/>
+      <c r="Y61" s="266">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z61" s="18"/>
-      <c r="AA61" s="269">
+      <c r="AA61" s="266">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
-      <c r="C62" s="280" t="s">
+      <c r="C62" s="277" t="s">
         <v>147</v>
       </c>
       <c r="D62" s="52"/>
-      <c r="E62" s="269"/>
-      <c r="F62" s="269"/>
-      <c r="G62" s="269">
+      <c r="E62" s="266"/>
+      <c r="F62" s="266"/>
+      <c r="G62" s="266">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H62" s="18"/>
-      <c r="I62" s="269">
+      <c r="I62" s="266">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J62" s="52"/>
-      <c r="K62" s="269"/>
-      <c r="L62" s="269"/>
-      <c r="M62" s="269">
+      <c r="K62" s="266"/>
+      <c r="L62" s="266"/>
+      <c r="M62" s="266">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N62" s="18"/>
-      <c r="O62" s="269">
+      <c r="O62" s="266">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="269"/>
-      <c r="R62" s="269"/>
-      <c r="S62" s="269"/>
+      <c r="Q62" s="266"/>
+      <c r="R62" s="266"/>
+      <c r="S62" s="266"/>
       <c r="T62" s="18"/>
-      <c r="U62" s="269">
+      <c r="U62" s="266">
         <f>+S62+T62</f>
         <v>0</v>
       </c>
-      <c r="W62" s="269"/>
-      <c r="X62" s="269"/>
-      <c r="Y62" s="269"/>
+      <c r="W62" s="266"/>
+      <c r="X62" s="266"/>
+      <c r="Y62" s="266"/>
       <c r="Z62" s="18"/>
-      <c r="AA62" s="269">
+      <c r="AA62" s="266">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12463,150 +12482,150 @@
         <v>148</v>
       </c>
       <c r="D63" s="52"/>
-      <c r="E63" s="277"/>
-      <c r="F63" s="277">
+      <c r="E63" s="274"/>
+      <c r="F63" s="274">
         <v>-39400</v>
       </c>
-      <c r="G63" s="269">
+      <c r="G63" s="266">
         <f t="shared" si="27"/>
         <v>-39400</v>
       </c>
       <c r="H63" s="18"/>
-      <c r="I63" s="269">
+      <c r="I63" s="266">
         <f t="shared" si="24"/>
         <v>-39400</v>
       </c>
       <c r="J63" s="52"/>
-      <c r="K63" s="277">
+      <c r="K63" s="274">
         <v>-1253393</v>
       </c>
-      <c r="L63" s="277">
+      <c r="L63" s="274">
         <v>-231006</v>
       </c>
-      <c r="M63" s="269">
+      <c r="M63" s="266">
         <f t="shared" si="30"/>
         <v>-1484399</v>
       </c>
       <c r="N63" s="18"/>
-      <c r="O63" s="269">
+      <c r="O63" s="266">
         <f t="shared" si="28"/>
         <v>-1484399</v>
       </c>
-      <c r="Q63" s="277">
+      <c r="Q63" s="274">
         <v>-4862718</v>
       </c>
-      <c r="R63" s="277">
+      <c r="R63" s="274">
         <v>-15600</v>
       </c>
-      <c r="S63" s="269">
+      <c r="S63" s="266">
         <f t="shared" si="25"/>
         <v>-4878318</v>
       </c>
       <c r="T63" s="18"/>
-      <c r="U63" s="269">
+      <c r="U63" s="266">
         <f>+S63+T63</f>
         <v>-4878318</v>
       </c>
-      <c r="W63" s="277">
+      <c r="W63" s="274">
         <v>-1204028</v>
       </c>
-      <c r="X63" s="277">
+      <c r="X63" s="274">
         <v>-261435</v>
       </c>
-      <c r="Y63" s="269">
+      <c r="Y63" s="266">
         <f t="shared" ref="Y63" si="31">+W63+X63</f>
         <v>-1465463</v>
       </c>
       <c r="Z63" s="18"/>
-      <c r="AA63" s="269">
+      <c r="AA63" s="266">
         <f t="shared" si="29"/>
         <v>-1465463</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="278" t="s">
+      <c r="B64" s="275" t="s">
         <v>149</v>
       </c>
       <c r="C64" s="56"/>
       <c r="D64" s="57"/>
-      <c r="E64" s="279">
+      <c r="E64" s="276">
         <f>SUM(E56:E63)</f>
         <v>-6819246</v>
       </c>
-      <c r="F64" s="279">
+      <c r="F64" s="276">
         <f>SUM(F56:F63)</f>
         <v>-27007081</v>
       </c>
-      <c r="G64" s="279">
+      <c r="G64" s="276">
         <f>SUM(G56:G63)</f>
         <v>-33826327</v>
       </c>
-      <c r="H64" s="279">
+      <c r="H64" s="276">
         <f>SUM(H56:H63)</f>
         <v>4118950</v>
       </c>
-      <c r="I64" s="279">
+      <c r="I64" s="276">
         <f>SUM(I56:I63)</f>
         <v>-29707377</v>
       </c>
       <c r="J64" s="52"/>
-      <c r="K64" s="279">
+      <c r="K64" s="276">
         <f>SUM(K56:K63)</f>
         <v>-6604436</v>
       </c>
-      <c r="L64" s="279">
+      <c r="L64" s="276">
         <f t="shared" ref="L64:O64" si="32">SUM(L56:L63)</f>
         <v>-11728238</v>
       </c>
-      <c r="M64" s="279">
+      <c r="M64" s="276">
         <f t="shared" si="32"/>
         <v>-18332674</v>
       </c>
-      <c r="N64" s="279">
+      <c r="N64" s="276">
         <f t="shared" si="32"/>
         <v>8203260</v>
       </c>
-      <c r="O64" s="279">
+      <c r="O64" s="276">
         <f t="shared" si="32"/>
         <v>-10129414</v>
       </c>
-      <c r="Q64" s="279" t="e">
+      <c r="Q64" s="276" t="e">
         <f>Q56+Q57+Q59+#REF!+Q60+Q61+Q63</f>
         <v>#REF!</v>
       </c>
-      <c r="R64" s="279">
+      <c r="R64" s="276">
         <f>SUM(R56:R63)</f>
         <v>-6648665</v>
       </c>
-      <c r="S64" s="279">
+      <c r="S64" s="276">
         <f>SUM(S56:S63)</f>
         <v>-22206615</v>
       </c>
-      <c r="T64" s="279">
+      <c r="T64" s="276">
         <f>SUM(T56:T63)</f>
         <v>5827272</v>
       </c>
-      <c r="U64" s="279">
+      <c r="U64" s="276">
         <f>SUM(U56:U63)</f>
         <v>-16379343</v>
       </c>
-      <c r="W64" s="279" t="e">
+      <c r="W64" s="276" t="e">
         <f>W56+W57+W59+#REF!+W60+W61+W63</f>
         <v>#REF!</v>
       </c>
-      <c r="X64" s="279">
+      <c r="X64" s="276">
         <f>SUM(X56:X63)</f>
         <v>-7494620</v>
       </c>
-      <c r="Y64" s="279">
+      <c r="Y64" s="276">
         <f>SUM(Y56:Y63)</f>
         <v>-17439043</v>
       </c>
-      <c r="Z64" s="279">
+      <c r="Z64" s="276">
         <f>SUM(Z56:Z63)</f>
         <v>7144181</v>
       </c>
-      <c r="AA64" s="279">
+      <c r="AA64" s="276">
         <f>SUM(AA56:AA63)</f>
         <v>-10294862</v>
       </c>
@@ -12615,54 +12634,54 @@
       <c r="B65" s="59"/>
       <c r="C65" s="50"/>
       <c r="D65" s="51"/>
-      <c r="E65" s="269"/>
-      <c r="F65" s="269"/>
+      <c r="E65" s="266"/>
+      <c r="F65" s="266"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="52"/>
-      <c r="K65" s="269"/>
-      <c r="L65" s="269"/>
+      <c r="K65" s="266"/>
+      <c r="L65" s="266"/>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
       <c r="O65" s="18"/>
-      <c r="Q65" s="269"/>
-      <c r="R65" s="269"/>
+      <c r="Q65" s="266"/>
+      <c r="R65" s="266"/>
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
-      <c r="W65" s="269"/>
-      <c r="X65" s="269"/>
+      <c r="W65" s="266"/>
+      <c r="X65" s="266"/>
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
       <c r="AA65" s="18"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B66" s="275" t="s">
+      <c r="B66" s="272" t="s">
         <v>150</v>
       </c>
       <c r="D66" s="52"/>
-      <c r="E66" s="269"/>
-      <c r="F66" s="269"/>
+      <c r="E66" s="266"/>
+      <c r="F66" s="266"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="52"/>
-      <c r="K66" s="269"/>
-      <c r="L66" s="269"/>
+      <c r="K66" s="266"/>
+      <c r="L66" s="266"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
-      <c r="Q66" s="269"/>
-      <c r="R66" s="269"/>
-      <c r="S66" s="269">
+      <c r="Q66" s="266"/>
+      <c r="R66" s="266"/>
+      <c r="S66" s="266">
         <f t="shared" ref="S66:S74" si="33">+Q66+R66</f>
         <v>0</v>
       </c>
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
-      <c r="W66" s="269"/>
-      <c r="X66" s="269"/>
+      <c r="W66" s="266"/>
+      <c r="X66" s="266"/>
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
       <c r="AA66" s="18"/>
@@ -12673,52 +12692,52 @@
         <v>442</v>
       </c>
       <c r="D67" s="52"/>
-      <c r="E67" s="269">
-        <v>0</v>
-      </c>
-      <c r="F67" s="269"/>
-      <c r="G67" s="281">
+      <c r="E67" s="266">
+        <v>0</v>
+      </c>
+      <c r="F67" s="266"/>
+      <c r="G67" s="278">
         <v>0</v>
       </c>
       <c r="H67" s="18"/>
-      <c r="I67" s="269">
+      <c r="I67" s="266">
         <v>0</v>
       </c>
       <c r="J67" s="52"/>
-      <c r="K67" s="269">
-        <v>0</v>
-      </c>
-      <c r="L67" s="269"/>
-      <c r="M67" s="281">
+      <c r="K67" s="266">
+        <v>0</v>
+      </c>
+      <c r="L67" s="266"/>
+      <c r="M67" s="278">
         <v>0</v>
       </c>
       <c r="N67" s="18"/>
-      <c r="O67" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="269">
-        <v>0</v>
-      </c>
-      <c r="R67" s="269"/>
-      <c r="S67" s="269">
+      <c r="O67" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="266">
+        <v>0</v>
+      </c>
+      <c r="R67" s="266"/>
+      <c r="S67" s="266">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T67" s="18"/>
-      <c r="U67" s="269">
+      <c r="U67" s="266">
         <f t="shared" ref="U67:U74" si="34">+S67+T67</f>
         <v>0</v>
       </c>
-      <c r="W67" s="269">
-        <v>0</v>
-      </c>
-      <c r="X67" s="269"/>
-      <c r="Y67" s="281">
+      <c r="W67" s="266">
+        <v>0</v>
+      </c>
+      <c r="X67" s="266"/>
+      <c r="Y67" s="278">
         <f t="shared" ref="Y67:Y74" si="35">+W67+X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="18"/>
-      <c r="AA67" s="269">
+      <c r="AA67" s="266">
         <f t="shared" ref="AA67:AA74" si="36">+Y67+Z67</f>
         <v>0</v>
       </c>
@@ -12729,44 +12748,44 @@
         <v>73</v>
       </c>
       <c r="D68" s="52"/>
-      <c r="E68" s="269"/>
-      <c r="F68" s="269"/>
-      <c r="G68" s="269">
+      <c r="E68" s="266"/>
+      <c r="F68" s="266"/>
+      <c r="G68" s="266">
         <v>0</v>
       </c>
       <c r="H68" s="18"/>
-      <c r="I68" s="269">
+      <c r="I68" s="266">
         <v>0</v>
       </c>
       <c r="J68" s="52"/>
-      <c r="K68" s="269"/>
-      <c r="L68" s="269"/>
-      <c r="M68" s="269">
+      <c r="K68" s="266"/>
+      <c r="L68" s="266"/>
+      <c r="M68" s="266">
         <v>0</v>
       </c>
       <c r="N68" s="18"/>
-      <c r="O68" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="269"/>
-      <c r="R68" s="269"/>
-      <c r="S68" s="269">
+      <c r="O68" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="266"/>
+      <c r="R68" s="266"/>
+      <c r="S68" s="266">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T68" s="18"/>
-      <c r="U68" s="269">
+      <c r="U68" s="266">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="W68" s="269"/>
-      <c r="X68" s="269"/>
-      <c r="Y68" s="269">
+      <c r="W68" s="266"/>
+      <c r="X68" s="266"/>
+      <c r="Y68" s="266">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z68" s="18"/>
-      <c r="AA68" s="269">
+      <c r="AA68" s="266">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -12777,44 +12796,44 @@
         <v>443</v>
       </c>
       <c r="D69" s="52"/>
-      <c r="E69" s="269"/>
-      <c r="F69" s="269"/>
-      <c r="G69" s="269">
+      <c r="E69" s="266"/>
+      <c r="F69" s="266"/>
+      <c r="G69" s="266">
         <v>0</v>
       </c>
       <c r="H69" s="18"/>
-      <c r="I69" s="269">
+      <c r="I69" s="266">
         <v>0</v>
       </c>
       <c r="J69" s="52"/>
-      <c r="K69" s="269"/>
-      <c r="L69" s="269"/>
-      <c r="M69" s="269">
+      <c r="K69" s="266"/>
+      <c r="L69" s="266"/>
+      <c r="M69" s="266">
         <v>0</v>
       </c>
       <c r="N69" s="18"/>
-      <c r="O69" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="269"/>
-      <c r="R69" s="269"/>
-      <c r="S69" s="269">
+      <c r="O69" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="266"/>
+      <c r="R69" s="266"/>
+      <c r="S69" s="266">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T69" s="18"/>
-      <c r="U69" s="269">
+      <c r="U69" s="266">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="W69" s="269"/>
-      <c r="X69" s="269"/>
-      <c r="Y69" s="269">
+      <c r="W69" s="266"/>
+      <c r="X69" s="266"/>
+      <c r="Y69" s="266">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z69" s="18"/>
-      <c r="AA69" s="269">
+      <c r="AA69" s="266">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -12825,64 +12844,64 @@
         <v>151</v>
       </c>
       <c r="D70" s="52"/>
-      <c r="E70" s="269">
+      <c r="E70" s="266">
         <v>-457235</v>
       </c>
-      <c r="F70" s="269">
+      <c r="F70" s="266">
         <v>-1152908</v>
       </c>
-      <c r="G70" s="269">
+      <c r="G70" s="266">
         <f t="shared" ref="G70:G73" si="37">+E70+F70</f>
         <v>-1610143</v>
       </c>
       <c r="H70" s="18"/>
-      <c r="I70" s="269">
+      <c r="I70" s="266">
         <f t="shared" ref="I70:I73" si="38">+G70+H70</f>
         <v>-1610143</v>
       </c>
       <c r="J70" s="52"/>
-      <c r="K70" s="269">
+      <c r="K70" s="266">
         <v>-10808637</v>
       </c>
-      <c r="L70" s="269">
+      <c r="L70" s="266">
         <v>-1606362</v>
       </c>
-      <c r="M70" s="269">
+      <c r="M70" s="266">
         <f>+K70+L70</f>
         <v>-12414999</v>
       </c>
       <c r="N70" s="18"/>
-      <c r="O70" s="269">
+      <c r="O70" s="266">
         <f>+M70+N70</f>
         <v>-12414999</v>
       </c>
-      <c r="Q70" s="269">
+      <c r="Q70" s="266">
         <v>-7240853</v>
       </c>
-      <c r="R70" s="269">
+      <c r="R70" s="266">
         <v>873161</v>
       </c>
-      <c r="S70" s="269">
+      <c r="S70" s="266">
         <f t="shared" si="33"/>
         <v>-6367692</v>
       </c>
       <c r="T70" s="18"/>
-      <c r="U70" s="269">
+      <c r="U70" s="266">
         <f t="shared" si="34"/>
         <v>-6367692</v>
       </c>
-      <c r="W70" s="269">
+      <c r="W70" s="266">
         <v>-4709384</v>
       </c>
-      <c r="X70" s="269">
+      <c r="X70" s="266">
         <v>-3372028</v>
       </c>
-      <c r="Y70" s="269">
+      <c r="Y70" s="266">
         <f t="shared" si="35"/>
         <v>-8081412</v>
       </c>
       <c r="Z70" s="18"/>
-      <c r="AA70" s="269">
+      <c r="AA70" s="266">
         <f t="shared" si="36"/>
         <v>-8081412</v>
       </c>
@@ -12893,89 +12912,89 @@
         <v>152</v>
       </c>
       <c r="D71" s="52"/>
-      <c r="E71" s="269"/>
-      <c r="F71" s="269"/>
-      <c r="G71" s="269">
+      <c r="E71" s="266"/>
+      <c r="F71" s="266"/>
+      <c r="G71" s="266">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H71" s="18"/>
-      <c r="I71" s="269">
+      <c r="I71" s="266">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J71" s="52"/>
-      <c r="K71" s="269"/>
-      <c r="L71" s="269">
+      <c r="K71" s="266"/>
+      <c r="L71" s="266">
         <v>-715413</v>
       </c>
-      <c r="M71" s="269">
+      <c r="M71" s="266">
         <f t="shared" ref="M71:M73" si="39">+K71+L71</f>
         <v>-715413</v>
       </c>
       <c r="N71" s="18"/>
-      <c r="O71" s="269">
+      <c r="O71" s="266">
         <f t="shared" ref="O71:O73" si="40">+M71+N71</f>
         <v>-715413</v>
       </c>
-      <c r="Q71" s="269"/>
-      <c r="R71" s="269"/>
-      <c r="S71" s="269"/>
+      <c r="Q71" s="266"/>
+      <c r="R71" s="266"/>
+      <c r="S71" s="266"/>
       <c r="T71" s="18"/>
-      <c r="U71" s="269"/>
-      <c r="W71" s="269"/>
-      <c r="X71" s="269"/>
-      <c r="Y71" s="269"/>
+      <c r="U71" s="266"/>
+      <c r="W71" s="266"/>
+      <c r="X71" s="266"/>
+      <c r="Y71" s="266"/>
       <c r="Z71" s="18"/>
-      <c r="AA71" s="269"/>
+      <c r="AA71" s="266"/>
     </row>
     <row r="72" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="30"/>
-      <c r="C72" s="303" t="s">
-        <v>454</v>
-      </c>
-      <c r="D72" s="304"/>
-      <c r="E72" s="269">
+      <c r="C72" s="306" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72" s="307"/>
+      <c r="E72" s="266">
         <v>-207214</v>
       </c>
-      <c r="F72" s="269">
+      <c r="F72" s="266">
         <v>721715</v>
       </c>
-      <c r="G72" s="269">
+      <c r="G72" s="266">
         <f t="shared" si="37"/>
         <v>514501</v>
       </c>
       <c r="H72" s="18"/>
-      <c r="I72" s="269">
+      <c r="I72" s="266">
         <f t="shared" si="38"/>
         <v>514501</v>
       </c>
       <c r="J72" s="52"/>
-      <c r="K72" s="269">
+      <c r="K72" s="266">
         <v>-1307540</v>
       </c>
-      <c r="L72" s="269">
+      <c r="L72" s="266">
         <v>-3373023</v>
       </c>
-      <c r="M72" s="269">
+      <c r="M72" s="266">
         <f t="shared" si="39"/>
         <v>-4680563</v>
       </c>
       <c r="N72" s="18"/>
-      <c r="O72" s="269">
+      <c r="O72" s="266">
         <f t="shared" si="40"/>
         <v>-4680563</v>
       </c>
-      <c r="Q72" s="269"/>
-      <c r="R72" s="269"/>
-      <c r="S72" s="269"/>
+      <c r="Q72" s="266"/>
+      <c r="R72" s="266"/>
+      <c r="S72" s="266"/>
       <c r="T72" s="18"/>
-      <c r="U72" s="269"/>
-      <c r="W72" s="269"/>
-      <c r="X72" s="269"/>
-      <c r="Y72" s="269"/>
+      <c r="U72" s="266"/>
+      <c r="W72" s="266"/>
+      <c r="X72" s="266"/>
+      <c r="Y72" s="266"/>
       <c r="Z72" s="18"/>
-      <c r="AA72" s="269"/>
+      <c r="AA72" s="266"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B73" s="30"/>
@@ -12983,58 +13002,58 @@
         <v>153</v>
       </c>
       <c r="D73" s="52"/>
-      <c r="E73" s="269">
+      <c r="E73" s="266">
         <v>11113051</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="G73" s="269">
+      <c r="F73" s="266"/>
+      <c r="G73" s="266">
         <f t="shared" si="37"/>
         <v>11113051</v>
       </c>
       <c r="H73" s="18"/>
-      <c r="I73" s="269">
+      <c r="I73" s="266">
         <f t="shared" si="38"/>
         <v>11113051</v>
       </c>
       <c r="J73" s="52"/>
-      <c r="K73" s="269">
+      <c r="K73" s="266">
         <v>-8550313</v>
       </c>
-      <c r="L73" s="269"/>
-      <c r="M73" s="269">
+      <c r="L73" s="266"/>
+      <c r="M73" s="266">
         <f t="shared" si="39"/>
         <v>-8550313</v>
       </c>
       <c r="N73" s="18"/>
-      <c r="O73" s="269">
+      <c r="O73" s="266">
         <f t="shared" si="40"/>
         <v>-8550313</v>
       </c>
-      <c r="Q73" s="269">
+      <c r="Q73" s="266">
         <v>-7134782</v>
       </c>
-      <c r="R73" s="269"/>
-      <c r="S73" s="269">
+      <c r="R73" s="266"/>
+      <c r="S73" s="266">
         <f t="shared" si="33"/>
         <v>-7134782</v>
       </c>
       <c r="T73" s="18"/>
-      <c r="U73" s="269">
+      <c r="U73" s="266">
         <f t="shared" si="34"/>
         <v>-7134782</v>
       </c>
-      <c r="W73" s="269">
+      <c r="W73" s="266">
         <v>-8370991</v>
       </c>
-      <c r="X73" s="269">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="269">
+      <c r="X73" s="266">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="266">
         <f t="shared" si="35"/>
         <v>-8370991</v>
       </c>
       <c r="Z73" s="18"/>
-      <c r="AA73" s="269">
+      <c r="AA73" s="266">
         <f t="shared" si="36"/>
         <v>-8370991</v>
       </c>
@@ -13045,228 +13064,228 @@
         <v>154</v>
       </c>
       <c r="D74" s="52"/>
-      <c r="E74" s="269"/>
-      <c r="F74" s="269"/>
-      <c r="G74" s="269">
+      <c r="E74" s="266"/>
+      <c r="F74" s="266"/>
+      <c r="G74" s="266">
         <v>0</v>
       </c>
       <c r="H74" s="18"/>
-      <c r="I74" s="269">
+      <c r="I74" s="266">
         <v>0</v>
       </c>
       <c r="J74" s="52"/>
-      <c r="K74" s="269"/>
-      <c r="L74" s="269"/>
-      <c r="M74" s="269">
+      <c r="K74" s="266"/>
+      <c r="L74" s="266"/>
+      <c r="M74" s="266">
         <v>0</v>
       </c>
       <c r="N74" s="18"/>
-      <c r="O74" s="269">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="269"/>
-      <c r="R74" s="282"/>
-      <c r="S74" s="269">
+      <c r="O74" s="266">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="266"/>
+      <c r="R74" s="279"/>
+      <c r="S74" s="266">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T74" s="18"/>
-      <c r="U74" s="269">
+      <c r="U74" s="266">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="W74" s="269"/>
-      <c r="X74" s="269"/>
-      <c r="Y74" s="269">
+      <c r="W74" s="266"/>
+      <c r="X74" s="266"/>
+      <c r="Y74" s="266">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z74" s="18"/>
-      <c r="AA74" s="269">
+      <c r="AA74" s="266">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B75" s="283" t="s">
+      <c r="B75" s="280" t="s">
         <v>155</v>
       </c>
       <c r="C75" s="56"/>
       <c r="D75" s="57"/>
-      <c r="E75" s="279">
+      <c r="E75" s="276">
         <f>SUM(E70:E74)</f>
         <v>10448602</v>
       </c>
-      <c r="F75" s="279">
+      <c r="F75" s="276">
         <f>SUM(F70:F74)</f>
         <v>-431193</v>
       </c>
-      <c r="G75" s="279">
+      <c r="G75" s="276">
         <f>SUM(G70:G74)</f>
         <v>10017409</v>
       </c>
-      <c r="H75" s="279">
+      <c r="H75" s="276">
         <f>SUM(H70:H74)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="279">
+      <c r="I75" s="276">
         <f>SUM(I67:I74)</f>
         <v>10017409</v>
       </c>
       <c r="J75" s="52"/>
-      <c r="K75" s="279">
+      <c r="K75" s="276">
         <f>SUM(K70:K74)</f>
         <v>-20666490</v>
       </c>
-      <c r="L75" s="279">
+      <c r="L75" s="276">
         <f t="shared" ref="L75:N75" si="41">SUM(L70:L74)</f>
         <v>-5694798</v>
       </c>
-      <c r="M75" s="279">
+      <c r="M75" s="276">
         <f t="shared" si="41"/>
         <v>-26361288</v>
       </c>
-      <c r="N75" s="279">
+      <c r="N75" s="276">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O75" s="279">
+      <c r="O75" s="276">
         <f>SUM(O67:O74)</f>
         <v>-26361288</v>
       </c>
-      <c r="Q75" s="279">
+      <c r="Q75" s="276">
         <f>SUM(Q67:Q74)</f>
         <v>-14375635</v>
       </c>
-      <c r="R75" s="279">
+      <c r="R75" s="276">
         <f>SUM(R67:R74)</f>
         <v>873161</v>
       </c>
-      <c r="S75" s="279">
+      <c r="S75" s="276">
         <f>SUM(S67:S74)</f>
         <v>-13502474</v>
       </c>
-      <c r="T75" s="279">
+      <c r="T75" s="276">
         <f>SUM(T67:T74)</f>
         <v>0</v>
       </c>
-      <c r="U75" s="279">
+      <c r="U75" s="276">
         <f>SUM(U67:U74)</f>
         <v>-13502474</v>
       </c>
-      <c r="W75" s="279">
+      <c r="W75" s="276">
         <f>SUM(W67:W74)</f>
         <v>-13080375</v>
       </c>
-      <c r="X75" s="279">
+      <c r="X75" s="276">
         <f>SUM(X67:X74)</f>
         <v>-3372028</v>
       </c>
-      <c r="Y75" s="279">
+      <c r="Y75" s="276">
         <f>SUM(Y67:Y74)</f>
         <v>-16452403</v>
       </c>
-      <c r="Z75" s="279">
+      <c r="Z75" s="276">
         <f>SUM(Z67:Z74)</f>
         <v>0</v>
       </c>
-      <c r="AA75" s="279">
+      <c r="AA75" s="276">
         <f>SUM(AA67:AA74)</f>
         <v>-16452403</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B76" s="284" t="s">
+      <c r="B76" s="281" t="s">
         <v>156</v>
       </c>
       <c r="C76" s="56"/>
       <c r="D76" s="57"/>
-      <c r="E76" s="286">
+      <c r="E76" s="283">
         <f>+E75+E64+E53</f>
         <v>13821771</v>
       </c>
-      <c r="F76" s="286">
+      <c r="F76" s="283">
         <f>+F75+F64+F53</f>
         <v>1700996</v>
       </c>
-      <c r="G76" s="286">
+      <c r="G76" s="283">
         <f>+G75+G64+G53</f>
         <v>15522767</v>
       </c>
-      <c r="H76" s="286">
+      <c r="H76" s="283">
         <f>+H75+H64+H53</f>
         <v>0</v>
       </c>
-      <c r="I76" s="286">
+      <c r="I76" s="283">
         <f>+I75+I64+I53</f>
         <v>15522767</v>
       </c>
       <c r="J76" s="52"/>
-      <c r="K76" s="286">
+      <c r="K76" s="283">
         <f>+K75+K64+K53</f>
         <v>8845774</v>
       </c>
-      <c r="L76" s="286">
+      <c r="L76" s="283">
         <f t="shared" ref="L76:O76" si="42">+L75+L64+L53</f>
         <v>-5411179</v>
       </c>
-      <c r="M76" s="286">
+      <c r="M76" s="283">
         <f t="shared" si="42"/>
         <v>3434595</v>
       </c>
-      <c r="N76" s="286">
+      <c r="N76" s="283">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="O76" s="286">
+      <c r="O76" s="283">
         <f t="shared" si="42"/>
         <v>3434595</v>
       </c>
-      <c r="Q76" s="285" t="e">
+      <c r="Q76" s="282" t="e">
         <f>+Q75+Q64+Q46</f>
         <v>#REF!</v>
       </c>
-      <c r="R76" s="285">
+      <c r="R76" s="282">
         <f>+R75+R64+R46</f>
         <v>6782259</v>
       </c>
-      <c r="S76" s="286">
+      <c r="S76" s="283">
         <f>+S75+S64+S46</f>
         <v>243179.44999998808</v>
       </c>
-      <c r="T76" s="287">
+      <c r="T76" s="284">
         <f>+T75+T64+T46</f>
         <v>-0.5</v>
       </c>
-      <c r="U76" s="286">
+      <c r="U76" s="283">
         <f>+U75+U64+U46</f>
         <v>243178.94999998808</v>
       </c>
-      <c r="W76" s="285" t="e">
+      <c r="W76" s="282" t="e">
         <f>+W75+W64+W46</f>
         <v>#REF!</v>
       </c>
-      <c r="X76" s="285">
+      <c r="X76" s="282">
         <f>+X75+X64+X46</f>
         <v>-188600</v>
       </c>
-      <c r="Y76" s="286">
+      <c r="Y76" s="283">
         <f>+Y75+Y64+Y46</f>
         <v>-8881354</v>
       </c>
-      <c r="Z76" s="286">
+      <c r="Z76" s="283">
         <f>+Z75+Z64+Z46</f>
         <v>-12940</v>
       </c>
-      <c r="AA76" s="286">
+      <c r="AA76" s="283">
         <f>+AA75+AA64+AA46</f>
         <v>-8894294</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Q77" s="266"/>
-      <c r="R77" s="266"/>
-      <c r="S77" s="288" t="e">
+      <c r="Q77" s="263"/>
+      <c r="R77" s="263"/>
+      <c r="S77" s="285" t="e">
         <f>+R76+Q76-S76</f>
         <v>#REF!</v>
       </c>
@@ -13278,74 +13297,74 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="50"/>
-      <c r="E78" s="268">
+      <c r="E78" s="265">
         <f>+E75+E64+E53</f>
         <v>13821771</v>
       </c>
-      <c r="F78" s="268">
+      <c r="F78" s="265">
         <f>+F75+F64+F53</f>
         <v>1700996</v>
       </c>
-      <c r="G78" s="268">
+      <c r="G78" s="265">
         <f t="shared" ref="G78:G79" si="43">+E78+F78</f>
         <v>15522767</v>
       </c>
       <c r="H78" s="17"/>
-      <c r="I78" s="289">
+      <c r="I78" s="286">
         <f>+I76</f>
         <v>15522767</v>
       </c>
-      <c r="K78" s="268">
+      <c r="K78" s="265">
         <f>+K76</f>
         <v>8845774</v>
       </c>
-      <c r="L78" s="268">
+      <c r="L78" s="265">
         <f t="shared" ref="L78:O78" si="44">+L76</f>
         <v>-5411179</v>
       </c>
-      <c r="M78" s="268">
+      <c r="M78" s="265">
         <f t="shared" si="44"/>
         <v>3434595</v>
       </c>
-      <c r="N78" s="268">
+      <c r="N78" s="265">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O78" s="268">
+      <c r="O78" s="265">
         <f t="shared" si="44"/>
         <v>3434595</v>
       </c>
-      <c r="Q78" s="268" t="e">
+      <c r="Q78" s="265" t="e">
         <f>+Q76</f>
         <v>#REF!</v>
       </c>
-      <c r="R78" s="268">
+      <c r="R78" s="265">
         <f>+R76</f>
         <v>6782259</v>
       </c>
-      <c r="S78" s="268" t="e">
+      <c r="S78" s="265" t="e">
         <f t="shared" ref="S78:S79" si="45">+Q78+R78</f>
         <v>#REF!</v>
       </c>
       <c r="T78" s="17"/>
-      <c r="U78" s="289" t="e">
+      <c r="U78" s="286" t="e">
         <f>+S78+T78</f>
         <v>#REF!</v>
       </c>
       <c r="V78" s="50"/>
-      <c r="W78" s="268" t="e">
+      <c r="W78" s="265" t="e">
         <f>+W76</f>
         <v>#REF!</v>
       </c>
-      <c r="X78" s="268">
+      <c r="X78" s="265">
         <v>-188600</v>
       </c>
-      <c r="Y78" s="268" t="e">
+      <c r="Y78" s="265" t="e">
         <f t="shared" ref="Y78:Y79" si="46">+W78+X78</f>
         <v>#REF!</v>
       </c>
       <c r="Z78" s="17"/>
-      <c r="AA78" s="289" t="e">
+      <c r="AA78" s="286" t="e">
         <f>+Y78+Z78</f>
         <v>#REF!</v>
       </c>
@@ -13355,250 +13374,269 @@
       <c r="B79" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="269">
+      <c r="E79" s="266">
         <v>5632396</v>
       </c>
-      <c r="F79" s="269">
+      <c r="F79" s="266">
         <v>1956404</v>
       </c>
-      <c r="G79" s="269">
+      <c r="G79" s="266">
         <f t="shared" si="43"/>
         <v>7588800</v>
       </c>
       <c r="H79" s="18"/>
-      <c r="I79" s="281">
+      <c r="I79" s="278">
         <f>+O80</f>
         <v>7588799</v>
       </c>
-      <c r="K79" s="269">
+      <c r="K79" s="266">
         <v>-3213378.5500000119</v>
       </c>
-      <c r="L79" s="269">
+      <c r="L79" s="266">
         <v>7367583</v>
       </c>
-      <c r="M79" s="269">
+      <c r="M79" s="266">
         <f>+K79+L79</f>
         <v>4154204.4499999881</v>
       </c>
       <c r="N79" s="18"/>
-      <c r="O79" s="281">
+      <c r="O79" s="278">
         <v>4154204</v>
       </c>
-      <c r="Q79" s="269">
+      <c r="Q79" s="266">
         <v>1346730</v>
       </c>
-      <c r="R79" s="269">
+      <c r="R79" s="266">
         <v>585324</v>
       </c>
-      <c r="S79" s="269">
+      <c r="S79" s="266">
         <f t="shared" si="45"/>
         <v>1932054</v>
       </c>
       <c r="T79" s="18"/>
-      <c r="U79" s="281">
+      <c r="U79" s="278">
         <f>+S79</f>
         <v>1932054</v>
       </c>
-      <c r="W79" s="269">
+      <c r="W79" s="266">
         <v>10525965</v>
       </c>
-      <c r="X79" s="269">
+      <c r="X79" s="266">
         <v>773924</v>
       </c>
-      <c r="Y79" s="269">
+      <c r="Y79" s="266">
         <f t="shared" si="46"/>
         <v>11299889</v>
       </c>
       <c r="Z79" s="18"/>
-      <c r="AA79" s="281">
+      <c r="AA79" s="278">
         <f>+Y79</f>
         <v>11299889</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
-      <c r="B80" s="290" t="s">
+      <c r="B80" s="287" t="s">
         <v>159</v>
       </c>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
-      <c r="E80" s="279">
+      <c r="E80" s="276">
         <f>+E78+E79</f>
         <v>19454167</v>
       </c>
-      <c r="F80" s="279">
+      <c r="F80" s="276">
         <f>+F78+F79</f>
         <v>3657400</v>
       </c>
-      <c r="G80" s="279">
+      <c r="G80" s="276">
         <f>+G78+G79</f>
         <v>23111567</v>
       </c>
-      <c r="H80" s="279">
-        <v>0</v>
-      </c>
-      <c r="I80" s="279">
+      <c r="H80" s="276">
+        <v>0</v>
+      </c>
+      <c r="I80" s="276">
         <f>SUM(I78:I79)</f>
         <v>23111566</v>
       </c>
-      <c r="K80" s="279">
+      <c r="K80" s="276">
         <f>+K78+K79</f>
         <v>5632395.4499999881</v>
       </c>
-      <c r="L80" s="279">
+      <c r="L80" s="276">
         <f t="shared" ref="L80:O80" si="47">+L78+L79</f>
         <v>1956404</v>
       </c>
-      <c r="M80" s="279">
+      <c r="M80" s="276">
         <f>+K80+L80</f>
         <v>7588799.4499999881</v>
       </c>
-      <c r="N80" s="279">
+      <c r="N80" s="276">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O80" s="279">
+      <c r="O80" s="276">
         <f t="shared" si="47"/>
         <v>7588799</v>
       </c>
-      <c r="Q80" s="279" t="e">
+      <c r="Q80" s="276" t="e">
         <f>Q78+Q79</f>
         <v>#REF!</v>
       </c>
-      <c r="R80" s="279">
+      <c r="R80" s="276">
         <f>R78+R79</f>
         <v>7367583</v>
       </c>
-      <c r="S80" s="279" t="e">
+      <c r="S80" s="276" t="e">
         <f>+S78+S79</f>
         <v>#REF!</v>
       </c>
-      <c r="T80" s="279">
+      <c r="T80" s="276">
         <f>+T78+T79</f>
         <v>0</v>
       </c>
-      <c r="U80" s="279" t="e">
+      <c r="U80" s="276" t="e">
         <f>+U78+U79</f>
         <v>#REF!</v>
       </c>
       <c r="V80" s="36"/>
-      <c r="W80" s="279" t="e">
+      <c r="W80" s="276" t="e">
         <f>W78+W79</f>
         <v>#REF!</v>
       </c>
-      <c r="X80" s="279">
+      <c r="X80" s="276">
         <f>X78+X79</f>
         <v>585324</v>
       </c>
-      <c r="Y80" s="279" t="e">
+      <c r="Y80" s="276" t="e">
         <f>+Y78+Y79</f>
         <v>#REF!</v>
       </c>
-      <c r="Z80" s="279">
+      <c r="Z80" s="276">
         <f>+Z78+Z79</f>
         <v>0</v>
       </c>
-      <c r="AA80" s="279" t="e">
+      <c r="AA80" s="276" t="e">
         <f>+AA78+AA79</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="5:27" s="326" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="296">
+    <row r="81" spans="5:27" s="300" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="293">
         <f>+E80-(+'BG '!E8-'BG '!E39)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="296">
+      <c r="F81" s="293">
         <f>+F80-(+'BG '!F8-'BG '!F39)</f>
         <v>1479636</v>
       </c>
-      <c r="G81" s="296">
+      <c r="G81" s="293">
         <f>+G80-(+'BG '!G8-'BG '!G39)</f>
         <v>1479636</v>
       </c>
-      <c r="H81" s="296">
+      <c r="H81" s="293">
         <f>+H80-(+'BG '!H8-'BG '!H39)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="296">
+      <c r="I81" s="293">
         <f>+I80-(+'BG '!I8-'BG '!I39)</f>
         <v>1479635</v>
       </c>
-      <c r="J81" s="328"/>
-      <c r="K81" s="296">
+      <c r="J81" s="302"/>
+      <c r="K81" s="293">
         <f>+K80-'BG '!K8</f>
         <v>-50776.550000011921</v>
       </c>
-      <c r="L81" s="296">
+      <c r="L81" s="293">
         <f>+L80-'BG '!L8</f>
         <v>0</v>
       </c>
-      <c r="M81" s="296">
+      <c r="M81" s="293">
         <f>+M80-'BG '!M8</f>
         <v>-50776.550000011921</v>
       </c>
-      <c r="N81" s="296">
+      <c r="N81" s="293">
         <f>+N80-'BG '!N8</f>
         <v>0</v>
       </c>
-      <c r="O81" s="296">
+      <c r="O81" s="293">
         <f>+O80-'BG '!O8</f>
         <v>-50777</v>
       </c>
-      <c r="Q81" s="327"/>
-      <c r="R81" s="327"/>
-      <c r="W81" s="327"/>
-      <c r="X81" s="327"/>
+      <c r="Q81" s="301"/>
+      <c r="R81" s="301"/>
+      <c r="W81" s="301"/>
+      <c r="X81" s="301"/>
     </row>
     <row r="82" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="I82" s="288"/>
-      <c r="O82" s="288"/>
-      <c r="Q82" s="266"/>
-      <c r="R82" s="266"/>
+      <c r="E82" s="285">
+        <f>+E80-'BG '!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="285">
+        <f>+F80-'BG '!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="285">
+        <f>+G80-'BG '!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="285">
+        <f>+H80-'BG '!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="285">
+        <f>+I80-'BG '!I8</f>
+        <v>-1</v>
+      </c>
+      <c r="O82" s="285"/>
+      <c r="Q82" s="263"/>
+      <c r="R82" s="263"/>
     </row>
     <row r="83" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E83" s="291"/>
-      <c r="F83" s="291"/>
-      <c r="G83" s="291"/>
-      <c r="H83" s="291"/>
-      <c r="I83" s="291"/>
-      <c r="K83" s="291"/>
-      <c r="L83" s="291"/>
-      <c r="M83" s="291"/>
-      <c r="N83" s="291"/>
-      <c r="O83" s="291"/>
-      <c r="Q83" s="266"/>
-      <c r="R83" s="266"/>
-      <c r="W83" s="291"/>
-      <c r="X83" s="291"/>
-      <c r="Y83" s="291"/>
-      <c r="Z83" s="291"/>
-      <c r="AA83" s="291"/>
+      <c r="E83" s="288"/>
+      <c r="F83" s="288"/>
+      <c r="G83" s="288"/>
+      <c r="H83" s="288"/>
+      <c r="I83" s="288"/>
+      <c r="K83" s="288"/>
+      <c r="L83" s="288"/>
+      <c r="M83" s="288"/>
+      <c r="N83" s="288"/>
+      <c r="O83" s="288"/>
+      <c r="Q83" s="263"/>
+      <c r="R83" s="263"/>
+      <c r="W83" s="288"/>
+      <c r="X83" s="288"/>
+      <c r="Y83" s="288"/>
+      <c r="Z83" s="288"/>
+      <c r="AA83" s="288"/>
     </row>
     <row r="84" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E84" s="291"/>
+      <c r="E84" s="288"/>
       <c r="F84"/>
-      <c r="I84" s="288"/>
-      <c r="K84" s="291"/>
+      <c r="I84" s="285"/>
+      <c r="K84" s="288"/>
       <c r="L84"/>
-      <c r="O84" s="288"/>
-      <c r="Q84" s="292" t="s">
+      <c r="O84" s="285"/>
+      <c r="Q84" s="289" t="s">
         <v>78</v>
       </c>
       <c r="R84" s="50"/>
       <c r="S84" s="50"/>
-      <c r="W84" s="291"/>
+      <c r="W84" s="288"/>
       <c r="X84"/>
     </row>
     <row r="85" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E85" s="291"/>
+      <c r="E85" s="288"/>
       <c r="F85"/>
-      <c r="K85" s="291"/>
+      <c r="K85" s="288"/>
       <c r="L85"/>
-      <c r="Q85" s="266" t="s">
+      <c r="Q85" s="263" t="s">
         <v>79</v>
       </c>
-      <c r="W85" s="291"/>
+      <c r="W85" s="288"/>
       <c r="X85"/>
     </row>
   </sheetData>
@@ -13860,11 +13898,11 @@
       </c>
       <c r="K6" s="102">
         <f>+'BG '!I40</f>
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="L6" s="98">
         <f t="shared" si="3"/>
-        <v>-2171744</v>
+        <v>-1028176</v>
       </c>
       <c r="M6" s="102">
         <f>+'BG '!O40</f>
@@ -13927,11 +13965,11 @@
       </c>
       <c r="K7" s="102">
         <f>+'BG '!I41</f>
-        <v>6939887</v>
+        <v>6939886</v>
       </c>
       <c r="L7" s="98">
         <f t="shared" si="3"/>
-        <v>4455156</v>
+        <v>4455155</v>
       </c>
       <c r="M7" s="102">
         <f>+'BG '!O41</f>
@@ -13962,11 +14000,11 @@
       </c>
       <c r="B8" s="97">
         <f>+'BG '!I12</f>
-        <v>22892112</v>
+        <v>15745531</v>
       </c>
       <c r="C8" s="98">
         <f t="shared" si="0"/>
-        <v>-10279166</v>
+        <v>-3132585</v>
       </c>
       <c r="D8" s="97">
         <f>+'BG '!O12</f>
@@ -13993,11 +14031,11 @@
       </c>
       <c r="K8" s="102">
         <f>+'BG '!I43</f>
-        <v>29252162</v>
+        <v>33183730</v>
       </c>
       <c r="L8" s="98">
         <f t="shared" si="3"/>
-        <v>6180016</v>
+        <v>10111584</v>
       </c>
       <c r="M8" s="102">
         <f>+'BG '!O43</f>
@@ -14028,11 +14066,11 @@
       </c>
       <c r="B9" s="97">
         <f>+'BG '!I13</f>
-        <v>13871709</v>
+        <v>9291972</v>
       </c>
       <c r="C9" s="98">
         <f t="shared" si="0"/>
-        <v>12748395</v>
+        <v>17328132</v>
       </c>
       <c r="D9" s="97">
         <f>+'BG '!O13</f>
@@ -14093,11 +14131,11 @@
       </c>
       <c r="B10" s="97">
         <f>+'BG '!I15</f>
-        <v>7057883</v>
+        <v>1702817</v>
       </c>
       <c r="C10" s="98">
         <f t="shared" si="0"/>
-        <v>-5084041</v>
+        <v>271025</v>
       </c>
       <c r="D10" s="97">
         <f>+'BG '!O15</f>
@@ -14124,11 +14162,11 @@
       </c>
       <c r="K10" s="102">
         <f>+'BG '!I46</f>
-        <v>14847746</v>
+        <v>14130987</v>
       </c>
       <c r="L10" s="98">
         <f t="shared" si="3"/>
-        <v>5926500</v>
+        <v>5209741</v>
       </c>
       <c r="M10" s="102">
         <f>+'BG '!O46</f>
@@ -14158,11 +14196,11 @@
       </c>
       <c r="B11" s="97">
         <f>+'BG '!I14</f>
-        <v>6686510</v>
+        <v>17168284</v>
       </c>
       <c r="C11" s="98">
         <f t="shared" si="0"/>
-        <v>11370538</v>
+        <v>888764</v>
       </c>
       <c r="D11" s="97">
         <f>+'BG '!O14</f>
@@ -14189,11 +14227,11 @@
       </c>
       <c r="K11" s="102">
         <f>+'BG '!I47</f>
-        <v>7311678</v>
+        <v>2650186</v>
       </c>
       <c r="L11" s="98">
         <f t="shared" si="3"/>
-        <v>3437587</v>
+        <v>-1223905</v>
       </c>
       <c r="M11" s="102">
         <f>+'BG '!O47</f>
@@ -14224,11 +14262,11 @@
       </c>
       <c r="B12" s="97">
         <f>+'BG '!I16</f>
-        <v>6241240</v>
+        <v>7031628</v>
       </c>
       <c r="C12" s="98">
         <f t="shared" si="0"/>
-        <v>-5493976</v>
+        <v>-6284364</v>
       </c>
       <c r="D12" s="97">
         <f>+'BG '!O16</f>
@@ -14255,11 +14293,11 @@
       </c>
       <c r="K12" s="102">
         <f>+'BG '!I48</f>
-        <v>5255127</v>
+        <v>3156285</v>
       </c>
       <c r="L12" s="98">
         <f t="shared" si="3"/>
-        <v>3821283</v>
+        <v>1722441</v>
       </c>
       <c r="M12" s="102">
         <f>+'BG '!O48</f>
@@ -14290,11 +14328,11 @@
       </c>
       <c r="B13" s="97">
         <f>+'BG '!I17</f>
-        <v>28373524</v>
+        <v>28373114</v>
       </c>
       <c r="C13" s="98">
         <f t="shared" si="0"/>
-        <v>221118</v>
+        <v>221528</v>
       </c>
       <c r="D13" s="97">
         <f>+'BG '!O17</f>
@@ -14371,11 +14409,11 @@
       </c>
       <c r="K14" s="102">
         <f>+'BG '!I49</f>
-        <v>13947126</v>
+        <v>15403343</v>
       </c>
       <c r="L14" s="98">
         <f t="shared" si="3"/>
-        <v>4193609</v>
+        <v>5649826</v>
       </c>
       <c r="M14" s="102">
         <f>+'BG '!O49</f>
@@ -14432,7 +14470,7 @@
       </c>
       <c r="B16" s="118">
         <f>SUM(B5:B15)</f>
-        <v>111768020</v>
+        <v>105958388</v>
       </c>
       <c r="C16" s="98"/>
       <c r="D16" s="118">
@@ -14449,7 +14487,7 @@
       </c>
       <c r="K16" s="97">
         <f>SUM(K5:K15)</f>
-        <v>84466419</v>
+        <v>83520678</v>
       </c>
       <c r="L16" s="98"/>
       <c r="M16" s="97">
@@ -14549,11 +14587,11 @@
       </c>
       <c r="B19" s="97">
         <f>+'BG '!I25</f>
-        <v>4645673</v>
+        <v>0</v>
       </c>
       <c r="C19" s="98">
         <f t="shared" ref="C19:C28" si="9">+D19-B19</f>
-        <v>-4284809</v>
+        <v>360864</v>
       </c>
       <c r="D19" s="97">
         <f>+'BG '!O25</f>
@@ -14580,11 +14618,11 @@
       </c>
       <c r="K19" s="97">
         <f>+'BG '!I55</f>
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="L19" s="98">
         <f t="shared" ref="L19:L27" si="10">+K19-M19</f>
-        <v>-917675</v>
+        <v>168397</v>
       </c>
       <c r="M19" s="97">
         <f>+'BG '!O55</f>
@@ -14614,11 +14652,11 @@
       </c>
       <c r="B20" s="97">
         <f>+'BG '!I24</f>
-        <v>0</v>
+        <v>6718699</v>
       </c>
       <c r="C20" s="98">
         <f t="shared" si="9"/>
-        <v>2077739</v>
+        <v>-4640960</v>
       </c>
       <c r="D20" s="97">
         <f>+'BG '!O24</f>
@@ -14682,11 +14720,11 @@
       </c>
       <c r="B21" s="97">
         <f>+'BG '!I26</f>
-        <v>62995647.061452001</v>
+        <v>64557806.061452001</v>
       </c>
       <c r="C21" s="98">
         <f t="shared" si="9"/>
-        <v>-16603198.061452001</v>
+        <v>-18165357.061452001</v>
       </c>
       <c r="D21" s="97">
         <f>+'BG '!O26</f>
@@ -14783,11 +14821,11 @@
       </c>
       <c r="K22" s="97">
         <f>+'BG '!I59</f>
-        <v>18563320</v>
+        <v>-26543205</v>
       </c>
       <c r="L22" s="98">
         <f t="shared" si="10"/>
-        <v>18563320</v>
+        <v>-26543205</v>
       </c>
       <c r="M22" s="97">
         <f>+'BG '!O59</f>
@@ -14817,11 +14855,11 @@
       </c>
       <c r="B23" s="97">
         <f>+'BG '!I28</f>
-        <v>11493173</v>
+        <v>11464101</v>
       </c>
       <c r="C23" s="98">
         <f t="shared" si="9"/>
-        <v>3194415</v>
+        <v>3223487</v>
       </c>
       <c r="D23" s="97">
         <f>+'BG '!O28</f>
@@ -14848,11 +14886,11 @@
       </c>
       <c r="K23" s="97">
         <f>+'BG '!I60</f>
-        <v>2286986</v>
+        <v>1145395</v>
       </c>
       <c r="L23" s="98">
         <f t="shared" si="10"/>
-        <v>-11358852</v>
+        <v>-12500443</v>
       </c>
       <c r="M23" s="97">
         <f>+'BG '!O60</f>
@@ -14882,11 +14920,11 @@
       </c>
       <c r="B24" s="97">
         <f>+'BG '!I30</f>
-        <v>1836716</v>
+        <v>3266202</v>
       </c>
       <c r="C24" s="98">
         <f t="shared" si="9"/>
-        <v>-163132</v>
+        <v>-1592618</v>
       </c>
       <c r="D24" s="97">
         <f>+'BG '!O30</f>
@@ -14914,11 +14952,11 @@
       </c>
       <c r="K24" s="97">
         <f>+'BG '!I62</f>
-        <v>9332567</v>
+        <v>9330028</v>
       </c>
       <c r="L24" s="98">
         <f t="shared" si="10"/>
-        <v>-428924</v>
+        <v>-431463</v>
       </c>
       <c r="M24" s="97">
         <f>+'BG '!O62</f>
@@ -14948,11 +14986,11 @@
       </c>
       <c r="B25" s="97">
         <f>+'BG '!I31</f>
-        <v>42626957</v>
+        <v>42165207</v>
       </c>
       <c r="C25" s="98">
         <f t="shared" si="9"/>
-        <v>-3610086</v>
+        <v>-3148336</v>
       </c>
       <c r="D25" s="97">
         <f>+'BG '!O31</f>
@@ -14970,11 +15008,11 @@
       </c>
       <c r="K25" s="97">
         <f>+'BG '!I61</f>
-        <v>2580000</v>
+        <v>42626983</v>
       </c>
       <c r="L25" s="98">
         <f t="shared" si="10"/>
-        <v>-15983321</v>
+        <v>24063662</v>
       </c>
       <c r="M25" s="97">
         <f>+'BG '!O61</f>
@@ -14999,11 +15037,11 @@
       </c>
       <c r="B26" s="97">
         <f>+'BG '!I33</f>
-        <v>1783584</v>
+        <v>354098</v>
       </c>
       <c r="C26" s="98">
         <f t="shared" si="9"/>
-        <v>-1723057</v>
+        <v>-293571</v>
       </c>
       <c r="D26" s="97">
         <f>+'BG '!O33</f>
@@ -15027,7 +15065,7 @@
         <v>189</v>
       </c>
       <c r="K26" s="97">
-        <f>+'BG '!I64</f>
+        <f>+'BG '!I65</f>
         <v>2542451</v>
       </c>
       <c r="L26" s="98">
@@ -15035,7 +15073,7 @@
         <v>-1181748</v>
       </c>
       <c r="M26" s="97">
-        <f>+'BG '!O64</f>
+        <f>+'BG '!O65</f>
         <v>3724199</v>
       </c>
       <c r="N26" s="98">
@@ -15087,11 +15125,11 @@
       </c>
       <c r="K27" s="97">
         <f>+'BG '!I63</f>
-        <v>0</v>
+        <v>2580000</v>
       </c>
       <c r="L27" s="98">
         <f t="shared" si="10"/>
-        <v>-2580000</v>
+        <v>0</v>
       </c>
       <c r="M27" s="97">
         <f>+'BG '!O63</f>
@@ -15134,7 +15172,7 @@
       </c>
       <c r="K28" s="133">
         <f>SUM(K19:K27)</f>
-        <v>43608834</v>
+        <v>41071234</v>
       </c>
       <c r="L28" s="112"/>
       <c r="M28" s="127">
@@ -15159,7 +15197,7 @@
       </c>
       <c r="B29" s="97">
         <f>SUM(B19:B28)</f>
-        <v>135010338.2466</v>
+        <v>138154701.2466</v>
       </c>
       <c r="C29" s="124"/>
       <c r="D29" s="124">
@@ -15173,7 +15211,7 @@
       </c>
       <c r="K29" s="133">
         <f>+K16+K28</f>
-        <v>128075253</v>
+        <v>124591912</v>
       </c>
       <c r="L29" s="112"/>
       <c r="M29" s="135">
@@ -15216,15 +15254,15 @@
         <v>193</v>
       </c>
       <c r="K31" s="97">
-        <f>+'BG '!I73</f>
-        <v>118703105.2466</v>
+        <f>+'BG '!I74</f>
+        <v>114913091.2466</v>
       </c>
       <c r="L31" s="112">
         <f>K31-M31</f>
-        <v>19199498.796599999</v>
+        <v>15409484.796599999</v>
       </c>
       <c r="M31" s="97">
-        <f>+'BG '!O73</f>
+        <f>+'BG '!O74</f>
         <v>99503606.450000003</v>
       </c>
       <c r="N31" s="112">
@@ -15268,7 +15306,7 @@
       </c>
       <c r="B33" s="140">
         <f>+B29+B16</f>
-        <v>246778358.2466</v>
+        <v>244113089.2466</v>
       </c>
       <c r="C33" s="141"/>
       <c r="D33" s="140">
@@ -15291,7 +15329,7 @@
       </c>
       <c r="K33" s="140">
         <f>+K31+K29</f>
-        <v>246778358.2466</v>
+        <v>239505003.2466</v>
       </c>
       <c r="L33" s="141"/>
       <c r="M33" s="140">
@@ -15333,7 +15371,7 @@
       <c r="J35" s="138"/>
       <c r="K35" s="106">
         <f>+K33-B33</f>
-        <v>0</v>
+        <v>-4608086</v>
       </c>
       <c r="L35" s="106">
         <f>+L33-C33</f>
@@ -15459,7 +15497,7 @@
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="161">
         <f>+B40-C25</f>
-        <v>0</v>
+        <v>-461750</v>
       </c>
       <c r="F41" s="138"/>
       <c r="I41" s="72"/>
@@ -15513,9 +15551,9 @@
       <c r="H43" s="138"/>
       <c r="I43" s="72"/>
       <c r="J43" s="158"/>
-      <c r="K43" s="293">
+      <c r="K43" s="290">
         <f>+K42-L31</f>
-        <v>0.20340000092983246</v>
+        <v>3790014.2034000009</v>
       </c>
       <c r="L43" s="138"/>
       <c r="M43" s="138"/>
@@ -15539,7 +15577,7 @@
       <c r="H44" s="138"/>
       <c r="I44" s="72"/>
       <c r="J44" s="158"/>
-      <c r="K44" s="293"/>
+      <c r="K44" s="290"/>
       <c r="L44" s="138"/>
       <c r="M44" s="138"/>
       <c r="N44" s="71"/>
@@ -15552,7 +15590,7 @@
       </c>
       <c r="B45" s="132">
         <f>-B43+C21</f>
-        <v>-34164512.061452001</v>
+        <v>-35726671.061452001</v>
       </c>
       <c r="C45" s="156"/>
       <c r="D45" s="156"/>
@@ -15578,7 +15616,7 @@
       </c>
       <c r="B46" s="132">
         <f>+B43+B45</f>
-        <v>-16603198.061452001</v>
+        <v>-18165357.061452001</v>
       </c>
       <c r="C46" s="156"/>
       <c r="D46" s="156"/>
@@ -15780,7 +15818,7 @@
       </c>
       <c r="B56" s="132">
         <f>-B55+L24</f>
-        <v>-1668962</v>
+        <v>-1671501</v>
       </c>
       <c r="C56" s="156"/>
       <c r="D56" s="156"/>
@@ -15802,7 +15840,7 @@
       </c>
       <c r="B57" s="132">
         <f>+B55+B56</f>
-        <v>-428924</v>
+        <v>-431463</v>
       </c>
       <c r="C57" s="156"/>
       <c r="D57" s="156"/>
@@ -15883,7 +15921,7 @@
       </c>
       <c r="B61" s="132">
         <f>-B60+C23</f>
-        <v>761222</v>
+        <v>790294</v>
       </c>
       <c r="C61" s="156"/>
       <c r="D61" s="156"/>
@@ -15904,7 +15942,7 @@
       </c>
       <c r="B62" s="132">
         <f>+B60+B61</f>
-        <v>3194415</v>
+        <v>3223487</v>
       </c>
       <c r="C62" s="156"/>
       <c r="D62" s="156"/>
@@ -16032,7 +16070,7 @@
       </c>
       <c r="B72" s="168">
         <f>-B70-B71+L10</f>
-        <v>2643846</v>
+        <v>1927087</v>
       </c>
       <c r="K72" s="66"/>
       <c r="T72" s="138"/>
@@ -16043,7 +16081,7 @@
       </c>
       <c r="B73" s="168">
         <f>SUM(B70:B72)</f>
-        <v>5926500</v>
+        <v>5209741</v>
       </c>
       <c r="K73" s="66"/>
       <c r="T73" s="138"/>
@@ -16092,7 +16130,7 @@
       </c>
       <c r="B78" s="168">
         <f>-B76-B77+L14</f>
-        <v>-83181</v>
+        <v>1373036</v>
       </c>
       <c r="K78" s="66"/>
       <c r="T78" s="138"/>
@@ -16103,7 +16141,7 @@
       </c>
       <c r="B79" s="168">
         <f>SUM(B76:B78)</f>
-        <v>4193609</v>
+        <v>5649826</v>
       </c>
       <c r="K79" s="66"/>
       <c r="T79" s="138"/>
@@ -16141,7 +16179,7 @@
       </c>
       <c r="B83" s="132">
         <f>-B82+C8</f>
-        <v>-10976377</v>
+        <v>-3829796</v>
       </c>
       <c r="K83" s="66"/>
       <c r="T83" s="138"/>
@@ -16152,7 +16190,7 @@
       </c>
       <c r="B84" s="132">
         <f>+B82+B83</f>
-        <v>-10279166</v>
+        <v>-3132585</v>
       </c>
       <c r="K84" s="66"/>
       <c r="T84" s="138"/>
@@ -16287,11 +16325,11 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="15" topLeftCell="F154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="15" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B6" sqref="B6"/>
       <selection pane="topRight" activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="E196" sqref="E196"/>
+      <selection pane="bottomRight" activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -16749,23 +16787,23 @@
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="236">
+      <c r="F24" s="233">
         <f>SUM(F21:F23)</f>
         <v>37143362</v>
       </c>
-      <c r="G24" s="236">
+      <c r="G24" s="233">
         <f>SUM(G21:G23)</f>
         <v>13159302</v>
       </c>
-      <c r="H24" s="238">
+      <c r="H24" s="235">
         <f>SUM(H21:H23)</f>
         <v>50302664</v>
       </c>
-      <c r="I24" s="236">
+      <c r="I24" s="233">
         <f>SUM(I21:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="236">
+      <c r="J24" s="233">
         <f>SUM(J21:J23)</f>
         <v>50302664</v>
       </c>
@@ -16777,16 +16815,16 @@
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="237">
+      <c r="F25" s="234">
         <v>-21629181</v>
       </c>
-      <c r="G25" s="237"/>
+      <c r="G25" s="234"/>
       <c r="H25" s="2">
         <f>+F25+G25</f>
         <v>-21629181</v>
       </c>
-      <c r="I25" s="237"/>
-      <c r="J25" s="237">
+      <c r="I25" s="234"/>
+      <c r="J25" s="234">
         <f t="shared" ref="J25:J26" si="2">+H25+I25</f>
         <v>-21629181</v>
       </c>
@@ -17021,12 +17059,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="309" t="s">
+      <c r="B37" s="314" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="309"/>
-      <c r="D37" s="309"/>
-      <c r="E37" s="309"/>
+      <c r="C37" s="314"/>
+      <c r="D37" s="314"/>
+      <c r="E37" s="314"/>
       <c r="F37" s="24">
         <v>-705016</v>
       </c>
@@ -17044,12 +17082,12 @@
       </c>
     </row>
     <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="315" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="310"/>
-      <c r="D38" s="310"/>
-      <c r="E38" s="310"/>
+      <c r="C38" s="315"/>
+      <c r="D38" s="315"/>
+      <c r="E38" s="315"/>
       <c r="F38" s="6">
         <f>+F36+F37</f>
         <v>920</v>
@@ -17068,12 +17106,12 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="310" t="s">
+      <c r="B39" s="315" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="310"/>
-      <c r="D39" s="310"/>
-      <c r="E39" s="310"/>
+      <c r="C39" s="315"/>
+      <c r="D39" s="315"/>
+      <c r="E39" s="315"/>
       <c r="F39" s="6">
         <f>SUM(F38:F38)</f>
         <v>920</v>
@@ -17096,12 +17134,12 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="310" t="s">
+      <c r="B40" s="315" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="310"/>
-      <c r="D40" s="310"/>
-      <c r="E40" s="310"/>
+      <c r="C40" s="315"/>
+      <c r="D40" s="315"/>
+      <c r="E40" s="315"/>
       <c r="F40" s="10">
         <v>6115000</v>
       </c>
@@ -17123,23 +17161,23 @@
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="236">
+      <c r="F41" s="233">
         <f>+F39+F40</f>
         <v>6115920</v>
       </c>
-      <c r="G41" s="236">
+      <c r="G41" s="233">
         <f>+G39+G40</f>
         <v>0</v>
       </c>
-      <c r="H41" s="238">
+      <c r="H41" s="235">
         <f>+H39+H40</f>
         <v>6115920</v>
       </c>
-      <c r="I41" s="236">
+      <c r="I41" s="233">
         <f>+I39+I40</f>
         <v>0</v>
       </c>
-      <c r="J41" s="236">
+      <c r="J41" s="233">
         <f>+J39+J40</f>
         <v>6115920</v>
       </c>
@@ -17594,7 +17632,7 @@
       <c r="F61" s="10">
         <v>0</v>
       </c>
-      <c r="G61" s="239">
+      <c r="G61" s="236">
         <v>709264</v>
       </c>
       <c r="H61" s="10">
@@ -17819,23 +17857,23 @@
       <c r="C71" s="54"/>
       <c r="D71" s="54"/>
       <c r="E71" s="54"/>
-      <c r="F71" s="241">
+      <c r="F71" s="238">
         <f>SUM(F70:F70)</f>
         <v>34797</v>
       </c>
-      <c r="G71" s="241">
+      <c r="G71" s="238">
         <f>SUM(G70:G70)</f>
         <v>14436</v>
       </c>
-      <c r="H71" s="241">
+      <c r="H71" s="238">
         <f>SUM(H70:H70)</f>
         <v>49233</v>
       </c>
-      <c r="I71" s="241">
+      <c r="I71" s="238">
         <f>SUM(I70:I70)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="241">
+      <c r="J71" s="238">
         <f>SUM(J70:J70)</f>
         <v>49233</v>
       </c>
@@ -18054,23 +18092,23 @@
       <c r="C81" s="54"/>
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
-      <c r="F81" s="241">
+      <c r="F81" s="238">
         <f>SUM(F80:F80)</f>
         <v>227072</v>
       </c>
-      <c r="G81" s="241">
+      <c r="G81" s="238">
         <f>SUM(G80:G80)</f>
         <v>85174</v>
       </c>
-      <c r="H81" s="241">
+      <c r="H81" s="238">
         <f>SUM(H80:H80)</f>
         <v>312246</v>
       </c>
-      <c r="I81" s="241">
+      <c r="I81" s="238">
         <f>SUM(I80:I80)</f>
         <v>0</v>
       </c>
-      <c r="J81" s="241">
+      <c r="J81" s="238">
         <f>SUM(J80:J80)</f>
         <v>312246</v>
       </c>
@@ -18261,23 +18299,23 @@
       <c r="C90" s="54"/>
       <c r="D90" s="54"/>
       <c r="E90" s="54"/>
-      <c r="F90" s="241">
+      <c r="F90" s="238">
         <f>SUM(F89:F89)</f>
         <v>-3202431</v>
       </c>
-      <c r="G90" s="241">
+      <c r="G90" s="238">
         <f>SUM(G89:G89)</f>
         <v>-24915</v>
       </c>
-      <c r="H90" s="241">
+      <c r="H90" s="238">
         <f>SUM(H89:H89)</f>
         <v>-3227346</v>
       </c>
-      <c r="I90" s="241">
+      <c r="I90" s="238">
         <f>SUM(I89:I89)</f>
         <v>0</v>
       </c>
-      <c r="J90" s="241">
+      <c r="J90" s="238">
         <f>SUM(J89:J89)</f>
         <v>-3227346</v>
       </c>
@@ -18615,7 +18653,7 @@
       <c r="D106" s="54"/>
       <c r="E106" s="54"/>
       <c r="F106" s="23"/>
-      <c r="G106" s="250">
+      <c r="G106" s="247">
         <v>-139500</v>
       </c>
       <c r="H106" s="10">
@@ -19694,21 +19732,21 @@
         <f>SUM(J143:J148)</f>
         <v>37726604.75</v>
       </c>
-      <c r="K149" s="258">
+      <c r="K149" s="255">
         <f>+I143+I148-I149</f>
         <v>0.50340000167489052</v>
       </c>
       <c r="L149" s="2"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B150" s="247" t="s">
+      <c r="B150" s="244" t="s">
         <v>250</v>
       </c>
-      <c r="C150" s="248"/>
-      <c r="D150" s="248"/>
-      <c r="E150" s="248"/>
-      <c r="F150" s="251"/>
-      <c r="G150" s="251">
+      <c r="C150" s="245"/>
+      <c r="D150" s="245"/>
+      <c r="E150" s="245"/>
+      <c r="F150" s="248"/>
+      <c r="G150" s="248">
         <v>-709264</v>
       </c>
       <c r="H150" s="6">
@@ -19733,7 +19771,7 @@
         <f>1859768+660505</f>
         <v>2520273</v>
       </c>
-      <c r="G151" s="249">
+      <c r="G151" s="246">
         <v>63402</v>
       </c>
       <c r="H151" s="10">
@@ -19748,14 +19786,14 @@
       <c r="K151" s="32"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B152" s="247" t="s">
+      <c r="B152" s="244" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="248"/>
-      <c r="D152" s="248"/>
-      <c r="E152" s="248"/>
-      <c r="F152" s="249"/>
-      <c r="G152" s="249">
+      <c r="C152" s="245"/>
+      <c r="D152" s="245"/>
+      <c r="E152" s="245"/>
+      <c r="F152" s="246"/>
+      <c r="G152" s="246">
         <v>-5404856</v>
       </c>
       <c r="H152" s="10">
@@ -19770,17 +19808,17 @@
       <c r="K152" s="32"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B153" s="247" t="s">
+      <c r="B153" s="244" t="s">
         <v>295</v>
       </c>
-      <c r="C153" s="248"/>
-      <c r="D153" s="248"/>
-      <c r="E153" s="248"/>
-      <c r="F153" s="250">
+      <c r="C153" s="245"/>
+      <c r="D153" s="245"/>
+      <c r="E153" s="245"/>
+      <c r="F153" s="247">
         <f>ER!D40</f>
         <v>19151165</v>
       </c>
-      <c r="G153" s="250">
+      <c r="G153" s="247">
         <f>ER!E36</f>
         <v>14579979</v>
       </c>
@@ -20386,12 +20424,12 @@
       <c r="L177" s="2"/>
     </row>
     <row r="178" spans="2:12" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="311" t="s">
+      <c r="B178" s="316" t="s">
         <v>256</v>
       </c>
-      <c r="C178" s="311"/>
-      <c r="D178" s="311"/>
-      <c r="E178" s="311"/>
+      <c r="C178" s="316"/>
+      <c r="D178" s="316"/>
+      <c r="E178" s="316"/>
       <c r="F178" s="10">
         <v>-705016</v>
       </c>
@@ -20732,11 +20770,11 @@
       <c r="C191" s="44"/>
       <c r="D191" s="44"/>
       <c r="E191" s="44"/>
-      <c r="F191" s="237">
+      <c r="F191" s="234">
         <f>+F151</f>
         <v>2520273</v>
       </c>
-      <c r="G191" s="237">
+      <c r="G191" s="234">
         <f>+G151</f>
         <v>63402</v>
       </c>
@@ -20744,8 +20782,8 @@
         <f>+F191+G191</f>
         <v>2583675</v>
       </c>
-      <c r="I191" s="237"/>
-      <c r="J191" s="237">
+      <c r="I191" s="234"/>
+      <c r="J191" s="234">
         <f t="shared" ref="J191:J194" si="22">+H191+I191</f>
         <v>2583675</v>
       </c>
@@ -20822,7 +20860,7 @@
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B195" s="240" t="s">
+      <c r="B195" s="237" t="s">
         <v>304</v>
       </c>
       <c r="C195" s="184"/>
@@ -20851,23 +20889,23 @@
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="30"/>
-      <c r="F196" s="259">
+      <c r="F196" s="256">
         <f>+F154+F107+F90+F81+F71+F62+F43+F27-F195</f>
         <v>0</v>
       </c>
-      <c r="G196" s="259">
+      <c r="G196" s="256">
         <f>+G154+G107+G90+G81+G71+G62+G43+G27-G195</f>
         <v>0</v>
       </c>
-      <c r="H196" s="259">
+      <c r="H196" s="256">
         <f>+H154+H107+H90+H81+H71+H62+H43+H27-H195</f>
         <v>0</v>
       </c>
-      <c r="I196" s="259">
+      <c r="I196" s="256">
         <f>+I149+I105+I89+I80+I70+I60+I41+I24-I190</f>
         <v>-0.50340000167489052</v>
       </c>
-      <c r="J196" s="259">
+      <c r="J196" s="256">
         <f>+J154+J107+J90+J81+J71+J62+J43+J27-J195</f>
         <v>0</v>
       </c>
@@ -20918,8 +20956,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A36" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -20959,34 +20997,34 @@
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="316">
+      <c r="G4" s="321">
         <v>2020</v>
       </c>
-      <c r="H4" s="316"/>
-      <c r="I4" s="317">
+      <c r="H4" s="321"/>
+      <c r="I4" s="322">
         <v>2019</v>
       </c>
-      <c r="J4" s="312"/>
-      <c r="K4" s="312">
+      <c r="J4" s="317"/>
+      <c r="K4" s="317">
         <v>2018</v>
       </c>
-      <c r="L4" s="312"/>
-      <c r="M4" s="312">
+      <c r="L4" s="317"/>
+      <c r="M4" s="317">
         <v>2017</v>
       </c>
-      <c r="N4" s="312"/>
-      <c r="O4" s="312">
+      <c r="N4" s="317"/>
+      <c r="O4" s="317">
         <v>2016</v>
       </c>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="312">
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317">
         <v>2015</v>
       </c>
-      <c r="R4" s="312"/>
-      <c r="T4" s="312">
+      <c r="R4" s="317"/>
+      <c r="T4" s="317">
         <v>2014</v>
       </c>
-      <c r="U4" s="312"/>
+      <c r="U4" s="317"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G5" s="185" t="s">
@@ -21282,14 +21320,14 @@
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="252" t="s">
+      <c r="B13" s="249" t="s">
         <v>441</v>
       </c>
-      <c r="C13" s="248"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="245">
+      <c r="C13" s="245"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="242">
         <v>26543205</v>
       </c>
       <c r="H13" s="228"/>
@@ -21372,18 +21410,18 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="249" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="234">
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="242">
         <f>+H18+H17-G13</f>
         <v>2483589</v>
       </c>
-      <c r="H16" s="234"/>
+      <c r="H16" s="242"/>
       <c r="I16" s="26"/>
       <c r="J16" s="10">
         <v>289600</v>
@@ -21413,7 +21451,7 @@
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
-      <c r="F17" s="253"/>
+      <c r="F17" s="250"/>
       <c r="G17" s="228"/>
       <c r="H17" s="228">
         <v>289600</v>
@@ -21440,15 +21478,15 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="252" t="s">
+      <c r="B18" s="249" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="248"/>
-      <c r="D18" s="248"/>
-      <c r="E18" s="248"/>
-      <c r="F18" s="248"/>
-      <c r="G18" s="245"/>
-      <c r="H18" s="245">
+      <c r="C18" s="245"/>
+      <c r="D18" s="245"/>
+      <c r="E18" s="245"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242">
         <v>28737194</v>
       </c>
       <c r="I18" s="26"/>
@@ -21673,10 +21711,7 @@
       <c r="U23" s="10">
         <v>1475332</v>
       </c>
-      <c r="V23" s="261">
-        <f>+G37-H23</f>
-        <v>5709560</v>
-      </c>
+      <c r="V23" s="258"/>
       <c r="W23" s="32"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -22234,13 +22269,13 @@
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="2:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="313" t="s">
+      <c r="B39" s="318" t="s">
         <v>333</v>
       </c>
-      <c r="C39" s="313"/>
-      <c r="D39" s="313"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="313"/>
+      <c r="C39" s="318"/>
+      <c r="D39" s="318"/>
+      <c r="E39" s="318"/>
+      <c r="F39" s="318"/>
       <c r="G39" s="228"/>
       <c r="H39" s="228"/>
       <c r="I39" s="26"/>
@@ -22387,11 +22422,11 @@
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
-      <c r="G43" s="245">
+      <c r="G43" s="242">
         <f>+I43-J59</f>
         <v>3164337.1851480007</v>
       </c>
-      <c r="H43" s="245"/>
+      <c r="H43" s="242"/>
       <c r="I43" s="26">
         <f>+K43+K54+K59</f>
         <v>3522607.4351480007</v>
@@ -22424,11 +22459,11 @@
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54"/>
-      <c r="G44" s="245">
+      <c r="G44" s="242">
         <f>+I44+I37</f>
         <v>19362783</v>
       </c>
-      <c r="H44" s="245"/>
+      <c r="H44" s="242"/>
       <c r="I44" s="26">
         <f>+K37</f>
         <v>9726442</v>
@@ -22445,10 +22480,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="9"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="32">
-        <f>+H50-G44</f>
-        <v>13217070.938548002</v>
-      </c>
+      <c r="V44" s="32"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="171" t="s">
@@ -22458,8 +22490,8 @@
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
       <c r="F45" s="54"/>
-      <c r="G45" s="245"/>
-      <c r="H45" s="245"/>
+      <c r="G45" s="242"/>
+      <c r="H45" s="242"/>
       <c r="I45" s="26"/>
       <c r="J45" s="10">
         <f>+K17-L16+K32</f>
@@ -22489,8 +22521,8 @@
       <c r="D46" s="54"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="245"/>
-      <c r="H46" s="245"/>
+      <c r="G46" s="242"/>
+      <c r="H46" s="242"/>
       <c r="I46" s="26"/>
       <c r="J46" s="231"/>
       <c r="K46" s="10"/>
@@ -22511,8 +22543,8 @@
       <c r="D47" s="54"/>
       <c r="E47" s="54"/>
       <c r="F47" s="54"/>
-      <c r="G47" s="245"/>
-      <c r="H47" s="245"/>
+      <c r="G47" s="242"/>
+      <c r="H47" s="242"/>
       <c r="I47" s="26"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -22540,8 +22572,8 @@
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
-      <c r="G48" s="245"/>
-      <c r="H48" s="245"/>
+      <c r="G48" s="242"/>
+      <c r="H48" s="242"/>
       <c r="I48" s="26"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -22573,8 +22605,8 @@
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="245"/>
+      <c r="G49" s="242"/>
+      <c r="H49" s="242"/>
       <c r="I49" s="26"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -22599,8 +22631,8 @@
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="245"/>
-      <c r="H50" s="245">
+      <c r="G50" s="242"/>
+      <c r="H50" s="242">
         <f>+J50+J23</f>
         <v>32579853.938548002</v>
       </c>
@@ -22643,8 +22675,8 @@
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
-      <c r="G51" s="245"/>
-      <c r="H51" s="245"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242"/>
       <c r="I51" s="52"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
@@ -22722,7 +22754,7 @@
         <f>SUM(U41:U50)</f>
         <v>0</v>
       </c>
-      <c r="V52" s="242"/>
+      <c r="V52" s="239"/>
     </row>
     <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
@@ -22747,7 +22779,7 @@
       <c r="S53" s="54"/>
       <c r="T53" s="5"/>
       <c r="U53" s="10"/>
-      <c r="V53" s="243"/>
+      <c r="V53" s="240"/>
     </row>
     <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="171" t="s">
@@ -22779,7 +22811,7 @@
       <c r="S54" s="54"/>
       <c r="T54" s="9"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="243"/>
+      <c r="V54" s="240"/>
     </row>
     <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="171" t="s">
@@ -22812,7 +22844,7 @@
       <c r="S55" s="54"/>
       <c r="T55" s="9"/>
       <c r="U55" s="10"/>
-      <c r="V55" s="243"/>
+      <c r="V55" s="240"/>
     </row>
     <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30" t="s">
@@ -22837,7 +22869,7 @@
       <c r="S56" s="54"/>
       <c r="T56" s="9"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="243"/>
+      <c r="V56" s="240"/>
     </row>
     <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="65" t="s">
@@ -22862,11 +22894,11 @@
       <c r="S57" s="54"/>
       <c r="T57" s="23"/>
       <c r="U57" s="24"/>
-      <c r="V57" s="243"/>
+      <c r="V57" s="240"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
-      <c r="C58" s="235" t="s">
+      <c r="C58" s="232" t="s">
         <v>345</v>
       </c>
       <c r="D58" s="54"/>
@@ -22887,7 +22919,7 @@
       <c r="S58" s="54"/>
       <c r="T58" s="5"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="244"/>
+      <c r="V58" s="241"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="171" t="s">
@@ -22941,7 +22973,7 @@
         <f>+G59</f>
         <v>1427390</v>
       </c>
-      <c r="I60" s="246">
+      <c r="I60" s="243">
         <f>+J59</f>
         <v>358270.25</v>
       </c>
@@ -23124,7 +23156,7 @@
       </c>
     </row>
     <row r="65" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H65" s="261">
+      <c r="H65" s="258">
         <f>+G64-H64</f>
         <v>0</v>
       </c>
@@ -23252,32 +23284,32 @@
       <c r="P71" s="54"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F72" s="314" t="s">
+      <c r="F72" s="319" t="s">
         <v>78</v>
       </c>
-      <c r="G72" s="314"/>
-      <c r="H72" s="314"/>
-      <c r="I72" s="314"/>
-      <c r="J72" s="314"/>
-      <c r="K72" s="314"/>
-      <c r="L72" s="314"/>
-      <c r="M72" s="314"/>
-      <c r="N72" s="314"/>
+      <c r="G72" s="319"/>
+      <c r="H72" s="319"/>
+      <c r="I72" s="319"/>
+      <c r="J72" s="319"/>
+      <c r="K72" s="319"/>
+      <c r="L72" s="319"/>
+      <c r="M72" s="319"/>
+      <c r="N72" s="319"/>
       <c r="O72" s="54"/>
       <c r="P72" s="54"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F73" s="315" t="s">
+      <c r="F73" s="320" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="315"/>
-      <c r="H73" s="315"/>
-      <c r="I73" s="315"/>
-      <c r="J73" s="315"/>
-      <c r="K73" s="315"/>
-      <c r="L73" s="315"/>
-      <c r="M73" s="315"/>
-      <c r="N73" s="315"/>
+      <c r="G73" s="320"/>
+      <c r="H73" s="320"/>
+      <c r="I73" s="320"/>
+      <c r="J73" s="320"/>
+      <c r="K73" s="320"/>
+      <c r="L73" s="320"/>
+      <c r="M73" s="320"/>
+      <c r="N73" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -23655,15 +23687,15 @@
     </row>
     <row r="19" spans="2:14" s="198" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="202"/>
-      <c r="C19" s="318" t="s">
+      <c r="C19" s="323" t="s">
         <v>374</v>
       </c>
-      <c r="D19" s="318"/>
-      <c r="E19" s="318"/>
-      <c r="F19" s="318"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="318"/>
-      <c r="I19" s="318"/>
+      <c r="D19" s="323"/>
+      <c r="E19" s="323"/>
+      <c r="F19" s="323"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="323"/>
       <c r="J19" s="203"/>
       <c r="K19" s="203">
         <v>0</v>
@@ -23703,11 +23735,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="319" t="s">
+      <c r="B22" s="324" t="s">
         <v>377</v>
       </c>
-      <c r="C22" s="319"/>
-      <c r="D22" s="319"/>
+      <c r="C22" s="324"/>
+      <c r="D22" s="324"/>
       <c r="E22" s="205" t="s">
         <v>378</v>
       </c>
@@ -23879,7 +23911,7 @@
       <c r="B28" s="30">
         <v>2020</v>
       </c>
-      <c r="D28" s="263"/>
+      <c r="D28" s="260"/>
       <c r="E28" s="190">
         <f>+H7</f>
         <v>-4118950</v>
@@ -23918,11 +23950,11 @@
         <f t="shared" ref="F29:G29" si="3">SUM(F23:F28)</f>
         <v>41516020.476599999</v>
       </c>
-      <c r="G29" s="264">
+      <c r="G29" s="261">
         <f t="shared" si="3"/>
         <v>-7507510.5234000012</v>
       </c>
-      <c r="H29" s="262">
+      <c r="H29" s="259">
         <f>SUM(H23:H28)</f>
         <v>4591726.6851480007</v>
       </c>
@@ -24062,8 +24094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24375,7 +24407,7 @@
       </c>
       <c r="F23" s="2">
         <f>+'BG '!I40+'BG '!I41+'BG '!I39-54804</f>
-        <v>11301347</v>
+        <v>12444914</v>
       </c>
       <c r="G23" s="2">
         <v>7538300</v>
@@ -24432,7 +24464,7 @@
       </c>
       <c r="F25" s="2">
         <f>+F23+F24</f>
-        <v>11356151</v>
+        <v>12499718</v>
       </c>
       <c r="G25" s="2">
         <f>+G23+G24</f>
@@ -24468,7 +24500,7 @@
       </c>
       <c r="F27" s="220">
         <f>+F20/F25</f>
-        <v>5.3549046679636438</v>
+        <v>4.8649982343601668</v>
       </c>
       <c r="G27" s="220">
         <f>+G20/G25</f>
@@ -24515,7 +24547,7 @@
       </c>
       <c r="F31" s="32">
         <f>+F23</f>
-        <v>11301347</v>
+        <v>12444914</v>
       </c>
       <c r="G31" s="32">
         <f>+G23</f>
@@ -24575,7 +24607,7 @@
       </c>
       <c r="F33" s="220">
         <f>+F31/F32</f>
-        <v>0.12469753693459414</v>
+        <v>0.13731550081267727</v>
       </c>
       <c r="G33" s="220">
         <f>+G31/G32</f>

--- a/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
+++ b/Combinado 2020/Telconet EFs combinado 2020-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\Combinado 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C7F02-81D7-4989-BA4A-2D236DF12F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC39533-A86F-4BD2-9F37-953CBCB8B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="10305" windowHeight="7110" tabRatio="752" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">AD!$A$1:$U$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">AD!$A$1:$U$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'BG '!$A$6:$U$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">EFE!$B$1:$AH$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ER!$A$1:$Y$40</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="459">
   <si>
     <t>1.</t>
   </si>
@@ -2966,10 +2966,20 @@
     <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2992,15 +3002,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3029,7 +3030,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3831,11 +3831,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="341" t="s">
         <v>404</v>
       </c>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="341"/>
       <c r="F4" s="219" t="s">
         <v>405</v>
       </c>
@@ -4259,10 +4259,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4670,7 +4670,7 @@
         <v>67915406</v>
       </c>
       <c r="H13" s="10">
-        <f>-AD!H18-AD!H33</f>
+        <f>-AD!H19-AD!H34</f>
         <v>-58623434</v>
       </c>
       <c r="I13" s="10">
@@ -4705,7 +4705,7 @@
         <v>37964374</v>
       </c>
       <c r="T13" s="9">
-        <f>-AD!N18-AD!N33</f>
+        <f>-AD!N19-AD!N34</f>
         <v>-10306018</v>
       </c>
       <c r="U13" s="10">
@@ -4854,7 +4854,7 @@
         <v>625964</v>
       </c>
       <c r="T16" s="9">
-        <f>-AD!P49-AD!P25</f>
+        <f>-AD!P50-AD!P26</f>
         <v>0</v>
       </c>
       <c r="U16" s="10">
@@ -5019,11 +5019,11 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="320" t="s">
+      <c r="A21" s="321" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="320"/>
-      <c r="C21" s="320"/>
+      <c r="B21" s="321"/>
+      <c r="C21" s="321"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5184,7 +5184,7 @@
         <v>72065317</v>
       </c>
       <c r="H26" s="10">
-        <f>-AD!H23+AD!G37+AD!G44-AD!H50</f>
+        <f>-AD!H24+AD!G38+AD!G45-AD!H51</f>
         <v>-7507510.9385480024</v>
       </c>
       <c r="I26" s="10">
@@ -5219,7 +5219,7 @@
         <v>83931641</v>
       </c>
       <c r="T26" s="2">
-        <f>-AD!N23+AD!M37+AD!M45-AD!N50</f>
+        <f>-AD!N24+AD!M38+AD!M46-AD!N51</f>
         <v>-18536381.523400001</v>
       </c>
       <c r="U26" s="10">
@@ -5326,15 +5326,17 @@
       <c r="E29" s="10">
         <v>3949574</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="9">
+        <v>1836716</v>
+      </c>
       <c r="G29" s="10">
         <f t="shared" si="6"/>
-        <v>3949574</v>
+        <v>5786290</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="10">
         <f t="shared" si="7"/>
-        <v>3949574</v>
+        <v>5786290</v>
       </c>
       <c r="K29" s="18">
         <v>4147107</v>
@@ -5367,17 +5369,14 @@
       <c r="E30" s="9">
         <v>1429486</v>
       </c>
-      <c r="F30" s="9">
-        <v>1836716</v>
-      </c>
       <c r="G30" s="10">
         <f t="shared" si="6"/>
-        <v>3266202</v>
+        <v>1429486</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="10">
         <f t="shared" si="7"/>
-        <v>3266202</v>
+        <v>1429486</v>
       </c>
       <c r="K30" s="9">
         <v>1673584</v>
@@ -5463,7 +5462,7 @@
         <v>541696</v>
       </c>
       <c r="H32" s="244">
-        <f>+AD!G59+AD!G43</f>
+        <f>+AD!G60+AD!G44</f>
         <v>4591727.1851480007</v>
       </c>
       <c r="I32" s="244">
@@ -5496,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <f>+AD!M43+AD!M59</f>
+        <f>+AD!M44+AD!M60</f>
         <v>4078003.9351480003</v>
       </c>
       <c r="U32" s="10">
@@ -5904,10 +5903,13 @@
         <f>+E43+F43</f>
         <v>33183730</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="226">
+        <f>-AD!G16</f>
+        <v>-2103989</v>
+      </c>
       <c r="I43" s="10">
         <f t="shared" ref="I43:I51" si="13">+G43+H43</f>
-        <v>33183730</v>
+        <v>31079741</v>
       </c>
       <c r="K43" s="9">
         <v>20932053</v>
@@ -5955,7 +5957,7 @@
         <v>30808474</v>
       </c>
       <c r="H44" s="244">
-        <f>-AD!G31</f>
+        <f>-AD!G32</f>
         <v>-29886240</v>
       </c>
       <c r="I44" s="244">
@@ -6089,16 +6091,17 @@
         <v>1671564</v>
       </c>
       <c r="F47" s="9">
-        <v>978621</v>
+        <f>978621-911985</f>
+        <v>66636</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="16"/>
-        <v>2650185</v>
+        <v>1738200</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="10">
         <f t="shared" si="13"/>
-        <v>2650185</v>
+        <v>1738200</v>
       </c>
       <c r="K47" s="9">
         <v>3860134</v>
@@ -6177,7 +6180,7 @@
         <v>2232388</v>
       </c>
       <c r="T48" s="2">
-        <f>-AD!M29</f>
+        <f>-AD!M30</f>
         <v>-656393</v>
       </c>
       <c r="U48" s="10">
@@ -6241,15 +6244,17 @@
       <c r="E50" s="9">
         <v>1574195</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9">
+        <v>911985</v>
+      </c>
       <c r="G50" s="10">
         <f t="shared" si="16"/>
-        <v>1574195</v>
+        <v>2486180</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10">
         <f t="shared" si="13"/>
-        <v>1574195</v>
+        <v>2486180</v>
       </c>
       <c r="K50" s="9">
         <v>1519701</v>
@@ -6336,11 +6341,11 @@
       </c>
       <c r="H52" s="19">
         <f>SUM(H39:H51)</f>
-        <v>-29886240</v>
+        <v>-31990229</v>
       </c>
       <c r="I52" s="19">
         <f>SUM(I39:I51)</f>
-        <v>79059759</v>
+        <v>76955770</v>
       </c>
       <c r="K52" s="19">
         <f>SUM(K39:K51)</f>
@@ -6602,7 +6607,7 @@
         <v>13565708</v>
       </c>
       <c r="T59" s="2">
-        <f>-AD!O30</f>
+        <f>-AD!O31</f>
         <v>0</v>
       </c>
       <c r="U59" s="10">
@@ -6651,7 +6656,7 @@
         <v>25443206</v>
       </c>
       <c r="T60" s="2">
-        <f>-AD!M31</f>
+        <f>-AD!M32</f>
         <v>-2251425</v>
       </c>
       <c r="U60" s="10">
@@ -6947,11 +6952,11 @@
       </c>
       <c r="H67" s="19">
         <f>H52+H66</f>
-        <v>-56429445</v>
+        <v>-58533434</v>
       </c>
       <c r="I67" s="19">
         <f>I52+I66</f>
-        <v>124739078</v>
+        <v>122635089</v>
       </c>
       <c r="K67" s="19">
         <f>K52+K66</f>
@@ -7226,11 +7231,11 @@
       </c>
       <c r="H73" s="250">
         <f>+PAT!I155</f>
-        <v>-5109772.7534000017</v>
+        <v>-3005783.7534000017</v>
       </c>
       <c r="I73" s="10">
         <f>+G73+H73</f>
-        <v>70359472.246600002</v>
+        <v>72463461.246600002</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="33">
@@ -7293,11 +7298,11 @@
       </c>
       <c r="H74" s="19">
         <f>SUM(H70:H73)</f>
-        <v>-5109772.7534000017</v>
+        <v>-3005783.7534000017</v>
       </c>
       <c r="I74" s="19">
         <f>SUM(I70:I73)</f>
-        <v>119374011.2466</v>
+        <v>121478000.2466</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="19">
@@ -7511,10 +7516,10 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7682,7 +7687,7 @@
         <v>379457100</v>
       </c>
       <c r="G7" s="10">
-        <f>-AD!G7-AD!G22</f>
+        <f>-AD!G7-AD!G23</f>
         <v>-111136297</v>
       </c>
       <c r="H7" s="10">
@@ -7700,7 +7705,7 @@
         <v>325603058</v>
       </c>
       <c r="M7" s="10">
-        <f>-AD!I7-AD!I22</f>
+        <f>-AD!I7-AD!I23</f>
         <v>-93140935</v>
       </c>
       <c r="N7" s="10">
@@ -7718,7 +7723,7 @@
         <v>226624070</v>
       </c>
       <c r="S7" s="10">
-        <f>-AD!M7-AD!M22</f>
+        <f>-AD!M7-AD!M23</f>
         <v>-52109713</v>
       </c>
       <c r="T7" s="10">
@@ -7741,7 +7746,7 @@
         <v>-219323712</v>
       </c>
       <c r="G8" s="10">
-        <f>AD!H9+AD!H24+AD!H38</f>
+        <f>AD!H9+AD!H25+AD!H39</f>
         <v>116845857</v>
       </c>
       <c r="H8" s="10">
@@ -7759,7 +7764,7 @@
         <v>-223392088</v>
       </c>
       <c r="M8" s="10">
-        <f>+AD!J9+AD!J24+AD!J38</f>
+        <f>+AD!J9+AD!J25+AD!J39</f>
         <v>94574016</v>
       </c>
       <c r="N8" s="10">
@@ -7777,7 +7782,7 @@
         <v>-127327027</v>
       </c>
       <c r="S8" s="10">
-        <f>+AD!N9+AD!N24+AD!N38</f>
+        <f>+AD!N9+AD!N25+AD!N39</f>
         <v>53367742</v>
       </c>
       <c r="T8" s="10">
@@ -8516,12 +8521,12 @@
         <v>928078</v>
       </c>
       <c r="G28" s="10">
-        <f>-AD!G16</f>
-        <v>-2483589</v>
+        <f>-AD!G17</f>
+        <v>-379600</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="1"/>
-        <v>-1555511</v>
+        <v>548478</v>
       </c>
       <c r="J28" s="10">
         <v>53527</v>
@@ -8534,7 +8539,7 @@
         <v>505281</v>
       </c>
       <c r="M28" s="10">
-        <f>+AD!J45+AD!J16</f>
+        <f>+AD!J46+AD!J17</f>
         <v>687293</v>
       </c>
       <c r="N28" s="10">
@@ -8553,7 +8558,7 @@
         <v>-3359562</v>
       </c>
       <c r="S28" s="10">
-        <f>-AD!M16</f>
+        <f>-AD!M17</f>
         <v>-12940</v>
       </c>
       <c r="T28" s="10">
@@ -8579,11 +8584,11 @@
       </c>
       <c r="G29" s="19">
         <f>+G9+G25+G27+G28</f>
-        <v>3225971</v>
+        <v>5329960</v>
       </c>
       <c r="H29" s="19">
         <f>+H9+H25+H27+H28</f>
-        <v>61849763</v>
+        <v>63953752</v>
       </c>
       <c r="J29" s="19">
         <f>+J9+J25+J27+J28</f>
@@ -8713,11 +8718,11 @@
       </c>
       <c r="G32" s="19">
         <f>+G29+G31</f>
-        <v>3225971</v>
+        <v>5329960</v>
       </c>
       <c r="H32" s="19">
         <f>+H29+H31</f>
-        <v>59286387</v>
+        <v>61390376</v>
       </c>
       <c r="J32" s="19">
         <f>+J29+J31</f>
@@ -8832,7 +8837,7 @@
         <v>-13249304</v>
       </c>
       <c r="G35" s="10">
-        <f>+AD!H60</f>
+        <f>+AD!H61</f>
         <v>1427390</v>
       </c>
       <c r="H35" s="10">
@@ -8850,7 +8855,7 @@
         <v>-9817637</v>
       </c>
       <c r="M35" s="10">
-        <f>-AD!I60</f>
+        <f>-AD!I61</f>
         <v>-358270.25</v>
       </c>
       <c r="N35" s="10">
@@ -8868,7 +8873,7 @@
         <v>-4227108</v>
       </c>
       <c r="S35" s="10">
-        <f>AD!N60</f>
+        <f>AD!N61</f>
         <v>591847.41514800023</v>
       </c>
       <c r="T35" s="10">
@@ -8894,11 +8899,11 @@
       </c>
       <c r="G36" s="19">
         <f>SUM(G32:G35)</f>
-        <v>4653361</v>
+        <v>6757350</v>
       </c>
       <c r="H36" s="19">
         <f>SUM(H32:H35)</f>
-        <v>39055411</v>
+        <v>41159400</v>
       </c>
       <c r="J36" s="19">
         <f>SUM(J32:J35)</f>
@@ -8979,11 +8984,11 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="321" t="s">
+      <c r="A39" s="322" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="321"/>
-      <c r="C39" s="321"/>
+      <c r="B39" s="322"/>
+      <c r="C39" s="322"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10">
         <v>139500</v>
@@ -9049,11 +9054,11 @@
       </c>
       <c r="G40" s="19">
         <f>+G36+G39</f>
-        <v>4653361</v>
+        <v>6757350</v>
       </c>
       <c r="H40" s="19">
         <f>+H36+H39</f>
-        <v>39194911</v>
+        <v>41298900</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="45">
@@ -9125,7 +9130,7 @@
       </c>
       <c r="H42" s="252">
         <f t="shared" si="6"/>
-        <v>0.23236115499389953</v>
+        <v>0.22313365047911043</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48"/>
@@ -9919,12 +9924,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="329" t="s">
+      <c r="B37" s="323" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="329"/>
-      <c r="D37" s="329"/>
-      <c r="E37" s="329"/>
+      <c r="C37" s="323"/>
+      <c r="D37" s="323"/>
+      <c r="E37" s="323"/>
       <c r="F37" s="24">
         <v>-705016</v>
       </c>
@@ -9942,12 +9947,12 @@
       </c>
     </row>
     <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="330" t="s">
+      <c r="B38" s="324" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="330"/>
-      <c r="D38" s="330"/>
-      <c r="E38" s="330"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="324"/>
+      <c r="E38" s="324"/>
       <c r="F38" s="6">
         <f>+F36+F37</f>
         <v>920</v>
@@ -9966,12 +9971,12 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="330" t="s">
+      <c r="B39" s="324" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="330"/>
-      <c r="D39" s="330"/>
-      <c r="E39" s="330"/>
+      <c r="C39" s="324"/>
+      <c r="D39" s="324"/>
+      <c r="E39" s="324"/>
       <c r="F39" s="6">
         <f>SUM(F38:F38)</f>
         <v>920</v>
@@ -9994,12 +9999,12 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="330" t="s">
+      <c r="B40" s="324" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="330"/>
-      <c r="D40" s="330"/>
-      <c r="E40" s="330"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="324"/>
+      <c r="E40" s="324"/>
       <c r="F40" s="10">
         <v>6115000</v>
       </c>
@@ -11717,7 +11722,7 @@
         <v>36393535</v>
       </c>
       <c r="I115" s="10" t="e">
-        <f>-AD!Q66</f>
+        <f>-AD!Q67</f>
         <v>#REF!</v>
       </c>
       <c r="J115" s="10" t="e">
@@ -11917,7 +11922,7 @@
         <v>15982615</v>
       </c>
       <c r="I123" s="24" t="e">
-        <f>-AD!O66+AD!Q66</f>
+        <f>-AD!O67+AD!Q67</f>
         <v>#REF!</v>
       </c>
       <c r="J123" s="24" t="e">
@@ -11945,7 +11950,7 @@
         <v>37984609</v>
       </c>
       <c r="I124" s="6">
-        <f>-AD!M17-AD!M42</f>
+        <f>-AD!M18-AD!M43</f>
         <v>-16446314.003400002</v>
       </c>
       <c r="J124" s="6" t="e">
@@ -12585,7 +12590,7 @@
         <v>47489738</v>
       </c>
       <c r="I149" s="176">
-        <f>-AD!G42+AD!H17</f>
+        <f>-AD!G43+AD!H18</f>
         <v>-9763133.7534000017</v>
       </c>
       <c r="J149" s="176">
@@ -12688,11 +12693,11 @@
       </c>
       <c r="I153" s="24">
         <f>+ER!G40</f>
-        <v>4653361</v>
+        <v>6757350</v>
       </c>
       <c r="J153" s="24">
         <f t="shared" si="17"/>
-        <v>39055411</v>
+        <v>41159400</v>
       </c>
       <c r="K153" s="32"/>
     </row>
@@ -12717,11 +12722,11 @@
       </c>
       <c r="I154" s="168">
         <f>SUM(I149:I153)</f>
-        <v>-5109772.7534000017</v>
+        <v>-3005783.7534000017</v>
       </c>
       <c r="J154" s="168">
         <f>SUM(J149:J153)</f>
-        <v>73251570.75</v>
+        <v>75355559.75</v>
       </c>
       <c r="K154" s="32"/>
     </row>
@@ -12746,11 +12751,11 @@
       </c>
       <c r="I155" s="174">
         <f>I154+I107+I90+I81</f>
-        <v>-5109772.7534000017</v>
+        <v>-3005783.7534000017</v>
       </c>
       <c r="J155" s="174">
         <f>J154+J107+J90+J81</f>
-        <v>70359472.75</v>
+        <v>72463461.75</v>
       </c>
       <c r="K155" s="32"/>
       <c r="L155" s="2"/>
@@ -13284,12 +13289,12 @@
       <c r="L177" s="2"/>
     </row>
     <row r="178" spans="2:12" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="331" t="s">
+      <c r="B178" s="325" t="s">
         <v>253</v>
       </c>
-      <c r="C178" s="331"/>
-      <c r="D178" s="331"/>
-      <c r="E178" s="331"/>
+      <c r="C178" s="325"/>
+      <c r="D178" s="325"/>
+      <c r="E178" s="325"/>
       <c r="F178" s="10">
         <v>-705016</v>
       </c>
@@ -13712,11 +13717,11 @@
       </c>
       <c r="I194" s="10">
         <f>+I153</f>
-        <v>4653361</v>
+        <v>6757350</v>
       </c>
       <c r="J194" s="10">
         <f t="shared" si="22"/>
-        <v>38915911</v>
+        <v>41019900</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
@@ -13740,11 +13745,11 @@
       </c>
       <c r="I195" s="19">
         <f>SUM(I190:I194)</f>
-        <v>-5109772.25</v>
+        <v>-3005783.25</v>
       </c>
       <c r="J195" s="19">
         <f>SUM(J190:J194)</f>
-        <v>119374011.75</v>
+        <v>121478000.75</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
@@ -13813,11 +13818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="I65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -14058,11 +14063,11 @@
       </c>
       <c r="H8" s="264">
         <f>+ER!G32+ER!G34</f>
-        <v>3225971</v>
+        <v>5329960</v>
       </c>
       <c r="I8" s="264">
         <f t="shared" ref="I8:I19" si="0">+G8+H8</f>
-        <v>50877325</v>
+        <v>52981314</v>
       </c>
       <c r="J8" s="317"/>
       <c r="K8" s="264">
@@ -14125,11 +14130,11 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="322" t="s">
+      <c r="B9" s="326" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="323"/>
-      <c r="D9" s="324"/>
+      <c r="C9" s="327"/>
+      <c r="D9" s="328"/>
       <c r="E9" s="264"/>
       <c r="F9" s="264"/>
       <c r="G9" s="264"/>
@@ -14295,7 +14300,7 @@
         <v>25836665</v>
       </c>
       <c r="H12" s="264">
-        <f>-AD!H38</f>
+        <f>-AD!H39</f>
         <v>-9828510</v>
       </c>
       <c r="I12" s="264">
@@ -14415,10 +14420,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="323" t="s">
+      <c r="C14" s="327" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="324"/>
+      <c r="D14" s="328"/>
       <c r="E14" s="264">
         <v>1804437</v>
       </c>
@@ -14899,11 +14904,11 @@
       </c>
       <c r="H22" s="263">
         <f>SUM(H8:H20)</f>
-        <v>-6602539</v>
+        <v>-4498550</v>
       </c>
       <c r="I22" s="263">
         <f>SUM(I8:I21)</f>
-        <v>76252166.814851999</v>
+        <v>78356155.814851999</v>
       </c>
       <c r="J22" s="317"/>
       <c r="K22" s="263">
@@ -15404,7 +15409,7 @@
       <c r="H31" s="264"/>
       <c r="I31" s="289">
         <f>+'Hoja de trabajo'!L8</f>
-        <v>10111584</v>
+        <v>8007595</v>
       </c>
       <c r="J31" s="317"/>
       <c r="K31" s="264"/>
@@ -15579,7 +15584,7 @@
       <c r="H34" s="264"/>
       <c r="I34" s="289">
         <f>+'Hoja de trabajo'!L11+'Hoja de trabajo'!L23</f>
-        <v>-13724349</v>
+        <v>-14636334</v>
       </c>
       <c r="J34" s="317"/>
       <c r="K34" s="264"/>
@@ -15948,11 +15953,11 @@
       <c r="G41" s="263"/>
       <c r="H41" s="263">
         <f>SUM(H22:H40)</f>
-        <v>-6602539</v>
+        <v>-4498550</v>
       </c>
       <c r="I41" s="318">
         <f>SUM(I22:I37)</f>
-        <v>60564020.814851999</v>
+        <v>59652035.814851999</v>
       </c>
       <c r="J41" s="319"/>
       <c r="K41" s="263">
@@ -16200,11 +16205,11 @@
       <c r="G45" s="274"/>
       <c r="H45" s="274">
         <f>SUM(H41:H44)</f>
-        <v>-6602539</v>
+        <v>-4498550</v>
       </c>
       <c r="I45" s="274">
         <f>SUM(I41:I44)</f>
-        <v>39303553.814851999</v>
+        <v>38391568.814851999</v>
       </c>
       <c r="J45" s="317"/>
       <c r="K45" s="274">
@@ -16348,10 +16353,10 @@
     </row>
     <row r="48" spans="2:27" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="292"/>
-      <c r="C48" s="323" t="s">
+      <c r="C48" s="327" t="s">
         <v>450</v>
       </c>
-      <c r="D48" s="324"/>
+      <c r="D48" s="328"/>
       <c r="E48" s="264">
         <v>-158748655</v>
       </c>
@@ -16646,10 +16651,10 @@
     </row>
     <row r="55" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
-      <c r="C55" s="325" t="s">
+      <c r="C55" s="329" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="326"/>
+      <c r="D55" s="330"/>
       <c r="E55" s="264"/>
       <c r="F55" s="264"/>
       <c r="G55" s="264">
@@ -16704,10 +16709,10 @@
     </row>
     <row r="56" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
-      <c r="C56" s="325" t="s">
+      <c r="C56" s="329" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="326"/>
+      <c r="D56" s="330"/>
       <c r="E56" s="264"/>
       <c r="F56" s="264"/>
       <c r="G56" s="264">
@@ -16770,12 +16775,12 @@
       <c r="F57" s="264"/>
       <c r="G57" s="264">
         <f>+'Hoja de trabajo'!C24</f>
-        <v>-1592618</v>
+        <v>244098</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="264">
         <f t="shared" si="20"/>
-        <v>-1592618</v>
+        <v>244098</v>
       </c>
       <c r="J57" s="317"/>
       <c r="K57" s="264">
@@ -16804,20 +16809,20 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
-      <c r="C58" s="327" t="s">
+      <c r="C58" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="328"/>
+      <c r="D58" s="332"/>
       <c r="E58" s="264"/>
       <c r="F58" s="264"/>
       <c r="G58" s="264">
         <f>+'Hoja de trabajo'!B51</f>
-        <v>-2210500</v>
+        <v>-4047216</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="264">
         <f t="shared" si="20"/>
-        <v>-2210500</v>
+        <v>-4047216</v>
       </c>
       <c r="J58" s="317"/>
       <c r="K58" s="264"/>
@@ -16865,7 +16870,7 @@
         <v>-34173512.061452001</v>
       </c>
       <c r="H59" s="264">
-        <f>+AD!H23</f>
+        <f>+AD!H24</f>
         <v>4118950</v>
       </c>
       <c r="I59" s="264">
@@ -16884,7 +16889,7 @@
         <v>-15898049</v>
       </c>
       <c r="N59" s="264">
-        <f>+AD!J23</f>
+        <f>+AD!J24</f>
         <v>8203260</v>
       </c>
       <c r="O59" s="264">
@@ -17490,10 +17495,10 @@
     </row>
     <row r="71" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="30"/>
-      <c r="C71" s="323" t="s">
+      <c r="C71" s="327" t="s">
         <v>449</v>
       </c>
-      <c r="D71" s="324"/>
+      <c r="D71" s="328"/>
       <c r="E71" s="264"/>
       <c r="F71" s="264"/>
       <c r="G71" s="264">
@@ -17742,11 +17747,11 @@
       </c>
       <c r="H75" s="281">
         <f>+H74+H63+H45</f>
-        <v>-2483589</v>
+        <v>-379600</v>
       </c>
       <c r="I75" s="281">
         <f>+I74+I63+I45</f>
-        <v>14043131.753399998</v>
+        <v>13131146.753399998</v>
       </c>
       <c r="J75" s="317"/>
       <c r="K75" s="281">
@@ -17831,7 +17836,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="284">
         <f>+I75</f>
-        <v>14043131.753399998</v>
+        <v>13131146.753399998</v>
       </c>
       <c r="K77" s="263">
         <f>+K75</f>
@@ -17970,7 +17975,7 @@
       </c>
       <c r="I79" s="274">
         <f>SUM(I77:I78)</f>
-        <v>21631930.753399998</v>
+        <v>20719945.753399998</v>
       </c>
       <c r="K79" s="274">
         <f>+K77+K78</f>
@@ -18053,7 +18058,7 @@
       </c>
       <c r="I80" s="290">
         <f>+I79-(+'BG '!I8-'BG '!I39)</f>
-        <v>-0.24660000205039978</v>
+        <v>-911985.24660000205</v>
       </c>
       <c r="J80" s="258"/>
       <c r="K80" s="290">
@@ -18089,9 +18094,9 @@
         <f>+H79-'BG '!H8</f>
         <v>0</v>
       </c>
-      <c r="I81" s="341">
+      <c r="I81" s="320">
         <f>+I79-'BG '!I8+'BG '!I39</f>
-        <v>-0.24660000205039978</v>
+        <v>-911985.24660000205</v>
       </c>
       <c r="O81" s="283"/>
       <c r="Q81" s="261"/>
@@ -18534,11 +18539,11 @@
       </c>
       <c r="K8" s="101">
         <f>+'BG '!I43</f>
-        <v>33183730</v>
+        <v>31079741</v>
       </c>
       <c r="L8" s="97">
         <f t="shared" si="3"/>
-        <v>10111584</v>
+        <v>8007595</v>
       </c>
       <c r="M8" s="101">
         <f>+'BG '!O43</f>
@@ -18730,11 +18735,11 @@
       </c>
       <c r="K11" s="101">
         <f>+'BG '!I47</f>
-        <v>2650185</v>
+        <v>1738200</v>
       </c>
       <c r="L11" s="97">
         <f t="shared" si="3"/>
-        <v>-1223906</v>
+        <v>-2135891</v>
       </c>
       <c r="M11" s="101">
         <f>+'BG '!O47</f>
@@ -18862,11 +18867,11 @@
       </c>
       <c r="K13" s="101">
         <f>+'BG '!I50</f>
-        <v>1574195</v>
+        <v>2486180</v>
       </c>
       <c r="L13" s="97">
         <f t="shared" si="3"/>
-        <v>-645022</v>
+        <v>266963</v>
       </c>
       <c r="M13" s="101">
         <f>+'BG '!O50</f>
@@ -18990,7 +18995,7 @@
       </c>
       <c r="K16" s="96">
         <f>SUM(K5:K15)</f>
-        <v>79059759</v>
+        <v>76955770</v>
       </c>
       <c r="L16" s="97"/>
       <c r="M16" s="96">
@@ -19423,11 +19428,11 @@
       </c>
       <c r="B24" s="96">
         <f>+'BG '!I30</f>
-        <v>3266202</v>
+        <v>1429486</v>
       </c>
       <c r="C24" s="97">
         <f t="shared" si="9"/>
-        <v>-1592618</v>
+        <v>244098</v>
       </c>
       <c r="D24" s="96">
         <f>+'BG '!O30</f>
@@ -19603,11 +19608,11 @@
       </c>
       <c r="B27" s="96">
         <f>+'BG '!I29</f>
-        <v>3949574</v>
+        <v>5786290</v>
       </c>
       <c r="C27" s="97">
         <f t="shared" si="9"/>
-        <v>197533</v>
+        <v>-1639183</v>
       </c>
       <c r="D27" s="96">
         <f>+'BG '!O29</f>
@@ -19714,7 +19719,7 @@
       </c>
       <c r="K29" s="132">
         <f>+K16+K28</f>
-        <v>124739078</v>
+        <v>122635089</v>
       </c>
       <c r="L29" s="111"/>
       <c r="M29" s="134">
@@ -19758,11 +19763,11 @@
       </c>
       <c r="K31" s="96">
         <f>+'BG '!I74</f>
-        <v>119374011.2466</v>
+        <v>121478000.2466</v>
       </c>
       <c r="L31" s="111">
         <f>K31-M31</f>
-        <v>19870404.796599999</v>
+        <v>21974393.796599999</v>
       </c>
       <c r="M31" s="96">
         <f>+'BG '!O74</f>
@@ -19937,7 +19942,7 @@
       </c>
       <c r="K38" s="96">
         <f>+K45</f>
-        <v>39055411</v>
+        <v>41159400</v>
       </c>
       <c r="L38" s="137"/>
       <c r="M38" s="137"/>
@@ -20031,7 +20036,7 @@
       </c>
       <c r="K42" s="132">
         <f>SUM(K38:K41)</f>
-        <v>19870405</v>
+        <v>21974394</v>
       </c>
       <c r="L42" s="137"/>
       <c r="M42" s="137"/>
@@ -20106,7 +20111,7 @@
       </c>
       <c r="K45" s="117">
         <f>+ER!H36</f>
-        <v>39055411</v>
+        <v>41159400</v>
       </c>
       <c r="L45" s="157"/>
       <c r="M45" s="157"/>
@@ -20154,7 +20159,7 @@
       </c>
       <c r="K47" s="164">
         <f>+K45+K46</f>
-        <v>50877325</v>
+        <v>52981314</v>
       </c>
       <c r="L47" s="157"/>
       <c r="M47" s="157"/>
@@ -20224,7 +20229,7 @@
       </c>
       <c r="B51" s="131">
         <f>+C27-B49-B50</f>
-        <v>-2210500</v>
+        <v>-4047216</v>
       </c>
       <c r="C51" s="155"/>
       <c r="D51" s="155"/>
@@ -20245,7 +20250,7 @@
       </c>
       <c r="B52" s="131">
         <f>SUM(B49:B51)</f>
-        <v>197533</v>
+        <v>-1639183</v>
       </c>
       <c r="C52" s="155"/>
       <c r="D52" s="155"/>
@@ -28026,7 +28031,7 @@
     <row r="105" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="165">
         <f>+B104-L13-L26</f>
-        <v>0</v>
+        <v>-911985</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28060,10 +28065,10 @@
   <sheetPr>
     <tabColor rgb="FFE7E6E6"/>
   </sheetPr>
-  <dimension ref="A1:AMJ73"/>
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A9" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -28103,34 +28108,34 @@
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="336">
+      <c r="G4" s="337">
         <v>2020</v>
       </c>
-      <c r="H4" s="336"/>
-      <c r="I4" s="337">
+      <c r="H4" s="337"/>
+      <c r="I4" s="338">
         <v>2019</v>
       </c>
-      <c r="J4" s="332"/>
-      <c r="K4" s="332">
+      <c r="J4" s="333"/>
+      <c r="K4" s="333">
         <v>2018</v>
       </c>
-      <c r="L4" s="332"/>
-      <c r="M4" s="332">
+      <c r="L4" s="333"/>
+      <c r="M4" s="333">
         <v>2017</v>
       </c>
-      <c r="N4" s="332"/>
-      <c r="O4" s="332">
+      <c r="N4" s="333"/>
+      <c r="O4" s="333">
         <v>2016</v>
       </c>
-      <c r="P4" s="332"/>
-      <c r="Q4" s="332">
+      <c r="P4" s="333"/>
+      <c r="Q4" s="333">
         <v>2015</v>
       </c>
-      <c r="R4" s="332"/>
-      <c r="T4" s="332">
+      <c r="R4" s="333"/>
+      <c r="T4" s="333">
         <v>2014</v>
       </c>
-      <c r="U4" s="332"/>
+      <c r="U4" s="333"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G5" s="183" t="s">
@@ -28516,31 +28521,22 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="247" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" s="243"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="240">
-        <f>+H18+H17-G13</f>
-        <v>2483589</v>
-      </c>
-      <c r="H16" s="240"/>
+      <c r="B16" s="169" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="226">
+        <v>2103989</v>
+      </c>
+      <c r="H16" s="226"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="10">
-        <v>289600</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="10">
-        <f>10820478-10764779</f>
-        <v>55699</v>
-      </c>
-      <c r="M16" s="10">
-        <f>-M13-M17+N18</f>
-        <v>12940</v>
-      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -28551,31 +28547,33 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="169" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226">
+      <c r="B17" s="247" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="240">
+        <f>29026794-28647194</f>
+        <v>379600</v>
+      </c>
+      <c r="H17" s="240"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="10">
         <v>289600</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10">
-        <v>138060</v>
-      </c>
-      <c r="L17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10">
+        <f>10820478-10764779</f>
+        <v>55699</v>
+      </c>
       <c r="M17" s="10">
-        <v>138060</v>
+        <f>-M13-M18+N19</f>
+        <v>12940</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="10" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -28584,245 +28582,238 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="247" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240">
-        <v>28737194</v>
+      <c r="B18" s="169" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226">
+        <v>289600</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="10">
-        <v>14392609</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10">
-        <v>10764779</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10">
-        <v>5250200</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10">
-        <v>8398689</v>
-      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10">
+        <v>138060</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
+        <v>138060</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="e">
+        <f>+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="10">
-        <v>2286853</v>
-      </c>
+      <c r="R18" s="10"/>
       <c r="S18" s="2"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="10">
-        <v>2802380</v>
-      </c>
+      <c r="U18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
+      <c r="B19" s="247" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="240">
+        <v>28737194</v>
+      </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10">
+        <v>14392609</v>
+      </c>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10">
+        <v>10764779</v>
+      </c>
       <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="10">
+        <v>5250200</v>
+      </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="P19" s="10">
+        <v>8398689</v>
+      </c>
       <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="10">
+        <v>2286853</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
+      <c r="U19" s="10">
+        <v>2802380</v>
+      </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="64"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36" t="s">
+      <c r="B20" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="64"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="G20" s="19">
-        <f>SUM(G13:G19)</f>
+      <c r="G21" s="19">
+        <f>SUM(G13:G20)</f>
         <v>29026794</v>
       </c>
-      <c r="H20" s="223">
-        <f t="shared" ref="H20" si="3">SUM(H13:H19)</f>
+      <c r="H21" s="223">
+        <f t="shared" ref="H21" si="3">SUM(H13:H20)</f>
         <v>29026794</v>
       </c>
-      <c r="I20" s="223">
-        <f>SUM(I13:I19)</f>
+      <c r="I21" s="223">
+        <f>SUM(I13:I20)</f>
         <v>14682209</v>
       </c>
-      <c r="J20" s="19">
-        <f>SUM(J13:J19)</f>
+      <c r="J21" s="19">
+        <f>SUM(J13:J20)</f>
         <v>14682209</v>
       </c>
-      <c r="K20" s="19">
-        <f t="shared" ref="K20:R20" si="4">SUM(K12:K18)</f>
+      <c r="K21" s="19">
+        <f t="shared" ref="K21:R21" si="4">SUM(K12:K19)</f>
         <v>10820478</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L21" s="19">
         <f t="shared" si="4"/>
         <v>10820478</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M21" s="19">
         <f t="shared" si="4"/>
         <v>5250200</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N21" s="19">
         <f t="shared" si="4"/>
         <v>5250200</v>
       </c>
-      <c r="O20" s="19" t="e">
+      <c r="O21" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P21" s="19">
         <f t="shared" si="4"/>
         <v>8398689</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q21" s="19">
         <f t="shared" si="4"/>
         <v>2148793</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R21" s="19">
         <f t="shared" si="4"/>
         <v>2286853</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="19">
-        <f>SUM(T12:T18)</f>
+      <c r="S21" s="2"/>
+      <c r="T21" s="19">
+        <f>SUM(T12:T19)</f>
         <v>1912184</v>
       </c>
-      <c r="U20" s="19">
-        <f>SUM(U12:U18)</f>
+      <c r="U21" s="19">
+        <f>SUM(U12:U19)</f>
         <v>2802380</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="185" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="58"/>
+      <c r="C22" s="185" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="224">
-        <f>+J20-I20</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="32"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="169" t="s">
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="224">
+        <f>+J21-I21</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="32"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="169" t="s">
         <v>317</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="226">
-        <v>111106162</v>
-      </c>
-      <c r="H22" s="226"/>
-      <c r="I22" s="26">
-        <v>92592770</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10">
-        <v>74521538</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10">
-        <v>51723340</v>
-      </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10">
-        <f>+P23+P24+P25</f>
-        <v>42471624</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10">
-        <v>20619081</v>
-      </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="10">
-        <v>13229677</v>
-      </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="32"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="186" t="s">
-        <v>318</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226">
-        <v>4118950</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="10">
-        <v>8203260</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10">
-        <v>5827272</v>
-      </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10">
-        <v>7144181</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10">
-        <v>15846166</v>
-      </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10">
-        <v>5738082</v>
-      </c>
+      <c r="G23" s="226">
+        <v>111106162</v>
+      </c>
+      <c r="H23" s="226"/>
+      <c r="I23" s="26">
+        <v>92592770</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10">
+        <v>74521538</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10">
+        <v>51723340</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10">
+        <f>+P24+P25+P26</f>
+        <v>42471624</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10">
+        <v>20619081</v>
+      </c>
+      <c r="R23" s="10"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10">
-        <v>1475332</v>
-      </c>
-      <c r="V23" s="256"/>
+      <c r="T23" s="10">
+        <v>13229677</v>
+      </c>
+      <c r="U23" s="10"/>
+      <c r="V23" s="2"/>
       <c r="W23" s="32"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="169" t="s">
-        <v>319</v>
+      <c r="B24" s="186" t="s">
+        <v>318</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -28830,76 +28821,85 @@
       <c r="F24" s="54"/>
       <c r="G24" s="226"/>
       <c r="H24" s="226">
-        <f>+G22-H23</f>
-        <v>106987212</v>
+        <v>4118950</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="10">
-        <f>+I22-J23</f>
-        <v>84389510</v>
+        <v>8203260</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10">
-        <f>+K22-L23</f>
-        <v>68694266</v>
+        <v>5827272</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10">
-        <f>+M22-N23</f>
-        <v>44579159</v>
+        <v>7144181</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10">
-        <f>7436996+18578188+610274</f>
-        <v>26625458</v>
+        <v>15846166</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10">
-        <f>+Q22-R23-R25</f>
-        <v>11460999</v>
+        <v>5738082</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10">
-        <f>+T22-U23-U25</f>
-        <v>11337419</v>
-      </c>
+        <v>1475332</v>
+      </c>
+      <c r="V24" s="256"/>
       <c r="W24" s="32"/>
     </row>
-    <row r="25" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="169" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="226"/>
-      <c r="H25" s="226"/>
+      <c r="H25" s="226">
+        <f>+G23-H24</f>
+        <v>106987212</v>
+      </c>
       <c r="I25" s="26"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="10">
+        <f>+I23-J24</f>
+        <v>84389510</v>
+      </c>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="10">
+        <f>+K23-L24</f>
+        <v>68694266</v>
+      </c>
       <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="N25" s="10">
+        <f>+M23-N24</f>
+        <v>44579159</v>
+      </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10">
-        <v>0</v>
+        <f>7436996+18578188+610274</f>
+        <v>26625458</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10">
-        <v>3420000</v>
+        <f>+Q23-R24-R26</f>
+        <v>11460999</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10">
-        <v>416926</v>
-      </c>
-      <c r="V25" s="32"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
-        <v>321</v>
+        <f>+T23-U24-U26</f>
+        <v>11337419</v>
+      </c>
+      <c r="W25" s="32"/>
+    </row>
+    <row r="26" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="169" t="s">
+        <v>320</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -28914,145 +28914,138 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="P26" s="10">
+        <v>0</v>
+      </c>
       <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="R26" s="10">
+        <v>3420000</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="W26" s="2"/>
+      <c r="U26" s="10">
+        <v>416926</v>
+      </c>
+      <c r="V26" s="32"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="64"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36" t="s">
+      <c r="B27" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="64"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="G27" s="19">
-        <f t="shared" ref="G27:H27" si="5">SUM(G21:G24)</f>
+      <c r="G28" s="19">
+        <f t="shared" ref="G28:H28" si="5">SUM(G22:G25)</f>
         <v>111106162</v>
       </c>
-      <c r="H27" s="223">
+      <c r="H28" s="223">
         <f t="shared" si="5"/>
         <v>111106162</v>
       </c>
-      <c r="I27" s="223">
-        <f>SUM(I21:I24)</f>
+      <c r="I28" s="223">
+        <f>SUM(I22:I25)</f>
         <v>92592770</v>
       </c>
-      <c r="J27" s="19">
-        <f>SUM(J21:J24)</f>
+      <c r="J28" s="19">
+        <f>SUM(J22:J25)</f>
         <v>92592770</v>
       </c>
-      <c r="K27" s="19">
-        <f>SUM(K21:K24)</f>
+      <c r="K28" s="19">
+        <f>SUM(K22:K25)</f>
         <v>74521538</v>
       </c>
-      <c r="L27" s="19">
-        <f>SUM(L21:L25)</f>
+      <c r="L28" s="19">
+        <f>SUM(L22:L26)</f>
         <v>74521538</v>
       </c>
-      <c r="M27" s="19">
-        <f>SUM(M21:M24)</f>
+      <c r="M28" s="19">
+        <f>SUM(M22:M25)</f>
         <v>51723340</v>
       </c>
-      <c r="N27" s="19">
-        <f>SUM(N21:N25)</f>
+      <c r="N28" s="19">
+        <f>SUM(N22:N26)</f>
         <v>51723340</v>
       </c>
-      <c r="O27" s="19">
-        <f>SUM(O21:O24)</f>
+      <c r="O28" s="19">
+        <f>SUM(O22:O25)</f>
         <v>42471624</v>
       </c>
-      <c r="P27" s="19">
-        <f>SUM(P21:P25)</f>
+      <c r="P28" s="19">
+        <f>SUM(P22:P26)</f>
         <v>42471624</v>
       </c>
-      <c r="Q27" s="19">
-        <f>SUM(Q21:Q24)</f>
+      <c r="Q28" s="19">
+        <f>SUM(Q22:Q25)</f>
         <v>20619081</v>
       </c>
-      <c r="R27" s="19">
-        <f>SUM(R21:R25)</f>
+      <c r="R28" s="19">
+        <f>SUM(R22:R26)</f>
         <v>20619081</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="19">
-        <f>SUM(T21:T24)</f>
+      <c r="S28" s="2"/>
+      <c r="T28" s="19">
+        <f>SUM(T22:T25)</f>
         <v>13229677</v>
       </c>
-      <c r="U27" s="19">
-        <f>SUM(U21:U25)</f>
+      <c r="U28" s="19">
+        <f>SUM(U22:U26)</f>
         <v>13229677</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="185" t="s">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="58"/>
+      <c r="C29" s="185" t="s">
         <v>322</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="169" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="26">
-        <f>2053333+2566667</f>
-        <v>4620000</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
-        <f>5360186+727881</f>
-        <v>6088067</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10">
-        <v>656393</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10">
-        <v>352755</v>
-      </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10">
-        <v>5642042</v>
-      </c>
-      <c r="R29" s="10"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="10">
-        <v>1187953</v>
-      </c>
-      <c r="U29" s="10"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
@@ -29061,415 +29054,429 @@
       <c r="G30" s="226"/>
       <c r="H30" s="226"/>
       <c r="I30" s="26">
-        <v>15292925</v>
+        <f>2053333+2566667</f>
+        <v>4620000</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="10">
+        <f>5360186+727881</f>
+        <v>6088067</v>
+      </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="M30" s="10">
+        <v>656393</v>
+      </c>
       <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="10">
+        <v>352755</v>
+      </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10">
-        <v>202251</v>
+        <v>5642042</v>
       </c>
       <c r="R30" s="10"/>
       <c r="S30" s="2"/>
       <c r="T30" s="10">
-        <v>682574</v>
+        <v>1187953</v>
       </c>
       <c r="U30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="169" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="226">
-        <f>+H33</f>
-        <v>29886240</v>
-      </c>
+      <c r="G31" s="226"/>
       <c r="H31" s="226"/>
-      <c r="I31" s="26"/>
+      <c r="I31" s="26">
+        <v>15292925</v>
+      </c>
       <c r="J31" s="10"/>
-      <c r="K31" s="10">
-        <v>4546528</v>
-      </c>
+      <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="10">
-        <v>2251425</v>
-      </c>
+      <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="10">
-        <v>4279500</v>
-      </c>
+      <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10">
-        <v>1260000</v>
+        <v>202251</v>
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="2"/>
       <c r="T31" s="10">
-        <v>0</v>
+        <v>682574</v>
       </c>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="169" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="226"/>
+      <c r="G32" s="226">
+        <f>+H34</f>
+        <v>29886240</v>
+      </c>
       <c r="H32" s="226"/>
       <c r="I32" s="26"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10">
-        <f>+L33-K29-K31</f>
-        <v>315332</v>
+        <v>4546528</v>
       </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="M32" s="10">
+        <v>2251425</v>
+      </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10">
-        <f>7447200-7427584</f>
-        <v>19616</v>
+        <v>4279500</v>
       </c>
       <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="Q32" s="10">
+        <v>1260000</v>
+      </c>
       <c r="R32" s="10"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="10"/>
+      <c r="T32" s="10">
+        <v>0</v>
+      </c>
       <c r="U32" s="10"/>
-      <c r="V32" s="32"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="226"/>
-      <c r="H33" s="226">
-        <v>29886240</v>
-      </c>
+      <c r="H33" s="226"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="10">
-        <v>19912925</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10">
-        <v>10949927</v>
-      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10">
+        <f>+L34-K30-K32</f>
+        <v>315332</v>
+      </c>
+      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="10">
-        <v>5055818</v>
-      </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10">
-        <f>7177200+270000</f>
-        <v>7447200</v>
-      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10">
+        <f>7447200-7427584</f>
+        <v>19616</v>
+      </c>
+      <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="10">
-        <v>7271922</v>
-      </c>
+      <c r="R33" s="10"/>
       <c r="S33" s="2"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="10">
-        <v>1092645</v>
-      </c>
+      <c r="U33" s="10"/>
       <c r="V33" s="32"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>426</v>
+      <c r="B34" s="169" t="s">
+        <v>326</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
       <c r="G34" s="226"/>
-      <c r="H34" s="226"/>
+      <c r="H34" s="226">
+        <v>29886240</v>
+      </c>
       <c r="I34" s="26"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="10">
+        <v>19912925</v>
+      </c>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="10">
+        <v>10949927</v>
+      </c>
       <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="N34" s="10">
+        <v>5055818</v>
+      </c>
       <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
+      <c r="P34" s="10">
+        <f>7177200+270000</f>
+        <v>7447200</v>
+      </c>
       <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="R34" s="10">
+        <v>7271922</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
+      <c r="U34" s="10">
+        <v>1092645</v>
+      </c>
+      <c r="V34" s="32"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="221" t="s">
+      <c r="B35" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="64"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="221" t="s">
         <v>310</v>
       </c>
-      <c r="G35" s="19">
-        <f>SUM(G29:G33)</f>
+      <c r="G36" s="19">
+        <f>SUM(G30:G34)</f>
         <v>29886240</v>
       </c>
-      <c r="H35" s="223">
-        <f>SUM(H29:H33)</f>
+      <c r="H36" s="223">
+        <f>SUM(H30:H34)</f>
         <v>29886240</v>
       </c>
-      <c r="I35" s="223">
-        <f>SUM(I29:I33)</f>
+      <c r="I36" s="223">
+        <f>SUM(I30:I34)</f>
         <v>19912925</v>
       </c>
-      <c r="J35" s="19">
-        <f>SUM(J29:J33)</f>
+      <c r="J36" s="19">
+        <f>SUM(J30:J34)</f>
         <v>19912925</v>
       </c>
-      <c r="K35" s="19">
-        <f t="shared" ref="K35:R35" si="6">SUM(K28:K33)</f>
+      <c r="K36" s="19">
+        <f t="shared" ref="K36:R36" si="6">SUM(K29:K34)</f>
         <v>10949927</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L36" s="19">
         <f t="shared" si="6"/>
         <v>10949927</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M36" s="19">
         <f t="shared" si="6"/>
         <v>2907818</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N36" s="19">
         <f t="shared" si="6"/>
         <v>5055818</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O36" s="19">
         <f t="shared" si="6"/>
         <v>4651871</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P36" s="19">
         <f t="shared" si="6"/>
         <v>7447200</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q36" s="19">
         <f t="shared" si="6"/>
         <v>7104293</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R36" s="19">
         <f t="shared" si="6"/>
         <v>7271922</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="19">
-        <f>SUM(T28:T33)</f>
+      <c r="S36" s="2"/>
+      <c r="T36" s="19">
+        <f>SUM(T29:T34)</f>
         <v>1870527</v>
       </c>
-      <c r="U35" s="19">
-        <f>SUM(U28:U33)</f>
+      <c r="U36" s="19">
+        <f>SUM(U29:U34)</f>
         <v>1092645</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
-      <c r="C36" s="187" t="s">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="187" t="s">
         <v>327</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="225"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="6"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="169" t="s">
-        <v>328</v>
-      </c>
-      <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="226">
-        <v>9828510</v>
-      </c>
+      <c r="G37" s="226"/>
       <c r="H37" s="226"/>
-      <c r="I37" s="26">
-        <v>9636341</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10">
-        <v>9726442</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10">
-        <f>+N38</f>
-        <v>8402210</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10">
-        <f>+'PP&amp;E'!J18</f>
-        <v>3922517.4766000002</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="I37" s="225"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="10"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="6"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="169" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
-      <c r="G38" s="226"/>
-      <c r="H38" s="226">
+      <c r="G38" s="226">
         <v>9828510</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="10">
+      <c r="H38" s="226"/>
+      <c r="I38" s="26">
         <v>9636341</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10">
-        <f>+K37</f>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10">
         <v>9726442</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10">
+        <f>+N39</f>
         <v>8402210</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10">
-        <f>+O37</f>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10">
+        <f>+'PP&amp;E'!J18</f>
         <v>3922517.4766000002</v>
       </c>
+      <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="2"/>
       <c r="T38" s="9"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="2:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="333" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" s="333"/>
-      <c r="D39" s="333"/>
-      <c r="E39" s="333"/>
-      <c r="F39" s="333"/>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="169" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="226"/>
-      <c r="H39" s="226"/>
+      <c r="H39" s="226">
+        <v>9828510</v>
+      </c>
       <c r="I39" s="26"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="10">
+        <v>9636341</v>
+      </c>
       <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="10">
+        <f>+K38</f>
+        <v>9726442</v>
+      </c>
       <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="10">
+        <v>8402210</v>
+      </c>
       <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+      <c r="P39" s="10">
+        <f>+O38</f>
+        <v>3922517.4766000002</v>
+      </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="2"/>
       <c r="T39" s="9"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54" t="s">
+    <row r="40" spans="2:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="334" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" s="334"/>
+      <c r="D40" s="334"/>
+      <c r="E40" s="334"/>
+      <c r="F40" s="334"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="10"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="30"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="G40" s="19">
-        <f t="shared" ref="G40:H40" si="7">+G37+G38</f>
+      <c r="G41" s="19">
+        <f t="shared" ref="G41:H41" si="7">+G38+G39</f>
         <v>9828510</v>
       </c>
-      <c r="H40" s="223">
+      <c r="H41" s="223">
         <f t="shared" si="7"/>
         <v>9828510</v>
       </c>
-      <c r="I40" s="223">
-        <f>+I37+I38</f>
+      <c r="I41" s="223">
+        <f>+I38+I39</f>
         <v>9636341</v>
       </c>
-      <c r="J40" s="19">
-        <f>+J37+J38</f>
+      <c r="J41" s="19">
+        <f>+J38+J39</f>
         <v>9636341</v>
       </c>
-      <c r="K40" s="19">
-        <f>+K37</f>
+      <c r="K41" s="19">
+        <f>+K38</f>
         <v>9726442</v>
       </c>
-      <c r="L40" s="19">
-        <f>+L38</f>
+      <c r="L41" s="19">
+        <f>+L39</f>
         <v>9726442</v>
       </c>
-      <c r="M40" s="19">
-        <f>+M37</f>
+      <c r="M41" s="19">
+        <f>+M38</f>
         <v>8402210</v>
       </c>
-      <c r="N40" s="19">
-        <f>+N38</f>
+      <c r="N41" s="19">
+        <f>+N39</f>
         <v>8402210</v>
       </c>
-      <c r="O40" s="19">
-        <f>+O37</f>
+      <c r="O41" s="19">
+        <f>+O38</f>
         <v>3922517.4766000002</v>
       </c>
-      <c r="P40" s="19">
-        <f>+P38</f>
+      <c r="P41" s="19">
+        <f>+P39</f>
         <v>3922517.4766000002</v>
       </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="6"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="58"/>
-      <c r="C41" s="185" t="s">
-        <v>331</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="227"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="2"/>
@@ -29477,107 +29484,100 @@
       <c r="U41" s="6"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="169" t="s">
-        <v>332</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="226">
-        <f>+H50-G44-G43</f>
-        <v>10052733.753400002</v>
-      </c>
-      <c r="H42" s="226"/>
-      <c r="I42" s="26">
-        <v>11525237</v>
-      </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10">
-        <f>+M42-1836936</f>
-        <v>14471318.003400002</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10">
-        <f>+N50-M45-M43</f>
-        <v>16308254.003400002</v>
-      </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10">
-        <f>+P50-O46</f>
-        <v>7213414</v>
-      </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10" t="e">
-        <f>+R48+R50+R47</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R42" s="10"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="185" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="227"/>
+      <c r="H42" s="227"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="9">
-        <v>0</v>
-      </c>
-      <c r="U42" s="10"/>
-      <c r="V42" s="2"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="6"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="169" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
-      <c r="G43" s="240">
-        <f>+I43-J59</f>
-        <v>3164337.1851480007</v>
-      </c>
-      <c r="H43" s="240"/>
+      <c r="G43" s="226">
+        <f>+H51-G45-G44</f>
+        <v>10052733.753400002</v>
+      </c>
+      <c r="H43" s="226"/>
       <c r="I43" s="26">
-        <f>+K43+K54+K59</f>
-        <v>3522607.4351480007</v>
+        <v>11525237</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10">
-        <f>+M43+M59</f>
-        <v>4078003.9351480003</v>
+        <f>+M43-1836936</f>
+        <v>14471318.003400002</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10">
-        <f>+O59</f>
-        <v>3486156.52</v>
+        <f>+N51-M46-M44</f>
+        <v>16308254.003400002</v>
       </c>
       <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+      <c r="O43" s="10">
+        <f>+P51-O47</f>
+        <v>7213414</v>
+      </c>
       <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="Q43" s="10" t="e">
+        <f>+R49+R51+R48</f>
+        <v>#REF!</v>
+      </c>
       <c r="R43" s="10"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="9"/>
+      <c r="T43" s="9">
+        <v>0</v>
+      </c>
       <c r="U43" s="10"/>
-      <c r="V43" s="32"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54"/>
       <c r="G44" s="240">
-        <f>+I44+I37</f>
-        <v>19362783</v>
+        <f>+I44-J60</f>
+        <v>3164337.1851480007</v>
       </c>
       <c r="H44" s="240"/>
       <c r="I44" s="26">
-        <f>+K37</f>
-        <v>9726442</v>
+        <f>+K44+K55+K60</f>
+        <v>3522607.4351480007</v>
       </c>
       <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+      <c r="K44" s="10">
+        <f>+M44+M60</f>
+        <v>4078003.9351480003</v>
+      </c>
       <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="M44" s="10">
+        <f>+O60</f>
+        <v>3486156.52</v>
+      </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -29590,25 +29590,25 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="169" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
       <c r="F45" s="54"/>
-      <c r="G45" s="240"/>
+      <c r="G45" s="240">
+        <f>+I45+I38</f>
+        <v>19362783</v>
+      </c>
       <c r="H45" s="240"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="10">
-        <f>+K17-L16+K32</f>
-        <v>397693</v>
-      </c>
+      <c r="I45" s="26">
+        <f>+K38</f>
+        <v>9726442</v>
+      </c>
+      <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="10">
-        <f>+O37</f>
-        <v>3922517.4766000002</v>
-      </c>
+      <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -29619,9 +29619,9 @@
       <c r="U45" s="10"/>
       <c r="V45" s="32"/>
     </row>
-    <row r="46" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="169" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="54"/>
       <c r="D46" s="54"/>
@@ -29630,20 +29630,29 @@
       <c r="G46" s="240"/>
       <c r="H46" s="240"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="229"/>
+      <c r="J46" s="10">
+        <f>+K18-L17+K33</f>
+        <v>397693</v>
+      </c>
       <c r="K46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10">
+        <f>+O38</f>
+        <v>3922517.4766000002</v>
+      </c>
+      <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="18"/>
+      <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="10"/>
+      <c r="T46" s="9"/>
       <c r="U46" s="10"/>
+      <c r="V46" s="32"/>
     </row>
     <row r="47" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="169" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
@@ -29652,27 +29661,20 @@
       <c r="G47" s="240"/>
       <c r="H47" s="240"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="229"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="P47" s="18"/>
       <c r="Q47" s="10"/>
-      <c r="R47" s="10" t="e">
-        <f>+T66+16101</f>
-        <v>#REF!</v>
-      </c>
+      <c r="R47" s="10"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="10">
-        <v>0</v>
-      </c>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
     </row>
     <row r="48" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="169" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -29683,19 +29685,15 @@
       <c r="I48" s="26"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="10">
-        <v>0</v>
-      </c>
+      <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="10">
-        <v>0</v>
-      </c>
+      <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="18"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
-      <c r="R48" s="10">
-        <f>+U25</f>
-        <v>416926</v>
+      <c r="R48" s="10" t="e">
+        <f>+T67+16101</f>
+        <v>#REF!</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="9"/>
@@ -29705,7 +29703,7 @@
     </row>
     <row r="49" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C49" s="54"/>
       <c r="D49" s="54"/>
@@ -29716,212 +29714,213 @@
       <c r="I49" s="26"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="10">
+        <v>0</v>
+      </c>
       <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="N49" s="10">
+        <v>0</v>
+      </c>
       <c r="O49" s="10"/>
-      <c r="P49" s="10">
-        <v>0</v>
-      </c>
+      <c r="P49" s="18"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="R49" s="10">
+        <f>+U26</f>
+        <v>416926</v>
+      </c>
       <c r="S49" s="2"/>
       <c r="T49" s="9"/>
-      <c r="U49" s="10"/>
-    </row>
-    <row r="50" spans="2:22" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50" s="169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="240"/>
-      <c r="H50" s="240">
-        <f>+J50+J23</f>
-        <v>32579853.938548002</v>
-      </c>
+      <c r="H50" s="240"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="10">
-        <f>+L50+L23</f>
-        <v>24376593.938548002</v>
-      </c>
+      <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="10">
-        <f>+K42+K43</f>
-        <v>18549321.938548002</v>
-      </c>
+      <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="10">
-        <f>+P50+P23+795508-138160</f>
-        <v>23716928</v>
-      </c>
+      <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10">
-        <f>+R50+R23</f>
-        <v>7213414</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="10"/>
-      <c r="R50" s="10">
-        <f>+U23</f>
-        <v>1475332</v>
-      </c>
+      <c r="R50" s="10"/>
       <c r="S50" s="2"/>
       <c r="T50" s="9"/>
-      <c r="U50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="30" t="s">
-        <v>341</v>
+      <c r="U50" s="10"/>
+    </row>
+    <row r="51" spans="2:22" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="169" t="s">
+        <v>340</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="240"/>
-      <c r="H51" s="240"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
+      <c r="H51" s="240">
+        <f>+J51+J24</f>
+        <v>32579853.938548002</v>
+      </c>
+      <c r="I51" s="26"/>
+      <c r="J51" s="10">
+        <f>+L51+L24</f>
+        <v>24376593.938548002</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10">
+        <f>+K43+K44</f>
+        <v>18549321.938548002</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10">
+        <f>+P51+P24+795508-138160</f>
+        <v>23716928</v>
+      </c>
       <c r="O51" s="10"/>
-      <c r="P51" s="24"/>
+      <c r="P51" s="10">
+        <f>+R51+R24</f>
+        <v>7213414</v>
+      </c>
       <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="18"/>
+      <c r="R51" s="10">
+        <f>+U24</f>
+        <v>1475332</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B52" s="64"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36" t="s">
+      <c r="B52" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="240"/>
+      <c r="H52" s="240"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="18"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B53" s="64"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="G52" s="19">
-        <f t="shared" ref="G52:H52" si="8">SUM(G42:G51)</f>
+      <c r="G53" s="19">
+        <f t="shared" ref="G53:H53" si="8">SUM(G43:G52)</f>
         <v>32579853.938548002</v>
       </c>
-      <c r="H52" s="223">
+      <c r="H53" s="223">
         <f t="shared" si="8"/>
         <v>32579853.938548002</v>
       </c>
-      <c r="I52" s="223">
-        <f>SUM(I42:I51)</f>
+      <c r="I53" s="223">
+        <f>SUM(I43:I52)</f>
         <v>24774286.435148001</v>
       </c>
-      <c r="J52" s="19">
-        <f>SUM(J43:J51)</f>
+      <c r="J53" s="19">
+        <f>SUM(J44:J52)</f>
         <v>24774286.938548002</v>
       </c>
-      <c r="K52" s="19">
-        <f t="shared" ref="K52:R52" si="9">SUM(K41:K50)</f>
+      <c r="K53" s="19">
+        <f t="shared" ref="K53:R53" si="9">SUM(K42:K51)</f>
         <v>18549321.938548002</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L53" s="19">
         <f t="shared" si="9"/>
         <v>18549321.938548002</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M53" s="19">
         <f t="shared" si="9"/>
         <v>23716928</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N53" s="19">
         <f t="shared" si="9"/>
         <v>23716928</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O53" s="19">
         <f t="shared" si="9"/>
         <v>7213414</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P53" s="19">
         <f t="shared" si="9"/>
         <v>7213414</v>
       </c>
-      <c r="Q52" s="19" t="e">
+      <c r="Q53" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="R52" s="19" t="e">
+      <c r="R53" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="T52" s="19">
-        <f>SUM(T41:T50)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="19">
-        <f>SUM(U41:U50)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="237"/>
-    </row>
-    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="187" t="s">
+      <c r="T53" s="19">
+        <f>SUM(T42:T51)</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="19">
+        <f>SUM(U42:U51)</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="237"/>
+    </row>
+    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="30"/>
+      <c r="C54" s="187" t="s">
         <v>342</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="226"/>
-      <c r="H53" s="226"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="238"/>
-    </row>
-    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="169" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="54"/>
       <c r="D54" s="54"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="226"/>
       <c r="H54" s="226"/>
-      <c r="I54" s="225">
-        <v>0</v>
-      </c>
+      <c r="I54" s="52"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="59">
-        <v>419396</v>
-      </c>
+      <c r="K54" s="18"/>
       <c r="L54" s="18"/>
-      <c r="M54" s="59"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="18"/>
-      <c r="O54" s="10">
-        <f>P18*0.22</f>
-        <v>1847711.58</v>
-      </c>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
       <c r="S54" s="54"/>
-      <c r="T54" s="9"/>
+      <c r="T54" s="5"/>
       <c r="U54" s="10"/>
       <c r="V54" s="238"/>
     </row>
     <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="169" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C55" s="54"/>
       <c r="D55" s="54"/>
@@ -29929,22 +29928,21 @@
       <c r="F55" s="54"/>
       <c r="G55" s="226"/>
       <c r="H55" s="226"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="59">
-        <v>0</v>
-      </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="59">
-        <f>+K54</f>
+      <c r="I55" s="225">
+        <v>0</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="59">
         <v>419396</v>
       </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10">
-        <f>+O54</f>
+      <c r="L55" s="18"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="10">
+        <f>P19*0.22</f>
         <v>1847711.58</v>
       </c>
+      <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="54"/>
@@ -29953,8 +29951,8 @@
       <c r="V55" s="238"/>
     </row>
     <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="30" t="s">
-        <v>344</v>
+      <c r="B56" s="169" t="s">
+        <v>343</v>
       </c>
       <c r="C56" s="54"/>
       <c r="D56" s="54"/>
@@ -29963,13 +29961,21 @@
       <c r="G56" s="226"/>
       <c r="H56" s="226"/>
       <c r="I56" s="52"/>
-      <c r="J56" s="18"/>
+      <c r="J56" s="59">
+        <v>0</v>
+      </c>
       <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
+      <c r="L56" s="59">
+        <f>+K55</f>
+        <v>419396</v>
+      </c>
       <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
+      <c r="N56" s="59"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="P56" s="10">
+        <f>+O55</f>
+        <v>1847711.58</v>
+      </c>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="54"/>
@@ -29978,127 +29984,113 @@
       <c r="V56" s="238"/>
     </row>
     <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="238"/>
+    </row>
+    <row r="58" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="228"/>
-      <c r="H57" s="228"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="238"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="230" t="s">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="228"/>
+      <c r="H58" s="228"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="238"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B59" s="30"/>
+      <c r="C59" s="230" t="s">
         <v>342</v>
       </c>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="226"/>
-      <c r="H58" s="226"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="239"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="169" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="54"/>
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="226">
-        <f>5709560*0.25</f>
-        <v>1427390</v>
-      </c>
+      <c r="G59" s="226"/>
       <c r="H59" s="226"/>
-      <c r="I59" s="229"/>
-      <c r="J59" s="225">
-        <f>-(+J23-J38)*0.25</f>
-        <v>358270.25</v>
-      </c>
-      <c r="K59" s="59">
-        <f>(+L23-L38)*0.25</f>
-        <v>-974792.5</v>
-      </c>
+      <c r="I59" s="52"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
       <c r="L59" s="18"/>
-      <c r="M59" s="59">
-        <f>(-'BG '!T26-P23)*0.22</f>
-        <v>591847.41514800023</v>
-      </c>
+      <c r="M59" s="18"/>
       <c r="N59" s="18"/>
-      <c r="O59" s="10">
-        <f>P23*0.22</f>
-        <v>3486156.52</v>
-      </c>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
       <c r="S59" s="54"/>
-      <c r="T59" s="9"/>
+      <c r="T59" s="5"/>
       <c r="U59" s="10"/>
+      <c r="V59" s="239"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="169" t="s">
-        <v>433</v>
+        <v>123</v>
       </c>
       <c r="C60" s="54"/>
       <c r="D60" s="54"/>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
-      <c r="G60" s="226"/>
-      <c r="H60" s="226">
-        <f>+G59</f>
+      <c r="G60" s="226">
+        <f>5709560*0.25</f>
         <v>1427390</v>
       </c>
-      <c r="I60" s="241">
-        <f>+J59</f>
+      <c r="H60" s="226"/>
+      <c r="I60" s="229"/>
+      <c r="J60" s="225">
+        <f>-(+J24-J39)*0.25</f>
         <v>358270.25</v>
       </c>
-      <c r="J60" s="229"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="59">
-        <f>+K59</f>
+      <c r="K60" s="59">
+        <f>(+L24-L39)*0.25</f>
         <v>-974792.5</v>
       </c>
-      <c r="M60" s="18"/>
-      <c r="N60" s="59">
-        <f>+M59</f>
+      <c r="L60" s="18"/>
+      <c r="M60" s="59">
+        <f>(-'BG '!T26-P24)*0.22</f>
         <v>591847.41514800023</v>
       </c>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10">
-        <f>+O59</f>
+      <c r="N60" s="18"/>
+      <c r="O60" s="10">
+        <f>P24*0.22</f>
         <v>3486156.52</v>
       </c>
+      <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="54"/>
@@ -30106,23 +30098,38 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="30" t="s">
-        <v>346</v>
+      <c r="B61" s="169" t="s">
+        <v>433</v>
       </c>
       <c r="C61" s="54"/>
       <c r="D61" s="54"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="226"/>
-      <c r="H61" s="226"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="18"/>
+      <c r="H61" s="226">
+        <f>+G60</f>
+        <v>1427390</v>
+      </c>
+      <c r="I61" s="241">
+        <f>+J60</f>
+        <v>358270.25</v>
+      </c>
+      <c r="J61" s="229"/>
       <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
+      <c r="L61" s="59">
+        <f>+K60</f>
+        <v>-974792.5</v>
+      </c>
       <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
+      <c r="N61" s="59">
+        <f>+M60</f>
+        <v>591847.41514800023</v>
+      </c>
       <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
+      <c r="P61" s="10">
+        <f>+O60</f>
+        <v>3486156.52</v>
+      </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="54"/>
@@ -30131,7 +30138,7 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
@@ -30140,51 +30147,33 @@
       <c r="G62" s="226"/>
       <c r="H62" s="226"/>
       <c r="I62" s="52"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
       <c r="S62" s="54"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="24"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="10"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B63" s="64"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="G63" s="45">
-        <f t="shared" ref="G63" si="10">SUM(G59:G62)</f>
-        <v>1427390</v>
-      </c>
-      <c r="H63" s="45">
-        <f t="shared" ref="H63" si="11">SUM(H59:H62)</f>
-        <v>1427390</v>
-      </c>
-      <c r="I63" s="45">
-        <f t="shared" ref="I63" si="12">SUM(I59:I62)</f>
-        <v>358270.25</v>
-      </c>
-      <c r="J63" s="188">
-        <f>SUM(J59:J62)</f>
-        <v>358270.25</v>
-      </c>
-      <c r="K63" s="188">
-        <f>SUM(K59:K62)</f>
-        <v>-974792.5</v>
-      </c>
-      <c r="L63" s="188">
-        <f>SUM(L59:L62)</f>
-        <v>-974792.5</v>
-      </c>
+      <c r="B63" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
       <c r="O63" s="24"/>
@@ -30195,218 +30184,245 @@
       <c r="T63" s="23"/>
       <c r="U63" s="24"/>
     </row>
-    <row r="64" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51" t="s">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B64" s="64"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64" s="45">
+        <f t="shared" ref="G64" si="10">SUM(G60:G63)</f>
+        <v>1427390</v>
+      </c>
+      <c r="H64" s="45">
+        <f t="shared" ref="H64" si="11">SUM(H60:H63)</f>
+        <v>1427390</v>
+      </c>
+      <c r="I64" s="45">
+        <f t="shared" ref="I64" si="12">SUM(I60:I63)</f>
+        <v>358270.25</v>
+      </c>
+      <c r="J64" s="188">
+        <f>SUM(J60:J63)</f>
+        <v>358270.25</v>
+      </c>
+      <c r="K64" s="188">
+        <f>SUM(K60:K63)</f>
+        <v>-974792.5</v>
+      </c>
+      <c r="L64" s="188">
+        <f>SUM(L60:L63)</f>
+        <v>-974792.5</v>
+      </c>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="24"/>
+    </row>
+    <row r="65" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="G64" s="168">
-        <f>+G11+G20+G27+G35+G52+G40+G63</f>
+      <c r="G65" s="168">
+        <f>+G11+G21+G28+G36+G53+G41+G64</f>
         <v>213885084.938548</v>
       </c>
-      <c r="H64" s="168">
-        <f>+H11+H20+H27+H35+H52+H40+H63</f>
+      <c r="H65" s="168">
+        <f>+H11+H21+H28+H36+H53+H41+H64</f>
         <v>213885084.938548</v>
       </c>
-      <c r="I64" s="168">
-        <f>+I11+I20+I27+I35+I52+I40+J59</f>
+      <c r="I65" s="168">
+        <f>+I11+I21+I28+I36+I53+I41+J60</f>
         <v>162504966.685148</v>
       </c>
-      <c r="J64" s="168">
-        <f>+J11+J20+J27+J35+J52+J40+I60</f>
+      <c r="J65" s="168">
+        <f>+J11+J21+J28+J36+J53+J41+I61</f>
         <v>162504967.188548</v>
       </c>
-      <c r="K64" s="168">
-        <f>+K11+K20+K27+K35+K52+K40+K59</f>
+      <c r="K65" s="168">
+        <f>+K11+K21+K28+K36+K53+K41+K60</f>
         <v>124036288.438548</v>
       </c>
-      <c r="L64" s="168">
-        <f>+L11+L20+L27+L35+L52+L40+L60</f>
+      <c r="L65" s="168">
+        <f>+L11+L21+L28+L36+L53+L41+L61</f>
         <v>124036288.438548</v>
       </c>
-      <c r="M64" s="19">
-        <f>+M11+M20+M27+M35+M52+M40+M59</f>
+      <c r="M65" s="19">
+        <f>+M11+M21+M28+M36+M53+M41+M60</f>
         <v>92978716.415148005</v>
       </c>
-      <c r="N64" s="19">
-        <f>+N11+N20+N27+N35+N52+N40+N60</f>
+      <c r="N65" s="19">
+        <f>+N11+N21+N28+N36+N53+N41+N61</f>
         <v>95126716.415148005</v>
       </c>
-      <c r="O64" s="19" t="e">
-        <f>+O11+O20+O27+O35+O52+O40+O59</f>
+      <c r="O65" s="19" t="e">
+        <f>+O11+O21+O28+O36+O53+O41+O60</f>
         <v>#REF!</v>
       </c>
-      <c r="P64" s="19">
-        <f>+P11+P20+P27+P35+P52+P40+P60</f>
+      <c r="P65" s="19">
+        <f>+P11+P21+P28+P36+P53+P41+P61</f>
         <v>73263238.996600002</v>
       </c>
-      <c r="Q64" s="19" t="e">
-        <f>+Q11+Q20+Q27+Q35+Q52+Q40</f>
+      <c r="Q65" s="19" t="e">
+        <f>+Q11+Q21+Q28+Q36+Q53+Q41</f>
         <v>#REF!</v>
       </c>
-      <c r="R64" s="19" t="e">
-        <f>+R11+R20+R27+R35+R52+R40</f>
+      <c r="R65" s="19" t="e">
+        <f>+R11+R21+R28+R36+R53+R41</f>
         <v>#REF!</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="189">
-        <f>+T11+T20+T27+T35</f>
+      <c r="S65" s="2"/>
+      <c r="T65" s="189">
+        <f>+T11+T21+T28+T36</f>
         <v>17692260</v>
       </c>
-      <c r="U64" s="24">
-        <f>+U11+U20+U27+U35</f>
+      <c r="U65" s="24">
+        <f>+U11+U21+U28+U36</f>
         <v>17804574</v>
       </c>
     </row>
-    <row r="65" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H65" s="256">
-        <f>+G64-H64</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="32"/>
-    </row>
-    <row r="66" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+    <row r="66" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="256">
+        <f>+G65-H65</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="32"/>
+    </row>
+    <row r="67" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="46" t="e">
-        <f>+O17+#REF!+O42</f>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="46" t="e">
+        <f>+O18+#REF!+O43</f>
         <v>#REF!</v>
       </c>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="46" t="e">
-        <f>+PAT!I114+Q42</f>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="46" t="e">
+        <f>+PAT!I114+Q43</f>
         <v>#REF!</v>
       </c>
-      <c r="R66" s="51"/>
-      <c r="T66" s="190" t="e">
+      <c r="R67" s="51"/>
+      <c r="T67" s="190" t="e">
         <f>+#REF!-U8-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U66" s="51"/>
-    </row>
-    <row r="67" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="30" t="s">
+      <c r="U67" s="51"/>
+    </row>
+    <row r="68" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="48" t="e">
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="48" t="e">
         <f>+#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="48" t="e">
+      <c r="P68" s="54"/>
+      <c r="Q68" s="48" t="e">
         <f>+Q8+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R67" s="52"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="52"/>
-    </row>
-    <row r="68" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="191" t="s">
+      <c r="R68" s="52"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="52"/>
+    </row>
+    <row r="69" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="191" t="s">
         <v>351</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="192" t="e">
-        <f>+O66+O67</f>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="192" t="e">
+        <f>+O67+O68</f>
         <v>#REF!</v>
       </c>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="192" t="e">
-        <f>+Q66+Q67</f>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="192" t="e">
+        <f>+Q67+Q68</f>
         <v>#REF!</v>
       </c>
-      <c r="R68" s="56"/>
-      <c r="T68" s="193" t="e">
-        <f>+T66+T67</f>
+      <c r="R69" s="56"/>
+      <c r="T69" s="193" t="e">
+        <f>+T67+T68</f>
         <v>#REF!</v>
       </c>
-      <c r="U68" s="56"/>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="54"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="54"/>
+      <c r="U69" s="56"/>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="K70" s="32"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="54"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="54"/>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
+      <c r="K71" s="32"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F72" s="334" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" s="334"/>
-      <c r="H72" s="334"/>
-      <c r="I72" s="334"/>
-      <c r="J72" s="334"/>
-      <c r="K72" s="334"/>
-      <c r="L72" s="334"/>
-      <c r="M72" s="334"/>
-      <c r="N72" s="334"/>
       <c r="O72" s="54"/>
       <c r="P72" s="54"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F73" s="335" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G73" s="335"/>
       <c r="H73" s="335"/>
@@ -30416,14 +30432,29 @@
       <c r="L73" s="335"/>
       <c r="M73" s="335"/>
       <c r="N73" s="335"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F74" s="336" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="336"/>
+      <c r="H74" s="336"/>
+      <c r="I74" s="336"/>
+      <c r="J74" s="336"/>
+      <c r="K74" s="336"/>
+      <c r="L74" s="336"/>
+      <c r="M74" s="336"/>
+      <c r="N74" s="336"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="T4:U4"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="F72:N72"/>
+    <mergeCell ref="B40:F40"/>
     <mergeCell ref="F73:N73"/>
+    <mergeCell ref="F74:N74"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -30443,7 +30474,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30527,23 +30558,23 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="10">
-        <f>-AD!H23</f>
+        <f>-AD!H24</f>
         <v>-4118950</v>
       </c>
       <c r="I7" s="10">
-        <f>-AD!J23</f>
+        <f>-AD!J24</f>
         <v>-8203260</v>
       </c>
       <c r="J7" s="10">
-        <f>-AD!L23</f>
+        <f>-AD!L24</f>
         <v>-5827272</v>
       </c>
       <c r="K7" s="10">
-        <f>-AD!N23</f>
+        <f>-AD!N24</f>
         <v>-7144181</v>
       </c>
       <c r="L7" s="10">
-        <f>-AD!P23</f>
+        <f>-AD!P24</f>
         <v>-15846166</v>
       </c>
       <c r="N7" s="18" t="s">
@@ -30560,23 +30591,23 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="10">
-        <f>+AD!G37</f>
+        <f>+AD!G38</f>
         <v>9828510</v>
       </c>
       <c r="I8" s="10">
-        <f>+AD!J38</f>
+        <f>+AD!J39</f>
         <v>9636341</v>
       </c>
       <c r="J8" s="10">
-        <f>+AD!L38</f>
+        <f>+AD!L39</f>
         <v>9726442</v>
       </c>
       <c r="K8" s="10">
-        <f>+AD!N38</f>
+        <f>+AD!N39</f>
         <v>8402210</v>
       </c>
       <c r="L8" s="10">
-        <f>+AD!P38</f>
+        <f>+AD!P39</f>
         <v>3922517.4766000002</v>
       </c>
       <c r="N8" s="18" t="s">
@@ -30593,22 +30624,22 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="10">
-        <f>AD!G59</f>
+        <f>AD!G60</f>
         <v>1427390</v>
       </c>
       <c r="I9" s="10">
-        <f>-AD!I60</f>
+        <f>-AD!I61</f>
         <v>-358270.25</v>
       </c>
       <c r="J9" s="10">
         <v>-555397</v>
       </c>
       <c r="K9" s="10">
-        <f>+AD!N60</f>
+        <f>+AD!N61</f>
         <v>591847.41514800023</v>
       </c>
       <c r="L9" s="10">
-        <f>+AD!P60</f>
+        <f>+AD!P61</f>
         <v>3486156.52</v>
       </c>
       <c r="N9" s="18" t="s">
@@ -30719,7 +30750,7 @@
       <c r="I15" s="198"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60">
-        <f>+AD!M22</f>
+        <f>+AD!M23</f>
         <v>51723340</v>
       </c>
       <c r="L15" s="60">
@@ -30758,11 +30789,11 @@
       <c r="I17" s="44"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10">
-        <f>+AD!N23</f>
+        <f>+AD!N24</f>
         <v>7144181</v>
       </c>
       <c r="L17" s="10">
-        <f>+AD!P23</f>
+        <f>+AD!P24</f>
         <v>15846166</v>
       </c>
       <c r="N17" s="171" t="s">
@@ -30782,26 +30813,26 @@
       <c r="I18" s="44"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10">
-        <f>+AD!N24</f>
+        <f>+AD!N25</f>
         <v>44579159</v>
       </c>
       <c r="L18" s="10">
-        <f>+AD!P24</f>
+        <f>+AD!P25</f>
         <v>26625458</v>
       </c>
       <c r="N18" s="171"/>
     </row>
     <row r="19" spans="2:14" s="196" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="200"/>
-      <c r="C19" s="338" t="s">
+      <c r="C19" s="339" t="s">
         <v>371</v>
       </c>
-      <c r="D19" s="338"/>
-      <c r="E19" s="338"/>
-      <c r="F19" s="338"/>
-      <c r="G19" s="338"/>
-      <c r="H19" s="338"/>
-      <c r="I19" s="338"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="339"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="339"/>
       <c r="J19" s="201"/>
       <c r="K19" s="201">
         <v>0</v>
@@ -30841,11 +30872,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="339" t="s">
+      <c r="B22" s="340" t="s">
         <v>374</v>
       </c>
-      <c r="C22" s="339"/>
-      <c r="D22" s="339"/>
+      <c r="C22" s="340"/>
+      <c r="D22" s="340"/>
       <c r="E22" s="203" t="s">
         <v>375</v>
       </c>
@@ -30871,7 +30902,7 @@
       <c r="C23" s="207"/>
       <c r="D23" s="208"/>
       <c r="E23" s="209">
-        <f>-AD!P50-670288</f>
+        <f>-AD!P51-670288</f>
         <v>-7883702</v>
       </c>
       <c r="F23" s="210"/>
@@ -31200,8 +31231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31266,7 +31297,7 @@
       </c>
       <c r="F9" s="2">
         <f>+ER!H32</f>
-        <v>59286387</v>
+        <v>61390376</v>
       </c>
       <c r="G9" s="2">
         <v>39916747</v>
@@ -31354,7 +31385,7 @@
       </c>
       <c r="F12" s="2">
         <f>SUM(F9:F11)</f>
-        <v>82523248</v>
+        <v>84627237</v>
       </c>
       <c r="G12" s="2">
         <f>SUM(G9:G11)</f>
@@ -31425,7 +31456,7 @@
       </c>
       <c r="F16" s="217">
         <f>+F12/F14</f>
-        <v>32.193188982029945</v>
+        <v>33.013977270599398</v>
       </c>
       <c r="G16" s="217">
         <f>+G12/G14</f>
@@ -31472,7 +31503,7 @@
       </c>
       <c r="F20" s="2">
         <f>+ER!H29</f>
-        <v>61849763</v>
+        <v>63953752</v>
       </c>
       <c r="G20" s="2">
         <v>42897845</v>
@@ -31606,7 +31637,7 @@
       </c>
       <c r="F27" s="218">
         <f>+F20/F25</f>
-        <v>4.9480926689706122</v>
+        <v>5.116415586335628</v>
       </c>
       <c r="G27" s="218">
         <f>+G20/G25</f>
@@ -31683,7 +31714,7 @@
       </c>
       <c r="F32" s="32">
         <f>+F12</f>
-        <v>82523248</v>
+        <v>84627237</v>
       </c>
       <c r="G32" s="32">
         <f>+G12</f>
@@ -31713,7 +31744,7 @@
       </c>
       <c r="F33" s="218">
         <f>+F31/F32</f>
-        <v>0.15080494650428689</v>
+        <v>0.14705565774290846</v>
       </c>
       <c r="G33" s="218">
         <f>+G31/G32</f>
